--- a/excel_files/timetable.xlsx
+++ b/excel_files/timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture_checker/build/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FD43D8-326A-1441-BE83-235025534051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C863AD02-0D78-3F4E-B17B-90E5E6748F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="500" windowWidth="19200" windowHeight="15800" xr2:uid="{765D39CF-F5DA-5E46-89DA-00BE39B518AB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="539">
   <si>
     <t>강의명</t>
   </si>
@@ -1466,52 +1466,13 @@
     <t>6.20(목)</t>
   </si>
   <si>
-    <t>6.25(화)</t>
-  </si>
-  <si>
-    <t>6.27(목)</t>
-  </si>
-  <si>
-    <t>7.2(화)</t>
-  </si>
-  <si>
-    <t>7.3(수)</t>
-  </si>
-  <si>
-    <t>7.4(목)</t>
-  </si>
-  <si>
-    <t>7.9(화)</t>
-  </si>
-  <si>
-    <t>7.11(목)</t>
-  </si>
-  <si>
     <t>7.16(화)</t>
   </si>
   <si>
     <t>7.17(수)</t>
   </si>
   <si>
-    <t>7.18(목)</t>
-  </si>
-  <si>
-    <t>7.23(화)</t>
-  </si>
-  <si>
-    <t>7.25(목)</t>
-  </si>
-  <si>
-    <t>7.30(화)</t>
-  </si>
-  <si>
-    <t>8.13(화)</t>
-  </si>
-  <si>
     <t xml:space="preserve">        [쉐어엑스]플러스엑스 UX 디자인 리서치</t>
-  </si>
-  <si>
-    <t>7.10(수)</t>
   </si>
   <si>
     <r>
@@ -1536,12 +1497,955 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>6.20(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>목)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.20(목)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6.20(목)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.25(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>화)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6.25(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.25(화)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.25(화)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.27(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>목)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6.27(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.27(목)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.27(목)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.2(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>화)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.2(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.2(화)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.2(화)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.3(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>수)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.3(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.3(수)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.3(수)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.4(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>목)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.4(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.4(목)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.4(목)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.9(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>화)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.9(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.9(화)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.9(화)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.10(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>수)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.10(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.10(수)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.10(수)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.11(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>목)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.11(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.11(목)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.11(목)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.16(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>화)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.16(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.16(화)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.16(화)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.18(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>목)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.18(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.18(목)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.18(목)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.23(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>화)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.23(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.23(화)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.23(화)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.25(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>목)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.25(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.25(목)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.25(목)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.30(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>화)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.30(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.30(화)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.30(화)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.13(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>화)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8.13(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.13(화)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.13(화)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1588,6 +2492,19 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans KR"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="나눔명조"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1694,7 +2611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1722,9 +2639,6 @@
     <xf numFmtId="46" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1735,9 +2649,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1755,9 +2666,6 @@
     <xf numFmtId="46" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1770,14 +2678,20 @@
     <xf numFmtId="46" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2115,8 +3029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A561FC51-39B6-004A-9744-5A70B0752A77}">
   <dimension ref="A1:H365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B346" workbookViewId="0">
+      <selection activeCell="G356" sqref="G356:G365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2130,8 +3044,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>492</v>
+      <c r="B1" s="18" t="s">
+        <v>479</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2174,7 +3088,7 @@
         <f>F2*1.5</f>
         <v>0.31437499999999996</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="22" t="s">
         <v>473</v>
       </c>
     </row>
@@ -2192,9 +3106,11 @@
       <c r="E3" s="7">
         <v>1.2418981481481482E-2</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="22" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
@@ -2210,9 +3126,11 @@
       <c r="E4" s="7">
         <v>1.2638888888888889E-2</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="22" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="6" t="s">
@@ -2228,9 +3146,11 @@
       <c r="E5" s="7">
         <v>3.1145833333333334E-2</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="22" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="6" t="s">
@@ -2246,9 +3166,11 @@
       <c r="E6" s="7">
         <v>1.5462962962962963E-2</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="22" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="6" t="s">
@@ -2264,9 +3186,11 @@
       <c r="E7" s="7">
         <v>1.6759259259259258E-2</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="22" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="6" t="s">
@@ -2282,9 +3206,11 @@
       <c r="E8" s="7">
         <v>1.2881944444444444E-2</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="22" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="6" t="s">
@@ -2300,9 +3226,11 @@
       <c r="E9" s="7">
         <v>1.6423611111111111E-2</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="22" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="6" t="s">
@@ -2318,9 +3246,11 @@
       <c r="E10" s="7">
         <v>1.2175925925925925E-2</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="22" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="6" t="s">
@@ -2336,9 +3266,11 @@
       <c r="E11" s="7">
         <v>5.6712962962962967E-3</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="22" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="6" t="s">
@@ -2354,9 +3286,11 @@
       <c r="E12" s="7">
         <v>1.412037037037037E-2</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="22" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="6" t="s">
@@ -2372,9 +3306,11 @@
       <c r="E13" s="7">
         <v>6.8055555555555551E-3</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="22" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
@@ -2390,13 +3326,15 @@
       <c r="E14" s="7">
         <v>1.5208333333333334E-2</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="22" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>27</v>
@@ -2408,9 +3346,11 @@
       <c r="E15" s="7">
         <v>1.5370370370370371E-2</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="25"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="22" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
@@ -2434,7 +3374,7 @@
         <f>F16*1.5</f>
         <v>0.31064236111111115</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="22" t="s">
         <v>474</v>
       </c>
     </row>
@@ -2452,9 +3392,11 @@
       <c r="E17" s="7">
         <v>1.255787037037037E-2</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="22" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="6" t="s">
@@ -2470,9 +3412,11 @@
       <c r="E18" s="7">
         <v>1.0821759259259258E-2</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="22" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="6" t="s">
@@ -2488,9 +3432,11 @@
       <c r="E19" s="7">
         <v>5.4976851851851853E-3</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="22" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="6" t="s">
@@ -2506,9 +3452,11 @@
       <c r="E20" s="7">
         <v>2.0081018518518519E-2</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="22" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6" t="s">
@@ -2524,9 +3472,11 @@
       <c r="E21" s="7">
         <v>1.1875E-2</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="22" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="5" t="s">
@@ -2542,9 +3492,11 @@
       <c r="E22" s="7">
         <v>5.7638888888888887E-3</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="22" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="5" t="s">
@@ -2560,9 +3512,11 @@
       <c r="E23" s="7">
         <v>4.0474537037037038E-2</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="22" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="5" t="s">
@@ -2578,9 +3532,11 @@
       <c r="E24" s="7">
         <v>4.490740740740741E-2</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="22" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="5" t="s">
@@ -2596,9 +3552,11 @@
       <c r="E25" s="7">
         <v>4.3981481481481484E-3</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="22" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="5" t="s">
@@ -2614,9 +3572,11 @@
       <c r="E26" s="7">
         <v>8.7962962962962968E-3</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="22" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="5" t="s">
@@ -2632,9 +3592,11 @@
       <c r="E27" s="7">
         <v>3.4479166666666665E-2</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="25"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="22" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="5" t="s">
@@ -2658,8 +3620,8 @@
         <f>F28*1.5</f>
         <v>0.29135416666666669</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>475</v>
+      <c r="H28" s="22" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2676,9 +3638,11 @@
       <c r="E29" s="7">
         <v>2.8009259259259258E-2</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="23" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="5" t="s">
@@ -2694,9 +3658,11 @@
       <c r="E30" s="7">
         <v>1.8113425925925925E-2</v>
       </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="22" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="6" t="s">
@@ -2714,9 +3680,11 @@
       <c r="E31" s="7">
         <v>2.1064814814814813E-3</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="23" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="6" t="s">
@@ -2734,9 +3702,11 @@
       <c r="E32" s="7">
         <v>9.5023148148148141E-3</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="22" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="6" t="s">
@@ -2754,9 +3724,11 @@
       <c r="E33" s="7">
         <v>6.8402777777777776E-3</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="23" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="6" t="s">
@@ -2774,9 +3746,11 @@
       <c r="E34" s="7">
         <v>1.9583333333333335E-2</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="22" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="6" t="s">
@@ -2794,9 +3768,11 @@
       <c r="E35" s="7">
         <v>1.712962962962963E-3</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="23" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="6" t="s">
@@ -2814,9 +3790,11 @@
       <c r="E36" s="7">
         <v>2.3379629629629631E-3</v>
       </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="22" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="6" t="s">
@@ -2834,9 +3812,11 @@
       <c r="E37" s="7">
         <v>3.0555555555555557E-3</v>
       </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="23" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="6" t="s">
@@ -2854,9 +3834,11 @@
       <c r="E38" s="7">
         <v>2.074074074074074E-2</v>
       </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="20"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="22" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="6" t="s">
@@ -2874,9 +3856,11 @@
       <c r="E39" s="7">
         <v>1.1145833333333334E-2</v>
       </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="20"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="23" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="6" t="s">
@@ -2894,9 +3878,11 @@
       <c r="E40" s="7">
         <v>5.3819444444444444E-3</v>
       </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="22" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="6" t="s">
@@ -2914,9 +3900,11 @@
       <c r="E41" s="7">
         <v>1.5949074074074074E-2</v>
       </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="20"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="23" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="6" t="s">
@@ -2934,9 +3922,11 @@
       <c r="E42" s="7">
         <v>3.8078703703703703E-3</v>
       </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="20"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="22" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="6" t="s">
@@ -2954,9 +3944,11 @@
       <c r="E43" s="7">
         <v>7.8009259259259256E-3</v>
       </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="20"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="23" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="6" t="s">
@@ -2974,9 +3966,11 @@
       <c r="E44" s="7">
         <v>3.0787037037037037E-3</v>
       </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="20"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="22" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="6" t="s">
@@ -2994,9 +3988,11 @@
       <c r="E45" s="7">
         <v>3.1481481481481482E-3</v>
       </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="20"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="23" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="6" t="s">
@@ -3014,9 +4010,11 @@
       <c r="E46" s="7">
         <v>4.6064814814814814E-3</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="20"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="22" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="6" t="s">
@@ -3034,9 +4032,11 @@
       <c r="E47" s="7">
         <v>3.2754629629629631E-3</v>
       </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="20"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="23" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="6" t="s">
@@ -3054,9 +4054,11 @@
       <c r="E48" s="7">
         <v>1.0694444444444444E-2</v>
       </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="20"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="22" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="6" t="s">
@@ -3074,9 +4076,11 @@
       <c r="E49" s="7">
         <v>5.9606481481481481E-3</v>
       </c>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="25"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="23" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="6" t="s">
@@ -3102,8 +4106,8 @@
         <f>F50*1.5</f>
         <v>0.26496527777777779</v>
       </c>
-      <c r="H50" s="9" t="s">
-        <v>476</v>
+      <c r="H50" s="22" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3122,9 +4126,11 @@
       <c r="E51" s="7">
         <v>5.185185185185185E-3</v>
       </c>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="20"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="23" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="6" t="s">
@@ -3142,9 +4148,11 @@
       <c r="E52" s="7">
         <v>4.0740740740740737E-3</v>
       </c>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="20"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="22" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="6" t="s">
@@ -3162,9 +4170,11 @@
       <c r="E53" s="7">
         <v>2.0405092592592593E-2</v>
       </c>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="20"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="23" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="6" t="s">
@@ -3182,9 +4192,11 @@
       <c r="E54" s="7">
         <v>8.726851851851852E-3</v>
       </c>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="20"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="22" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="6" t="s">
@@ -3202,9 +4214,11 @@
       <c r="E55" s="7">
         <v>4.6180555555555558E-3</v>
       </c>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="20"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="23" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="6" t="s">
@@ -3222,9 +4236,11 @@
       <c r="E56" s="7">
         <v>5.092592592592593E-3</v>
       </c>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="20"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="22" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="6" t="s">
@@ -3242,9 +4258,11 @@
       <c r="E57" s="7">
         <v>1.7592592592592592E-3</v>
       </c>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="20"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="23" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="6" t="s">
@@ -3262,9 +4280,11 @@
       <c r="E58" s="7">
         <v>5.2777777777777779E-3</v>
       </c>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="20"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="22" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="6" t="s">
@@ -3282,9 +4302,11 @@
       <c r="E59" s="7">
         <v>1.2037037037037037E-2</v>
       </c>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="20"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="23" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="6" t="s">
@@ -3302,9 +4324,11 @@
       <c r="E60" s="7">
         <v>2.650462962962963E-3</v>
       </c>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="20"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="22" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="6" t="s">
@@ -3322,9 +4346,11 @@
       <c r="E61" s="7">
         <v>1.736111111111111E-3</v>
       </c>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="20"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="23" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="6" t="s">
@@ -3342,9 +4368,11 @@
       <c r="E62" s="7">
         <v>9.9421296296296289E-3</v>
       </c>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="20"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="22" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="6" t="s">
@@ -3362,9 +4390,11 @@
       <c r="E63" s="7">
         <v>4.1898148148148146E-3</v>
       </c>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="20"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="23" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="6" t="s">
@@ -3382,9 +4412,11 @@
       <c r="E64" s="7">
         <v>3.2523148148148147E-3</v>
       </c>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="20"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="22" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="6" t="s">
@@ -3402,9 +4434,11 @@
       <c r="E65" s="7">
         <v>7.5347222222222222E-3</v>
       </c>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="20"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="23" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="6" t="s">
@@ -3422,9 +4456,11 @@
       <c r="E66" s="7">
         <v>5.6828703703703702E-3</v>
       </c>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="20"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="22" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="6" t="s">
@@ -3442,9 +4478,11 @@
       <c r="E67" s="7">
         <v>2.2916666666666667E-3</v>
       </c>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="20"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="23" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="6" t="s">
@@ -3462,9 +4500,11 @@
       <c r="E68" s="7">
         <v>9.6296296296296303E-3</v>
       </c>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="20"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="22" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="6" t="s">
@@ -3482,9 +4522,11 @@
       <c r="E69" s="7">
         <v>6.851851851851852E-3</v>
       </c>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="20"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="23" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="6" t="s">
@@ -3502,9 +4544,11 @@
       <c r="E70" s="7">
         <v>8.8888888888888889E-3</v>
       </c>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="20"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="22" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="6" t="s">
@@ -3522,9 +4566,11 @@
       <c r="E71" s="7">
         <v>8.0902777777777778E-3</v>
       </c>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="20"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="23" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="6" t="s">
@@ -3542,9 +4588,11 @@
       <c r="E72" s="7">
         <v>9.8842592592592593E-3</v>
       </c>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="20"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="22" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="6" t="s">
@@ -3562,9 +4610,11 @@
       <c r="E73" s="7">
         <v>1.6319444444444445E-3</v>
       </c>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="20"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="23" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="6" t="s">
@@ -3582,9 +4632,11 @@
       <c r="E74" s="7">
         <v>1.1828703703703704E-2</v>
       </c>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="20"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="22" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="6" t="s">
@@ -3602,9 +4654,11 @@
       <c r="E75" s="7">
         <v>1.5972222222222223E-3</v>
       </c>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="20"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="23" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="6" t="s">
@@ -3622,9 +4676,11 @@
       <c r="E76" s="7">
         <v>7.8819444444444449E-3</v>
       </c>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="20"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="22" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="6" t="s">
@@ -3642,9 +4698,11 @@
       <c r="E77" s="7">
         <v>4.0972222222222226E-3</v>
       </c>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="25"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="23" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="6" t="s">
@@ -3670,8 +4728,8 @@
         <f>F78*1.5</f>
         <v>0.28807291666666668</v>
       </c>
-      <c r="H78" s="9" t="s">
-        <v>477</v>
+      <c r="H78" s="22" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3690,9 +4748,11 @@
       <c r="E79" s="7">
         <v>1.5393518518518518E-2</v>
       </c>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="20"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="23" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="6" t="s">
@@ -3710,9 +4770,11 @@
       <c r="E80" s="7">
         <v>3.460648148148148E-3</v>
       </c>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="20"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="22" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="6" t="s">
@@ -3730,9 +4792,11 @@
       <c r="E81" s="7">
         <v>2.7546296296296294E-3</v>
       </c>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="20"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="23" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="6" t="s">
@@ -3750,9 +4814,11 @@
       <c r="E82" s="7">
         <v>3.2442129629629626E-2</v>
       </c>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="20"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="22" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="6" t="s">
@@ -3770,9 +4836,11 @@
       <c r="E83" s="7">
         <v>4.7453703703703704E-4</v>
       </c>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="20"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="23" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="6" t="s">
@@ -3790,9 +4858,11 @@
       <c r="E84" s="7">
         <v>4.3750000000000004E-3</v>
       </c>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="20"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="22" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="6" t="s">
@@ -3810,9 +4880,11 @@
       <c r="E85" s="7">
         <v>3.8541666666666668E-3</v>
       </c>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="20"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="23" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="6" t="s">
@@ -3830,9 +4902,11 @@
       <c r="E86" s="7">
         <v>1.5914351851851853E-2</v>
       </c>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="20"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="22" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="6" t="s">
@@ -3850,9 +4924,11 @@
       <c r="E87" s="7">
         <v>2.1527777777777778E-3</v>
       </c>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="20"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="23" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="6" t="s">
@@ -3870,9 +4946,11 @@
       <c r="E88" s="7">
         <v>4.0393518518518521E-3</v>
       </c>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="20"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="22" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="6" t="s">
@@ -3890,9 +4968,11 @@
       <c r="E89" s="7">
         <v>2.9861111111111113E-3</v>
       </c>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="20"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="23" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="6" t="s">
@@ -3910,9 +4990,11 @@
       <c r="E90" s="7">
         <v>1.6782407407407408E-3</v>
       </c>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="20"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="22" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="6" t="s">
@@ -3930,9 +5012,11 @@
       <c r="E91" s="7">
         <v>1.4467592592592593E-2</v>
       </c>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="20"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="23" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="6" t="s">
@@ -3950,9 +5034,11 @@
       <c r="E92" s="7">
         <v>5.8449074074074072E-3</v>
       </c>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="20"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="22" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="6" t="s">
@@ -3970,9 +5056,11 @@
       <c r="E93" s="7">
         <v>8.6226851851851846E-3</v>
       </c>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="20"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="23" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="6" t="s">
@@ -3990,9 +5078,11 @@
       <c r="E94" s="7">
         <v>7.5115740740740742E-3</v>
       </c>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="20"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="22" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="6" t="s">
@@ -4010,9 +5100,11 @@
       <c r="E95" s="7">
         <v>5.6365740740740742E-3</v>
       </c>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="20"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="23" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="6" t="s">
@@ -4030,9 +5122,11 @@
       <c r="E96" s="7">
         <v>1.2465277777777778E-2</v>
       </c>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="20"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="22" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="6" t="s">
@@ -4050,9 +5144,11 @@
       <c r="E97" s="7">
         <v>1.653935185185185E-2</v>
       </c>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="20"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="23" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="6" t="s">
@@ -4070,9 +5166,11 @@
       <c r="E98" s="7">
         <v>4.5370370370370373E-3</v>
       </c>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="20"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="22" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="6" t="s">
@@ -4090,9 +5188,11 @@
       <c r="E99" s="7">
         <v>8.726851851851852E-3</v>
       </c>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="20"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="23" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="6" t="s">
@@ -4110,9 +5210,11 @@
       <c r="E100" s="7">
         <v>8.0439814814814818E-3</v>
       </c>
-      <c r="F100" s="22"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="25"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="22" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="6" t="s">
@@ -4138,8 +5240,8 @@
         <f>F101*1.5</f>
         <v>0.30352430555555554</v>
       </c>
-      <c r="H101" s="9" t="s">
-        <v>478</v>
+      <c r="H101" s="22" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4158,9 +5260,11 @@
       <c r="E102" s="7">
         <v>1.9560185185185184E-2</v>
       </c>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="20"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="23" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="6" t="s">
@@ -4178,9 +5282,11 @@
       <c r="E103" s="7">
         <v>9.4444444444444445E-3</v>
       </c>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="20"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="22" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="6" t="s">
@@ -4198,9 +5304,11 @@
       <c r="E104" s="7">
         <v>1.8472222222222223E-2</v>
       </c>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="20"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="23" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="6" t="s">
@@ -4218,9 +5326,11 @@
       <c r="E105" s="7">
         <v>5.9143518518518521E-3</v>
       </c>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="20"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="22" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="6" t="s">
@@ -4238,9 +5348,11 @@
       <c r="E106" s="7">
         <v>1.9479166666666665E-2</v>
       </c>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="20"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="23" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="6" t="s">
@@ -4258,9 +5370,11 @@
       <c r="E107" s="7">
         <v>1.1331018518518518E-2</v>
       </c>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="20"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="22" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="6" t="s">
@@ -4278,9 +5392,11 @@
       <c r="E108" s="7">
         <v>5.6828703703703702E-3</v>
       </c>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="20"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="23" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="6" t="s">
@@ -4298,9 +5414,11 @@
       <c r="E109" s="7">
         <v>8.3564814814814821E-3</v>
       </c>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="20"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="22" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="6" t="s">
@@ -4318,9 +5436,11 @@
       <c r="E110" s="7">
         <v>2.2893518518518518E-2</v>
       </c>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="20"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="23" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="6" t="s">
@@ -4338,9 +5458,11 @@
       <c r="E111" s="7">
         <v>1.8229166666666668E-2</v>
       </c>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="20"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="22" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="6" t="s">
@@ -4358,9 +5480,11 @@
       <c r="E112" s="7">
         <v>1.9467592592592592E-2</v>
       </c>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="20"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="23" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="6" t="s">
@@ -4378,9 +5502,11 @@
       <c r="E113" s="7">
         <v>1.9629629629629629E-2</v>
       </c>
-      <c r="F113" s="22"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="25"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="22" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="6" t="s">
@@ -4406,8 +5532,8 @@
         <f>F114*1.5</f>
         <v>0.29133680555555547</v>
       </c>
-      <c r="H114" s="9" t="s">
-        <v>479</v>
+      <c r="H114" s="22" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4426,9 +5552,11 @@
       <c r="E115" s="7">
         <v>7.0949074074074074E-3</v>
       </c>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="20"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="23" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="6" t="s">
@@ -4446,9 +5574,11 @@
       <c r="E116" s="7">
         <v>9.6759259259259264E-3</v>
       </c>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="20"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="22" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="6" t="s">
@@ -4466,9 +5596,11 @@
       <c r="E117" s="7">
         <v>5.37037037037037E-3</v>
       </c>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19"/>
-      <c r="H117" s="20"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="23" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="6" t="s">
@@ -4486,9 +5618,11 @@
       <c r="E118" s="7">
         <v>1.7303240740740741E-2</v>
       </c>
-      <c r="F118" s="19"/>
-      <c r="G118" s="19"/>
-      <c r="H118" s="20"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="22" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="6" t="s">
@@ -4506,9 +5640,11 @@
       <c r="E119" s="7">
         <v>9.4212962962962957E-3</v>
       </c>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="20"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="23" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="6" t="s">
@@ -4526,9 +5662,11 @@
       <c r="E120" s="7">
         <v>2.7245370370370371E-2</v>
       </c>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="20"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="22" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="6" t="s">
@@ -4546,9 +5684,11 @@
       <c r="E121" s="7">
         <v>2.5405092592592594E-2</v>
       </c>
-      <c r="F121" s="19"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="20"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="23" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="6" t="s">
@@ -4566,9 +5706,11 @@
       <c r="E122" s="7">
         <v>8.1597222222222227E-3</v>
       </c>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="20"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="22" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="6" t="s">
@@ -4586,9 +5728,11 @@
       <c r="E123" s="7">
         <v>6.145833333333333E-3</v>
       </c>
-      <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="20"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="23" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="6" t="s">
@@ -4606,9 +5750,11 @@
       <c r="E124" s="7">
         <v>1.7673611111111112E-2</v>
       </c>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
-      <c r="H124" s="20"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="22" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="6" t="s">
@@ -4626,9 +5772,11 @@
       <c r="E125" s="7">
         <v>5.5324074074074078E-3</v>
       </c>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="20"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="23" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="6" t="s">
@@ -4646,9 +5794,11 @@
       <c r="E126" s="7">
         <v>6.9212962962962961E-3</v>
       </c>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="20"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="22" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="6" t="s">
@@ -4666,9 +5816,11 @@
       <c r="E127" s="7">
         <v>5.6018518518518518E-3</v>
       </c>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="20"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="23" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="6" t="s">
@@ -4686,9 +5838,11 @@
       <c r="E128" s="7">
         <v>3.8194444444444443E-3</v>
       </c>
-      <c r="F128" s="19"/>
-      <c r="G128" s="19"/>
-      <c r="H128" s="20"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="22" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="6" t="s">
@@ -4706,9 +5860,11 @@
       <c r="E129" s="7">
         <v>4.31712962962963E-3</v>
       </c>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
-      <c r="H129" s="20"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="23" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="6" t="s">
@@ -4726,9 +5882,11 @@
       <c r="E130" s="7">
         <v>5.8217592592592592E-3</v>
       </c>
-      <c r="F130" s="22"/>
-      <c r="G130" s="22"/>
-      <c r="H130" s="25"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="22" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="6" t="s">
@@ -4754,8 +5912,8 @@
         <f>F131*1.5</f>
         <v>0.30942708333333335</v>
       </c>
-      <c r="H131" s="9" t="s">
-        <v>480</v>
+      <c r="H131" s="22" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4774,9 +5932,11 @@
       <c r="E132" s="7">
         <v>1.0636574074074074E-2</v>
       </c>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="20"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="23" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="6" t="s">
@@ -4794,9 +5954,11 @@
       <c r="E133" s="7">
         <v>8.067129629629629E-3</v>
       </c>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="20"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
+      <c r="H133" s="22" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="6" t="s">
@@ -4814,9 +5976,11 @@
       <c r="E134" s="7">
         <v>7.8935185185185185E-3</v>
       </c>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="20"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
+      <c r="H134" s="23" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="6" t="s">
@@ -4834,9 +5998,11 @@
       <c r="E135" s="7">
         <v>5.9143518518518521E-3</v>
       </c>
-      <c r="F135" s="19"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="20"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
+      <c r="H135" s="22" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="6" t="s">
@@ -4854,9 +6020,11 @@
       <c r="E136" s="7">
         <v>6.0416666666666665E-3</v>
       </c>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="20"/>
+      <c r="F136" s="17"/>
+      <c r="G136" s="17"/>
+      <c r="H136" s="23" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="6" t="s">
@@ -4874,9 +6042,11 @@
       <c r="E137" s="7">
         <v>2.4016203703703703E-2</v>
       </c>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="20"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="17"/>
+      <c r="H137" s="22" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="6" t="s">
@@ -4894,9 +6064,11 @@
       <c r="E138" s="7">
         <v>1.494212962962963E-2</v>
       </c>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="20"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
+      <c r="H138" s="23" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="6" t="s">
@@ -4914,9 +6086,11 @@
       <c r="E139" s="7">
         <v>7.1412037037037034E-3</v>
       </c>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="20"/>
+      <c r="F139" s="17"/>
+      <c r="G139" s="17"/>
+      <c r="H139" s="22" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="6" t="s">
@@ -4934,9 +6108,11 @@
       <c r="E140" s="7">
         <v>5.5208333333333333E-3</v>
       </c>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="20"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="17"/>
+      <c r="H140" s="23" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="6" t="s">
@@ -4954,9 +6130,11 @@
       <c r="E141" s="7">
         <v>4.8842592592592592E-3</v>
       </c>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="20"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="22" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="6" t="s">
@@ -4974,9 +6152,11 @@
       <c r="E142" s="7">
         <v>1.0428240740740741E-2</v>
       </c>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="20"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="17"/>
+      <c r="H142" s="23" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="6" t="s">
@@ -4994,9 +6174,11 @@
       <c r="E143" s="7">
         <v>8.5995370370370375E-3</v>
       </c>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="20"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="22" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="6" t="s">
@@ -5014,9 +6196,11 @@
       <c r="E144" s="7">
         <v>7.6504629629629631E-3</v>
       </c>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="20"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="17"/>
+      <c r="H144" s="23" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="6" t="s">
@@ -5034,9 +6218,11 @@
       <c r="E145" s="7">
         <v>8.2754629629629636E-3</v>
       </c>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="20"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="17"/>
+      <c r="H145" s="22" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="6" t="s">
@@ -5054,9 +6240,11 @@
       <c r="E146" s="7">
         <v>1.7708333333333333E-2</v>
       </c>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="20"/>
+      <c r="F146" s="17"/>
+      <c r="G146" s="17"/>
+      <c r="H146" s="23" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="6" t="s">
@@ -5074,9 +6262,11 @@
       <c r="E147" s="7">
         <v>7.6273148148148151E-3</v>
       </c>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="20"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17"/>
+      <c r="H147" s="22" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="6" t="s">
@@ -5094,9 +6284,11 @@
       <c r="E148" s="7">
         <v>4.0740740740740737E-3</v>
       </c>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19"/>
-      <c r="H148" s="20"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="17"/>
+      <c r="H148" s="23" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="6" t="s">
@@ -5114,9 +6306,11 @@
       <c r="E149" s="7">
         <v>5.7291666666666663E-3</v>
       </c>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="20"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="22" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="6" t="s">
@@ -5134,9 +6328,11 @@
       <c r="E150" s="7">
         <v>6.1921296296296299E-3</v>
       </c>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="20"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="17"/>
+      <c r="H150" s="23" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="6" t="s">
@@ -5154,9 +6350,11 @@
       <c r="E151" s="7">
         <v>1.1724537037037037E-2</v>
       </c>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="20"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="17"/>
+      <c r="H151" s="22" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="6" t="s">
@@ -5174,457 +6372,501 @@
       <c r="E152" s="7">
         <v>7.1527777777777779E-3</v>
       </c>
-      <c r="F152" s="22"/>
-      <c r="G152" s="22"/>
-      <c r="H152" s="25"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="23" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B153" s="11" t="s">
+      <c r="A153" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B153" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="C153" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D153" s="10" t="s">
+      <c r="D153" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="E153" s="12">
+      <c r="E153" s="11">
         <v>1.1620370370370371E-2</v>
       </c>
-      <c r="F153" s="13">
+      <c r="F153" s="12">
         <f>SUM(E153:E174)</f>
         <v>0.19090277777777778</v>
       </c>
-      <c r="G153" s="13">
+      <c r="G153" s="12">
         <f>F153*1.5</f>
         <v>0.28635416666666669</v>
       </c>
-      <c r="H153" s="14" t="s">
-        <v>481</v>
+      <c r="H153" s="25" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B154" s="11" t="s">
+      <c r="A154" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B154" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C154" s="10" t="s">
+      <c r="C154" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D154" s="10" t="s">
+      <c r="D154" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="E154" s="12">
+      <c r="E154" s="11">
         <v>1.2534722222222221E-2</v>
       </c>
-      <c r="F154" s="23"/>
-      <c r="G154" s="23"/>
-      <c r="H154" s="26"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="26" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B155" s="11" t="s">
+      <c r="A155" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B155" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="C155" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D155" s="10" t="s">
+      <c r="D155" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="E155" s="12">
+      <c r="E155" s="11">
         <v>2.6817129629629628E-2</v>
       </c>
-      <c r="F155" s="23"/>
-      <c r="G155" s="23"/>
-      <c r="H155" s="26"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="26" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B156" s="11" t="s">
+      <c r="A156" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B156" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="C156" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D156" s="10" t="s">
+      <c r="D156" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E156" s="12">
+      <c r="E156" s="11">
         <v>1.1851851851851851E-2</v>
       </c>
-      <c r="F156" s="23"/>
-      <c r="G156" s="23"/>
-      <c r="H156" s="26"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="25" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B157" s="10" t="s">
+      <c r="A157" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C157" s="10" t="s">
+      <c r="C157" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D157" s="10" t="s">
+      <c r="D157" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="E157" s="12">
+      <c r="E157" s="11">
         <v>1.667824074074074E-2</v>
       </c>
-      <c r="F157" s="23"/>
-      <c r="G157" s="23"/>
-      <c r="H157" s="26"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="26" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B158" s="10" t="s">
+      <c r="A158" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B158" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C158" s="10" t="s">
+      <c r="C158" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D158" s="10" t="s">
+      <c r="D158" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E158" s="12">
+      <c r="E158" s="11">
         <v>1.7465277777777777E-2</v>
       </c>
-      <c r="F158" s="23"/>
-      <c r="G158" s="23"/>
-      <c r="H158" s="26"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="20"/>
+      <c r="H158" s="26" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B159" s="11" t="s">
+      <c r="A159" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B159" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="C159" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D159" s="10" t="s">
+      <c r="D159" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E159" s="15">
+      <c r="E159" s="13">
         <v>3.5995370370370369E-3</v>
       </c>
-      <c r="F159" s="23"/>
-      <c r="G159" s="23"/>
-      <c r="H159" s="26"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="20"/>
+      <c r="H159" s="25" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B160" s="11" t="s">
+      <c r="A160" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B160" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C160" s="10" t="s">
+      <c r="C160" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D160" s="10" t="s">
+      <c r="D160" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="E160" s="15">
+      <c r="E160" s="13">
         <v>2.0601851851851853E-3</v>
       </c>
-      <c r="F160" s="23"/>
-      <c r="G160" s="23"/>
-      <c r="H160" s="26"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="20"/>
+      <c r="H160" s="26" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B161" s="11" t="s">
+      <c r="A161" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B161" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C161" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D161" s="10" t="s">
+      <c r="D161" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E161" s="15">
+      <c r="E161" s="13">
         <v>2.1180555555555558E-3</v>
       </c>
-      <c r="F161" s="23"/>
-      <c r="G161" s="23"/>
-      <c r="H161" s="26"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="20"/>
+      <c r="H161" s="26" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B162" s="11" t="s">
+      <c r="A162" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B162" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C162" s="10" t="s">
+      <c r="C162" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D162" s="10" t="s">
+      <c r="D162" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E162" s="15">
+      <c r="E162" s="13">
         <v>5.2430555555555555E-3</v>
       </c>
-      <c r="F162" s="23"/>
-      <c r="G162" s="23"/>
-      <c r="H162" s="26"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="20"/>
+      <c r="H162" s="25" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B163" s="11" t="s">
+      <c r="A163" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B163" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C163" s="10" t="s">
+      <c r="C163" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D163" s="10" t="s">
+      <c r="D163" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="E163" s="15">
+      <c r="E163" s="13">
         <v>5.4745370370370373E-3</v>
       </c>
-      <c r="F163" s="23"/>
-      <c r="G163" s="23"/>
-      <c r="H163" s="26"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="26" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B164" s="11" t="s">
+      <c r="A164" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B164" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C164" s="10" t="s">
+      <c r="C164" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D164" s="10" t="s">
+      <c r="D164" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="E164" s="15">
+      <c r="E164" s="13">
         <v>3.8888888888888888E-3</v>
       </c>
-      <c r="F164" s="23"/>
-      <c r="G164" s="23"/>
-      <c r="H164" s="26"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="26" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B165" s="11" t="s">
+      <c r="A165" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B165" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C165" s="11" t="s">
+      <c r="C165" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D165" s="10" t="s">
+      <c r="D165" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="E165" s="15">
+      <c r="E165" s="13">
         <v>6.7361111111111111E-3</v>
       </c>
-      <c r="F165" s="23"/>
-      <c r="G165" s="23"/>
-      <c r="H165" s="26"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="25" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B166" s="11" t="s">
+      <c r="A166" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B166" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C166" s="11" t="s">
+      <c r="C166" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D166" s="10" t="s">
+      <c r="D166" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E166" s="15">
+      <c r="E166" s="13">
         <v>3.7962962962962963E-3</v>
       </c>
-      <c r="F166" s="23"/>
-      <c r="G166" s="23"/>
-      <c r="H166" s="26"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="20"/>
+      <c r="H166" s="26" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B167" s="11" t="s">
+      <c r="A167" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B167" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C167" s="11" t="s">
+      <c r="C167" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D167" s="10" t="s">
+      <c r="D167" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E167" s="15">
+      <c r="E167" s="13">
         <v>1.2210648148148148E-2</v>
       </c>
-      <c r="F167" s="23"/>
-      <c r="G167" s="23"/>
-      <c r="H167" s="26"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="20"/>
+      <c r="H167" s="26" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B168" s="11" t="s">
+      <c r="A168" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B168" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C168" s="11" t="s">
+      <c r="C168" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D168" s="10" t="s">
+      <c r="D168" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E168" s="12">
+      <c r="E168" s="11">
         <v>3.3564814814814816E-3</v>
       </c>
-      <c r="F168" s="23"/>
-      <c r="G168" s="23"/>
-      <c r="H168" s="26"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="20"/>
+      <c r="H168" s="25" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B169" s="11" t="s">
+      <c r="A169" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B169" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C169" s="11" t="s">
+      <c r="C169" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D169" s="10" t="s">
+      <c r="D169" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E169" s="15">
+      <c r="E169" s="13">
         <v>8.2638888888888883E-3</v>
       </c>
-      <c r="F169" s="23"/>
-      <c r="G169" s="23"/>
-      <c r="H169" s="26"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="20"/>
+      <c r="H169" s="26" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B170" s="11" t="s">
+      <c r="A170" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B170" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C170" s="11" t="s">
+      <c r="C170" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D170" s="10" t="s">
+      <c r="D170" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E170" s="15">
+      <c r="E170" s="13">
         <v>1.40625E-2</v>
       </c>
-      <c r="F170" s="23"/>
-      <c r="G170" s="23"/>
-      <c r="H170" s="26"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="20"/>
+      <c r="H170" s="26" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B171" s="11" t="s">
+      <c r="A171" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B171" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C171" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D171" s="10" t="s">
+      <c r="D171" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="E171" s="15">
+      <c r="E171" s="13">
         <v>5.6365740740740742E-3</v>
       </c>
-      <c r="F171" s="23"/>
-      <c r="G171" s="23"/>
-      <c r="H171" s="26"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="20"/>
+      <c r="H171" s="25" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B172" s="11" t="s">
+      <c r="A172" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B172" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C172" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D172" s="10" t="s">
+      <c r="D172" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E172" s="15">
+      <c r="E172" s="13">
         <v>6.6087962962962966E-3</v>
       </c>
-      <c r="F172" s="23"/>
-      <c r="G172" s="23"/>
-      <c r="H172" s="26"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="20"/>
+      <c r="H172" s="26" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B173" s="11" t="s">
+      <c r="A173" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B173" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C173" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D173" s="10" t="s">
+      <c r="D173" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E173" s="15">
+      <c r="E173" s="13">
         <v>7.1064814814814819E-3</v>
       </c>
-      <c r="F173" s="23"/>
-      <c r="G173" s="23"/>
-      <c r="H173" s="26"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="20"/>
+      <c r="H173" s="26" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B174" s="11" t="s">
+      <c r="A174" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B174" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C174" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D174" s="10" t="s">
+      <c r="D174" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="E174" s="15">
+      <c r="E174" s="13">
         <v>3.7731481481481483E-3</v>
       </c>
-      <c r="F174" s="24"/>
-      <c r="G174" s="24"/>
-      <c r="H174" s="27"/>
+      <c r="F174" s="21"/>
+      <c r="G174" s="21"/>
+      <c r="H174" s="25" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="6" t="s">
@@ -5639,7 +6881,7 @@
       <c r="D175" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E175" s="16">
+      <c r="E175" s="14">
         <v>4.8148148148148152E-3</v>
       </c>
       <c r="F175" s="8">
@@ -5650,8 +6892,8 @@
         <f>F175*1.5</f>
         <v>0.13079861111111113</v>
       </c>
-      <c r="H175" s="9" t="s">
-        <v>491</v>
+      <c r="H175" s="22" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5667,12 +6909,14 @@
       <c r="D176" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="E176" s="16">
+      <c r="E176" s="14">
         <v>3.7384259259259259E-3</v>
       </c>
-      <c r="F176" s="19"/>
-      <c r="G176" s="19"/>
-      <c r="H176" s="20"/>
+      <c r="F176" s="17"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="23" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="6" t="s">
@@ -5687,12 +6931,14 @@
       <c r="D177" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E177" s="16">
+      <c r="E177" s="14">
         <v>4.4560185185185189E-3</v>
       </c>
-      <c r="F177" s="19"/>
-      <c r="G177" s="19"/>
-      <c r="H177" s="20"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="22" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="6" t="s">
@@ -5707,12 +6953,14 @@
       <c r="D178" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E178" s="16">
+      <c r="E178" s="14">
         <v>5.9490740740740745E-3</v>
       </c>
-      <c r="F178" s="19"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="20"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="23" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="6" t="s">
@@ -5727,12 +6975,14 @@
       <c r="D179" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E179" s="16">
+      <c r="E179" s="14">
         <v>1.1180555555555555E-2</v>
       </c>
-      <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="20"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="17"/>
+      <c r="H179" s="22" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="6" t="s">
@@ -5747,12 +6997,14 @@
       <c r="D180" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E180" s="16">
+      <c r="E180" s="14">
         <v>4.0277777777777777E-3</v>
       </c>
-      <c r="F180" s="19"/>
-      <c r="G180" s="19"/>
-      <c r="H180" s="20"/>
+      <c r="F180" s="17"/>
+      <c r="G180" s="17"/>
+      <c r="H180" s="23" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="6" t="s">
@@ -5767,12 +7019,14 @@
       <c r="D181" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E181" s="16">
+      <c r="E181" s="14">
         <v>5.5671296296296293E-3</v>
       </c>
-      <c r="F181" s="19"/>
-      <c r="G181" s="19"/>
-      <c r="H181" s="20"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="17"/>
+      <c r="H181" s="22" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="6" t="s">
@@ -5787,12 +7041,14 @@
       <c r="D182" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E182" s="16">
+      <c r="E182" s="14">
         <v>3.1828703703703702E-3</v>
       </c>
-      <c r="F182" s="19"/>
-      <c r="G182" s="19"/>
-      <c r="H182" s="20"/>
+      <c r="F182" s="17"/>
+      <c r="G182" s="17"/>
+      <c r="H182" s="23" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="6" t="s">
@@ -5807,12 +7063,14 @@
       <c r="D183" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E183" s="16">
+      <c r="E183" s="14">
         <v>5.3935185185185188E-3</v>
       </c>
-      <c r="F183" s="19"/>
-      <c r="G183" s="19"/>
-      <c r="H183" s="20"/>
+      <c r="F183" s="17"/>
+      <c r="G183" s="17"/>
+      <c r="H183" s="22" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="6" t="s">
@@ -5827,12 +7085,14 @@
       <c r="D184" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E184" s="16">
+      <c r="E184" s="14">
         <v>2.3148148148148147E-3</v>
       </c>
-      <c r="F184" s="19"/>
-      <c r="G184" s="19"/>
-      <c r="H184" s="20"/>
+      <c r="F184" s="17"/>
+      <c r="G184" s="17"/>
+      <c r="H184" s="23" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="6" t="s">
@@ -5847,12 +7107,14 @@
       <c r="D185" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="E185" s="16">
+      <c r="E185" s="14">
         <v>4.3981481481481484E-3</v>
       </c>
-      <c r="F185" s="19"/>
-      <c r="G185" s="19"/>
-      <c r="H185" s="20"/>
+      <c r="F185" s="17"/>
+      <c r="G185" s="17"/>
+      <c r="H185" s="22" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="6" t="s">
@@ -5867,12 +7129,14 @@
       <c r="D186" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E186" s="16">
+      <c r="E186" s="14">
         <v>3.2060185185185186E-3</v>
       </c>
-      <c r="F186" s="19"/>
-      <c r="G186" s="19"/>
-      <c r="H186" s="20"/>
+      <c r="F186" s="17"/>
+      <c r="G186" s="17"/>
+      <c r="H186" s="23" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="6" t="s">
@@ -5887,12 +7151,14 @@
       <c r="D187" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E187" s="16">
+      <c r="E187" s="14">
         <v>2.4074074074074076E-3</v>
       </c>
-      <c r="F187" s="19"/>
-      <c r="G187" s="19"/>
-      <c r="H187" s="20"/>
+      <c r="F187" s="17"/>
+      <c r="G187" s="17"/>
+      <c r="H187" s="22" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="6" t="s">
@@ -5907,12 +7173,14 @@
       <c r="D188" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E188" s="16">
+      <c r="E188" s="14">
         <v>5.6712962962962967E-3</v>
       </c>
-      <c r="F188" s="19"/>
-      <c r="G188" s="19"/>
-      <c r="H188" s="20"/>
+      <c r="F188" s="17"/>
+      <c r="G188" s="17"/>
+      <c r="H188" s="23" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="6" t="s">
@@ -5927,12 +7195,14 @@
       <c r="D189" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E189" s="16">
+      <c r="E189" s="14">
         <v>5.7754629629629631E-3</v>
       </c>
-      <c r="F189" s="19"/>
-      <c r="G189" s="19"/>
-      <c r="H189" s="20"/>
+      <c r="F189" s="17"/>
+      <c r="G189" s="17"/>
+      <c r="H189" s="22" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="6" t="s">
@@ -5947,12 +7217,14 @@
       <c r="D190" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E190" s="16">
+      <c r="E190" s="14">
         <v>3.4953703703703705E-3</v>
       </c>
-      <c r="F190" s="19"/>
-      <c r="G190" s="19"/>
-      <c r="H190" s="20"/>
+      <c r="F190" s="17"/>
+      <c r="G190" s="17"/>
+      <c r="H190" s="23" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="6" t="s">
@@ -5967,12 +7239,14 @@
       <c r="D191" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E191" s="16">
+      <c r="E191" s="14">
         <v>5.9259259259259256E-3</v>
       </c>
-      <c r="F191" s="19"/>
-      <c r="G191" s="19"/>
-      <c r="H191" s="20"/>
+      <c r="F191" s="17"/>
+      <c r="G191" s="17"/>
+      <c r="H191" s="22" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="6" t="s">
@@ -5984,15 +7258,17 @@
       <c r="C192" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D192" s="17" t="s">
+      <c r="D192" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="E192" s="18">
+      <c r="E192" s="16">
         <v>5.6944444444444447E-3</v>
       </c>
-      <c r="F192" s="22"/>
-      <c r="G192" s="22"/>
-      <c r="H192" s="25"/>
+      <c r="F192" s="19"/>
+      <c r="G192" s="19"/>
+      <c r="H192" s="23" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="6" t="s">
@@ -6004,10 +7280,10 @@
       <c r="C193" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D193" s="17" t="s">
+      <c r="D193" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="E193" s="18">
+      <c r="E193" s="16">
         <v>3.4027777777777776E-3</v>
       </c>
       <c r="F193" s="8">
@@ -6018,8 +7294,8 @@
         <f>F193*1.5</f>
         <v>0.27574652777777775</v>
       </c>
-      <c r="H193" s="9" t="s">
-        <v>482</v>
+      <c r="H193" s="22" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6032,15 +7308,17 @@
       <c r="C194" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D194" s="17" t="s">
+      <c r="D194" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="E194" s="18">
+      <c r="E194" s="16">
         <v>2.9513888888888888E-3</v>
       </c>
-      <c r="F194" s="19"/>
-      <c r="G194" s="19"/>
-      <c r="H194" s="20"/>
+      <c r="F194" s="17"/>
+      <c r="G194" s="17"/>
+      <c r="H194" s="23" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="6" t="s">
@@ -6052,15 +7330,17 @@
       <c r="C195" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D195" s="17" t="s">
+      <c r="D195" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="E195" s="18">
+      <c r="E195" s="16">
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="F195" s="19"/>
-      <c r="G195" s="19"/>
-      <c r="H195" s="20"/>
+      <c r="F195" s="17"/>
+      <c r="G195" s="17"/>
+      <c r="H195" s="22" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="6" t="s">
@@ -6072,15 +7352,17 @@
       <c r="C196" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D196" s="17" t="s">
+      <c r="D196" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="E196" s="18">
+      <c r="E196" s="16">
         <v>3.6574074074074074E-3</v>
       </c>
-      <c r="F196" s="19"/>
-      <c r="G196" s="19"/>
-      <c r="H196" s="20"/>
+      <c r="F196" s="17"/>
+      <c r="G196" s="17"/>
+      <c r="H196" s="23" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="6" t="s">
@@ -6092,15 +7374,17 @@
       <c r="C197" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D197" s="17" t="s">
+      <c r="D197" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="E197" s="18">
+      <c r="E197" s="16">
         <v>3.1712962962962962E-3</v>
       </c>
-      <c r="F197" s="19"/>
-      <c r="G197" s="19"/>
-      <c r="H197" s="20"/>
+      <c r="F197" s="17"/>
+      <c r="G197" s="17"/>
+      <c r="H197" s="22" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="6" t="s">
@@ -6112,15 +7396,17 @@
       <c r="C198" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D198" s="17" t="s">
+      <c r="D198" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="E198" s="18">
+      <c r="E198" s="16">
         <v>2.8703703703703703E-3</v>
       </c>
-      <c r="F198" s="19"/>
-      <c r="G198" s="19"/>
-      <c r="H198" s="20"/>
+      <c r="F198" s="17"/>
+      <c r="G198" s="17"/>
+      <c r="H198" s="23" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="6" t="s">
@@ -6132,15 +7418,17 @@
       <c r="C199" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D199" s="17" t="s">
+      <c r="D199" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="E199" s="18">
+      <c r="E199" s="16">
         <v>5.2777777777777779E-3</v>
       </c>
-      <c r="F199" s="19"/>
-      <c r="G199" s="19"/>
-      <c r="H199" s="20"/>
+      <c r="F199" s="17"/>
+      <c r="G199" s="17"/>
+      <c r="H199" s="22" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="6" t="s">
@@ -6152,15 +7440,17 @@
       <c r="C200" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D200" s="17" t="s">
+      <c r="D200" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="E200" s="18">
+      <c r="E200" s="16">
         <v>3.7268518518518519E-3</v>
       </c>
-      <c r="F200" s="19"/>
-      <c r="G200" s="19"/>
-      <c r="H200" s="20"/>
+      <c r="F200" s="17"/>
+      <c r="G200" s="17"/>
+      <c r="H200" s="23" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="6" t="s">
@@ -6172,15 +7462,17 @@
       <c r="C201" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D201" s="17" t="s">
+      <c r="D201" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="E201" s="18">
+      <c r="E201" s="16">
         <v>2.8240740740740739E-3</v>
       </c>
-      <c r="F201" s="19"/>
-      <c r="G201" s="19"/>
-      <c r="H201" s="20"/>
+      <c r="F201" s="17"/>
+      <c r="G201" s="17"/>
+      <c r="H201" s="22" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="6" t="s">
@@ -6192,15 +7484,17 @@
       <c r="C202" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D202" s="17" t="s">
+      <c r="D202" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="E202" s="18">
+      <c r="E202" s="16">
         <v>1.556712962962963E-2</v>
       </c>
-      <c r="F202" s="19"/>
-      <c r="G202" s="19"/>
-      <c r="H202" s="20"/>
+      <c r="F202" s="17"/>
+      <c r="G202" s="17"/>
+      <c r="H202" s="23" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="6" t="s">
@@ -6212,15 +7506,17 @@
       <c r="C203" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D203" s="17" t="s">
+      <c r="D203" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="E203" s="18">
+      <c r="E203" s="16">
         <v>1.6064814814814816E-2</v>
       </c>
-      <c r="F203" s="19"/>
-      <c r="G203" s="19"/>
-      <c r="H203" s="20"/>
+      <c r="F203" s="17"/>
+      <c r="G203" s="17"/>
+      <c r="H203" s="22" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="6" t="s">
@@ -6232,15 +7528,17 @@
       <c r="C204" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D204" s="17" t="s">
+      <c r="D204" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="E204" s="18">
+      <c r="E204" s="16">
         <v>1.5196759259259259E-2</v>
       </c>
-      <c r="F204" s="19"/>
-      <c r="G204" s="19"/>
-      <c r="H204" s="20"/>
+      <c r="F204" s="17"/>
+      <c r="G204" s="17"/>
+      <c r="H204" s="23" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="6" t="s">
@@ -6252,15 +7550,17 @@
       <c r="C205" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D205" s="17" t="s">
+      <c r="D205" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="E205" s="18">
+      <c r="E205" s="16">
         <v>1.8703703703703705E-2</v>
       </c>
-      <c r="F205" s="19"/>
-      <c r="G205" s="19"/>
-      <c r="H205" s="20"/>
+      <c r="F205" s="17"/>
+      <c r="G205" s="17"/>
+      <c r="H205" s="22" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="6" t="s">
@@ -6272,15 +7572,17 @@
       <c r="C206" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D206" s="17" t="s">
+      <c r="D206" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="E206" s="18">
+      <c r="E206" s="16">
         <v>3.0740740740740742E-2</v>
       </c>
-      <c r="F206" s="19"/>
-      <c r="G206" s="19"/>
-      <c r="H206" s="20"/>
+      <c r="F206" s="17"/>
+      <c r="G206" s="17"/>
+      <c r="H206" s="23" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="6" t="s">
@@ -6292,15 +7594,17 @@
       <c r="C207" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D207" s="17" t="s">
+      <c r="D207" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="E207" s="18">
+      <c r="E207" s="16">
         <v>2.3090277777777779E-2</v>
       </c>
-      <c r="F207" s="19"/>
-      <c r="G207" s="19"/>
-      <c r="H207" s="20"/>
+      <c r="F207" s="17"/>
+      <c r="G207" s="17"/>
+      <c r="H207" s="22" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="6" t="s">
@@ -6312,15 +7616,17 @@
       <c r="C208" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D208" s="17" t="s">
+      <c r="D208" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="E208" s="18">
+      <c r="E208" s="16">
         <v>3.366898148148148E-2</v>
       </c>
-      <c r="F208" s="22"/>
-      <c r="G208" s="22"/>
-      <c r="H208" s="25"/>
+      <c r="F208" s="19"/>
+      <c r="G208" s="19"/>
+      <c r="H208" s="23" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="6" t="s">
@@ -6335,7 +7641,7 @@
       <c r="D209" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E209" s="16">
+      <c r="E209" s="14">
         <v>4.6504629629629632E-2</v>
       </c>
       <c r="F209" s="8">
@@ -6346,8 +7652,8 @@
         <f>F209*1.5</f>
         <v>0.16937499999999991</v>
       </c>
-      <c r="H209" s="9" t="s">
-        <v>483</v>
+      <c r="H209" s="22" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6363,12 +7669,14 @@
       <c r="D210" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="E210" s="16">
+      <c r="E210" s="14">
         <v>2.8356481481481483E-3</v>
       </c>
-      <c r="F210" s="19"/>
-      <c r="G210" s="19"/>
-      <c r="H210" s="20"/>
+      <c r="F210" s="17"/>
+      <c r="G210" s="17"/>
+      <c r="H210" s="23" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="6" t="s">
@@ -6383,12 +7691,14 @@
       <c r="D211" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="E211" s="16">
+      <c r="E211" s="14">
         <v>4.31712962962963E-3</v>
       </c>
-      <c r="F211" s="19"/>
-      <c r="G211" s="19"/>
-      <c r="H211" s="20"/>
+      <c r="F211" s="17"/>
+      <c r="G211" s="17"/>
+      <c r="H211" s="22" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="6" t="s">
@@ -6403,12 +7713,14 @@
       <c r="D212" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="E212" s="16">
+      <c r="E212" s="14">
         <v>4.8032407407407407E-3</v>
       </c>
-      <c r="F212" s="19"/>
-      <c r="G212" s="19"/>
-      <c r="H212" s="20"/>
+      <c r="F212" s="17"/>
+      <c r="G212" s="17"/>
+      <c r="H212" s="23" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="6" t="s">
@@ -6423,12 +7735,14 @@
       <c r="D213" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="E213" s="16">
+      <c r="E213" s="14">
         <v>5.2199074074074075E-3</v>
       </c>
-      <c r="F213" s="19"/>
-      <c r="G213" s="19"/>
-      <c r="H213" s="20"/>
+      <c r="F213" s="17"/>
+      <c r="G213" s="17"/>
+      <c r="H213" s="22" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="6" t="s">
@@ -6443,12 +7757,14 @@
       <c r="D214" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E214" s="16">
+      <c r="E214" s="14">
         <v>3.5879629629629629E-3</v>
       </c>
-      <c r="F214" s="19"/>
-      <c r="G214" s="19"/>
-      <c r="H214" s="20"/>
+      <c r="F214" s="17"/>
+      <c r="G214" s="17"/>
+      <c r="H214" s="23" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="6" t="s">
@@ -6463,12 +7779,14 @@
       <c r="D215" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="E215" s="16">
+      <c r="E215" s="14">
         <v>1.8402777777777777E-3</v>
       </c>
-      <c r="F215" s="19"/>
-      <c r="G215" s="19"/>
-      <c r="H215" s="20"/>
+      <c r="F215" s="17"/>
+      <c r="G215" s="17"/>
+      <c r="H215" s="22" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="6" t="s">
@@ -6483,12 +7801,14 @@
       <c r="D216" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="E216" s="16">
+      <c r="E216" s="14">
         <v>3.0902777777777777E-3</v>
       </c>
-      <c r="F216" s="19"/>
-      <c r="G216" s="19"/>
-      <c r="H216" s="20"/>
+      <c r="F216" s="17"/>
+      <c r="G216" s="17"/>
+      <c r="H216" s="23" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="6" t="s">
@@ -6503,12 +7823,14 @@
       <c r="D217" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="E217" s="16">
+      <c r="E217" s="14">
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="F217" s="19"/>
-      <c r="G217" s="19"/>
-      <c r="H217" s="20"/>
+      <c r="F217" s="17"/>
+      <c r="G217" s="17"/>
+      <c r="H217" s="22" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="6" t="s">
@@ -6523,12 +7845,14 @@
       <c r="D218" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="E218" s="16">
+      <c r="E218" s="14">
         <v>2.9861111111111113E-3</v>
       </c>
-      <c r="F218" s="19"/>
-      <c r="G218" s="19"/>
-      <c r="H218" s="20"/>
+      <c r="F218" s="17"/>
+      <c r="G218" s="17"/>
+      <c r="H218" s="23" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="6" t="s">
@@ -6543,12 +7867,14 @@
       <c r="D219" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="E219" s="16">
+      <c r="E219" s="14">
         <v>5.6365740740740742E-3</v>
       </c>
-      <c r="F219" s="19"/>
-      <c r="G219" s="19"/>
-      <c r="H219" s="20"/>
+      <c r="F219" s="17"/>
+      <c r="G219" s="17"/>
+      <c r="H219" s="22" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="6" t="s">
@@ -6563,12 +7889,14 @@
       <c r="D220" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="E220" s="16">
+      <c r="E220" s="14">
         <v>5.8796296296296296E-3</v>
       </c>
-      <c r="F220" s="19"/>
-      <c r="G220" s="19"/>
-      <c r="H220" s="20"/>
+      <c r="F220" s="17"/>
+      <c r="G220" s="17"/>
+      <c r="H220" s="23" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="6" t="s">
@@ -6583,12 +7911,14 @@
       <c r="D221" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="E221" s="16">
+      <c r="E221" s="14">
         <v>2.4189814814814816E-3</v>
       </c>
-      <c r="F221" s="19"/>
-      <c r="G221" s="19"/>
-      <c r="H221" s="20"/>
+      <c r="F221" s="17"/>
+      <c r="G221" s="17"/>
+      <c r="H221" s="22" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="6" t="s">
@@ -6603,12 +7933,14 @@
       <c r="D222" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="E222" s="16">
+      <c r="E222" s="14">
         <v>1.6898148148148148E-3</v>
       </c>
-      <c r="F222" s="19"/>
-      <c r="G222" s="19"/>
-      <c r="H222" s="20"/>
+      <c r="F222" s="17"/>
+      <c r="G222" s="17"/>
+      <c r="H222" s="23" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="6" t="s">
@@ -6623,12 +7955,14 @@
       <c r="D223" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="E223" s="16">
+      <c r="E223" s="14">
         <v>1.3657407407407407E-3</v>
       </c>
-      <c r="F223" s="19"/>
-      <c r="G223" s="19"/>
-      <c r="H223" s="20"/>
+      <c r="F223" s="17"/>
+      <c r="G223" s="17"/>
+      <c r="H223" s="22" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="6" t="s">
@@ -6643,12 +7977,14 @@
       <c r="D224" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="E224" s="16">
+      <c r="E224" s="14">
         <v>1.5972222222222223E-3</v>
       </c>
-      <c r="F224" s="19"/>
-      <c r="G224" s="19"/>
-      <c r="H224" s="20"/>
+      <c r="F224" s="17"/>
+      <c r="G224" s="17"/>
+      <c r="H224" s="23" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="6" t="s">
@@ -6663,12 +7999,14 @@
       <c r="D225" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="E225" s="16">
+      <c r="E225" s="14">
         <v>2.1412037037037038E-3</v>
       </c>
-      <c r="F225" s="19"/>
-      <c r="G225" s="19"/>
-      <c r="H225" s="20"/>
+      <c r="F225" s="17"/>
+      <c r="G225" s="17"/>
+      <c r="H225" s="22" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="6" t="s">
@@ -6683,12 +8021,14 @@
       <c r="D226" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="E226" s="16">
+      <c r="E226" s="14">
         <v>1.8634259259259259E-3</v>
       </c>
-      <c r="F226" s="19"/>
-      <c r="G226" s="19"/>
-      <c r="H226" s="20"/>
+      <c r="F226" s="17"/>
+      <c r="G226" s="17"/>
+      <c r="H226" s="23" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="6" t="s">
@@ -6703,12 +8043,14 @@
       <c r="D227" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="E227" s="16">
+      <c r="E227" s="14">
         <v>1.3425925925925925E-3</v>
       </c>
-      <c r="F227" s="19"/>
-      <c r="G227" s="19"/>
-      <c r="H227" s="20"/>
+      <c r="F227" s="17"/>
+      <c r="G227" s="17"/>
+      <c r="H227" s="22" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="6" t="s">
@@ -6723,12 +8065,14 @@
       <c r="D228" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="E228" s="16">
+      <c r="E228" s="14">
         <v>2.2916666666666667E-3</v>
       </c>
-      <c r="F228" s="19"/>
-      <c r="G228" s="19"/>
-      <c r="H228" s="20"/>
+      <c r="F228" s="17"/>
+      <c r="G228" s="17"/>
+      <c r="H228" s="23" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="6" t="s">
@@ -6743,12 +8087,14 @@
       <c r="D229" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="E229" s="16">
+      <c r="E229" s="14">
         <v>2.2916666666666667E-3</v>
       </c>
-      <c r="F229" s="19"/>
-      <c r="G229" s="19"/>
-      <c r="H229" s="20"/>
+      <c r="F229" s="17"/>
+      <c r="G229" s="17"/>
+      <c r="H229" s="22" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="6" t="s">
@@ -6763,12 +8109,14 @@
       <c r="D230" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E230" s="16">
+      <c r="E230" s="14">
         <v>3.1712962962962962E-3</v>
       </c>
-      <c r="F230" s="19"/>
-      <c r="G230" s="19"/>
-      <c r="H230" s="20"/>
+      <c r="F230" s="17"/>
+      <c r="G230" s="17"/>
+      <c r="H230" s="23" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="6" t="s">
@@ -6783,12 +8131,14 @@
       <c r="D231" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="E231" s="16">
+      <c r="E231" s="14">
         <v>2.7083333333333334E-3</v>
       </c>
-      <c r="F231" s="22"/>
-      <c r="G231" s="22"/>
-      <c r="H231" s="25"/>
+      <c r="F231" s="19"/>
+      <c r="G231" s="19"/>
+      <c r="H231" s="24" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="6" t="s">
@@ -6803,7 +8153,7 @@
       <c r="D232" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="E232" s="16">
+      <c r="E232" s="14">
         <v>4.7916666666666663E-3</v>
       </c>
       <c r="F232" s="8">
@@ -6814,8 +8164,8 @@
         <f>F232*1.5</f>
         <v>0.27935763888888887</v>
       </c>
-      <c r="H232" s="9" t="s">
-        <v>484</v>
+      <c r="H232" s="22" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6831,12 +8181,14 @@
       <c r="D233" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="E233" s="16">
+      <c r="E233" s="14">
         <v>4.6643518518518518E-3</v>
       </c>
-      <c r="F233" s="19"/>
-      <c r="G233" s="19"/>
-      <c r="H233" s="20"/>
+      <c r="F233" s="17"/>
+      <c r="G233" s="17"/>
+      <c r="H233" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="6" t="s">
@@ -6851,12 +8203,14 @@
       <c r="D234" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="E234" s="16">
+      <c r="E234" s="14">
         <v>4.9421296296296297E-3</v>
       </c>
-      <c r="F234" s="19"/>
-      <c r="G234" s="19"/>
-      <c r="H234" s="20"/>
+      <c r="F234" s="17"/>
+      <c r="G234" s="17"/>
+      <c r="H234" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="6" t="s">
@@ -6871,12 +8225,14 @@
       <c r="D235" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="E235" s="16">
+      <c r="E235" s="14">
         <v>3.7962962962962963E-3</v>
       </c>
-      <c r="F235" s="19"/>
-      <c r="G235" s="19"/>
-      <c r="H235" s="20"/>
+      <c r="F235" s="17"/>
+      <c r="G235" s="17"/>
+      <c r="H235" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="6" t="s">
@@ -6891,12 +8247,14 @@
       <c r="D236" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="E236" s="16">
+      <c r="E236" s="14">
         <v>5.4166666666666669E-3</v>
       </c>
-      <c r="F236" s="19"/>
-      <c r="G236" s="19"/>
-      <c r="H236" s="20"/>
+      <c r="F236" s="17"/>
+      <c r="G236" s="17"/>
+      <c r="H236" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="6" t="s">
@@ -6911,12 +8269,14 @@
       <c r="D237" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E237" s="16">
+      <c r="E237" s="14">
         <v>6.1805555555555555E-3</v>
       </c>
-      <c r="F237" s="19"/>
-      <c r="G237" s="19"/>
-      <c r="H237" s="20"/>
+      <c r="F237" s="17"/>
+      <c r="G237" s="17"/>
+      <c r="H237" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="6" t="s">
@@ -6931,12 +8291,14 @@
       <c r="D238" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="E238" s="16">
+      <c r="E238" s="14">
         <v>2.7199074074074074E-3</v>
       </c>
-      <c r="F238" s="19"/>
-      <c r="G238" s="19"/>
-      <c r="H238" s="20"/>
+      <c r="F238" s="17"/>
+      <c r="G238" s="17"/>
+      <c r="H238" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="6" t="s">
@@ -6951,12 +8313,14 @@
       <c r="D239" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="E239" s="16">
+      <c r="E239" s="14">
         <v>4.2592592592592595E-3</v>
       </c>
-      <c r="F239" s="19"/>
-      <c r="G239" s="19"/>
-      <c r="H239" s="20"/>
+      <c r="F239" s="17"/>
+      <c r="G239" s="17"/>
+      <c r="H239" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="6" t="s">
@@ -6971,12 +8335,14 @@
       <c r="D240" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="E240" s="16">
+      <c r="E240" s="14">
         <v>2.9976851851851853E-3</v>
       </c>
-      <c r="F240" s="19"/>
-      <c r="G240" s="19"/>
-      <c r="H240" s="20"/>
+      <c r="F240" s="17"/>
+      <c r="G240" s="17"/>
+      <c r="H240" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="6" t="s">
@@ -6991,12 +8357,14 @@
       <c r="D241" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E241" s="16">
+      <c r="E241" s="14">
         <v>3.8078703703703703E-3</v>
       </c>
-      <c r="F241" s="19"/>
-      <c r="G241" s="19"/>
-      <c r="H241" s="20"/>
+      <c r="F241" s="17"/>
+      <c r="G241" s="17"/>
+      <c r="H241" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="6" t="s">
@@ -7011,12 +8379,14 @@
       <c r="D242" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="E242" s="16">
+      <c r="E242" s="14">
         <v>3.7152777777777778E-3</v>
       </c>
-      <c r="F242" s="19"/>
-      <c r="G242" s="19"/>
-      <c r="H242" s="20"/>
+      <c r="F242" s="17"/>
+      <c r="G242" s="17"/>
+      <c r="H242" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="6" t="s">
@@ -7031,12 +8401,14 @@
       <c r="D243" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="E243" s="16">
+      <c r="E243" s="14">
         <v>5.6249999999999998E-3</v>
       </c>
-      <c r="F243" s="19"/>
-      <c r="G243" s="19"/>
-      <c r="H243" s="20"/>
+      <c r="F243" s="17"/>
+      <c r="G243" s="17"/>
+      <c r="H243" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="6" t="s">
@@ -7051,12 +8423,14 @@
       <c r="D244" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="E244" s="16">
+      <c r="E244" s="14">
         <v>3.7731481481481483E-3</v>
       </c>
-      <c r="F244" s="19"/>
-      <c r="G244" s="19"/>
-      <c r="H244" s="20"/>
+      <c r="F244" s="17"/>
+      <c r="G244" s="17"/>
+      <c r="H244" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="6" t="s">
@@ -7071,12 +8445,14 @@
       <c r="D245" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="E245" s="16">
+      <c r="E245" s="14">
         <v>3.7615740740740739E-3</v>
       </c>
-      <c r="F245" s="19"/>
-      <c r="G245" s="19"/>
-      <c r="H245" s="20"/>
+      <c r="F245" s="17"/>
+      <c r="G245" s="17"/>
+      <c r="H245" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="6" t="s">
@@ -7091,12 +8467,14 @@
       <c r="D246" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="E246" s="16">
+      <c r="E246" s="14">
         <v>5.8333333333333336E-3</v>
       </c>
-      <c r="F246" s="19"/>
-      <c r="G246" s="19"/>
-      <c r="H246" s="20"/>
+      <c r="F246" s="17"/>
+      <c r="G246" s="17"/>
+      <c r="H246" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="6" t="s">
@@ -7111,12 +8489,14 @@
       <c r="D247" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="E247" s="16">
+      <c r="E247" s="14">
         <v>5.2430555555555555E-3</v>
       </c>
-      <c r="F247" s="19"/>
-      <c r="G247" s="19"/>
-      <c r="H247" s="20"/>
+      <c r="F247" s="17"/>
+      <c r="G247" s="17"/>
+      <c r="H247" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="6" t="s">
@@ -7131,12 +8511,14 @@
       <c r="D248" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="E248" s="16">
+      <c r="E248" s="14">
         <v>4.3518518518518515E-3</v>
       </c>
-      <c r="F248" s="19"/>
-      <c r="G248" s="19"/>
-      <c r="H248" s="20"/>
+      <c r="F248" s="17"/>
+      <c r="G248" s="17"/>
+      <c r="H248" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="6" t="s">
@@ -7151,12 +8533,14 @@
       <c r="D249" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="E249" s="16">
+      <c r="E249" s="14">
         <v>6.5856481481481478E-3</v>
       </c>
-      <c r="F249" s="19"/>
-      <c r="G249" s="19"/>
-      <c r="H249" s="20"/>
+      <c r="F249" s="17"/>
+      <c r="G249" s="17"/>
+      <c r="H249" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="6" t="s">
@@ -7171,12 +8555,14 @@
       <c r="D250" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="E250" s="16">
+      <c r="E250" s="14">
         <v>4.386574074074074E-3</v>
       </c>
-      <c r="F250" s="19"/>
-      <c r="G250" s="19"/>
-      <c r="H250" s="20"/>
+      <c r="F250" s="17"/>
+      <c r="G250" s="17"/>
+      <c r="H250" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="6" t="s">
@@ -7191,12 +8577,14 @@
       <c r="D251" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="E251" s="16">
+      <c r="E251" s="14">
         <v>3.1365740740740742E-3</v>
       </c>
-      <c r="F251" s="19"/>
-      <c r="G251" s="19"/>
-      <c r="H251" s="20"/>
+      <c r="F251" s="17"/>
+      <c r="G251" s="17"/>
+      <c r="H251" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="6" t="s">
@@ -7211,12 +8599,14 @@
       <c r="D252" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="E252" s="16">
+      <c r="E252" s="14">
         <v>5.0231481481481481E-3</v>
       </c>
-      <c r="F252" s="19"/>
-      <c r="G252" s="19"/>
-      <c r="H252" s="20"/>
+      <c r="F252" s="17"/>
+      <c r="G252" s="17"/>
+      <c r="H252" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="6" t="s">
@@ -7231,12 +8621,14 @@
       <c r="D253" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="E253" s="16">
+      <c r="E253" s="14">
         <v>4.0509259259259257E-3</v>
       </c>
-      <c r="F253" s="19"/>
-      <c r="G253" s="19"/>
-      <c r="H253" s="20"/>
+      <c r="F253" s="17"/>
+      <c r="G253" s="17"/>
+      <c r="H253" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="6" t="s">
@@ -7251,12 +8643,14 @@
       <c r="D254" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="E254" s="16">
+      <c r="E254" s="14">
         <v>6.145833333333333E-3</v>
       </c>
-      <c r="F254" s="19"/>
-      <c r="G254" s="19"/>
-      <c r="H254" s="20"/>
+      <c r="F254" s="17"/>
+      <c r="G254" s="17"/>
+      <c r="H254" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="6" t="s">
@@ -7271,12 +8665,14 @@
       <c r="D255" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="E255" s="16">
+      <c r="E255" s="14">
         <v>4.6064814814814814E-3</v>
       </c>
-      <c r="F255" s="19"/>
-      <c r="G255" s="19"/>
-      <c r="H255" s="20"/>
+      <c r="F255" s="17"/>
+      <c r="G255" s="17"/>
+      <c r="H255" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="6" t="s">
@@ -7291,12 +8687,14 @@
       <c r="D256" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="E256" s="16">
+      <c r="E256" s="14">
         <v>7.6851851851851855E-3</v>
       </c>
-      <c r="F256" s="19"/>
-      <c r="G256" s="19"/>
-      <c r="H256" s="20"/>
+      <c r="F256" s="17"/>
+      <c r="G256" s="17"/>
+      <c r="H256" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="6" t="s">
@@ -7311,12 +8709,14 @@
       <c r="D257" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E257" s="16">
+      <c r="E257" s="14">
         <v>5.8333333333333336E-3</v>
       </c>
-      <c r="F257" s="19"/>
-      <c r="G257" s="19"/>
-      <c r="H257" s="20"/>
+      <c r="F257" s="17"/>
+      <c r="G257" s="17"/>
+      <c r="H257" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="6" t="s">
@@ -7331,12 +8731,14 @@
       <c r="D258" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E258" s="16">
+      <c r="E258" s="14">
         <v>9.432870370370371E-3</v>
       </c>
-      <c r="F258" s="19"/>
-      <c r="G258" s="19"/>
-      <c r="H258" s="20"/>
+      <c r="F258" s="17"/>
+      <c r="G258" s="17"/>
+      <c r="H258" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="6" t="s">
@@ -7351,12 +8753,14 @@
       <c r="D259" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E259" s="16">
+      <c r="E259" s="14">
         <v>6.5393518518518517E-3</v>
       </c>
-      <c r="F259" s="19"/>
-      <c r="G259" s="19"/>
-      <c r="H259" s="20"/>
+      <c r="F259" s="17"/>
+      <c r="G259" s="17"/>
+      <c r="H259" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="6" t="s">
@@ -7371,12 +8775,14 @@
       <c r="D260" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="E260" s="16">
+      <c r="E260" s="14">
         <v>6.3541666666666668E-3</v>
       </c>
-      <c r="F260" s="19"/>
-      <c r="G260" s="19"/>
-      <c r="H260" s="20"/>
+      <c r="F260" s="17"/>
+      <c r="G260" s="17"/>
+      <c r="H260" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="6" t="s">
@@ -7391,12 +8797,14 @@
       <c r="D261" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E261" s="16">
+      <c r="E261" s="14">
         <v>5.347222222222222E-3</v>
       </c>
-      <c r="F261" s="19"/>
-      <c r="G261" s="19"/>
-      <c r="H261" s="20"/>
+      <c r="F261" s="17"/>
+      <c r="G261" s="17"/>
+      <c r="H261" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="6" t="s">
@@ -7411,12 +8819,14 @@
       <c r="D262" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="E262" s="16">
+      <c r="E262" s="14">
         <v>9.0624999999999994E-3</v>
       </c>
-      <c r="F262" s="19"/>
-      <c r="G262" s="19"/>
-      <c r="H262" s="20"/>
+      <c r="F262" s="17"/>
+      <c r="G262" s="17"/>
+      <c r="H262" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="6" t="s">
@@ -7431,12 +8841,14 @@
       <c r="D263" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="E263" s="16">
+      <c r="E263" s="14">
         <v>1.1608796296296296E-2</v>
       </c>
-      <c r="F263" s="19"/>
-      <c r="G263" s="19"/>
-      <c r="H263" s="20"/>
+      <c r="F263" s="17"/>
+      <c r="G263" s="17"/>
+      <c r="H263" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="6" t="s">
@@ -7451,12 +8863,14 @@
       <c r="D264" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E264" s="16">
+      <c r="E264" s="14">
         <v>1.4560185185185185E-2</v>
       </c>
-      <c r="F264" s="22"/>
-      <c r="G264" s="22"/>
-      <c r="H264" s="25"/>
+      <c r="F264" s="19"/>
+      <c r="G264" s="19"/>
+      <c r="H264" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="6" t="s">
@@ -7471,7 +8885,7 @@
       <c r="D265" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="E265" s="16">
+      <c r="E265" s="14">
         <v>8.564814814814815E-4</v>
       </c>
       <c r="F265" s="8">
@@ -7482,8 +8896,8 @@
         <f>F265*1.5</f>
         <v>0.31637152777777777</v>
       </c>
-      <c r="H265" s="9" t="s">
-        <v>485</v>
+      <c r="H265" s="22" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7499,12 +8913,14 @@
       <c r="D266" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="E266" s="16">
+      <c r="E266" s="14">
         <v>1.5162037037037036E-3</v>
       </c>
-      <c r="F266" s="19"/>
-      <c r="G266" s="19"/>
-      <c r="H266" s="20"/>
+      <c r="F266" s="17"/>
+      <c r="G266" s="17"/>
+      <c r="H266" s="23" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="6" t="s">
@@ -7519,12 +8935,14 @@
       <c r="D267" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="E267" s="16">
+      <c r="E267" s="14">
         <v>1.7708333333333332E-3</v>
       </c>
-      <c r="F267" s="19"/>
-      <c r="G267" s="19"/>
-      <c r="H267" s="20"/>
+      <c r="F267" s="17"/>
+      <c r="G267" s="17"/>
+      <c r="H267" s="22" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="6" t="s">
@@ -7539,12 +8957,14 @@
       <c r="D268" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="E268" s="16">
+      <c r="E268" s="14">
         <v>1.8171296296296297E-3</v>
       </c>
-      <c r="F268" s="19"/>
-      <c r="G268" s="19"/>
-      <c r="H268" s="20"/>
+      <c r="F268" s="17"/>
+      <c r="G268" s="17"/>
+      <c r="H268" s="23" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="6" t="s">
@@ -7559,12 +8979,14 @@
       <c r="D269" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="E269" s="16">
+      <c r="E269" s="14">
         <v>6.122685185185185E-3</v>
       </c>
-      <c r="F269" s="19"/>
-      <c r="G269" s="19"/>
-      <c r="H269" s="20"/>
+      <c r="F269" s="17"/>
+      <c r="G269" s="17"/>
+      <c r="H269" s="22" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="6" t="s">
@@ -7579,12 +9001,14 @@
       <c r="D270" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="E270" s="16">
+      <c r="E270" s="14">
         <v>1.2800925925925926E-2</v>
       </c>
-      <c r="F270" s="19"/>
-      <c r="G270" s="19"/>
-      <c r="H270" s="20"/>
+      <c r="F270" s="17"/>
+      <c r="G270" s="17"/>
+      <c r="H270" s="23" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="6" t="s">
@@ -7599,12 +9023,14 @@
       <c r="D271" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="E271" s="16">
+      <c r="E271" s="14">
         <v>4.8263888888888887E-3</v>
       </c>
-      <c r="F271" s="19"/>
-      <c r="G271" s="19"/>
-      <c r="H271" s="20"/>
+      <c r="F271" s="17"/>
+      <c r="G271" s="17"/>
+      <c r="H271" s="22" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="6" t="s">
@@ -7619,12 +9045,14 @@
       <c r="D272" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="E272" s="16">
+      <c r="E272" s="14">
         <v>8.0555555555555554E-3</v>
       </c>
-      <c r="F272" s="19"/>
-      <c r="G272" s="19"/>
-      <c r="H272" s="20"/>
+      <c r="F272" s="17"/>
+      <c r="G272" s="17"/>
+      <c r="H272" s="23" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="6" t="s">
@@ -7639,12 +9067,14 @@
       <c r="D273" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="E273" s="16">
+      <c r="E273" s="14">
         <v>1.34375E-2</v>
       </c>
-      <c r="F273" s="19"/>
-      <c r="G273" s="19"/>
-      <c r="H273" s="20"/>
+      <c r="F273" s="17"/>
+      <c r="G273" s="17"/>
+      <c r="H273" s="22" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="6" t="s">
@@ -7659,12 +9089,14 @@
       <c r="D274" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="E274" s="16">
+      <c r="E274" s="14">
         <v>4.340277777777778E-3</v>
       </c>
-      <c r="F274" s="19"/>
-      <c r="G274" s="19"/>
-      <c r="H274" s="20"/>
+      <c r="F274" s="17"/>
+      <c r="G274" s="17"/>
+      <c r="H274" s="23" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="6" t="s">
@@ -7679,12 +9111,14 @@
       <c r="D275" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="E275" s="16">
+      <c r="E275" s="14">
         <v>1.1608796296296296E-2</v>
       </c>
-      <c r="F275" s="19"/>
-      <c r="G275" s="19"/>
-      <c r="H275" s="20"/>
+      <c r="F275" s="17"/>
+      <c r="G275" s="17"/>
+      <c r="H275" s="22" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="6" t="s">
@@ -7699,12 +9133,14 @@
       <c r="D276" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="E276" s="16">
+      <c r="E276" s="14">
         <v>7.4421296296296293E-3</v>
       </c>
-      <c r="F276" s="19"/>
-      <c r="G276" s="19"/>
-      <c r="H276" s="20"/>
+      <c r="F276" s="17"/>
+      <c r="G276" s="17"/>
+      <c r="H276" s="23" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="6" t="s">
@@ -7719,12 +9155,14 @@
       <c r="D277" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="E277" s="16">
+      <c r="E277" s="14">
         <v>1.425925925925926E-2</v>
       </c>
-      <c r="F277" s="19"/>
-      <c r="G277" s="19"/>
-      <c r="H277" s="20"/>
+      <c r="F277" s="17"/>
+      <c r="G277" s="17"/>
+      <c r="H277" s="22" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="6" t="s">
@@ -7739,12 +9177,14 @@
       <c r="D278" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="E278" s="16">
+      <c r="E278" s="14">
         <v>3.9236111111111112E-3</v>
       </c>
-      <c r="F278" s="19"/>
-      <c r="G278" s="19"/>
-      <c r="H278" s="20"/>
+      <c r="F278" s="17"/>
+      <c r="G278" s="17"/>
+      <c r="H278" s="23" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="6" t="s">
@@ -7759,12 +9199,14 @@
       <c r="D279" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="E279" s="16">
+      <c r="E279" s="14">
         <v>1.9340277777777779E-2</v>
       </c>
-      <c r="F279" s="19"/>
-      <c r="G279" s="19"/>
-      <c r="H279" s="20"/>
+      <c r="F279" s="17"/>
+      <c r="G279" s="17"/>
+      <c r="H279" s="22" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="6" t="s">
@@ -7779,12 +9221,14 @@
       <c r="D280" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="E280" s="16">
+      <c r="E280" s="14">
         <v>6.7592592592592591E-3</v>
       </c>
-      <c r="F280" s="19"/>
-      <c r="G280" s="19"/>
-      <c r="H280" s="20"/>
+      <c r="F280" s="17"/>
+      <c r="G280" s="17"/>
+      <c r="H280" s="23" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="6" t="s">
@@ -7799,12 +9243,14 @@
       <c r="D281" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="E281" s="16">
+      <c r="E281" s="14">
         <v>6.2268518518518515E-3</v>
       </c>
-      <c r="F281" s="19"/>
-      <c r="G281" s="19"/>
-      <c r="H281" s="20"/>
+      <c r="F281" s="17"/>
+      <c r="G281" s="17"/>
+      <c r="H281" s="22" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="6" t="s">
@@ -7819,12 +9265,14 @@
       <c r="D282" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="E282" s="16">
+      <c r="E282" s="14">
         <v>5.2430555555555555E-3</v>
       </c>
-      <c r="F282" s="19"/>
-      <c r="G282" s="19"/>
-      <c r="H282" s="20"/>
+      <c r="F282" s="17"/>
+      <c r="G282" s="17"/>
+      <c r="H282" s="23" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="6" t="s">
@@ -7839,12 +9287,14 @@
       <c r="D283" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="E283" s="16">
+      <c r="E283" s="14">
         <v>6.7129629629629631E-3</v>
       </c>
-      <c r="F283" s="19"/>
-      <c r="G283" s="19"/>
-      <c r="H283" s="20"/>
+      <c r="F283" s="17"/>
+      <c r="G283" s="17"/>
+      <c r="H283" s="22" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="6" t="s">
@@ -7859,12 +9309,14 @@
       <c r="D284" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="E284" s="16">
+      <c r="E284" s="14">
         <v>9.1898148148148156E-3</v>
       </c>
-      <c r="F284" s="19"/>
-      <c r="G284" s="19"/>
-      <c r="H284" s="20"/>
+      <c r="F284" s="17"/>
+      <c r="G284" s="17"/>
+      <c r="H284" s="23" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="6" t="s">
@@ -7879,12 +9331,14 @@
       <c r="D285" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="E285" s="16">
+      <c r="E285" s="14">
         <v>4.5138888888888885E-3</v>
       </c>
-      <c r="F285" s="19"/>
-      <c r="G285" s="19"/>
-      <c r="H285" s="20"/>
+      <c r="F285" s="17"/>
+      <c r="G285" s="17"/>
+      <c r="H285" s="22" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="6" t="s">
@@ -7899,12 +9353,14 @@
       <c r="D286" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="E286" s="16">
+      <c r="E286" s="14">
         <v>4.9189814814814816E-3</v>
       </c>
-      <c r="F286" s="19"/>
-      <c r="G286" s="19"/>
-      <c r="H286" s="20"/>
+      <c r="F286" s="17"/>
+      <c r="G286" s="17"/>
+      <c r="H286" s="23" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="6" t="s">
@@ -7919,12 +9375,14 @@
       <c r="D287" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="E287" s="16">
+      <c r="E287" s="14">
         <v>6.0185185185185185E-3</v>
       </c>
-      <c r="F287" s="19"/>
-      <c r="G287" s="19"/>
-      <c r="H287" s="20"/>
+      <c r="F287" s="17"/>
+      <c r="G287" s="17"/>
+      <c r="H287" s="22" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="6" t="s">
@@ -7939,12 +9397,14 @@
       <c r="D288" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="E288" s="16">
+      <c r="E288" s="14">
         <v>1.0358796296296297E-2</v>
       </c>
-      <c r="F288" s="19"/>
-      <c r="G288" s="19"/>
-      <c r="H288" s="20"/>
+      <c r="F288" s="17"/>
+      <c r="G288" s="17"/>
+      <c r="H288" s="23" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="289" spans="1:8">
       <c r="A289" s="6" t="s">
@@ -7959,12 +9419,14 @@
       <c r="D289" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="E289" s="16">
+      <c r="E289" s="14">
         <v>5.6018518518518518E-3</v>
       </c>
-      <c r="F289" s="19"/>
-      <c r="G289" s="19"/>
-      <c r="H289" s="20"/>
+      <c r="F289" s="17"/>
+      <c r="G289" s="17"/>
+      <c r="H289" s="22" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="290" spans="1:8">
       <c r="A290" s="6" t="s">
@@ -7979,12 +9441,14 @@
       <c r="D290" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="E290" s="16">
+      <c r="E290" s="14">
         <v>1.2372685185185184E-2</v>
       </c>
-      <c r="F290" s="19"/>
-      <c r="G290" s="19"/>
-      <c r="H290" s="20"/>
+      <c r="F290" s="17"/>
+      <c r="G290" s="17"/>
+      <c r="H290" s="23" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="291" spans="1:8">
       <c r="A291" s="6" t="s">
@@ -7999,12 +9463,14 @@
       <c r="D291" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="E291" s="16">
+      <c r="E291" s="14">
         <v>5.2777777777777779E-3</v>
       </c>
-      <c r="F291" s="19"/>
-      <c r="G291" s="19"/>
-      <c r="H291" s="20"/>
+      <c r="F291" s="17"/>
+      <c r="G291" s="17"/>
+      <c r="H291" s="22" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="6" t="s">
@@ -8019,12 +9485,14 @@
       <c r="D292" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="E292" s="16">
+      <c r="E292" s="14">
         <v>1.5601851851851851E-2</v>
       </c>
-      <c r="F292" s="22"/>
-      <c r="G292" s="22"/>
-      <c r="H292" s="25"/>
+      <c r="F292" s="19"/>
+      <c r="G292" s="19"/>
+      <c r="H292" s="23" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="6" t="s">
@@ -8039,7 +9507,7 @@
       <c r="D293" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="E293" s="16">
+      <c r="E293" s="14">
         <v>3.6342592592592594E-3</v>
       </c>
       <c r="F293" s="8">
@@ -8050,8 +9518,8 @@
         <f>F293*1.5</f>
         <v>0.30253472222222222</v>
       </c>
-      <c r="H293" s="9" t="s">
-        <v>486</v>
+      <c r="H293" s="22" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8067,12 +9535,14 @@
       <c r="D294" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="E294" s="16">
+      <c r="E294" s="14">
         <v>7.1990740740740739E-3</v>
       </c>
-      <c r="F294" s="19"/>
-      <c r="G294" s="19"/>
-      <c r="H294" s="20"/>
+      <c r="F294" s="17"/>
+      <c r="G294" s="17"/>
+      <c r="H294" s="23" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="6" t="s">
@@ -8087,12 +9557,14 @@
       <c r="D295" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="E295" s="16">
+      <c r="E295" s="14">
         <v>4.6990740740740743E-3</v>
       </c>
-      <c r="F295" s="19"/>
-      <c r="G295" s="19"/>
-      <c r="H295" s="20"/>
+      <c r="F295" s="17"/>
+      <c r="G295" s="17"/>
+      <c r="H295" s="22" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="6" t="s">
@@ -8107,12 +9579,14 @@
       <c r="D296" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="E296" s="16">
+      <c r="E296" s="14">
         <v>6.7361111111111111E-3</v>
       </c>
-      <c r="F296" s="19"/>
-      <c r="G296" s="19"/>
-      <c r="H296" s="20"/>
+      <c r="F296" s="17"/>
+      <c r="G296" s="17"/>
+      <c r="H296" s="23" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="6" t="s">
@@ -8127,12 +9601,14 @@
       <c r="D297" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E297" s="16">
+      <c r="E297" s="14">
         <v>5.9375000000000001E-3</v>
       </c>
-      <c r="F297" s="19"/>
-      <c r="G297" s="19"/>
-      <c r="H297" s="20"/>
+      <c r="F297" s="17"/>
+      <c r="G297" s="17"/>
+      <c r="H297" s="22" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="6" t="s">
@@ -8147,12 +9623,14 @@
       <c r="D298" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="E298" s="16">
+      <c r="E298" s="14">
         <v>7.0717592592592594E-3</v>
       </c>
-      <c r="F298" s="19"/>
-      <c r="G298" s="19"/>
-      <c r="H298" s="20"/>
+      <c r="F298" s="17"/>
+      <c r="G298" s="17"/>
+      <c r="H298" s="23" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="6" t="s">
@@ -8167,12 +9645,14 @@
       <c r="D299" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="E299" s="16">
+      <c r="E299" s="14">
         <v>9.2592592592592587E-3</v>
       </c>
-      <c r="F299" s="19"/>
-      <c r="G299" s="19"/>
-      <c r="H299" s="20"/>
+      <c r="F299" s="17"/>
+      <c r="G299" s="17"/>
+      <c r="H299" s="22" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="6" t="s">
@@ -8187,12 +9667,14 @@
       <c r="D300" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="16">
+      <c r="E300" s="14">
         <v>1.8229166666666668E-2</v>
       </c>
-      <c r="F300" s="19"/>
-      <c r="G300" s="19"/>
-      <c r="H300" s="20"/>
+      <c r="F300" s="17"/>
+      <c r="G300" s="17"/>
+      <c r="H300" s="23" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="6" t="s">
@@ -8207,12 +9689,14 @@
       <c r="D301" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="E301" s="16">
+      <c r="E301" s="14">
         <v>1.2997685185185185E-2</v>
       </c>
-      <c r="F301" s="19"/>
-      <c r="G301" s="19"/>
-      <c r="H301" s="20"/>
+      <c r="F301" s="17"/>
+      <c r="G301" s="17"/>
+      <c r="H301" s="22" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="6" t="s">
@@ -8227,12 +9711,14 @@
       <c r="D302" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="E302" s="16">
+      <c r="E302" s="14">
         <v>5.8217592592592592E-3</v>
       </c>
-      <c r="F302" s="19"/>
-      <c r="G302" s="19"/>
-      <c r="H302" s="20"/>
+      <c r="F302" s="17"/>
+      <c r="G302" s="17"/>
+      <c r="H302" s="23" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="6" t="s">
@@ -8247,12 +9733,14 @@
       <c r="D303" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="E303" s="16">
+      <c r="E303" s="14">
         <v>8.2986111111111108E-3</v>
       </c>
-      <c r="F303" s="19"/>
-      <c r="G303" s="19"/>
-      <c r="H303" s="20"/>
+      <c r="F303" s="17"/>
+      <c r="G303" s="17"/>
+      <c r="H303" s="22" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="6" t="s">
@@ -8267,12 +9755,14 @@
       <c r="D304" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="E304" s="16">
+      <c r="E304" s="14">
         <v>7.1759259259259259E-3</v>
       </c>
-      <c r="F304" s="19"/>
-      <c r="G304" s="19"/>
-      <c r="H304" s="20"/>
+      <c r="F304" s="17"/>
+      <c r="G304" s="17"/>
+      <c r="H304" s="23" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="6" t="s">
@@ -8287,12 +9777,14 @@
       <c r="D305" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="E305" s="16">
+      <c r="E305" s="14">
         <v>3.4837962962962965E-3</v>
       </c>
-      <c r="F305" s="19"/>
-      <c r="G305" s="19"/>
-      <c r="H305" s="20"/>
+      <c r="F305" s="17"/>
+      <c r="G305" s="17"/>
+      <c r="H305" s="22" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="6" t="s">
@@ -8307,12 +9799,14 @@
       <c r="D306" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="E306" s="16">
+      <c r="E306" s="14">
         <v>7.2453703703703708E-3</v>
       </c>
-      <c r="F306" s="19"/>
-      <c r="G306" s="19"/>
-      <c r="H306" s="20"/>
+      <c r="F306" s="17"/>
+      <c r="G306" s="17"/>
+      <c r="H306" s="23" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="6" t="s">
@@ -8327,12 +9821,14 @@
       <c r="D307" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="E307" s="16">
+      <c r="E307" s="14">
         <v>6.4120370370370373E-3</v>
       </c>
-      <c r="F307" s="19"/>
-      <c r="G307" s="19"/>
-      <c r="H307" s="20"/>
+      <c r="F307" s="17"/>
+      <c r="G307" s="17"/>
+      <c r="H307" s="22" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="6" t="s">
@@ -8347,12 +9843,14 @@
       <c r="D308" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="E308" s="16">
+      <c r="E308" s="14">
         <v>0.01</v>
       </c>
-      <c r="F308" s="19"/>
-      <c r="G308" s="19"/>
-      <c r="H308" s="20"/>
+      <c r="F308" s="17"/>
+      <c r="G308" s="17"/>
+      <c r="H308" s="23" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="6" t="s">
@@ -8367,12 +9865,14 @@
       <c r="D309" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="E309" s="16">
+      <c r="E309" s="14">
         <v>6.6203703703703702E-3</v>
       </c>
-      <c r="F309" s="19"/>
-      <c r="G309" s="19"/>
-      <c r="H309" s="20"/>
+      <c r="F309" s="17"/>
+      <c r="G309" s="17"/>
+      <c r="H309" s="22" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="6" t="s">
@@ -8387,12 +9887,14 @@
       <c r="D310" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="E310" s="16">
+      <c r="E310" s="14">
         <v>8.6226851851851846E-3</v>
       </c>
-      <c r="F310" s="19"/>
-      <c r="G310" s="19"/>
-      <c r="H310" s="20"/>
+      <c r="F310" s="17"/>
+      <c r="G310" s="17"/>
+      <c r="H310" s="23" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="6" t="s">
@@ -8407,12 +9909,14 @@
       <c r="D311" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="E311" s="16">
+      <c r="E311" s="14">
         <v>5.115740740740741E-3</v>
       </c>
-      <c r="F311" s="19"/>
-      <c r="G311" s="19"/>
-      <c r="H311" s="20"/>
+      <c r="F311" s="17"/>
+      <c r="G311" s="17"/>
+      <c r="H311" s="22" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="6" t="s">
@@ -8427,12 +9931,14 @@
       <c r="D312" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="E312" s="16">
+      <c r="E312" s="14">
         <v>7.3842592592592597E-3</v>
       </c>
-      <c r="F312" s="19"/>
-      <c r="G312" s="19"/>
-      <c r="H312" s="20"/>
+      <c r="F312" s="17"/>
+      <c r="G312" s="17"/>
+      <c r="H312" s="23" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="313" spans="1:8">
       <c r="A313" s="6" t="s">
@@ -8447,12 +9953,14 @@
       <c r="D313" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="E313" s="16">
+      <c r="E313" s="14">
         <v>7.8935185185185185E-3</v>
       </c>
-      <c r="F313" s="19"/>
-      <c r="G313" s="19"/>
-      <c r="H313" s="20"/>
+      <c r="F313" s="17"/>
+      <c r="G313" s="17"/>
+      <c r="H313" s="22" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="314" spans="1:8">
       <c r="A314" s="6" t="s">
@@ -8467,12 +9975,14 @@
       <c r="D314" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="E314" s="16">
+      <c r="E314" s="14">
         <v>1.0254629629629629E-2</v>
       </c>
-      <c r="F314" s="19"/>
-      <c r="G314" s="19"/>
-      <c r="H314" s="20"/>
+      <c r="F314" s="17"/>
+      <c r="G314" s="17"/>
+      <c r="H314" s="23" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="315" spans="1:8">
       <c r="A315" s="6" t="s">
@@ -8487,12 +9997,14 @@
       <c r="D315" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="E315" s="16">
+      <c r="E315" s="14">
         <v>6.5277777777777782E-3</v>
       </c>
-      <c r="F315" s="19"/>
-      <c r="G315" s="19"/>
-      <c r="H315" s="20"/>
+      <c r="F315" s="17"/>
+      <c r="G315" s="17"/>
+      <c r="H315" s="22" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="316" spans="1:8">
       <c r="A316" s="6" t="s">
@@ -8507,12 +10019,14 @@
       <c r="D316" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="E316" s="16">
+      <c r="E316" s="14">
         <v>1.1168981481481481E-2</v>
       </c>
-      <c r="F316" s="19"/>
-      <c r="G316" s="19"/>
-      <c r="H316" s="20"/>
+      <c r="F316" s="17"/>
+      <c r="G316" s="17"/>
+      <c r="H316" s="23" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="317" spans="1:8">
       <c r="A317" s="6" t="s">
@@ -8527,12 +10041,14 @@
       <c r="D317" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="E317" s="16">
+      <c r="E317" s="14">
         <v>6.6782407407407407E-3</v>
       </c>
-      <c r="F317" s="19"/>
-      <c r="G317" s="19"/>
-      <c r="H317" s="20"/>
+      <c r="F317" s="17"/>
+      <c r="G317" s="17"/>
+      <c r="H317" s="22" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="318" spans="1:8">
       <c r="A318" s="6" t="s">
@@ -8547,12 +10063,14 @@
       <c r="D318" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="E318" s="16">
+      <c r="E318" s="14">
         <v>7.2222222222222219E-3</v>
       </c>
-      <c r="F318" s="22"/>
-      <c r="G318" s="22"/>
-      <c r="H318" s="25"/>
+      <c r="F318" s="19"/>
+      <c r="G318" s="19"/>
+      <c r="H318" s="23" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="319" spans="1:8">
       <c r="A319" s="6" t="s">
@@ -8567,7 +10085,7 @@
       <c r="D319" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="E319" s="16">
+      <c r="E319" s="14">
         <v>4.9421296296296297E-3</v>
       </c>
       <c r="F319" s="8">
@@ -8578,8 +10096,8 @@
         <f>F319*1.5</f>
         <v>0.3033506944444444</v>
       </c>
-      <c r="H319" s="9" t="s">
-        <v>487</v>
+      <c r="H319" s="22" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8595,12 +10113,14 @@
       <c r="D320" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="E320" s="16">
+      <c r="E320" s="14">
         <v>5.6018518518518518E-3</v>
       </c>
-      <c r="F320" s="19"/>
-      <c r="G320" s="19"/>
-      <c r="H320" s="20"/>
+      <c r="F320" s="17"/>
+      <c r="G320" s="17"/>
+      <c r="H320" s="23" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="321" spans="1:8">
       <c r="A321" s="6" t="s">
@@ -8615,12 +10135,14 @@
       <c r="D321" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="E321" s="16">
+      <c r="E321" s="14">
         <v>7.3842592592592597E-3</v>
       </c>
-      <c r="F321" s="19"/>
-      <c r="G321" s="19"/>
-      <c r="H321" s="20"/>
+      <c r="F321" s="17"/>
+      <c r="G321" s="17"/>
+      <c r="H321" s="22" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="322" spans="1:8">
       <c r="A322" s="6" t="s">
@@ -8635,12 +10157,14 @@
       <c r="D322" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="E322" s="16">
+      <c r="E322" s="14">
         <v>7.7314814814814815E-3</v>
       </c>
-      <c r="F322" s="19"/>
-      <c r="G322" s="19"/>
-      <c r="H322" s="20"/>
+      <c r="F322" s="17"/>
+      <c r="G322" s="17"/>
+      <c r="H322" s="23" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="323" spans="1:8">
       <c r="A323" s="6" t="s">
@@ -8655,12 +10179,14 @@
       <c r="D323" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="E323" s="16">
+      <c r="E323" s="14">
         <v>4.8379629629629632E-3</v>
       </c>
-      <c r="F323" s="19"/>
-      <c r="G323" s="19"/>
-      <c r="H323" s="20"/>
+      <c r="F323" s="17"/>
+      <c r="G323" s="17"/>
+      <c r="H323" s="22" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="324" spans="1:8">
       <c r="A324" s="6" t="s">
@@ -8675,12 +10201,14 @@
       <c r="D324" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="E324" s="16">
+      <c r="E324" s="14">
         <v>8.9467592592592585E-3</v>
       </c>
-      <c r="F324" s="19"/>
-      <c r="G324" s="19"/>
-      <c r="H324" s="20"/>
+      <c r="F324" s="17"/>
+      <c r="G324" s="17"/>
+      <c r="H324" s="23" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="325" spans="1:8">
       <c r="A325" s="6" t="s">
@@ -8695,12 +10223,14 @@
       <c r="D325" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="E325" s="16">
+      <c r="E325" s="14">
         <v>6.9328703703703705E-3</v>
       </c>
-      <c r="F325" s="19"/>
-      <c r="G325" s="19"/>
-      <c r="H325" s="20"/>
+      <c r="F325" s="17"/>
+      <c r="G325" s="17"/>
+      <c r="H325" s="22" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="326" spans="1:8">
       <c r="A326" s="6" t="s">
@@ -8715,12 +10245,14 @@
       <c r="D326" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="E326" s="16">
+      <c r="E326" s="14">
         <v>6.8402777777777776E-3</v>
       </c>
-      <c r="F326" s="19"/>
-      <c r="G326" s="19"/>
-      <c r="H326" s="20"/>
+      <c r="F326" s="17"/>
+      <c r="G326" s="17"/>
+      <c r="H326" s="23" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="327" spans="1:8">
       <c r="A327" s="6" t="s">
@@ -8735,12 +10267,14 @@
       <c r="D327" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="E327" s="16">
+      <c r="E327" s="14">
         <v>8.1712962962962963E-3</v>
       </c>
-      <c r="F327" s="19"/>
-      <c r="G327" s="19"/>
-      <c r="H327" s="20"/>
+      <c r="F327" s="17"/>
+      <c r="G327" s="17"/>
+      <c r="H327" s="22" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="328" spans="1:8">
       <c r="A328" s="6" t="s">
@@ -8755,12 +10289,14 @@
       <c r="D328" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="E328" s="16">
+      <c r="E328" s="14">
         <v>4.3055555555555555E-3</v>
       </c>
-      <c r="F328" s="19"/>
-      <c r="G328" s="19"/>
-      <c r="H328" s="20"/>
+      <c r="F328" s="17"/>
+      <c r="G328" s="17"/>
+      <c r="H328" s="23" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="329" spans="1:8">
       <c r="A329" s="6" t="s">
@@ -8775,12 +10311,14 @@
       <c r="D329" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="E329" s="16">
+      <c r="E329" s="14">
         <v>6.6782407407407407E-3</v>
       </c>
-      <c r="F329" s="19"/>
-      <c r="G329" s="19"/>
-      <c r="H329" s="20"/>
+      <c r="F329" s="17"/>
+      <c r="G329" s="17"/>
+      <c r="H329" s="22" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="330" spans="1:8">
       <c r="A330" s="6" t="s">
@@ -8795,12 +10333,14 @@
       <c r="D330" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="E330" s="16">
+      <c r="E330" s="14">
         <v>5.6365740740740742E-3</v>
       </c>
-      <c r="F330" s="19"/>
-      <c r="G330" s="19"/>
-      <c r="H330" s="20"/>
+      <c r="F330" s="17"/>
+      <c r="G330" s="17"/>
+      <c r="H330" s="23" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="331" spans="1:8">
       <c r="A331" s="6" t="s">
@@ -8815,12 +10355,14 @@
       <c r="D331" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="E331" s="16">
+      <c r="E331" s="14">
         <v>8.5532407407407415E-3</v>
       </c>
-      <c r="F331" s="19"/>
-      <c r="G331" s="19"/>
-      <c r="H331" s="20"/>
+      <c r="F331" s="17"/>
+      <c r="G331" s="17"/>
+      <c r="H331" s="22" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="332" spans="1:8">
       <c r="A332" s="6" t="s">
@@ -8835,12 +10377,14 @@
       <c r="D332" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="E332" s="16">
+      <c r="E332" s="14">
         <v>1.6157407407407409E-2</v>
       </c>
-      <c r="F332" s="19"/>
-      <c r="G332" s="19"/>
-      <c r="H332" s="20"/>
+      <c r="F332" s="17"/>
+      <c r="G332" s="17"/>
+      <c r="H332" s="23" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="333" spans="1:8">
       <c r="A333" s="6" t="s">
@@ -8855,12 +10399,14 @@
       <c r="D333" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="E333" s="16">
+      <c r="E333" s="14">
         <v>1.0868055555555556E-2</v>
       </c>
-      <c r="F333" s="19"/>
-      <c r="G333" s="19"/>
-      <c r="H333" s="20"/>
+      <c r="F333" s="17"/>
+      <c r="G333" s="17"/>
+      <c r="H333" s="22" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="334" spans="1:8">
       <c r="A334" s="6" t="s">
@@ -8876,9 +10422,11 @@
       <c r="E334" s="7">
         <v>3.8657407407407408E-3</v>
       </c>
-      <c r="F334" s="19"/>
-      <c r="G334" s="19"/>
-      <c r="H334" s="20"/>
+      <c r="F334" s="17"/>
+      <c r="G334" s="17"/>
+      <c r="H334" s="23" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="335" spans="1:8">
       <c r="A335" s="6" t="s">
@@ -8894,9 +10442,11 @@
       <c r="E335" s="7">
         <v>5.0231481481481481E-3</v>
       </c>
-      <c r="F335" s="19"/>
-      <c r="G335" s="19"/>
-      <c r="H335" s="20"/>
+      <c r="F335" s="17"/>
+      <c r="G335" s="17"/>
+      <c r="H335" s="22" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="336" spans="1:8">
       <c r="A336" s="6" t="s">
@@ -8912,9 +10462,11 @@
       <c r="E336" s="7">
         <v>1.7986111111111112E-2</v>
       </c>
-      <c r="F336" s="19"/>
-      <c r="G336" s="19"/>
-      <c r="H336" s="20"/>
+      <c r="F336" s="17"/>
+      <c r="G336" s="17"/>
+      <c r="H336" s="23" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="337" spans="1:8">
       <c r="A337" s="6" t="s">
@@ -8930,9 +10482,11 @@
       <c r="E337" s="7">
         <v>6.1921296296296299E-3</v>
       </c>
-      <c r="F337" s="19"/>
-      <c r="G337" s="19"/>
-      <c r="H337" s="20"/>
+      <c r="F337" s="17"/>
+      <c r="G337" s="17"/>
+      <c r="H337" s="22" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="338" spans="1:8">
       <c r="A338" s="6" t="s">
@@ -8948,9 +10502,11 @@
       <c r="E338" s="7">
         <v>2.1898148148148149E-2</v>
       </c>
-      <c r="F338" s="19"/>
-      <c r="G338" s="19"/>
-      <c r="H338" s="20"/>
+      <c r="F338" s="17"/>
+      <c r="G338" s="17"/>
+      <c r="H338" s="23" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="6" t="s">
@@ -8966,9 +10522,11 @@
       <c r="E339" s="7">
         <v>1.8773148148148146E-2</v>
       </c>
-      <c r="F339" s="19"/>
-      <c r="G339" s="19"/>
-      <c r="H339" s="20"/>
+      <c r="F339" s="17"/>
+      <c r="G339" s="17"/>
+      <c r="H339" s="22" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="340" spans="1:8">
       <c r="A340" s="6" t="s">
@@ -8984,9 +10542,11 @@
       <c r="E340" s="7">
         <v>7.4189814814814813E-3</v>
       </c>
-      <c r="F340" s="19"/>
-      <c r="G340" s="19"/>
-      <c r="H340" s="20"/>
+      <c r="F340" s="17"/>
+      <c r="G340" s="17"/>
+      <c r="H340" s="23" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="6" t="s">
@@ -9002,9 +10562,11 @@
       <c r="E341" s="7">
         <v>1.2962962962962963E-3</v>
       </c>
-      <c r="F341" s="19"/>
-      <c r="G341" s="19"/>
-      <c r="H341" s="20"/>
+      <c r="F341" s="17"/>
+      <c r="G341" s="17"/>
+      <c r="H341" s="22" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="6" t="s">
@@ -9020,9 +10582,11 @@
       <c r="E342" s="7">
         <v>6.1921296296296299E-3</v>
       </c>
-      <c r="F342" s="22"/>
-      <c r="G342" s="22"/>
-      <c r="H342" s="25"/>
+      <c r="F342" s="19"/>
+      <c r="G342" s="19"/>
+      <c r="H342" s="23" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="6" t="s">
@@ -9046,8 +10610,8 @@
         <f>F343*1.5</f>
         <v>0.31055555555555553</v>
       </c>
-      <c r="H343" s="9" t="s">
-        <v>488</v>
+      <c r="H343" s="22" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9064,9 +10628,11 @@
       <c r="E344" s="7">
         <v>2.4837962962962964E-2</v>
       </c>
-      <c r="F344" s="19"/>
-      <c r="G344" s="19"/>
-      <c r="H344" s="20"/>
+      <c r="F344" s="17"/>
+      <c r="G344" s="17"/>
+      <c r="H344" s="23" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="345" spans="1:8">
       <c r="A345" s="6" t="s">
@@ -9082,9 +10648,11 @@
       <c r="E345" s="7">
         <v>1.4293981481481482E-2</v>
       </c>
-      <c r="F345" s="19"/>
-      <c r="G345" s="19"/>
-      <c r="H345" s="20"/>
+      <c r="F345" s="17"/>
+      <c r="G345" s="17"/>
+      <c r="H345" s="22" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="6" t="s">
@@ -9100,9 +10668,11 @@
       <c r="E346" s="7">
         <v>1.3159722222222222E-2</v>
       </c>
-      <c r="F346" s="19"/>
-      <c r="G346" s="19"/>
-      <c r="H346" s="20"/>
+      <c r="F346" s="17"/>
+      <c r="G346" s="17"/>
+      <c r="H346" s="23" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="6" t="s">
@@ -9118,9 +10688,11 @@
       <c r="E347" s="7">
         <v>1.5543981481481482E-2</v>
       </c>
-      <c r="F347" s="19"/>
-      <c r="G347" s="19"/>
-      <c r="H347" s="20"/>
+      <c r="F347" s="17"/>
+      <c r="G347" s="17"/>
+      <c r="H347" s="22" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="6" t="s">
@@ -9136,9 +10708,11 @@
       <c r="E348" s="7">
         <v>1.170138888888889E-2</v>
       </c>
-      <c r="F348" s="19"/>
-      <c r="G348" s="19"/>
-      <c r="H348" s="20"/>
+      <c r="F348" s="17"/>
+      <c r="G348" s="17"/>
+      <c r="H348" s="23" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="6" t="s">
@@ -9154,9 +10728,11 @@
       <c r="E349" s="7">
         <v>8.4259259259259253E-3</v>
       </c>
-      <c r="F349" s="19"/>
-      <c r="G349" s="19"/>
-      <c r="H349" s="20"/>
+      <c r="F349" s="17"/>
+      <c r="G349" s="17"/>
+      <c r="H349" s="22" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="6" t="s">
@@ -9172,9 +10748,11 @@
       <c r="E350" s="7">
         <v>3.6307870370370372E-2</v>
       </c>
-      <c r="F350" s="19"/>
-      <c r="G350" s="19"/>
-      <c r="H350" s="20"/>
+      <c r="F350" s="17"/>
+      <c r="G350" s="17"/>
+      <c r="H350" s="23" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="6" t="s">
@@ -9190,9 +10768,11 @@
       <c r="E351" s="7">
         <v>9.6643518518518511E-3</v>
       </c>
-      <c r="F351" s="19"/>
-      <c r="G351" s="19"/>
-      <c r="H351" s="20"/>
+      <c r="F351" s="17"/>
+      <c r="G351" s="17"/>
+      <c r="H351" s="22" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="6" t="s">
@@ -9208,9 +10788,11 @@
       <c r="E352" s="7">
         <v>2.0486111111111113E-3</v>
       </c>
-      <c r="F352" s="19"/>
-      <c r="G352" s="19"/>
-      <c r="H352" s="20"/>
+      <c r="F352" s="17"/>
+      <c r="G352" s="17"/>
+      <c r="H352" s="23" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="6" t="s">
@@ -9226,9 +10808,11 @@
       <c r="E353" s="7">
         <v>2.1759259259259259E-2</v>
       </c>
-      <c r="F353" s="19"/>
-      <c r="G353" s="19"/>
-      <c r="H353" s="20"/>
+      <c r="F353" s="17"/>
+      <c r="G353" s="17"/>
+      <c r="H353" s="22" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="6" t="s">
@@ -9244,9 +10828,11 @@
       <c r="E354" s="7">
         <v>2.2824074074074073E-2</v>
       </c>
-      <c r="F354" s="19"/>
-      <c r="G354" s="19"/>
-      <c r="H354" s="20"/>
+      <c r="F354" s="17"/>
+      <c r="G354" s="17"/>
+      <c r="H354" s="23" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="6" t="s">
@@ -9262,9 +10848,11 @@
       <c r="E355" s="7">
         <v>2.3703703703703703E-2</v>
       </c>
-      <c r="F355" s="22"/>
-      <c r="G355" s="22"/>
-      <c r="H355" s="25"/>
+      <c r="F355" s="19"/>
+      <c r="G355" s="19"/>
+      <c r="H355" s="22" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="6" t="s">
@@ -9288,8 +10876,8 @@
         <f>F356*1.5</f>
         <v>0.2886111111111111</v>
       </c>
-      <c r="H356" s="9" t="s">
-        <v>489</v>
+      <c r="H356" s="22" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9306,9 +10894,11 @@
       <c r="E357" s="7">
         <v>2.0520833333333332E-2</v>
       </c>
-      <c r="F357" s="19"/>
-      <c r="G357" s="19"/>
-      <c r="H357" s="20"/>
+      <c r="F357" s="17"/>
+      <c r="G357" s="17"/>
+      <c r="H357" s="23" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="6" t="s">
@@ -9324,9 +10914,11 @@
       <c r="E358" s="7">
         <v>8.1018518518518514E-3</v>
       </c>
-      <c r="F358" s="19"/>
-      <c r="G358" s="19"/>
-      <c r="H358" s="20"/>
+      <c r="F358" s="17"/>
+      <c r="G358" s="17"/>
+      <c r="H358" s="23" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="6" t="s">
@@ -9342,9 +10934,11 @@
       <c r="E359" s="7">
         <v>4.6064814814814814E-3</v>
       </c>
-      <c r="F359" s="19"/>
-      <c r="G359" s="19"/>
-      <c r="H359" s="20"/>
+      <c r="F359" s="17"/>
+      <c r="G359" s="17"/>
+      <c r="H359" s="22" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="6" t="s">
@@ -9360,9 +10954,11 @@
       <c r="E360" s="7">
         <v>2.9652777777777778E-2</v>
       </c>
-      <c r="F360" s="19"/>
-      <c r="G360" s="19"/>
-      <c r="H360" s="20"/>
+      <c r="F360" s="17"/>
+      <c r="G360" s="17"/>
+      <c r="H360" s="23" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="6" t="s">
@@ -9378,9 +10974,11 @@
       <c r="E361" s="7">
         <v>1.7673611111111112E-2</v>
       </c>
-      <c r="F361" s="19"/>
-      <c r="G361" s="19"/>
-      <c r="H361" s="20"/>
+      <c r="F361" s="17"/>
+      <c r="G361" s="17"/>
+      <c r="H361" s="23" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="6" t="s">
@@ -9396,9 +10994,11 @@
       <c r="E362" s="7">
         <v>2.0960648148148148E-2</v>
       </c>
-      <c r="F362" s="19"/>
-      <c r="G362" s="19"/>
-      <c r="H362" s="20"/>
+      <c r="F362" s="17"/>
+      <c r="G362" s="17"/>
+      <c r="H362" s="22" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="6" t="s">
@@ -9414,9 +11014,11 @@
       <c r="E363" s="7">
         <v>5.0960648148148151E-2</v>
       </c>
-      <c r="F363" s="19"/>
-      <c r="G363" s="19"/>
-      <c r="H363" s="20"/>
+      <c r="F363" s="17"/>
+      <c r="G363" s="17"/>
+      <c r="H363" s="23" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="6" t="s">
@@ -9432,9 +11034,11 @@
       <c r="E364" s="7">
         <v>8.518518518518519E-3</v>
       </c>
-      <c r="F364" s="19"/>
-      <c r="G364" s="19"/>
-      <c r="H364" s="20"/>
+      <c r="F364" s="17"/>
+      <c r="G364" s="17"/>
+      <c r="H364" s="23" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="6" t="s">
@@ -9450,34 +11054,18 @@
       <c r="E365" s="7">
         <v>8.9814814814814809E-3</v>
       </c>
-      <c r="F365" s="22"/>
-      <c r="G365" s="22"/>
-      <c r="H365" s="25"/>
+      <c r="F365" s="19"/>
+      <c r="G365" s="19"/>
+      <c r="H365" s="22" t="s">
+        <v>537</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="H265:H292"/>
-    <mergeCell ref="H293:H318"/>
-    <mergeCell ref="H319:H342"/>
-    <mergeCell ref="H343:H355"/>
-    <mergeCell ref="H356:H365"/>
-    <mergeCell ref="H193:H208"/>
+  <mergeCells count="36">
     <mergeCell ref="F209:F231"/>
     <mergeCell ref="G209:G231"/>
-    <mergeCell ref="H209:H231"/>
-    <mergeCell ref="H232:H264"/>
-    <mergeCell ref="H2:H15"/>
-    <mergeCell ref="H16:H27"/>
-    <mergeCell ref="H28:H49"/>
-    <mergeCell ref="H50:H77"/>
-    <mergeCell ref="H78:H100"/>
-    <mergeCell ref="H101:H113"/>
-    <mergeCell ref="H114:H130"/>
-    <mergeCell ref="H131:H152"/>
-    <mergeCell ref="H153:H174"/>
     <mergeCell ref="F175:F192"/>
     <mergeCell ref="G175:G192"/>
-    <mergeCell ref="H175:H192"/>
     <mergeCell ref="F193:F208"/>
     <mergeCell ref="G193:G208"/>
     <mergeCell ref="F2:F15"/>

--- a/excel_files/timetable.xlsx
+++ b/excel_files/timetable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture_checker/build/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture-checker/build/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C863AD02-0D78-3F4E-B17B-90E5E6748F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5D24AE-25A2-4C4F-9516-F4E20D0A5A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="500" windowWidth="19200" windowHeight="15800" xr2:uid="{765D39CF-F5DA-5E46-89DA-00BE39B518AB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{765D39CF-F5DA-5E46-89DA-00BE39B518AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="541">
   <si>
     <t>강의명</t>
   </si>
@@ -2377,44 +2377,6 @@
   </si>
   <si>
     <r>
-      <t>8.13(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>화)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8.13(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="나눔명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans KR"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>8.13(화)</t>
     </r>
     <r>
@@ -2436,6 +2398,42 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.31(수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.31(수)</t>
+  </si>
+  <si>
+    <t>7.31(수)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.31(수)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t/>
     </r>
@@ -2636,9 +2634,6 @@
     <xf numFmtId="46" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2646,9 +2641,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2663,13 +2655,34 @@
     <xf numFmtId="46" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="46" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2677,21 +2690,6 @@
     </xf>
     <xf numFmtId="46" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3029,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A561FC51-39B6-004A-9744-5A70B0752A77}">
   <dimension ref="A1:H365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B346" workbookViewId="0">
-      <selection activeCell="G356" sqref="G356:G365"/>
+    <sheetView tabSelected="1" topLeftCell="C333" workbookViewId="0">
+      <selection activeCell="H352" sqref="H352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3044,7 +3042,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>479</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -3080,15 +3078,15 @@
       <c r="E2" s="7">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="21">
         <f>SUM(E2:E15)</f>
         <v>0.20958333333333332</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="21">
         <f>F2*1.5</f>
         <v>0.31437499999999996</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3106,9 +3104,9 @@
       <c r="E3" s="7">
         <v>1.2418981481481482E-2</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="22" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3126,9 +3124,9 @@
       <c r="E4" s="7">
         <v>1.2638888888888889E-2</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="22" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3146,9 +3144,9 @@
       <c r="E5" s="7">
         <v>3.1145833333333334E-2</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="22" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3166,9 +3164,9 @@
       <c r="E6" s="7">
         <v>1.5462962962962963E-2</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="22" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3186,9 +3184,9 @@
       <c r="E7" s="7">
         <v>1.6759259259259258E-2</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="22" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3206,9 +3204,9 @@
       <c r="E8" s="7">
         <v>1.2881944444444444E-2</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="22" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3226,9 +3224,9 @@
       <c r="E9" s="7">
         <v>1.6423611111111111E-2</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="22" t="s">
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3246,9 +3244,9 @@
       <c r="E10" s="7">
         <v>1.2175925925925925E-2</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="22" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3266,9 +3264,9 @@
       <c r="E11" s="7">
         <v>5.6712962962962967E-3</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="22" t="s">
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3286,9 +3284,9 @@
       <c r="E12" s="7">
         <v>1.412037037037037E-2</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="22" t="s">
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3306,9 +3304,9 @@
       <c r="E13" s="7">
         <v>6.8055555555555551E-3</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="22" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3326,9 +3324,9 @@
       <c r="E14" s="7">
         <v>1.5208333333333334E-2</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="22" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3346,9 +3344,9 @@
       <c r="E15" s="7">
         <v>1.5370370370370371E-2</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="22" t="s">
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3366,15 +3364,15 @@
       <c r="E16" s="7">
         <v>7.4421296296296293E-3</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="21">
         <f>SUM(E16:E27)</f>
         <v>0.20709490740740744</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="21">
         <f>F16*1.5</f>
         <v>0.31064236111111115</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3392,9 +3390,9 @@
       <c r="E17" s="7">
         <v>1.255787037037037E-2</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="22" t="s">
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3412,9 +3410,9 @@
       <c r="E18" s="7">
         <v>1.0821759259259258E-2</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="22" t="s">
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3432,9 +3430,9 @@
       <c r="E19" s="7">
         <v>5.4976851851851853E-3</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="22" t="s">
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3452,9 +3450,9 @@
       <c r="E20" s="7">
         <v>2.0081018518518519E-2</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="22" t="s">
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3472,9 +3470,9 @@
       <c r="E21" s="7">
         <v>1.1875E-2</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="22" t="s">
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3492,9 +3490,9 @@
       <c r="E22" s="7">
         <v>5.7638888888888887E-3</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="22" t="s">
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3512,9 +3510,9 @@
       <c r="E23" s="7">
         <v>4.0474537037037038E-2</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="22" t="s">
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3532,9 +3530,9 @@
       <c r="E24" s="7">
         <v>4.490740740740741E-2</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="22" t="s">
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3552,9 +3550,9 @@
       <c r="E25" s="7">
         <v>4.3981481481481484E-3</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="22" t="s">
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3572,9 +3570,9 @@
       <c r="E26" s="7">
         <v>8.7962962962962968E-3</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="22" t="s">
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3592,9 +3590,9 @@
       <c r="E27" s="7">
         <v>3.4479166666666665E-2</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="22" t="s">
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3612,15 +3610,15 @@
       <c r="E28" s="7">
         <v>7.3842592592592597E-3</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="21">
         <f>SUM(E28:E49)</f>
         <v>0.19423611111111114</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="21">
         <f>F28*1.5</f>
         <v>0.29135416666666669</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="16" t="s">
         <v>480</v>
       </c>
     </row>
@@ -3638,9 +3636,9 @@
       <c r="E29" s="7">
         <v>2.8009259259259258E-2</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="23" t="s">
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="17" t="s">
         <v>481</v>
       </c>
     </row>
@@ -3658,9 +3656,9 @@
       <c r="E30" s="7">
         <v>1.8113425925925925E-2</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="22" t="s">
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="16" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3680,9 +3678,9 @@
       <c r="E31" s="7">
         <v>2.1064814814814813E-3</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="23" t="s">
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3702,9 +3700,9 @@
       <c r="E32" s="7">
         <v>9.5023148148148141E-3</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="22" t="s">
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="16" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3724,9 +3722,9 @@
       <c r="E33" s="7">
         <v>6.8402777777777776E-3</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="23" t="s">
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3746,9 +3744,9 @@
       <c r="E34" s="7">
         <v>1.9583333333333335E-2</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="22" t="s">
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="16" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3768,9 +3766,9 @@
       <c r="E35" s="7">
         <v>1.712962962962963E-3</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="23" t="s">
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3790,9 +3788,9 @@
       <c r="E36" s="7">
         <v>2.3379629629629631E-3</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="22" t="s">
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="16" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3812,9 +3810,9 @@
       <c r="E37" s="7">
         <v>3.0555555555555557E-3</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="23" t="s">
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3834,9 +3832,9 @@
       <c r="E38" s="7">
         <v>2.074074074074074E-2</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="22" t="s">
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="16" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3856,9 +3854,9 @@
       <c r="E39" s="7">
         <v>1.1145833333333334E-2</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="23" t="s">
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3878,9 +3876,9 @@
       <c r="E40" s="7">
         <v>5.3819444444444444E-3</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="22" t="s">
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="16" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3900,9 +3898,9 @@
       <c r="E41" s="7">
         <v>1.5949074074074074E-2</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="23" t="s">
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3922,9 +3920,9 @@
       <c r="E42" s="7">
         <v>3.8078703703703703E-3</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="22" t="s">
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="16" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3944,9 +3942,9 @@
       <c r="E43" s="7">
         <v>7.8009259259259256E-3</v>
       </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="23" t="s">
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3966,9 +3964,9 @@
       <c r="E44" s="7">
         <v>3.0787037037037037E-3</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="22" t="s">
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="16" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3988,9 +3986,9 @@
       <c r="E45" s="7">
         <v>3.1481481481481482E-3</v>
       </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="23" t="s">
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -4010,9 +4008,9 @@
       <c r="E46" s="7">
         <v>4.6064814814814814E-3</v>
       </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="22" t="s">
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="16" t="s">
         <v>482</v>
       </c>
     </row>
@@ -4032,9 +4030,9 @@
       <c r="E47" s="7">
         <v>3.2754629629629631E-3</v>
       </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="23" t="s">
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -4054,9 +4052,9 @@
       <c r="E48" s="7">
         <v>1.0694444444444444E-2</v>
       </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="22" t="s">
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="16" t="s">
         <v>482</v>
       </c>
     </row>
@@ -4076,9 +4074,9 @@
       <c r="E49" s="7">
         <v>5.9606481481481481E-3</v>
       </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="23" t="s">
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -4098,15 +4096,15 @@
       <c r="E50" s="7">
         <v>1.8055555555555555E-3</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="21">
         <f>SUM(E50:E77)</f>
         <v>0.17664351851851851</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="21">
         <f>F50*1.5</f>
         <v>0.26496527777777779</v>
       </c>
-      <c r="H50" s="22" t="s">
+      <c r="H50" s="16" t="s">
         <v>483</v>
       </c>
     </row>
@@ -4126,9 +4124,9 @@
       <c r="E51" s="7">
         <v>5.185185185185185E-3</v>
       </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="23" t="s">
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="17" t="s">
         <v>484</v>
       </c>
     </row>
@@ -4148,9 +4146,9 @@
       <c r="E52" s="7">
         <v>4.0740740740740737E-3</v>
       </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="22" t="s">
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4170,9 +4168,9 @@
       <c r="E53" s="7">
         <v>2.0405092592592593E-2</v>
       </c>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="23" t="s">
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4192,9 +4190,9 @@
       <c r="E54" s="7">
         <v>8.726851851851852E-3</v>
       </c>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="22" t="s">
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4214,9 +4212,9 @@
       <c r="E55" s="7">
         <v>4.6180555555555558E-3</v>
       </c>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="23" t="s">
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4236,9 +4234,9 @@
       <c r="E56" s="7">
         <v>5.092592592592593E-3</v>
       </c>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="22" t="s">
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4258,9 +4256,9 @@
       <c r="E57" s="7">
         <v>1.7592592592592592E-3</v>
       </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="23" t="s">
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4280,9 +4278,9 @@
       <c r="E58" s="7">
         <v>5.2777777777777779E-3</v>
       </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="22" t="s">
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4302,9 +4300,9 @@
       <c r="E59" s="7">
         <v>1.2037037037037037E-2</v>
       </c>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="23" t="s">
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4324,9 +4322,9 @@
       <c r="E60" s="7">
         <v>2.650462962962963E-3</v>
       </c>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="22" t="s">
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4346,9 +4344,9 @@
       <c r="E61" s="7">
         <v>1.736111111111111E-3</v>
       </c>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="23" t="s">
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4368,9 +4366,9 @@
       <c r="E62" s="7">
         <v>9.9421296296296289E-3</v>
       </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="22" t="s">
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4390,9 +4388,9 @@
       <c r="E63" s="7">
         <v>4.1898148148148146E-3</v>
       </c>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="23" t="s">
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4412,9 +4410,9 @@
       <c r="E64" s="7">
         <v>3.2523148148148147E-3</v>
       </c>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="22" t="s">
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4434,9 +4432,9 @@
       <c r="E65" s="7">
         <v>7.5347222222222222E-3</v>
       </c>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="23" t="s">
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4456,9 +4454,9 @@
       <c r="E66" s="7">
         <v>5.6828703703703702E-3</v>
       </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="22" t="s">
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4478,9 +4476,9 @@
       <c r="E67" s="7">
         <v>2.2916666666666667E-3</v>
       </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="23" t="s">
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4500,9 +4498,9 @@
       <c r="E68" s="7">
         <v>9.6296296296296303E-3</v>
       </c>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="22" t="s">
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4522,9 +4520,9 @@
       <c r="E69" s="7">
         <v>6.851851851851852E-3</v>
       </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="23" t="s">
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4544,9 +4542,9 @@
       <c r="E70" s="7">
         <v>8.8888888888888889E-3</v>
       </c>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="22" t="s">
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4566,9 +4564,9 @@
       <c r="E71" s="7">
         <v>8.0902777777777778E-3</v>
       </c>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="23" t="s">
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4588,9 +4586,9 @@
       <c r="E72" s="7">
         <v>9.8842592592592593E-3</v>
       </c>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="22" t="s">
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4610,9 +4608,9 @@
       <c r="E73" s="7">
         <v>1.6319444444444445E-3</v>
       </c>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="23" t="s">
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4632,9 +4630,9 @@
       <c r="E74" s="7">
         <v>1.1828703703703704E-2</v>
       </c>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="22" t="s">
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4654,9 +4652,9 @@
       <c r="E75" s="7">
         <v>1.5972222222222223E-3</v>
       </c>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="23" t="s">
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4676,9 +4674,9 @@
       <c r="E76" s="7">
         <v>7.8819444444444449E-3</v>
       </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="22" t="s">
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4698,9 +4696,9 @@
       <c r="E77" s="7">
         <v>4.0972222222222226E-3</v>
       </c>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="23" t="s">
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4720,15 +4718,15 @@
       <c r="E78" s="7">
         <v>1.0127314814814815E-2</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F78" s="21">
         <f>SUM(E78:E100)</f>
         <v>0.19204861111111113</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="21">
         <f>F78*1.5</f>
         <v>0.28807291666666668</v>
       </c>
-      <c r="H78" s="22" t="s">
+      <c r="H78" s="16" t="s">
         <v>487</v>
       </c>
     </row>
@@ -4748,9 +4746,9 @@
       <c r="E79" s="7">
         <v>1.5393518518518518E-2</v>
       </c>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="23" t="s">
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="17" t="s">
         <v>488</v>
       </c>
     </row>
@@ -4770,9 +4768,9 @@
       <c r="E80" s="7">
         <v>3.460648148148148E-3</v>
       </c>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="22" t="s">
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4792,9 +4790,9 @@
       <c r="E81" s="7">
         <v>2.7546296296296294E-3</v>
       </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="23" t="s">
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="17" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4814,9 +4812,9 @@
       <c r="E82" s="7">
         <v>3.2442129629629626E-2</v>
       </c>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="22" t="s">
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4836,9 +4834,9 @@
       <c r="E83" s="7">
         <v>4.7453703703703704E-4</v>
       </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="23" t="s">
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="17" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4858,9 +4856,9 @@
       <c r="E84" s="7">
         <v>4.3750000000000004E-3</v>
       </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="22" t="s">
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4880,9 +4878,9 @@
       <c r="E85" s="7">
         <v>3.8541666666666668E-3</v>
       </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="23" t="s">
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="17" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4902,9 +4900,9 @@
       <c r="E86" s="7">
         <v>1.5914351851851853E-2</v>
       </c>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="22" t="s">
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4924,9 +4922,9 @@
       <c r="E87" s="7">
         <v>2.1527777777777778E-3</v>
       </c>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="23" t="s">
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="17" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4946,9 +4944,9 @@
       <c r="E88" s="7">
         <v>4.0393518518518521E-3</v>
       </c>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="22" t="s">
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4968,9 +4966,9 @@
       <c r="E89" s="7">
         <v>2.9861111111111113E-3</v>
       </c>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="23" t="s">
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="17" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4990,9 +4988,9 @@
       <c r="E90" s="7">
         <v>1.6782407407407408E-3</v>
       </c>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="22" t="s">
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5012,9 +5010,9 @@
       <c r="E91" s="7">
         <v>1.4467592592592593E-2</v>
       </c>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="23" t="s">
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="17" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5034,9 +5032,9 @@
       <c r="E92" s="7">
         <v>5.8449074074074072E-3</v>
       </c>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="22" t="s">
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5056,9 +5054,9 @@
       <c r="E93" s="7">
         <v>8.6226851851851846E-3</v>
       </c>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="23" t="s">
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="17" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5078,9 +5076,9 @@
       <c r="E94" s="7">
         <v>7.5115740740740742E-3</v>
       </c>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="22" t="s">
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5100,9 +5098,9 @@
       <c r="E95" s="7">
         <v>5.6365740740740742E-3</v>
       </c>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="23" t="s">
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="17" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5122,9 +5120,9 @@
       <c r="E96" s="7">
         <v>1.2465277777777778E-2</v>
       </c>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="22" t="s">
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5144,9 +5142,9 @@
       <c r="E97" s="7">
         <v>1.653935185185185E-2</v>
       </c>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="23" t="s">
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="17" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5166,9 +5164,9 @@
       <c r="E98" s="7">
         <v>4.5370370370370373E-3</v>
       </c>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="22" t="s">
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5188,9 +5186,9 @@
       <c r="E99" s="7">
         <v>8.726851851851852E-3</v>
       </c>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="23" t="s">
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="17" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5210,9 +5208,9 @@
       <c r="E100" s="7">
         <v>8.0439814814814818E-3</v>
       </c>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="22" t="s">
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5232,15 +5230,15 @@
       <c r="E101" s="7">
         <v>2.388888888888889E-2</v>
       </c>
-      <c r="F101" s="8">
+      <c r="F101" s="21">
         <f>SUM(E101:E113)</f>
         <v>0.20234953703703701</v>
       </c>
-      <c r="G101" s="8">
+      <c r="G101" s="21">
         <f>F101*1.5</f>
         <v>0.30352430555555554</v>
       </c>
-      <c r="H101" s="22" t="s">
+      <c r="H101" s="16" t="s">
         <v>491</v>
       </c>
     </row>
@@ -5260,9 +5258,9 @@
       <c r="E102" s="7">
         <v>1.9560185185185184E-2</v>
       </c>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="23" t="s">
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="17" t="s">
         <v>492</v>
       </c>
     </row>
@@ -5282,9 +5280,9 @@
       <c r="E103" s="7">
         <v>9.4444444444444445E-3</v>
       </c>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="22" t="s">
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="16" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5304,9 +5302,9 @@
       <c r="E104" s="7">
         <v>1.8472222222222223E-2</v>
       </c>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="23" t="s">
+      <c r="F104" s="22"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="17" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5326,9 +5324,9 @@
       <c r="E105" s="7">
         <v>5.9143518518518521E-3</v>
       </c>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="22" t="s">
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="16" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5348,9 +5346,9 @@
       <c r="E106" s="7">
         <v>1.9479166666666665E-2</v>
       </c>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="23" t="s">
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="17" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5370,9 +5368,9 @@
       <c r="E107" s="7">
         <v>1.1331018518518518E-2</v>
       </c>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="22" t="s">
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="16" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5392,9 +5390,9 @@
       <c r="E108" s="7">
         <v>5.6828703703703702E-3</v>
       </c>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="23" t="s">
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="17" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5414,9 +5412,9 @@
       <c r="E109" s="7">
         <v>8.3564814814814821E-3</v>
       </c>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="22" t="s">
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="16" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5436,9 +5434,9 @@
       <c r="E110" s="7">
         <v>2.2893518518518518E-2</v>
       </c>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="23" t="s">
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="17" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5458,9 +5456,9 @@
       <c r="E111" s="7">
         <v>1.8229166666666668E-2</v>
       </c>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="22" t="s">
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="16" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5480,9 +5478,9 @@
       <c r="E112" s="7">
         <v>1.9467592592592592E-2</v>
       </c>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="23" t="s">
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="17" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5502,9 +5500,9 @@
       <c r="E113" s="7">
         <v>1.9629629629629629E-2</v>
       </c>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="22" t="s">
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="16" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5524,15 +5522,15 @@
       <c r="E114" s="7">
         <v>2.8715277777777777E-2</v>
       </c>
-      <c r="F114" s="8">
+      <c r="F114" s="21">
         <f>SUM(E114:E130)</f>
         <v>0.19422453703703699</v>
       </c>
-      <c r="G114" s="8">
+      <c r="G114" s="21">
         <f>F114*1.5</f>
         <v>0.29133680555555547</v>
       </c>
-      <c r="H114" s="22" t="s">
+      <c r="H114" s="16" t="s">
         <v>495</v>
       </c>
     </row>
@@ -5552,9 +5550,9 @@
       <c r="E115" s="7">
         <v>7.0949074074074074E-3</v>
       </c>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="23" t="s">
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="17" t="s">
         <v>496</v>
       </c>
     </row>
@@ -5574,9 +5572,9 @@
       <c r="E116" s="7">
         <v>9.6759259259259264E-3</v>
       </c>
-      <c r="F116" s="17"/>
-      <c r="G116" s="17"/>
-      <c r="H116" s="22" t="s">
+      <c r="F116" s="22"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5596,9 +5594,9 @@
       <c r="E117" s="7">
         <v>5.37037037037037E-3</v>
       </c>
-      <c r="F117" s="17"/>
-      <c r="G117" s="17"/>
-      <c r="H117" s="23" t="s">
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5618,9 +5616,9 @@
       <c r="E118" s="7">
         <v>1.7303240740740741E-2</v>
       </c>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="22" t="s">
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5640,9 +5638,9 @@
       <c r="E119" s="7">
         <v>9.4212962962962957E-3</v>
       </c>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="23" t="s">
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5662,9 +5660,9 @@
       <c r="E120" s="7">
         <v>2.7245370370370371E-2</v>
       </c>
-      <c r="F120" s="17"/>
-      <c r="G120" s="17"/>
-      <c r="H120" s="22" t="s">
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5684,9 +5682,9 @@
       <c r="E121" s="7">
         <v>2.5405092592592594E-2</v>
       </c>
-      <c r="F121" s="17"/>
-      <c r="G121" s="17"/>
-      <c r="H121" s="23" t="s">
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5706,9 +5704,9 @@
       <c r="E122" s="7">
         <v>8.1597222222222227E-3</v>
       </c>
-      <c r="F122" s="17"/>
-      <c r="G122" s="17"/>
-      <c r="H122" s="22" t="s">
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5728,9 +5726,9 @@
       <c r="E123" s="7">
         <v>6.145833333333333E-3</v>
       </c>
-      <c r="F123" s="17"/>
-      <c r="G123" s="17"/>
-      <c r="H123" s="23" t="s">
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5750,9 +5748,9 @@
       <c r="E124" s="7">
         <v>1.7673611111111112E-2</v>
       </c>
-      <c r="F124" s="17"/>
-      <c r="G124" s="17"/>
-      <c r="H124" s="22" t="s">
+      <c r="F124" s="22"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5772,9 +5770,9 @@
       <c r="E125" s="7">
         <v>5.5324074074074078E-3</v>
       </c>
-      <c r="F125" s="17"/>
-      <c r="G125" s="17"/>
-      <c r="H125" s="23" t="s">
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5794,9 +5792,9 @@
       <c r="E126" s="7">
         <v>6.9212962962962961E-3</v>
       </c>
-      <c r="F126" s="17"/>
-      <c r="G126" s="17"/>
-      <c r="H126" s="22" t="s">
+      <c r="F126" s="22"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5816,9 +5814,9 @@
       <c r="E127" s="7">
         <v>5.6018518518518518E-3</v>
       </c>
-      <c r="F127" s="17"/>
-      <c r="G127" s="17"/>
-      <c r="H127" s="23" t="s">
+      <c r="F127" s="22"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5838,9 +5836,9 @@
       <c r="E128" s="7">
         <v>3.8194444444444443E-3</v>
       </c>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17"/>
-      <c r="H128" s="22" t="s">
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5860,9 +5858,9 @@
       <c r="E129" s="7">
         <v>4.31712962962963E-3</v>
       </c>
-      <c r="F129" s="17"/>
-      <c r="G129" s="17"/>
-      <c r="H129" s="23" t="s">
+      <c r="F129" s="22"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5882,9 +5880,9 @@
       <c r="E130" s="7">
         <v>5.8217592592592592E-3</v>
       </c>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="22" t="s">
+      <c r="F130" s="23"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5904,15 +5902,15 @@
       <c r="E131" s="7">
         <v>1.6064814814814816E-2</v>
       </c>
-      <c r="F131" s="8">
+      <c r="F131" s="21">
         <f>SUM(E131:E152)</f>
         <v>0.20628472222222222</v>
       </c>
-      <c r="G131" s="8">
+      <c r="G131" s="21">
         <f>F131*1.5</f>
         <v>0.30942708333333335</v>
       </c>
-      <c r="H131" s="22" t="s">
+      <c r="H131" s="16" t="s">
         <v>499</v>
       </c>
     </row>
@@ -5932,9 +5930,9 @@
       <c r="E132" s="7">
         <v>1.0636574074074074E-2</v>
       </c>
-      <c r="F132" s="17"/>
-      <c r="G132" s="17"/>
-      <c r="H132" s="23" t="s">
+      <c r="F132" s="22"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="17" t="s">
         <v>500</v>
       </c>
     </row>
@@ -5954,9 +5952,9 @@
       <c r="E133" s="7">
         <v>8.067129629629629E-3</v>
       </c>
-      <c r="F133" s="17"/>
-      <c r="G133" s="17"/>
-      <c r="H133" s="22" t="s">
+      <c r="F133" s="22"/>
+      <c r="G133" s="22"/>
+      <c r="H133" s="16" t="s">
         <v>501</v>
       </c>
     </row>
@@ -5976,9 +5974,9 @@
       <c r="E134" s="7">
         <v>7.8935185185185185E-3</v>
       </c>
-      <c r="F134" s="17"/>
-      <c r="G134" s="17"/>
-      <c r="H134" s="23" t="s">
+      <c r="F134" s="22"/>
+      <c r="G134" s="22"/>
+      <c r="H134" s="17" t="s">
         <v>502</v>
       </c>
     </row>
@@ -5998,9 +5996,9 @@
       <c r="E135" s="7">
         <v>5.9143518518518521E-3</v>
       </c>
-      <c r="F135" s="17"/>
-      <c r="G135" s="17"/>
-      <c r="H135" s="22" t="s">
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="16" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6020,9 +6018,9 @@
       <c r="E136" s="7">
         <v>6.0416666666666665E-3</v>
       </c>
-      <c r="F136" s="17"/>
-      <c r="G136" s="17"/>
-      <c r="H136" s="23" t="s">
+      <c r="F136" s="22"/>
+      <c r="G136" s="22"/>
+      <c r="H136" s="17" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6042,9 +6040,9 @@
       <c r="E137" s="7">
         <v>2.4016203703703703E-2</v>
       </c>
-      <c r="F137" s="17"/>
-      <c r="G137" s="17"/>
-      <c r="H137" s="22" t="s">
+      <c r="F137" s="22"/>
+      <c r="G137" s="22"/>
+      <c r="H137" s="16" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6064,9 +6062,9 @@
       <c r="E138" s="7">
         <v>1.494212962962963E-2</v>
       </c>
-      <c r="F138" s="17"/>
-      <c r="G138" s="17"/>
-      <c r="H138" s="23" t="s">
+      <c r="F138" s="22"/>
+      <c r="G138" s="22"/>
+      <c r="H138" s="17" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6086,9 +6084,9 @@
       <c r="E139" s="7">
         <v>7.1412037037037034E-3</v>
       </c>
-      <c r="F139" s="17"/>
-      <c r="G139" s="17"/>
-      <c r="H139" s="22" t="s">
+      <c r="F139" s="22"/>
+      <c r="G139" s="22"/>
+      <c r="H139" s="16" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6108,9 +6106,9 @@
       <c r="E140" s="7">
         <v>5.5208333333333333E-3</v>
       </c>
-      <c r="F140" s="17"/>
-      <c r="G140" s="17"/>
-      <c r="H140" s="23" t="s">
+      <c r="F140" s="22"/>
+      <c r="G140" s="22"/>
+      <c r="H140" s="17" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6130,9 +6128,9 @@
       <c r="E141" s="7">
         <v>4.8842592592592592E-3</v>
       </c>
-      <c r="F141" s="17"/>
-      <c r="G141" s="17"/>
-      <c r="H141" s="22" t="s">
+      <c r="F141" s="22"/>
+      <c r="G141" s="22"/>
+      <c r="H141" s="16" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6152,9 +6150,9 @@
       <c r="E142" s="7">
         <v>1.0428240740740741E-2</v>
       </c>
-      <c r="F142" s="17"/>
-      <c r="G142" s="17"/>
-      <c r="H142" s="23" t="s">
+      <c r="F142" s="22"/>
+      <c r="G142" s="22"/>
+      <c r="H142" s="17" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6174,9 +6172,9 @@
       <c r="E143" s="7">
         <v>8.5995370370370375E-3</v>
       </c>
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
-      <c r="H143" s="22" t="s">
+      <c r="F143" s="22"/>
+      <c r="G143" s="22"/>
+      <c r="H143" s="16" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6196,9 +6194,9 @@
       <c r="E144" s="7">
         <v>7.6504629629629631E-3</v>
       </c>
-      <c r="F144" s="17"/>
-      <c r="G144" s="17"/>
-      <c r="H144" s="23" t="s">
+      <c r="F144" s="22"/>
+      <c r="G144" s="22"/>
+      <c r="H144" s="17" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6218,9 +6216,9 @@
       <c r="E145" s="7">
         <v>8.2754629629629636E-3</v>
       </c>
-      <c r="F145" s="17"/>
-      <c r="G145" s="17"/>
-      <c r="H145" s="22" t="s">
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
+      <c r="H145" s="16" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6240,9 +6238,9 @@
       <c r="E146" s="7">
         <v>1.7708333333333333E-2</v>
       </c>
-      <c r="F146" s="17"/>
-      <c r="G146" s="17"/>
-      <c r="H146" s="23" t="s">
+      <c r="F146" s="22"/>
+      <c r="G146" s="22"/>
+      <c r="H146" s="17" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6262,9 +6260,9 @@
       <c r="E147" s="7">
         <v>7.6273148148148151E-3</v>
       </c>
-      <c r="F147" s="17"/>
-      <c r="G147" s="17"/>
-      <c r="H147" s="22" t="s">
+      <c r="F147" s="22"/>
+      <c r="G147" s="22"/>
+      <c r="H147" s="16" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6284,9 +6282,9 @@
       <c r="E148" s="7">
         <v>4.0740740740740737E-3</v>
       </c>
-      <c r="F148" s="17"/>
-      <c r="G148" s="17"/>
-      <c r="H148" s="23" t="s">
+      <c r="F148" s="22"/>
+      <c r="G148" s="22"/>
+      <c r="H148" s="17" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6306,9 +6304,9 @@
       <c r="E149" s="7">
         <v>5.7291666666666663E-3</v>
       </c>
-      <c r="F149" s="17"/>
-      <c r="G149" s="17"/>
-      <c r="H149" s="22" t="s">
+      <c r="F149" s="22"/>
+      <c r="G149" s="22"/>
+      <c r="H149" s="16" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6328,9 +6326,9 @@
       <c r="E150" s="7">
         <v>6.1921296296296299E-3</v>
       </c>
-      <c r="F150" s="17"/>
-      <c r="G150" s="17"/>
-      <c r="H150" s="23" t="s">
+      <c r="F150" s="22"/>
+      <c r="G150" s="22"/>
+      <c r="H150" s="17" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6350,9 +6348,9 @@
       <c r="E151" s="7">
         <v>1.1724537037037037E-2</v>
       </c>
-      <c r="F151" s="17"/>
-      <c r="G151" s="17"/>
-      <c r="H151" s="22" t="s">
+      <c r="F151" s="22"/>
+      <c r="G151" s="22"/>
+      <c r="H151" s="16" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6372,499 +6370,499 @@
       <c r="E152" s="7">
         <v>7.1527777777777779E-3</v>
       </c>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
-      <c r="H152" s="23" t="s">
+      <c r="F152" s="23"/>
+      <c r="G152" s="23"/>
+      <c r="H152" s="17" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B153" s="10" t="s">
+      <c r="A153" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B153" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C153" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="D153" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E153" s="11">
+      <c r="E153" s="10">
         <v>1.1620370370370371E-2</v>
       </c>
-      <c r="F153" s="12">
+      <c r="F153" s="24">
         <f>SUM(E153:E174)</f>
         <v>0.19090277777777778</v>
       </c>
-      <c r="G153" s="12">
+      <c r="G153" s="24">
         <f>F153*1.5</f>
         <v>0.28635416666666669</v>
       </c>
-      <c r="H153" s="25" t="s">
+      <c r="H153" s="19" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B154" s="10" t="s">
+      <c r="A154" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B154" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="D154" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E154" s="11">
+      <c r="E154" s="10">
         <v>1.2534722222222221E-2</v>
       </c>
-      <c r="F154" s="20"/>
-      <c r="G154" s="20"/>
-      <c r="H154" s="26" t="s">
+      <c r="F154" s="25"/>
+      <c r="G154" s="25"/>
+      <c r="H154" s="20" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B155" s="10" t="s">
+      <c r="A155" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B155" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="C155" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="D155" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E155" s="11">
+      <c r="E155" s="10">
         <v>2.6817129629629628E-2</v>
       </c>
-      <c r="F155" s="20"/>
-      <c r="G155" s="20"/>
-      <c r="H155" s="26" t="s">
+      <c r="F155" s="25"/>
+      <c r="G155" s="25"/>
+      <c r="H155" s="20" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B156" s="10" t="s">
+      <c r="A156" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B156" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="D156" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E156" s="11">
+      <c r="E156" s="10">
         <v>1.1851851851851851E-2</v>
       </c>
-      <c r="F156" s="20"/>
-      <c r="G156" s="20"/>
-      <c r="H156" s="25" t="s">
+      <c r="F156" s="25"/>
+      <c r="G156" s="25"/>
+      <c r="H156" s="19" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B157" s="9" t="s">
+      <c r="A157" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B157" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C157" s="9" t="s">
+      <c r="C157" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="D157" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E157" s="11">
+      <c r="E157" s="10">
         <v>1.667824074074074E-2</v>
       </c>
-      <c r="F157" s="20"/>
-      <c r="G157" s="20"/>
-      <c r="H157" s="26" t="s">
+      <c r="F157" s="25"/>
+      <c r="G157" s="25"/>
+      <c r="H157" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B158" s="9" t="s">
+      <c r="A158" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B158" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C158" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="D158" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="E158" s="11">
+      <c r="E158" s="10">
         <v>1.7465277777777777E-2</v>
       </c>
-      <c r="F158" s="20"/>
-      <c r="G158" s="20"/>
-      <c r="H158" s="26" t="s">
+      <c r="F158" s="25"/>
+      <c r="G158" s="25"/>
+      <c r="H158" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B159" s="10" t="s">
+      <c r="A159" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B159" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C159" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D159" s="9" t="s">
+      <c r="D159" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="E159" s="13">
+      <c r="E159" s="11">
         <v>3.5995370370370369E-3</v>
       </c>
-      <c r="F159" s="20"/>
-      <c r="G159" s="20"/>
-      <c r="H159" s="25" t="s">
+      <c r="F159" s="25"/>
+      <c r="G159" s="25"/>
+      <c r="H159" s="19" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B160" s="10" t="s">
+      <c r="A160" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B160" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="C160" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D160" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E160" s="13">
+      <c r="E160" s="11">
         <v>2.0601851851851853E-3</v>
       </c>
-      <c r="F160" s="20"/>
-      <c r="G160" s="20"/>
-      <c r="H160" s="26" t="s">
+      <c r="F160" s="25"/>
+      <c r="G160" s="25"/>
+      <c r="H160" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B161" s="10" t="s">
+      <c r="A161" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B161" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C161" s="9" t="s">
+      <c r="C161" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E161" s="13">
+      <c r="E161" s="11">
         <v>2.1180555555555558E-3</v>
       </c>
-      <c r="F161" s="20"/>
-      <c r="G161" s="20"/>
-      <c r="H161" s="26" t="s">
+      <c r="F161" s="25"/>
+      <c r="G161" s="25"/>
+      <c r="H161" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B162" s="10" t="s">
+      <c r="A162" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B162" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C162" s="9" t="s">
+      <c r="C162" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="D162" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E162" s="13">
+      <c r="E162" s="11">
         <v>5.2430555555555555E-3</v>
       </c>
-      <c r="F162" s="20"/>
-      <c r="G162" s="20"/>
-      <c r="H162" s="25" t="s">
+      <c r="F162" s="25"/>
+      <c r="G162" s="25"/>
+      <c r="H162" s="19" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B163" s="10" t="s">
+      <c r="A163" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B163" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C163" s="9" t="s">
+      <c r="C163" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="D163" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E163" s="13">
+      <c r="E163" s="11">
         <v>5.4745370370370373E-3</v>
       </c>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="26" t="s">
+      <c r="F163" s="25"/>
+      <c r="G163" s="25"/>
+      <c r="H163" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B164" s="10" t="s">
+      <c r="A164" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B164" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C164" s="9" t="s">
+      <c r="C164" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="D164" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E164" s="13">
+      <c r="E164" s="11">
         <v>3.8888888888888888E-3</v>
       </c>
-      <c r="F164" s="20"/>
-      <c r="G164" s="20"/>
-      <c r="H164" s="26" t="s">
+      <c r="F164" s="25"/>
+      <c r="G164" s="25"/>
+      <c r="H164" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B165" s="10" t="s">
+      <c r="A165" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B165" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C165" s="10" t="s">
+      <c r="C165" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="D165" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="E165" s="13">
+      <c r="E165" s="11">
         <v>6.7361111111111111E-3</v>
       </c>
-      <c r="F165" s="20"/>
-      <c r="G165" s="20"/>
-      <c r="H165" s="25" t="s">
+      <c r="F165" s="25"/>
+      <c r="G165" s="25"/>
+      <c r="H165" s="19" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B166" s="10" t="s">
+      <c r="A166" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B166" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C166" s="10" t="s">
+      <c r="C166" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D166" s="9" t="s">
+      <c r="D166" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E166" s="13">
+      <c r="E166" s="11">
         <v>3.7962962962962963E-3</v>
       </c>
-      <c r="F166" s="20"/>
-      <c r="G166" s="20"/>
-      <c r="H166" s="26" t="s">
+      <c r="F166" s="25"/>
+      <c r="G166" s="25"/>
+      <c r="H166" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B167" s="10" t="s">
+      <c r="A167" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B167" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C167" s="10" t="s">
+      <c r="C167" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D167" s="9" t="s">
+      <c r="D167" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E167" s="13">
+      <c r="E167" s="11">
         <v>1.2210648148148148E-2</v>
       </c>
-      <c r="F167" s="20"/>
-      <c r="G167" s="20"/>
-      <c r="H167" s="26" t="s">
+      <c r="F167" s="25"/>
+      <c r="G167" s="25"/>
+      <c r="H167" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B168" s="10" t="s">
+      <c r="A168" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B168" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C168" s="10" t="s">
+      <c r="C168" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="D168" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E168" s="11">
+      <c r="E168" s="10">
         <v>3.3564814814814816E-3</v>
       </c>
-      <c r="F168" s="20"/>
-      <c r="G168" s="20"/>
-      <c r="H168" s="25" t="s">
+      <c r="F168" s="25"/>
+      <c r="G168" s="25"/>
+      <c r="H168" s="19" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B169" s="10" t="s">
+      <c r="A169" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B169" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C169" s="10" t="s">
+      <c r="C169" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="D169" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E169" s="13">
+      <c r="E169" s="11">
         <v>8.2638888888888883E-3</v>
       </c>
-      <c r="F169" s="20"/>
-      <c r="G169" s="20"/>
-      <c r="H169" s="26" t="s">
+      <c r="F169" s="25"/>
+      <c r="G169" s="25"/>
+      <c r="H169" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B170" s="10" t="s">
+      <c r="A170" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B170" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C170" s="10" t="s">
+      <c r="C170" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D170" s="9" t="s">
+      <c r="D170" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="E170" s="13">
+      <c r="E170" s="11">
         <v>1.40625E-2</v>
       </c>
-      <c r="F170" s="20"/>
-      <c r="G170" s="20"/>
-      <c r="H170" s="26" t="s">
+      <c r="F170" s="25"/>
+      <c r="G170" s="25"/>
+      <c r="H170" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B171" s="10" t="s">
+      <c r="A171" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B171" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C171" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D171" s="9" t="s">
+      <c r="D171" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="E171" s="13">
+      <c r="E171" s="11">
         <v>5.6365740740740742E-3</v>
       </c>
-      <c r="F171" s="20"/>
-      <c r="G171" s="20"/>
-      <c r="H171" s="25" t="s">
+      <c r="F171" s="25"/>
+      <c r="G171" s="25"/>
+      <c r="H171" s="19" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B172" s="10" t="s">
+      <c r="A172" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B172" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D172" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E172" s="13">
+      <c r="E172" s="11">
         <v>6.6087962962962966E-3</v>
       </c>
-      <c r="F172" s="20"/>
-      <c r="G172" s="20"/>
-      <c r="H172" s="26" t="s">
+      <c r="F172" s="25"/>
+      <c r="G172" s="25"/>
+      <c r="H172" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B173" s="10" t="s">
+      <c r="A173" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B173" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C173" s="10" t="s">
+      <c r="C173" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D173" s="9" t="s">
+      <c r="D173" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E173" s="13">
+      <c r="E173" s="11">
         <v>7.1064814814814819E-3</v>
       </c>
-      <c r="F173" s="20"/>
-      <c r="G173" s="20"/>
-      <c r="H173" s="26" t="s">
+      <c r="F173" s="25"/>
+      <c r="G173" s="25"/>
+      <c r="H173" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B174" s="10" t="s">
+      <c r="A174" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B174" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C174" s="10" t="s">
+      <c r="C174" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="D174" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E174" s="13">
+      <c r="E174" s="11">
         <v>3.7731481481481483E-3</v>
       </c>
-      <c r="F174" s="21"/>
-      <c r="G174" s="21"/>
-      <c r="H174" s="25" t="s">
+      <c r="F174" s="26"/>
+      <c r="G174" s="26"/>
+      <c r="H174" s="19" t="s">
         <v>505</v>
       </c>
     </row>
@@ -6881,18 +6879,18 @@
       <c r="D175" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E175" s="14">
+      <c r="E175" s="12">
         <v>4.8148148148148152E-3</v>
       </c>
-      <c r="F175" s="8">
+      <c r="F175" s="21">
         <f>SUM(E175:E192)</f>
         <v>8.7199074074074095E-2</v>
       </c>
-      <c r="G175" s="8">
+      <c r="G175" s="21">
         <f>F175*1.5</f>
         <v>0.13079861111111113</v>
       </c>
-      <c r="H175" s="22" t="s">
+      <c r="H175" s="16" t="s">
         <v>507</v>
       </c>
     </row>
@@ -6909,12 +6907,12 @@
       <c r="D176" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="E176" s="14">
+      <c r="E176" s="12">
         <v>3.7384259259259259E-3</v>
       </c>
-      <c r="F176" s="17"/>
-      <c r="G176" s="17"/>
-      <c r="H176" s="23" t="s">
+      <c r="F176" s="22"/>
+      <c r="G176" s="22"/>
+      <c r="H176" s="17" t="s">
         <v>508</v>
       </c>
     </row>
@@ -6931,12 +6929,12 @@
       <c r="D177" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E177" s="14">
+      <c r="E177" s="12">
         <v>4.4560185185185189E-3</v>
       </c>
-      <c r="F177" s="17"/>
-      <c r="G177" s="17"/>
-      <c r="H177" s="22" t="s">
+      <c r="F177" s="22"/>
+      <c r="G177" s="22"/>
+      <c r="H177" s="16" t="s">
         <v>509</v>
       </c>
     </row>
@@ -6953,12 +6951,12 @@
       <c r="D178" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E178" s="14">
+      <c r="E178" s="12">
         <v>5.9490740740740745E-3</v>
       </c>
-      <c r="F178" s="17"/>
-      <c r="G178" s="17"/>
-      <c r="H178" s="23" t="s">
+      <c r="F178" s="22"/>
+      <c r="G178" s="22"/>
+      <c r="H178" s="17" t="s">
         <v>510</v>
       </c>
     </row>
@@ -6975,12 +6973,12 @@
       <c r="D179" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E179" s="14">
+      <c r="E179" s="12">
         <v>1.1180555555555555E-2</v>
       </c>
-      <c r="F179" s="17"/>
-      <c r="G179" s="17"/>
-      <c r="H179" s="22" t="s">
+      <c r="F179" s="22"/>
+      <c r="G179" s="22"/>
+      <c r="H179" s="16" t="s">
         <v>509</v>
       </c>
     </row>
@@ -6997,12 +6995,12 @@
       <c r="D180" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E180" s="14">
+      <c r="E180" s="12">
         <v>4.0277777777777777E-3</v>
       </c>
-      <c r="F180" s="17"/>
-      <c r="G180" s="17"/>
-      <c r="H180" s="23" t="s">
+      <c r="F180" s="22"/>
+      <c r="G180" s="22"/>
+      <c r="H180" s="17" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7019,12 +7017,12 @@
       <c r="D181" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E181" s="14">
+      <c r="E181" s="12">
         <v>5.5671296296296293E-3</v>
       </c>
-      <c r="F181" s="17"/>
-      <c r="G181" s="17"/>
-      <c r="H181" s="22" t="s">
+      <c r="F181" s="22"/>
+      <c r="G181" s="22"/>
+      <c r="H181" s="16" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7041,12 +7039,12 @@
       <c r="D182" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E182" s="14">
+      <c r="E182" s="12">
         <v>3.1828703703703702E-3</v>
       </c>
-      <c r="F182" s="17"/>
-      <c r="G182" s="17"/>
-      <c r="H182" s="23" t="s">
+      <c r="F182" s="22"/>
+      <c r="G182" s="22"/>
+      <c r="H182" s="17" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7063,12 +7061,12 @@
       <c r="D183" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E183" s="14">
+      <c r="E183" s="12">
         <v>5.3935185185185188E-3</v>
       </c>
-      <c r="F183" s="17"/>
-      <c r="G183" s="17"/>
-      <c r="H183" s="22" t="s">
+      <c r="F183" s="22"/>
+      <c r="G183" s="22"/>
+      <c r="H183" s="16" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7085,12 +7083,12 @@
       <c r="D184" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E184" s="14">
+      <c r="E184" s="12">
         <v>2.3148148148148147E-3</v>
       </c>
-      <c r="F184" s="17"/>
-      <c r="G184" s="17"/>
-      <c r="H184" s="23" t="s">
+      <c r="F184" s="22"/>
+      <c r="G184" s="22"/>
+      <c r="H184" s="17" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7107,12 +7105,12 @@
       <c r="D185" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="E185" s="14">
+      <c r="E185" s="12">
         <v>4.3981481481481484E-3</v>
       </c>
-      <c r="F185" s="17"/>
-      <c r="G185" s="17"/>
-      <c r="H185" s="22" t="s">
+      <c r="F185" s="22"/>
+      <c r="G185" s="22"/>
+      <c r="H185" s="16" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7129,12 +7127,12 @@
       <c r="D186" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E186" s="14">
+      <c r="E186" s="12">
         <v>3.2060185185185186E-3</v>
       </c>
-      <c r="F186" s="17"/>
-      <c r="G186" s="17"/>
-      <c r="H186" s="23" t="s">
+      <c r="F186" s="22"/>
+      <c r="G186" s="22"/>
+      <c r="H186" s="17" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7151,12 +7149,12 @@
       <c r="D187" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E187" s="14">
+      <c r="E187" s="12">
         <v>2.4074074074074076E-3</v>
       </c>
-      <c r="F187" s="17"/>
-      <c r="G187" s="17"/>
-      <c r="H187" s="22" t="s">
+      <c r="F187" s="22"/>
+      <c r="G187" s="22"/>
+      <c r="H187" s="16" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7173,12 +7171,12 @@
       <c r="D188" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E188" s="14">
+      <c r="E188" s="12">
         <v>5.6712962962962967E-3</v>
       </c>
-      <c r="F188" s="17"/>
-      <c r="G188" s="17"/>
-      <c r="H188" s="23" t="s">
+      <c r="F188" s="22"/>
+      <c r="G188" s="22"/>
+      <c r="H188" s="17" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7195,12 +7193,12 @@
       <c r="D189" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E189" s="14">
+      <c r="E189" s="12">
         <v>5.7754629629629631E-3</v>
       </c>
-      <c r="F189" s="17"/>
-      <c r="G189" s="17"/>
-      <c r="H189" s="22" t="s">
+      <c r="F189" s="22"/>
+      <c r="G189" s="22"/>
+      <c r="H189" s="16" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7217,12 +7215,12 @@
       <c r="D190" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E190" s="14">
+      <c r="E190" s="12">
         <v>3.4953703703703705E-3</v>
       </c>
-      <c r="F190" s="17"/>
-      <c r="G190" s="17"/>
-      <c r="H190" s="23" t="s">
+      <c r="F190" s="22"/>
+      <c r="G190" s="22"/>
+      <c r="H190" s="17" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7239,12 +7237,12 @@
       <c r="D191" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E191" s="14">
+      <c r="E191" s="12">
         <v>5.9259259259259256E-3</v>
       </c>
-      <c r="F191" s="17"/>
-      <c r="G191" s="17"/>
-      <c r="H191" s="22" t="s">
+      <c r="F191" s="22"/>
+      <c r="G191" s="22"/>
+      <c r="H191" s="16" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7258,15 +7256,15 @@
       <c r="C192" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D192" s="15" t="s">
+      <c r="D192" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="E192" s="16">
+      <c r="E192" s="14">
         <v>5.6944444444444447E-3</v>
       </c>
-      <c r="F192" s="19"/>
-      <c r="G192" s="19"/>
-      <c r="H192" s="23" t="s">
+      <c r="F192" s="23"/>
+      <c r="G192" s="23"/>
+      <c r="H192" s="17" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7280,21 +7278,21 @@
       <c r="C193" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D193" s="15" t="s">
+      <c r="D193" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="E193" s="16">
+      <c r="E193" s="14">
         <v>3.4027777777777776E-3</v>
       </c>
-      <c r="F193" s="8">
+      <c r="F193" s="21">
         <f>SUM(E193:E208)</f>
         <v>0.18383101851851852</v>
       </c>
-      <c r="G193" s="8">
+      <c r="G193" s="21">
         <f>F193*1.5</f>
         <v>0.27574652777777775</v>
       </c>
-      <c r="H193" s="22" t="s">
+      <c r="H193" s="16" t="s">
         <v>511</v>
       </c>
     </row>
@@ -7308,15 +7306,15 @@
       <c r="C194" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D194" s="15" t="s">
+      <c r="D194" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="E194" s="16">
+      <c r="E194" s="14">
         <v>2.9513888888888888E-3</v>
       </c>
-      <c r="F194" s="17"/>
-      <c r="G194" s="17"/>
-      <c r="H194" s="23" t="s">
+      <c r="F194" s="22"/>
+      <c r="G194" s="22"/>
+      <c r="H194" s="17" t="s">
         <v>512</v>
       </c>
     </row>
@@ -7330,15 +7328,15 @@
       <c r="C195" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D195" s="15" t="s">
+      <c r="D195" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="E195" s="16">
+      <c r="E195" s="14">
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="F195" s="17"/>
-      <c r="G195" s="17"/>
-      <c r="H195" s="22" t="s">
+      <c r="F195" s="22"/>
+      <c r="G195" s="22"/>
+      <c r="H195" s="16" t="s">
         <v>513</v>
       </c>
     </row>
@@ -7352,15 +7350,15 @@
       <c r="C196" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D196" s="15" t="s">
+      <c r="D196" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E196" s="16">
+      <c r="E196" s="14">
         <v>3.6574074074074074E-3</v>
       </c>
-      <c r="F196" s="17"/>
-      <c r="G196" s="17"/>
-      <c r="H196" s="23" t="s">
+      <c r="F196" s="22"/>
+      <c r="G196" s="22"/>
+      <c r="H196" s="17" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7374,15 +7372,15 @@
       <c r="C197" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D197" s="15" t="s">
+      <c r="D197" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="E197" s="16">
+      <c r="E197" s="14">
         <v>3.1712962962962962E-3</v>
       </c>
-      <c r="F197" s="17"/>
-      <c r="G197" s="17"/>
-      <c r="H197" s="22" t="s">
+      <c r="F197" s="22"/>
+      <c r="G197" s="22"/>
+      <c r="H197" s="16" t="s">
         <v>513</v>
       </c>
     </row>
@@ -7396,15 +7394,15 @@
       <c r="C198" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D198" s="15" t="s">
+      <c r="D198" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="E198" s="16">
+      <c r="E198" s="14">
         <v>2.8703703703703703E-3</v>
       </c>
-      <c r="F198" s="17"/>
-      <c r="G198" s="17"/>
-      <c r="H198" s="23" t="s">
+      <c r="F198" s="22"/>
+      <c r="G198" s="22"/>
+      <c r="H198" s="17" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7418,15 +7416,15 @@
       <c r="C199" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D199" s="15" t="s">
+      <c r="D199" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="E199" s="16">
+      <c r="E199" s="14">
         <v>5.2777777777777779E-3</v>
       </c>
-      <c r="F199" s="17"/>
-      <c r="G199" s="17"/>
-      <c r="H199" s="22" t="s">
+      <c r="F199" s="22"/>
+      <c r="G199" s="22"/>
+      <c r="H199" s="16" t="s">
         <v>513</v>
       </c>
     </row>
@@ -7440,15 +7438,15 @@
       <c r="C200" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D200" s="15" t="s">
+      <c r="D200" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E200" s="16">
+      <c r="E200" s="14">
         <v>3.7268518518518519E-3</v>
       </c>
-      <c r="F200" s="17"/>
-      <c r="G200" s="17"/>
-      <c r="H200" s="23" t="s">
+      <c r="F200" s="22"/>
+      <c r="G200" s="22"/>
+      <c r="H200" s="17" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7462,15 +7460,15 @@
       <c r="C201" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D201" s="15" t="s">
+      <c r="D201" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="E201" s="16">
+      <c r="E201" s="14">
         <v>2.8240740740740739E-3</v>
       </c>
-      <c r="F201" s="17"/>
-      <c r="G201" s="17"/>
-      <c r="H201" s="22" t="s">
+      <c r="F201" s="22"/>
+      <c r="G201" s="22"/>
+      <c r="H201" s="16" t="s">
         <v>513</v>
       </c>
     </row>
@@ -7484,15 +7482,15 @@
       <c r="C202" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D202" s="15" t="s">
+      <c r="D202" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="E202" s="16">
+      <c r="E202" s="14">
         <v>1.556712962962963E-2</v>
       </c>
-      <c r="F202" s="17"/>
-      <c r="G202" s="17"/>
-      <c r="H202" s="23" t="s">
+      <c r="F202" s="22"/>
+      <c r="G202" s="22"/>
+      <c r="H202" s="17" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7506,15 +7504,15 @@
       <c r="C203" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D203" s="15" t="s">
+      <c r="D203" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="E203" s="16">
+      <c r="E203" s="14">
         <v>1.6064814814814816E-2</v>
       </c>
-      <c r="F203" s="17"/>
-      <c r="G203" s="17"/>
-      <c r="H203" s="22" t="s">
+      <c r="F203" s="22"/>
+      <c r="G203" s="22"/>
+      <c r="H203" s="16" t="s">
         <v>513</v>
       </c>
     </row>
@@ -7528,15 +7526,15 @@
       <c r="C204" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D204" s="15" t="s">
+      <c r="D204" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="E204" s="16">
+      <c r="E204" s="14">
         <v>1.5196759259259259E-2</v>
       </c>
-      <c r="F204" s="17"/>
-      <c r="G204" s="17"/>
-      <c r="H204" s="23" t="s">
+      <c r="F204" s="22"/>
+      <c r="G204" s="22"/>
+      <c r="H204" s="17" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7550,15 +7548,15 @@
       <c r="C205" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D205" s="15" t="s">
+      <c r="D205" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E205" s="16">
+      <c r="E205" s="14">
         <v>1.8703703703703705E-2</v>
       </c>
-      <c r="F205" s="17"/>
-      <c r="G205" s="17"/>
-      <c r="H205" s="22" t="s">
+      <c r="F205" s="22"/>
+      <c r="G205" s="22"/>
+      <c r="H205" s="16" t="s">
         <v>513</v>
       </c>
     </row>
@@ -7572,15 +7570,15 @@
       <c r="C206" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D206" s="15" t="s">
+      <c r="D206" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="E206" s="16">
+      <c r="E206" s="14">
         <v>3.0740740740740742E-2</v>
       </c>
-      <c r="F206" s="17"/>
-      <c r="G206" s="17"/>
-      <c r="H206" s="23" t="s">
+      <c r="F206" s="22"/>
+      <c r="G206" s="22"/>
+      <c r="H206" s="17" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7594,15 +7592,15 @@
       <c r="C207" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D207" s="15" t="s">
+      <c r="D207" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="E207" s="16">
+      <c r="E207" s="14">
         <v>2.3090277777777779E-2</v>
       </c>
-      <c r="F207" s="17"/>
-      <c r="G207" s="17"/>
-      <c r="H207" s="22" t="s">
+      <c r="F207" s="22"/>
+      <c r="G207" s="22"/>
+      <c r="H207" s="16" t="s">
         <v>513</v>
       </c>
     </row>
@@ -7616,15 +7614,15 @@
       <c r="C208" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D208" s="15" t="s">
+      <c r="D208" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="E208" s="16">
+      <c r="E208" s="14">
         <v>3.366898148148148E-2</v>
       </c>
-      <c r="F208" s="19"/>
-      <c r="G208" s="19"/>
-      <c r="H208" s="23" t="s">
+      <c r="F208" s="23"/>
+      <c r="G208" s="23"/>
+      <c r="H208" s="17" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7641,18 +7639,18 @@
       <c r="D209" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E209" s="14">
+      <c r="E209" s="12">
         <v>4.6504629629629632E-2</v>
       </c>
-      <c r="F209" s="8">
+      <c r="F209" s="21">
         <f>SUM(E209:E231)</f>
         <v>0.11291666666666661</v>
       </c>
-      <c r="G209" s="8">
+      <c r="G209" s="21">
         <f>F209*1.5</f>
         <v>0.16937499999999991</v>
       </c>
-      <c r="H209" s="22" t="s">
+      <c r="H209" s="16" t="s">
         <v>515</v>
       </c>
     </row>
@@ -7669,12 +7667,12 @@
       <c r="D210" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="E210" s="14">
+      <c r="E210" s="12">
         <v>2.8356481481481483E-3</v>
       </c>
-      <c r="F210" s="17"/>
-      <c r="G210" s="17"/>
-      <c r="H210" s="23" t="s">
+      <c r="F210" s="22"/>
+      <c r="G210" s="22"/>
+      <c r="H210" s="17" t="s">
         <v>516</v>
       </c>
     </row>
@@ -7691,12 +7689,12 @@
       <c r="D211" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="E211" s="14">
+      <c r="E211" s="12">
         <v>4.31712962962963E-3</v>
       </c>
-      <c r="F211" s="17"/>
-      <c r="G211" s="17"/>
-      <c r="H211" s="22" t="s">
+      <c r="F211" s="22"/>
+      <c r="G211" s="22"/>
+      <c r="H211" s="16" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7713,12 +7711,12 @@
       <c r="D212" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="E212" s="14">
+      <c r="E212" s="12">
         <v>4.8032407407407407E-3</v>
       </c>
-      <c r="F212" s="17"/>
-      <c r="G212" s="17"/>
-      <c r="H212" s="23" t="s">
+      <c r="F212" s="22"/>
+      <c r="G212" s="22"/>
+      <c r="H212" s="17" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7735,12 +7733,12 @@
       <c r="D213" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="E213" s="14">
+      <c r="E213" s="12">
         <v>5.2199074074074075E-3</v>
       </c>
-      <c r="F213" s="17"/>
-      <c r="G213" s="17"/>
-      <c r="H213" s="22" t="s">
+      <c r="F213" s="22"/>
+      <c r="G213" s="22"/>
+      <c r="H213" s="16" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7757,12 +7755,12 @@
       <c r="D214" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E214" s="14">
+      <c r="E214" s="12">
         <v>3.5879629629629629E-3</v>
       </c>
-      <c r="F214" s="17"/>
-      <c r="G214" s="17"/>
-      <c r="H214" s="23" t="s">
+      <c r="F214" s="22"/>
+      <c r="G214" s="22"/>
+      <c r="H214" s="17" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7779,12 +7777,12 @@
       <c r="D215" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="E215" s="14">
+      <c r="E215" s="12">
         <v>1.8402777777777777E-3</v>
       </c>
-      <c r="F215" s="17"/>
-      <c r="G215" s="17"/>
-      <c r="H215" s="22" t="s">
+      <c r="F215" s="22"/>
+      <c r="G215" s="22"/>
+      <c r="H215" s="16" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7801,12 +7799,12 @@
       <c r="D216" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="E216" s="14">
+      <c r="E216" s="12">
         <v>3.0902777777777777E-3</v>
       </c>
-      <c r="F216" s="17"/>
-      <c r="G216" s="17"/>
-      <c r="H216" s="23" t="s">
+      <c r="F216" s="22"/>
+      <c r="G216" s="22"/>
+      <c r="H216" s="17" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7823,12 +7821,12 @@
       <c r="D217" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="E217" s="14">
+      <c r="E217" s="12">
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="F217" s="17"/>
-      <c r="G217" s="17"/>
-      <c r="H217" s="22" t="s">
+      <c r="F217" s="22"/>
+      <c r="G217" s="22"/>
+      <c r="H217" s="16" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7845,12 +7843,12 @@
       <c r="D218" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="E218" s="14">
+      <c r="E218" s="12">
         <v>2.9861111111111113E-3</v>
       </c>
-      <c r="F218" s="17"/>
-      <c r="G218" s="17"/>
-      <c r="H218" s="23" t="s">
+      <c r="F218" s="22"/>
+      <c r="G218" s="22"/>
+      <c r="H218" s="17" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7867,12 +7865,12 @@
       <c r="D219" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="E219" s="14">
+      <c r="E219" s="12">
         <v>5.6365740740740742E-3</v>
       </c>
-      <c r="F219" s="17"/>
-      <c r="G219" s="17"/>
-      <c r="H219" s="22" t="s">
+      <c r="F219" s="22"/>
+      <c r="G219" s="22"/>
+      <c r="H219" s="16" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7889,12 +7887,12 @@
       <c r="D220" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="E220" s="14">
+      <c r="E220" s="12">
         <v>5.8796296296296296E-3</v>
       </c>
-      <c r="F220" s="17"/>
-      <c r="G220" s="17"/>
-      <c r="H220" s="23" t="s">
+      <c r="F220" s="22"/>
+      <c r="G220" s="22"/>
+      <c r="H220" s="17" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7911,12 +7909,12 @@
       <c r="D221" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="E221" s="14">
+      <c r="E221" s="12">
         <v>2.4189814814814816E-3</v>
       </c>
-      <c r="F221" s="17"/>
-      <c r="G221" s="17"/>
-      <c r="H221" s="22" t="s">
+      <c r="F221" s="22"/>
+      <c r="G221" s="22"/>
+      <c r="H221" s="16" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7933,12 +7931,12 @@
       <c r="D222" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="E222" s="14">
+      <c r="E222" s="12">
         <v>1.6898148148148148E-3</v>
       </c>
-      <c r="F222" s="17"/>
-      <c r="G222" s="17"/>
-      <c r="H222" s="23" t="s">
+      <c r="F222" s="22"/>
+      <c r="G222" s="22"/>
+      <c r="H222" s="17" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7955,12 +7953,12 @@
       <c r="D223" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="E223" s="14">
+      <c r="E223" s="12">
         <v>1.3657407407407407E-3</v>
       </c>
-      <c r="F223" s="17"/>
-      <c r="G223" s="17"/>
-      <c r="H223" s="22" t="s">
+      <c r="F223" s="22"/>
+      <c r="G223" s="22"/>
+      <c r="H223" s="16" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7977,12 +7975,12 @@
       <c r="D224" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="E224" s="14">
+      <c r="E224" s="12">
         <v>1.5972222222222223E-3</v>
       </c>
-      <c r="F224" s="17"/>
-      <c r="G224" s="17"/>
-      <c r="H224" s="23" t="s">
+      <c r="F224" s="22"/>
+      <c r="G224" s="22"/>
+      <c r="H224" s="17" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7999,12 +7997,12 @@
       <c r="D225" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="E225" s="14">
+      <c r="E225" s="12">
         <v>2.1412037037037038E-3</v>
       </c>
-      <c r="F225" s="17"/>
-      <c r="G225" s="17"/>
-      <c r="H225" s="22" t="s">
+      <c r="F225" s="22"/>
+      <c r="G225" s="22"/>
+      <c r="H225" s="16" t="s">
         <v>517</v>
       </c>
     </row>
@@ -8021,12 +8019,12 @@
       <c r="D226" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="E226" s="14">
+      <c r="E226" s="12">
         <v>1.8634259259259259E-3</v>
       </c>
-      <c r="F226" s="17"/>
-      <c r="G226" s="17"/>
-      <c r="H226" s="23" t="s">
+      <c r="F226" s="22"/>
+      <c r="G226" s="22"/>
+      <c r="H226" s="17" t="s">
         <v>518</v>
       </c>
     </row>
@@ -8043,12 +8041,12 @@
       <c r="D227" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="E227" s="14">
+      <c r="E227" s="12">
         <v>1.3425925925925925E-3</v>
       </c>
-      <c r="F227" s="17"/>
-      <c r="G227" s="17"/>
-      <c r="H227" s="22" t="s">
+      <c r="F227" s="22"/>
+      <c r="G227" s="22"/>
+      <c r="H227" s="16" t="s">
         <v>517</v>
       </c>
     </row>
@@ -8065,12 +8063,12 @@
       <c r="D228" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="E228" s="14">
+      <c r="E228" s="12">
         <v>2.2916666666666667E-3</v>
       </c>
-      <c r="F228" s="17"/>
-      <c r="G228" s="17"/>
-      <c r="H228" s="23" t="s">
+      <c r="F228" s="22"/>
+      <c r="G228" s="22"/>
+      <c r="H228" s="17" t="s">
         <v>518</v>
       </c>
     </row>
@@ -8087,12 +8085,12 @@
       <c r="D229" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="E229" s="14">
+      <c r="E229" s="12">
         <v>2.2916666666666667E-3</v>
       </c>
-      <c r="F229" s="17"/>
-      <c r="G229" s="17"/>
-      <c r="H229" s="22" t="s">
+      <c r="F229" s="22"/>
+      <c r="G229" s="22"/>
+      <c r="H229" s="16" t="s">
         <v>517</v>
       </c>
     </row>
@@ -8109,12 +8107,12 @@
       <c r="D230" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E230" s="14">
+      <c r="E230" s="12">
         <v>3.1712962962962962E-3</v>
       </c>
-      <c r="F230" s="17"/>
-      <c r="G230" s="17"/>
-      <c r="H230" s="23" t="s">
+      <c r="F230" s="22"/>
+      <c r="G230" s="22"/>
+      <c r="H230" s="17" t="s">
         <v>518</v>
       </c>
     </row>
@@ -8131,12 +8129,12 @@
       <c r="D231" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="E231" s="14">
+      <c r="E231" s="12">
         <v>2.7083333333333334E-3</v>
       </c>
-      <c r="F231" s="19"/>
-      <c r="G231" s="19"/>
-      <c r="H231" s="24" t="s">
+      <c r="F231" s="23"/>
+      <c r="G231" s="23"/>
+      <c r="H231" s="18" t="s">
         <v>476</v>
       </c>
     </row>
@@ -8153,18 +8151,18 @@
       <c r="D232" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="E232" s="14">
+      <c r="E232" s="12">
         <v>4.7916666666666663E-3</v>
       </c>
-      <c r="F232" s="8">
+      <c r="F232" s="21">
         <f>SUM(E232:E264)</f>
         <v>0.18623842592592593</v>
       </c>
-      <c r="G232" s="8">
+      <c r="G232" s="21">
         <f>F232*1.5</f>
         <v>0.27935763888888887</v>
       </c>
-      <c r="H232" s="22" t="s">
+      <c r="H232" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8181,12 +8179,12 @@
       <c r="D233" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="E233" s="14">
+      <c r="E233" s="12">
         <v>4.6643518518518518E-3</v>
       </c>
-      <c r="F233" s="17"/>
-      <c r="G233" s="17"/>
-      <c r="H233" s="22" t="s">
+      <c r="F233" s="22"/>
+      <c r="G233" s="22"/>
+      <c r="H233" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8203,12 +8201,12 @@
       <c r="D234" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="E234" s="14">
+      <c r="E234" s="12">
         <v>4.9421296296296297E-3</v>
       </c>
-      <c r="F234" s="17"/>
-      <c r="G234" s="17"/>
-      <c r="H234" s="22" t="s">
+      <c r="F234" s="22"/>
+      <c r="G234" s="22"/>
+      <c r="H234" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8225,12 +8223,12 @@
       <c r="D235" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="E235" s="14">
+      <c r="E235" s="12">
         <v>3.7962962962962963E-3</v>
       </c>
-      <c r="F235" s="17"/>
-      <c r="G235" s="17"/>
-      <c r="H235" s="22" t="s">
+      <c r="F235" s="22"/>
+      <c r="G235" s="22"/>
+      <c r="H235" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8247,12 +8245,12 @@
       <c r="D236" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="E236" s="14">
+      <c r="E236" s="12">
         <v>5.4166666666666669E-3</v>
       </c>
-      <c r="F236" s="17"/>
-      <c r="G236" s="17"/>
-      <c r="H236" s="22" t="s">
+      <c r="F236" s="22"/>
+      <c r="G236" s="22"/>
+      <c r="H236" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8269,12 +8267,12 @@
       <c r="D237" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E237" s="14">
+      <c r="E237" s="12">
         <v>6.1805555555555555E-3</v>
       </c>
-      <c r="F237" s="17"/>
-      <c r="G237" s="17"/>
-      <c r="H237" s="22" t="s">
+      <c r="F237" s="22"/>
+      <c r="G237" s="22"/>
+      <c r="H237" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8291,12 +8289,12 @@
       <c r="D238" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="E238" s="14">
+      <c r="E238" s="12">
         <v>2.7199074074074074E-3</v>
       </c>
-      <c r="F238" s="17"/>
-      <c r="G238" s="17"/>
-      <c r="H238" s="22" t="s">
+      <c r="F238" s="22"/>
+      <c r="G238" s="22"/>
+      <c r="H238" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8313,12 +8311,12 @@
       <c r="D239" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="E239" s="14">
+      <c r="E239" s="12">
         <v>4.2592592592592595E-3</v>
       </c>
-      <c r="F239" s="17"/>
-      <c r="G239" s="17"/>
-      <c r="H239" s="22" t="s">
+      <c r="F239" s="22"/>
+      <c r="G239" s="22"/>
+      <c r="H239" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8335,12 +8333,12 @@
       <c r="D240" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="E240" s="14">
+      <c r="E240" s="12">
         <v>2.9976851851851853E-3</v>
       </c>
-      <c r="F240" s="17"/>
-      <c r="G240" s="17"/>
-      <c r="H240" s="22" t="s">
+      <c r="F240" s="22"/>
+      <c r="G240" s="22"/>
+      <c r="H240" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8357,12 +8355,12 @@
       <c r="D241" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E241" s="14">
+      <c r="E241" s="12">
         <v>3.8078703703703703E-3</v>
       </c>
-      <c r="F241" s="17"/>
-      <c r="G241" s="17"/>
-      <c r="H241" s="22" t="s">
+      <c r="F241" s="22"/>
+      <c r="G241" s="22"/>
+      <c r="H241" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8379,12 +8377,12 @@
       <c r="D242" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="E242" s="14">
+      <c r="E242" s="12">
         <v>3.7152777777777778E-3</v>
       </c>
-      <c r="F242" s="17"/>
-      <c r="G242" s="17"/>
-      <c r="H242" s="22" t="s">
+      <c r="F242" s="22"/>
+      <c r="G242" s="22"/>
+      <c r="H242" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8401,12 +8399,12 @@
       <c r="D243" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="E243" s="14">
+      <c r="E243" s="12">
         <v>5.6249999999999998E-3</v>
       </c>
-      <c r="F243" s="17"/>
-      <c r="G243" s="17"/>
-      <c r="H243" s="22" t="s">
+      <c r="F243" s="22"/>
+      <c r="G243" s="22"/>
+      <c r="H243" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8423,12 +8421,12 @@
       <c r="D244" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="E244" s="14">
+      <c r="E244" s="12">
         <v>3.7731481481481483E-3</v>
       </c>
-      <c r="F244" s="17"/>
-      <c r="G244" s="17"/>
-      <c r="H244" s="22" t="s">
+      <c r="F244" s="22"/>
+      <c r="G244" s="22"/>
+      <c r="H244" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8445,12 +8443,12 @@
       <c r="D245" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="E245" s="14">
+      <c r="E245" s="12">
         <v>3.7615740740740739E-3</v>
       </c>
-      <c r="F245" s="17"/>
-      <c r="G245" s="17"/>
-      <c r="H245" s="22" t="s">
+      <c r="F245" s="22"/>
+      <c r="G245" s="22"/>
+      <c r="H245" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8467,12 +8465,12 @@
       <c r="D246" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="E246" s="14">
+      <c r="E246" s="12">
         <v>5.8333333333333336E-3</v>
       </c>
-      <c r="F246" s="17"/>
-      <c r="G246" s="17"/>
-      <c r="H246" s="22" t="s">
+      <c r="F246" s="22"/>
+      <c r="G246" s="22"/>
+      <c r="H246" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8489,12 +8487,12 @@
       <c r="D247" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="E247" s="14">
+      <c r="E247" s="12">
         <v>5.2430555555555555E-3</v>
       </c>
-      <c r="F247" s="17"/>
-      <c r="G247" s="17"/>
-      <c r="H247" s="22" t="s">
+      <c r="F247" s="22"/>
+      <c r="G247" s="22"/>
+      <c r="H247" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8511,12 +8509,12 @@
       <c r="D248" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="E248" s="14">
+      <c r="E248" s="12">
         <v>4.3518518518518515E-3</v>
       </c>
-      <c r="F248" s="17"/>
-      <c r="G248" s="17"/>
-      <c r="H248" s="22" t="s">
+      <c r="F248" s="22"/>
+      <c r="G248" s="22"/>
+      <c r="H248" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8533,12 +8531,12 @@
       <c r="D249" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="E249" s="14">
+      <c r="E249" s="12">
         <v>6.5856481481481478E-3</v>
       </c>
-      <c r="F249" s="17"/>
-      <c r="G249" s="17"/>
-      <c r="H249" s="22" t="s">
+      <c r="F249" s="22"/>
+      <c r="G249" s="22"/>
+      <c r="H249" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8555,12 +8553,12 @@
       <c r="D250" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="E250" s="14">
+      <c r="E250" s="12">
         <v>4.386574074074074E-3</v>
       </c>
-      <c r="F250" s="17"/>
-      <c r="G250" s="17"/>
-      <c r="H250" s="22" t="s">
+      <c r="F250" s="22"/>
+      <c r="G250" s="22"/>
+      <c r="H250" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8577,12 +8575,12 @@
       <c r="D251" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="E251" s="14">
+      <c r="E251" s="12">
         <v>3.1365740740740742E-3</v>
       </c>
-      <c r="F251" s="17"/>
-      <c r="G251" s="17"/>
-      <c r="H251" s="22" t="s">
+      <c r="F251" s="22"/>
+      <c r="G251" s="22"/>
+      <c r="H251" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8599,12 +8597,12 @@
       <c r="D252" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="E252" s="14">
+      <c r="E252" s="12">
         <v>5.0231481481481481E-3</v>
       </c>
-      <c r="F252" s="17"/>
-      <c r="G252" s="17"/>
-      <c r="H252" s="22" t="s">
+      <c r="F252" s="22"/>
+      <c r="G252" s="22"/>
+      <c r="H252" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8621,12 +8619,12 @@
       <c r="D253" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="E253" s="14">
+      <c r="E253" s="12">
         <v>4.0509259259259257E-3</v>
       </c>
-      <c r="F253" s="17"/>
-      <c r="G253" s="17"/>
-      <c r="H253" s="22" t="s">
+      <c r="F253" s="22"/>
+      <c r="G253" s="22"/>
+      <c r="H253" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8643,12 +8641,12 @@
       <c r="D254" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="E254" s="14">
+      <c r="E254" s="12">
         <v>6.145833333333333E-3</v>
       </c>
-      <c r="F254" s="17"/>
-      <c r="G254" s="17"/>
-      <c r="H254" s="22" t="s">
+      <c r="F254" s="22"/>
+      <c r="G254" s="22"/>
+      <c r="H254" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8665,12 +8663,12 @@
       <c r="D255" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="E255" s="14">
+      <c r="E255" s="12">
         <v>4.6064814814814814E-3</v>
       </c>
-      <c r="F255" s="17"/>
-      <c r="G255" s="17"/>
-      <c r="H255" s="22" t="s">
+      <c r="F255" s="22"/>
+      <c r="G255" s="22"/>
+      <c r="H255" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8687,12 +8685,12 @@
       <c r="D256" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="E256" s="14">
+      <c r="E256" s="12">
         <v>7.6851851851851855E-3</v>
       </c>
-      <c r="F256" s="17"/>
-      <c r="G256" s="17"/>
-      <c r="H256" s="22" t="s">
+      <c r="F256" s="22"/>
+      <c r="G256" s="22"/>
+      <c r="H256" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8709,12 +8707,12 @@
       <c r="D257" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E257" s="14">
+      <c r="E257" s="12">
         <v>5.8333333333333336E-3</v>
       </c>
-      <c r="F257" s="17"/>
-      <c r="G257" s="17"/>
-      <c r="H257" s="22" t="s">
+      <c r="F257" s="22"/>
+      <c r="G257" s="22"/>
+      <c r="H257" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8731,12 +8729,12 @@
       <c r="D258" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E258" s="14">
+      <c r="E258" s="12">
         <v>9.432870370370371E-3</v>
       </c>
-      <c r="F258" s="17"/>
-      <c r="G258" s="17"/>
-      <c r="H258" s="22" t="s">
+      <c r="F258" s="22"/>
+      <c r="G258" s="22"/>
+      <c r="H258" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8753,12 +8751,12 @@
       <c r="D259" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E259" s="14">
+      <c r="E259" s="12">
         <v>6.5393518518518517E-3</v>
       </c>
-      <c r="F259" s="17"/>
-      <c r="G259" s="17"/>
-      <c r="H259" s="22" t="s">
+      <c r="F259" s="22"/>
+      <c r="G259" s="22"/>
+      <c r="H259" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8775,12 +8773,12 @@
       <c r="D260" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="E260" s="14">
+      <c r="E260" s="12">
         <v>6.3541666666666668E-3</v>
       </c>
-      <c r="F260" s="17"/>
-      <c r="G260" s="17"/>
-      <c r="H260" s="22" t="s">
+      <c r="F260" s="22"/>
+      <c r="G260" s="22"/>
+      <c r="H260" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8797,12 +8795,12 @@
       <c r="D261" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E261" s="14">
+      <c r="E261" s="12">
         <v>5.347222222222222E-3</v>
       </c>
-      <c r="F261" s="17"/>
-      <c r="G261" s="17"/>
-      <c r="H261" s="22" t="s">
+      <c r="F261" s="22"/>
+      <c r="G261" s="22"/>
+      <c r="H261" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8819,12 +8817,12 @@
       <c r="D262" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="E262" s="14">
+      <c r="E262" s="12">
         <v>9.0624999999999994E-3</v>
       </c>
-      <c r="F262" s="17"/>
-      <c r="G262" s="17"/>
-      <c r="H262" s="22" t="s">
+      <c r="F262" s="22"/>
+      <c r="G262" s="22"/>
+      <c r="H262" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8841,12 +8839,12 @@
       <c r="D263" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="E263" s="14">
+      <c r="E263" s="12">
         <v>1.1608796296296296E-2</v>
       </c>
-      <c r="F263" s="17"/>
-      <c r="G263" s="17"/>
-      <c r="H263" s="22" t="s">
+      <c r="F263" s="22"/>
+      <c r="G263" s="22"/>
+      <c r="H263" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8863,12 +8861,12 @@
       <c r="D264" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E264" s="14">
+      <c r="E264" s="12">
         <v>1.4560185185185185E-2</v>
       </c>
-      <c r="F264" s="19"/>
-      <c r="G264" s="19"/>
-      <c r="H264" s="22" t="s">
+      <c r="F264" s="23"/>
+      <c r="G264" s="23"/>
+      <c r="H264" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8885,18 +8883,18 @@
       <c r="D265" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="E265" s="14">
+      <c r="E265" s="12">
         <v>8.564814814814815E-4</v>
       </c>
-      <c r="F265" s="8">
+      <c r="F265" s="21">
         <f>SUM(E265:E292)</f>
         <v>0.21091435185185184</v>
       </c>
-      <c r="G265" s="8">
+      <c r="G265" s="21">
         <f>F265*1.5</f>
         <v>0.31637152777777777</v>
       </c>
-      <c r="H265" s="22" t="s">
+      <c r="H265" s="16" t="s">
         <v>519</v>
       </c>
     </row>
@@ -8913,12 +8911,12 @@
       <c r="D266" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="E266" s="14">
+      <c r="E266" s="12">
         <v>1.5162037037037036E-3</v>
       </c>
-      <c r="F266" s="17"/>
-      <c r="G266" s="17"/>
-      <c r="H266" s="23" t="s">
+      <c r="F266" s="22"/>
+      <c r="G266" s="22"/>
+      <c r="H266" s="17" t="s">
         <v>520</v>
       </c>
     </row>
@@ -8935,12 +8933,12 @@
       <c r="D267" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="E267" s="14">
+      <c r="E267" s="12">
         <v>1.7708333333333332E-3</v>
       </c>
-      <c r="F267" s="17"/>
-      <c r="G267" s="17"/>
-      <c r="H267" s="22" t="s">
+      <c r="F267" s="22"/>
+      <c r="G267" s="22"/>
+      <c r="H267" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -8957,12 +8955,12 @@
       <c r="D268" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="E268" s="14">
+      <c r="E268" s="12">
         <v>1.8171296296296297E-3</v>
       </c>
-      <c r="F268" s="17"/>
-      <c r="G268" s="17"/>
-      <c r="H268" s="23" t="s">
+      <c r="F268" s="22"/>
+      <c r="G268" s="22"/>
+      <c r="H268" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -8979,12 +8977,12 @@
       <c r="D269" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="E269" s="14">
+      <c r="E269" s="12">
         <v>6.122685185185185E-3</v>
       </c>
-      <c r="F269" s="17"/>
-      <c r="G269" s="17"/>
-      <c r="H269" s="22" t="s">
+      <c r="F269" s="22"/>
+      <c r="G269" s="22"/>
+      <c r="H269" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9001,12 +8999,12 @@
       <c r="D270" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="E270" s="14">
+      <c r="E270" s="12">
         <v>1.2800925925925926E-2</v>
       </c>
-      <c r="F270" s="17"/>
-      <c r="G270" s="17"/>
-      <c r="H270" s="23" t="s">
+      <c r="F270" s="22"/>
+      <c r="G270" s="22"/>
+      <c r="H270" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9023,12 +9021,12 @@
       <c r="D271" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="E271" s="14">
+      <c r="E271" s="12">
         <v>4.8263888888888887E-3</v>
       </c>
-      <c r="F271" s="17"/>
-      <c r="G271" s="17"/>
-      <c r="H271" s="22" t="s">
+      <c r="F271" s="22"/>
+      <c r="G271" s="22"/>
+      <c r="H271" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9045,12 +9043,12 @@
       <c r="D272" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="E272" s="14">
+      <c r="E272" s="12">
         <v>8.0555555555555554E-3</v>
       </c>
-      <c r="F272" s="17"/>
-      <c r="G272" s="17"/>
-      <c r="H272" s="23" t="s">
+      <c r="F272" s="22"/>
+      <c r="G272" s="22"/>
+      <c r="H272" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9067,12 +9065,12 @@
       <c r="D273" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="E273" s="14">
+      <c r="E273" s="12">
         <v>1.34375E-2</v>
       </c>
-      <c r="F273" s="17"/>
-      <c r="G273" s="17"/>
-      <c r="H273" s="22" t="s">
+      <c r="F273" s="22"/>
+      <c r="G273" s="22"/>
+      <c r="H273" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9089,12 +9087,12 @@
       <c r="D274" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="E274" s="14">
+      <c r="E274" s="12">
         <v>4.340277777777778E-3</v>
       </c>
-      <c r="F274" s="17"/>
-      <c r="G274" s="17"/>
-      <c r="H274" s="23" t="s">
+      <c r="F274" s="22"/>
+      <c r="G274" s="22"/>
+      <c r="H274" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9111,12 +9109,12 @@
       <c r="D275" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="E275" s="14">
+      <c r="E275" s="12">
         <v>1.1608796296296296E-2</v>
       </c>
-      <c r="F275" s="17"/>
-      <c r="G275" s="17"/>
-      <c r="H275" s="22" t="s">
+      <c r="F275" s="22"/>
+      <c r="G275" s="22"/>
+      <c r="H275" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9133,12 +9131,12 @@
       <c r="D276" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="E276" s="14">
+      <c r="E276" s="12">
         <v>7.4421296296296293E-3</v>
       </c>
-      <c r="F276" s="17"/>
-      <c r="G276" s="17"/>
-      <c r="H276" s="23" t="s">
+      <c r="F276" s="22"/>
+      <c r="G276" s="22"/>
+      <c r="H276" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9155,12 +9153,12 @@
       <c r="D277" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="E277" s="14">
+      <c r="E277" s="12">
         <v>1.425925925925926E-2</v>
       </c>
-      <c r="F277" s="17"/>
-      <c r="G277" s="17"/>
-      <c r="H277" s="22" t="s">
+      <c r="F277" s="22"/>
+      <c r="G277" s="22"/>
+      <c r="H277" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9177,12 +9175,12 @@
       <c r="D278" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="E278" s="14">
+      <c r="E278" s="12">
         <v>3.9236111111111112E-3</v>
       </c>
-      <c r="F278" s="17"/>
-      <c r="G278" s="17"/>
-      <c r="H278" s="23" t="s">
+      <c r="F278" s="22"/>
+      <c r="G278" s="22"/>
+      <c r="H278" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9199,12 +9197,12 @@
       <c r="D279" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="E279" s="14">
+      <c r="E279" s="12">
         <v>1.9340277777777779E-2</v>
       </c>
-      <c r="F279" s="17"/>
-      <c r="G279" s="17"/>
-      <c r="H279" s="22" t="s">
+      <c r="F279" s="22"/>
+      <c r="G279" s="22"/>
+      <c r="H279" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9221,12 +9219,12 @@
       <c r="D280" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="E280" s="14">
+      <c r="E280" s="12">
         <v>6.7592592592592591E-3</v>
       </c>
-      <c r="F280" s="17"/>
-      <c r="G280" s="17"/>
-      <c r="H280" s="23" t="s">
+      <c r="F280" s="22"/>
+      <c r="G280" s="22"/>
+      <c r="H280" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9243,12 +9241,12 @@
       <c r="D281" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="E281" s="14">
+      <c r="E281" s="12">
         <v>6.2268518518518515E-3</v>
       </c>
-      <c r="F281" s="17"/>
-      <c r="G281" s="17"/>
-      <c r="H281" s="22" t="s">
+      <c r="F281" s="22"/>
+      <c r="G281" s="22"/>
+      <c r="H281" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9265,12 +9263,12 @@
       <c r="D282" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="E282" s="14">
+      <c r="E282" s="12">
         <v>5.2430555555555555E-3</v>
       </c>
-      <c r="F282" s="17"/>
-      <c r="G282" s="17"/>
-      <c r="H282" s="23" t="s">
+      <c r="F282" s="22"/>
+      <c r="G282" s="22"/>
+      <c r="H282" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9287,12 +9285,12 @@
       <c r="D283" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="E283" s="14">
+      <c r="E283" s="12">
         <v>6.7129629629629631E-3</v>
       </c>
-      <c r="F283" s="17"/>
-      <c r="G283" s="17"/>
-      <c r="H283" s="22" t="s">
+      <c r="F283" s="22"/>
+      <c r="G283" s="22"/>
+      <c r="H283" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9309,12 +9307,12 @@
       <c r="D284" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="E284" s="14">
+      <c r="E284" s="12">
         <v>9.1898148148148156E-3</v>
       </c>
-      <c r="F284" s="17"/>
-      <c r="G284" s="17"/>
-      <c r="H284" s="23" t="s">
+      <c r="F284" s="22"/>
+      <c r="G284" s="22"/>
+      <c r="H284" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9331,12 +9329,12 @@
       <c r="D285" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="E285" s="14">
+      <c r="E285" s="12">
         <v>4.5138888888888885E-3</v>
       </c>
-      <c r="F285" s="17"/>
-      <c r="G285" s="17"/>
-      <c r="H285" s="22" t="s">
+      <c r="F285" s="22"/>
+      <c r="G285" s="22"/>
+      <c r="H285" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9353,12 +9351,12 @@
       <c r="D286" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="E286" s="14">
+      <c r="E286" s="12">
         <v>4.9189814814814816E-3</v>
       </c>
-      <c r="F286" s="17"/>
-      <c r="G286" s="17"/>
-      <c r="H286" s="23" t="s">
+      <c r="F286" s="22"/>
+      <c r="G286" s="22"/>
+      <c r="H286" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9375,12 +9373,12 @@
       <c r="D287" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="E287" s="14">
+      <c r="E287" s="12">
         <v>6.0185185185185185E-3</v>
       </c>
-      <c r="F287" s="17"/>
-      <c r="G287" s="17"/>
-      <c r="H287" s="22" t="s">
+      <c r="F287" s="22"/>
+      <c r="G287" s="22"/>
+      <c r="H287" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9397,12 +9395,12 @@
       <c r="D288" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="E288" s="14">
+      <c r="E288" s="12">
         <v>1.0358796296296297E-2</v>
       </c>
-      <c r="F288" s="17"/>
-      <c r="G288" s="17"/>
-      <c r="H288" s="23" t="s">
+      <c r="F288" s="22"/>
+      <c r="G288" s="22"/>
+      <c r="H288" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9419,12 +9417,12 @@
       <c r="D289" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="E289" s="14">
+      <c r="E289" s="12">
         <v>5.6018518518518518E-3</v>
       </c>
-      <c r="F289" s="17"/>
-      <c r="G289" s="17"/>
-      <c r="H289" s="22" t="s">
+      <c r="F289" s="22"/>
+      <c r="G289" s="22"/>
+      <c r="H289" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9441,12 +9439,12 @@
       <c r="D290" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="E290" s="14">
+      <c r="E290" s="12">
         <v>1.2372685185185184E-2</v>
       </c>
-      <c r="F290" s="17"/>
-      <c r="G290" s="17"/>
-      <c r="H290" s="23" t="s">
+      <c r="F290" s="22"/>
+      <c r="G290" s="22"/>
+      <c r="H290" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9463,12 +9461,12 @@
       <c r="D291" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="E291" s="14">
+      <c r="E291" s="12">
         <v>5.2777777777777779E-3</v>
       </c>
-      <c r="F291" s="17"/>
-      <c r="G291" s="17"/>
-      <c r="H291" s="22" t="s">
+      <c r="F291" s="22"/>
+      <c r="G291" s="22"/>
+      <c r="H291" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9485,12 +9483,12 @@
       <c r="D292" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="E292" s="14">
+      <c r="E292" s="12">
         <v>1.5601851851851851E-2</v>
       </c>
-      <c r="F292" s="19"/>
-      <c r="G292" s="19"/>
-      <c r="H292" s="23" t="s">
+      <c r="F292" s="23"/>
+      <c r="G292" s="23"/>
+      <c r="H292" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9507,18 +9505,18 @@
       <c r="D293" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="E293" s="14">
+      <c r="E293" s="12">
         <v>3.6342592592592594E-3</v>
       </c>
-      <c r="F293" s="8">
+      <c r="F293" s="21">
         <f>SUM(E293:E318)</f>
         <v>0.20168981481481482</v>
       </c>
-      <c r="G293" s="8">
+      <c r="G293" s="21">
         <f>F293*1.5</f>
         <v>0.30253472222222222</v>
       </c>
-      <c r="H293" s="22" t="s">
+      <c r="H293" s="16" t="s">
         <v>523</v>
       </c>
     </row>
@@ -9535,12 +9533,12 @@
       <c r="D294" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="E294" s="14">
+      <c r="E294" s="12">
         <v>7.1990740740740739E-3</v>
       </c>
-      <c r="F294" s="17"/>
-      <c r="G294" s="17"/>
-      <c r="H294" s="23" t="s">
+      <c r="F294" s="22"/>
+      <c r="G294" s="22"/>
+      <c r="H294" s="17" t="s">
         <v>524</v>
       </c>
     </row>
@@ -9557,12 +9555,12 @@
       <c r="D295" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="E295" s="14">
+      <c r="E295" s="12">
         <v>4.6990740740740743E-3</v>
       </c>
-      <c r="F295" s="17"/>
-      <c r="G295" s="17"/>
-      <c r="H295" s="22" t="s">
+      <c r="F295" s="22"/>
+      <c r="G295" s="22"/>
+      <c r="H295" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9579,12 +9577,12 @@
       <c r="D296" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="E296" s="14">
+      <c r="E296" s="12">
         <v>6.7361111111111111E-3</v>
       </c>
-      <c r="F296" s="17"/>
-      <c r="G296" s="17"/>
-      <c r="H296" s="23" t="s">
+      <c r="F296" s="22"/>
+      <c r="G296" s="22"/>
+      <c r="H296" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9601,12 +9599,12 @@
       <c r="D297" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E297" s="14">
+      <c r="E297" s="12">
         <v>5.9375000000000001E-3</v>
       </c>
-      <c r="F297" s="17"/>
-      <c r="G297" s="17"/>
-      <c r="H297" s="22" t="s">
+      <c r="F297" s="22"/>
+      <c r="G297" s="22"/>
+      <c r="H297" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9623,12 +9621,12 @@
       <c r="D298" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="E298" s="14">
+      <c r="E298" s="12">
         <v>7.0717592592592594E-3</v>
       </c>
-      <c r="F298" s="17"/>
-      <c r="G298" s="17"/>
-      <c r="H298" s="23" t="s">
+      <c r="F298" s="22"/>
+      <c r="G298" s="22"/>
+      <c r="H298" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9645,12 +9643,12 @@
       <c r="D299" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="E299" s="14">
+      <c r="E299" s="12">
         <v>9.2592592592592587E-3</v>
       </c>
-      <c r="F299" s="17"/>
-      <c r="G299" s="17"/>
-      <c r="H299" s="22" t="s">
+      <c r="F299" s="22"/>
+      <c r="G299" s="22"/>
+      <c r="H299" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9667,12 +9665,12 @@
       <c r="D300" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="14">
+      <c r="E300" s="12">
         <v>1.8229166666666668E-2</v>
       </c>
-      <c r="F300" s="17"/>
-      <c r="G300" s="17"/>
-      <c r="H300" s="23" t="s">
+      <c r="F300" s="22"/>
+      <c r="G300" s="22"/>
+      <c r="H300" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9689,12 +9687,12 @@
       <c r="D301" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="E301" s="14">
+      <c r="E301" s="12">
         <v>1.2997685185185185E-2</v>
       </c>
-      <c r="F301" s="17"/>
-      <c r="G301" s="17"/>
-      <c r="H301" s="22" t="s">
+      <c r="F301" s="22"/>
+      <c r="G301" s="22"/>
+      <c r="H301" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9711,12 +9709,12 @@
       <c r="D302" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="E302" s="14">
+      <c r="E302" s="12">
         <v>5.8217592592592592E-3</v>
       </c>
-      <c r="F302" s="17"/>
-      <c r="G302" s="17"/>
-      <c r="H302" s="23" t="s">
+      <c r="F302" s="22"/>
+      <c r="G302" s="22"/>
+      <c r="H302" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9733,12 +9731,12 @@
       <c r="D303" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="E303" s="14">
+      <c r="E303" s="12">
         <v>8.2986111111111108E-3</v>
       </c>
-      <c r="F303" s="17"/>
-      <c r="G303" s="17"/>
-      <c r="H303" s="22" t="s">
+      <c r="F303" s="22"/>
+      <c r="G303" s="22"/>
+      <c r="H303" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9755,12 +9753,12 @@
       <c r="D304" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="E304" s="14">
+      <c r="E304" s="12">
         <v>7.1759259259259259E-3</v>
       </c>
-      <c r="F304" s="17"/>
-      <c r="G304" s="17"/>
-      <c r="H304" s="23" t="s">
+      <c r="F304" s="22"/>
+      <c r="G304" s="22"/>
+      <c r="H304" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9777,12 +9775,12 @@
       <c r="D305" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="E305" s="14">
+      <c r="E305" s="12">
         <v>3.4837962962962965E-3</v>
       </c>
-      <c r="F305" s="17"/>
-      <c r="G305" s="17"/>
-      <c r="H305" s="22" t="s">
+      <c r="F305" s="22"/>
+      <c r="G305" s="22"/>
+      <c r="H305" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9799,12 +9797,12 @@
       <c r="D306" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="E306" s="14">
+      <c r="E306" s="12">
         <v>7.2453703703703708E-3</v>
       </c>
-      <c r="F306" s="17"/>
-      <c r="G306" s="17"/>
-      <c r="H306" s="23" t="s">
+      <c r="F306" s="22"/>
+      <c r="G306" s="22"/>
+      <c r="H306" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9821,12 +9819,12 @@
       <c r="D307" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="E307" s="14">
+      <c r="E307" s="12">
         <v>6.4120370370370373E-3</v>
       </c>
-      <c r="F307" s="17"/>
-      <c r="G307" s="17"/>
-      <c r="H307" s="22" t="s">
+      <c r="F307" s="22"/>
+      <c r="G307" s="22"/>
+      <c r="H307" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9843,12 +9841,12 @@
       <c r="D308" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="E308" s="14">
+      <c r="E308" s="12">
         <v>0.01</v>
       </c>
-      <c r="F308" s="17"/>
-      <c r="G308" s="17"/>
-      <c r="H308" s="23" t="s">
+      <c r="F308" s="22"/>
+      <c r="G308" s="22"/>
+      <c r="H308" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9865,12 +9863,12 @@
       <c r="D309" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="E309" s="14">
+      <c r="E309" s="12">
         <v>6.6203703703703702E-3</v>
       </c>
-      <c r="F309" s="17"/>
-      <c r="G309" s="17"/>
-      <c r="H309" s="22" t="s">
+      <c r="F309" s="22"/>
+      <c r="G309" s="22"/>
+      <c r="H309" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9887,12 +9885,12 @@
       <c r="D310" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="E310" s="14">
+      <c r="E310" s="12">
         <v>8.6226851851851846E-3</v>
       </c>
-      <c r="F310" s="17"/>
-      <c r="G310" s="17"/>
-      <c r="H310" s="23" t="s">
+      <c r="F310" s="22"/>
+      <c r="G310" s="22"/>
+      <c r="H310" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9909,12 +9907,12 @@
       <c r="D311" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="E311" s="14">
+      <c r="E311" s="12">
         <v>5.115740740740741E-3</v>
       </c>
-      <c r="F311" s="17"/>
-      <c r="G311" s="17"/>
-      <c r="H311" s="22" t="s">
+      <c r="F311" s="22"/>
+      <c r="G311" s="22"/>
+      <c r="H311" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9931,12 +9929,12 @@
       <c r="D312" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="E312" s="14">
+      <c r="E312" s="12">
         <v>7.3842592592592597E-3</v>
       </c>
-      <c r="F312" s="17"/>
-      <c r="G312" s="17"/>
-      <c r="H312" s="23" t="s">
+      <c r="F312" s="22"/>
+      <c r="G312" s="22"/>
+      <c r="H312" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9953,12 +9951,12 @@
       <c r="D313" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="E313" s="14">
+      <c r="E313" s="12">
         <v>7.8935185185185185E-3</v>
       </c>
-      <c r="F313" s="17"/>
-      <c r="G313" s="17"/>
-      <c r="H313" s="22" t="s">
+      <c r="F313" s="22"/>
+      <c r="G313" s="22"/>
+      <c r="H313" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9975,12 +9973,12 @@
       <c r="D314" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="E314" s="14">
+      <c r="E314" s="12">
         <v>1.0254629629629629E-2</v>
       </c>
-      <c r="F314" s="17"/>
-      <c r="G314" s="17"/>
-      <c r="H314" s="23" t="s">
+      <c r="F314" s="22"/>
+      <c r="G314" s="22"/>
+      <c r="H314" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9997,12 +9995,12 @@
       <c r="D315" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="E315" s="14">
+      <c r="E315" s="12">
         <v>6.5277777777777782E-3</v>
       </c>
-      <c r="F315" s="17"/>
-      <c r="G315" s="17"/>
-      <c r="H315" s="22" t="s">
+      <c r="F315" s="22"/>
+      <c r="G315" s="22"/>
+      <c r="H315" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -10019,12 +10017,12 @@
       <c r="D316" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="E316" s="14">
+      <c r="E316" s="12">
         <v>1.1168981481481481E-2</v>
       </c>
-      <c r="F316" s="17"/>
-      <c r="G316" s="17"/>
-      <c r="H316" s="23" t="s">
+      <c r="F316" s="22"/>
+      <c r="G316" s="22"/>
+      <c r="H316" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10041,12 +10039,12 @@
       <c r="D317" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="E317" s="14">
+      <c r="E317" s="12">
         <v>6.6782407407407407E-3</v>
       </c>
-      <c r="F317" s="17"/>
-      <c r="G317" s="17"/>
-      <c r="H317" s="22" t="s">
+      <c r="F317" s="22"/>
+      <c r="G317" s="22"/>
+      <c r="H317" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -10063,12 +10061,12 @@
       <c r="D318" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="E318" s="14">
+      <c r="E318" s="12">
         <v>7.2222222222222219E-3</v>
       </c>
-      <c r="F318" s="19"/>
-      <c r="G318" s="19"/>
-      <c r="H318" s="23" t="s">
+      <c r="F318" s="23"/>
+      <c r="G318" s="23"/>
+      <c r="H318" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10085,18 +10083,18 @@
       <c r="D319" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="E319" s="14">
+      <c r="E319" s="12">
         <v>4.9421296296296297E-3</v>
       </c>
-      <c r="F319" s="8">
+      <c r="F319" s="21">
         <f>SUM(E319:E342)</f>
         <v>0.20223379629629626</v>
       </c>
-      <c r="G319" s="8">
+      <c r="G319" s="21">
         <f>F319*1.5</f>
         <v>0.3033506944444444</v>
       </c>
-      <c r="H319" s="22" t="s">
+      <c r="H319" s="16" t="s">
         <v>527</v>
       </c>
     </row>
@@ -10113,12 +10111,12 @@
       <c r="D320" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="E320" s="14">
+      <c r="E320" s="12">
         <v>5.6018518518518518E-3</v>
       </c>
-      <c r="F320" s="17"/>
-      <c r="G320" s="17"/>
-      <c r="H320" s="23" t="s">
+      <c r="F320" s="22"/>
+      <c r="G320" s="22"/>
+      <c r="H320" s="17" t="s">
         <v>528</v>
       </c>
     </row>
@@ -10135,12 +10133,12 @@
       <c r="D321" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="E321" s="14">
+      <c r="E321" s="12">
         <v>7.3842592592592597E-3</v>
       </c>
-      <c r="F321" s="17"/>
-      <c r="G321" s="17"/>
-      <c r="H321" s="22" t="s">
+      <c r="F321" s="22"/>
+      <c r="G321" s="22"/>
+      <c r="H321" s="16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10157,12 +10155,12 @@
       <c r="D322" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="E322" s="14">
+      <c r="E322" s="12">
         <v>7.7314814814814815E-3</v>
       </c>
-      <c r="F322" s="17"/>
-      <c r="G322" s="17"/>
-      <c r="H322" s="23" t="s">
+      <c r="F322" s="22"/>
+      <c r="G322" s="22"/>
+      <c r="H322" s="17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10179,12 +10177,12 @@
       <c r="D323" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="E323" s="14">
+      <c r="E323" s="12">
         <v>4.8379629629629632E-3</v>
       </c>
-      <c r="F323" s="17"/>
-      <c r="G323" s="17"/>
-      <c r="H323" s="22" t="s">
+      <c r="F323" s="22"/>
+      <c r="G323" s="22"/>
+      <c r="H323" s="16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10201,12 +10199,12 @@
       <c r="D324" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="E324" s="14">
+      <c r="E324" s="12">
         <v>8.9467592592592585E-3</v>
       </c>
-      <c r="F324" s="17"/>
-      <c r="G324" s="17"/>
-      <c r="H324" s="23" t="s">
+      <c r="F324" s="22"/>
+      <c r="G324" s="22"/>
+      <c r="H324" s="17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10223,12 +10221,12 @@
       <c r="D325" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="E325" s="14">
+      <c r="E325" s="12">
         <v>6.9328703703703705E-3</v>
       </c>
-      <c r="F325" s="17"/>
-      <c r="G325" s="17"/>
-      <c r="H325" s="22" t="s">
+      <c r="F325" s="22"/>
+      <c r="G325" s="22"/>
+      <c r="H325" s="16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10245,12 +10243,12 @@
       <c r="D326" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="E326" s="14">
+      <c r="E326" s="12">
         <v>6.8402777777777776E-3</v>
       </c>
-      <c r="F326" s="17"/>
-      <c r="G326" s="17"/>
-      <c r="H326" s="23" t="s">
+      <c r="F326" s="22"/>
+      <c r="G326" s="22"/>
+      <c r="H326" s="17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10267,12 +10265,12 @@
       <c r="D327" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="E327" s="14">
+      <c r="E327" s="12">
         <v>8.1712962962962963E-3</v>
       </c>
-      <c r="F327" s="17"/>
-      <c r="G327" s="17"/>
-      <c r="H327" s="22" t="s">
+      <c r="F327" s="22"/>
+      <c r="G327" s="22"/>
+      <c r="H327" s="16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10289,12 +10287,12 @@
       <c r="D328" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="E328" s="14">
+      <c r="E328" s="12">
         <v>4.3055555555555555E-3</v>
       </c>
-      <c r="F328" s="17"/>
-      <c r="G328" s="17"/>
-      <c r="H328" s="23" t="s">
+      <c r="F328" s="22"/>
+      <c r="G328" s="22"/>
+      <c r="H328" s="17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10311,12 +10309,12 @@
       <c r="D329" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="E329" s="14">
+      <c r="E329" s="12">
         <v>6.6782407407407407E-3</v>
       </c>
-      <c r="F329" s="17"/>
-      <c r="G329" s="17"/>
-      <c r="H329" s="22" t="s">
+      <c r="F329" s="22"/>
+      <c r="G329" s="22"/>
+      <c r="H329" s="16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10333,12 +10331,12 @@
       <c r="D330" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="E330" s="14">
+      <c r="E330" s="12">
         <v>5.6365740740740742E-3</v>
       </c>
-      <c r="F330" s="17"/>
-      <c r="G330" s="17"/>
-      <c r="H330" s="23" t="s">
+      <c r="F330" s="22"/>
+      <c r="G330" s="22"/>
+      <c r="H330" s="17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10355,12 +10353,12 @@
       <c r="D331" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="E331" s="14">
+      <c r="E331" s="12">
         <v>8.5532407407407415E-3</v>
       </c>
-      <c r="F331" s="17"/>
-      <c r="G331" s="17"/>
-      <c r="H331" s="22" t="s">
+      <c r="F331" s="22"/>
+      <c r="G331" s="22"/>
+      <c r="H331" s="16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10377,12 +10375,12 @@
       <c r="D332" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="E332" s="14">
+      <c r="E332" s="12">
         <v>1.6157407407407409E-2</v>
       </c>
-      <c r="F332" s="17"/>
-      <c r="G332" s="17"/>
-      <c r="H332" s="23" t="s">
+      <c r="F332" s="22"/>
+      <c r="G332" s="22"/>
+      <c r="H332" s="17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10399,12 +10397,12 @@
       <c r="D333" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="E333" s="14">
+      <c r="E333" s="12">
         <v>1.0868055555555556E-2</v>
       </c>
-      <c r="F333" s="17"/>
-      <c r="G333" s="17"/>
-      <c r="H333" s="22" t="s">
+      <c r="F333" s="22"/>
+      <c r="G333" s="22"/>
+      <c r="H333" s="16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10422,9 +10420,9 @@
       <c r="E334" s="7">
         <v>3.8657407407407408E-3</v>
       </c>
-      <c r="F334" s="17"/>
-      <c r="G334" s="17"/>
-      <c r="H334" s="23" t="s">
+      <c r="F334" s="22"/>
+      <c r="G334" s="22"/>
+      <c r="H334" s="17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10442,9 +10440,9 @@
       <c r="E335" s="7">
         <v>5.0231481481481481E-3</v>
       </c>
-      <c r="F335" s="17"/>
-      <c r="G335" s="17"/>
-      <c r="H335" s="22" t="s">
+      <c r="F335" s="22"/>
+      <c r="G335" s="22"/>
+      <c r="H335" s="16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10462,9 +10460,9 @@
       <c r="E336" s="7">
         <v>1.7986111111111112E-2</v>
       </c>
-      <c r="F336" s="17"/>
-      <c r="G336" s="17"/>
-      <c r="H336" s="23" t="s">
+      <c r="F336" s="22"/>
+      <c r="G336" s="22"/>
+      <c r="H336" s="17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10482,9 +10480,9 @@
       <c r="E337" s="7">
         <v>6.1921296296296299E-3</v>
       </c>
-      <c r="F337" s="17"/>
-      <c r="G337" s="17"/>
-      <c r="H337" s="22" t="s">
+      <c r="F337" s="22"/>
+      <c r="G337" s="22"/>
+      <c r="H337" s="16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10502,9 +10500,9 @@
       <c r="E338" s="7">
         <v>2.1898148148148149E-2</v>
       </c>
-      <c r="F338" s="17"/>
-      <c r="G338" s="17"/>
-      <c r="H338" s="23" t="s">
+      <c r="F338" s="22"/>
+      <c r="G338" s="22"/>
+      <c r="H338" s="17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10522,9 +10520,9 @@
       <c r="E339" s="7">
         <v>1.8773148148148146E-2</v>
       </c>
-      <c r="F339" s="17"/>
-      <c r="G339" s="17"/>
-      <c r="H339" s="22" t="s">
+      <c r="F339" s="22"/>
+      <c r="G339" s="22"/>
+      <c r="H339" s="16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10542,9 +10540,9 @@
       <c r="E340" s="7">
         <v>7.4189814814814813E-3</v>
       </c>
-      <c r="F340" s="17"/>
-      <c r="G340" s="17"/>
-      <c r="H340" s="23" t="s">
+      <c r="F340" s="22"/>
+      <c r="G340" s="22"/>
+      <c r="H340" s="17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10562,9 +10560,9 @@
       <c r="E341" s="7">
         <v>1.2962962962962963E-3</v>
       </c>
-      <c r="F341" s="17"/>
-      <c r="G341" s="17"/>
-      <c r="H341" s="22" t="s">
+      <c r="F341" s="22"/>
+      <c r="G341" s="22"/>
+      <c r="H341" s="16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10582,9 +10580,9 @@
       <c r="E342" s="7">
         <v>6.1921296296296299E-3</v>
       </c>
-      <c r="F342" s="19"/>
-      <c r="G342" s="19"/>
-      <c r="H342" s="23" t="s">
+      <c r="F342" s="23"/>
+      <c r="G342" s="23"/>
+      <c r="H342" s="17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10602,15 +10600,15 @@
       <c r="E343" s="7">
         <v>2.7662037037037039E-3</v>
       </c>
-      <c r="F343" s="8">
+      <c r="F343" s="21">
         <f>SUM(E343:E355)</f>
         <v>0.20703703703703702</v>
       </c>
-      <c r="G343" s="8">
+      <c r="G343" s="21">
         <f>F343*1.5</f>
         <v>0.31055555555555553</v>
       </c>
-      <c r="H343" s="22" t="s">
+      <c r="H343" s="16" t="s">
         <v>531</v>
       </c>
     </row>
@@ -10628,9 +10626,9 @@
       <c r="E344" s="7">
         <v>2.4837962962962964E-2</v>
       </c>
-      <c r="F344" s="17"/>
-      <c r="G344" s="17"/>
-      <c r="H344" s="23" t="s">
+      <c r="F344" s="22"/>
+      <c r="G344" s="22"/>
+      <c r="H344" s="17" t="s">
         <v>532</v>
       </c>
     </row>
@@ -10648,9 +10646,9 @@
       <c r="E345" s="7">
         <v>1.4293981481481482E-2</v>
       </c>
-      <c r="F345" s="17"/>
-      <c r="G345" s="17"/>
-      <c r="H345" s="22" t="s">
+      <c r="F345" s="22"/>
+      <c r="G345" s="22"/>
+      <c r="H345" s="16" t="s">
         <v>533</v>
       </c>
     </row>
@@ -10668,9 +10666,9 @@
       <c r="E346" s="7">
         <v>1.3159722222222222E-2</v>
       </c>
-      <c r="F346" s="17"/>
-      <c r="G346" s="17"/>
-      <c r="H346" s="23" t="s">
+      <c r="F346" s="22"/>
+      <c r="G346" s="22"/>
+      <c r="H346" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -10688,9 +10686,9 @@
       <c r="E347" s="7">
         <v>1.5543981481481482E-2</v>
       </c>
-      <c r="F347" s="17"/>
-      <c r="G347" s="17"/>
-      <c r="H347" s="22" t="s">
+      <c r="F347" s="22"/>
+      <c r="G347" s="22"/>
+      <c r="H347" s="16" t="s">
         <v>533</v>
       </c>
     </row>
@@ -10708,9 +10706,9 @@
       <c r="E348" s="7">
         <v>1.170138888888889E-2</v>
       </c>
-      <c r="F348" s="17"/>
-      <c r="G348" s="17"/>
-      <c r="H348" s="23" t="s">
+      <c r="F348" s="22"/>
+      <c r="G348" s="22"/>
+      <c r="H348" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -10728,9 +10726,9 @@
       <c r="E349" s="7">
         <v>8.4259259259259253E-3</v>
       </c>
-      <c r="F349" s="17"/>
-      <c r="G349" s="17"/>
-      <c r="H349" s="22" t="s">
+      <c r="F349" s="22"/>
+      <c r="G349" s="22"/>
+      <c r="H349" s="16" t="s">
         <v>533</v>
       </c>
     </row>
@@ -10748,9 +10746,9 @@
       <c r="E350" s="7">
         <v>3.6307870370370372E-2</v>
       </c>
-      <c r="F350" s="17"/>
-      <c r="G350" s="17"/>
-      <c r="H350" s="23" t="s">
+      <c r="F350" s="22"/>
+      <c r="G350" s="22"/>
+      <c r="H350" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -10768,9 +10766,9 @@
       <c r="E351" s="7">
         <v>9.6643518518518511E-3</v>
       </c>
-      <c r="F351" s="17"/>
-      <c r="G351" s="17"/>
-      <c r="H351" s="22" t="s">
+      <c r="F351" s="22"/>
+      <c r="G351" s="22"/>
+      <c r="H351" s="16" t="s">
         <v>533</v>
       </c>
     </row>
@@ -10788,10 +10786,10 @@
       <c r="E352" s="7">
         <v>2.0486111111111113E-3</v>
       </c>
-      <c r="F352" s="17"/>
-      <c r="G352" s="17"/>
-      <c r="H352" s="23" t="s">
-        <v>534</v>
+      <c r="F352" s="22"/>
+      <c r="G352" s="22"/>
+      <c r="H352" s="17" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10808,10 +10806,10 @@
       <c r="E353" s="7">
         <v>2.1759259259259259E-2</v>
       </c>
-      <c r="F353" s="17"/>
-      <c r="G353" s="17"/>
-      <c r="H353" s="22" t="s">
-        <v>533</v>
+      <c r="F353" s="22"/>
+      <c r="G353" s="22"/>
+      <c r="H353" s="16" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10828,10 +10826,10 @@
       <c r="E354" s="7">
         <v>2.2824074074074073E-2</v>
       </c>
-      <c r="F354" s="17"/>
-      <c r="G354" s="17"/>
-      <c r="H354" s="23" t="s">
-        <v>534</v>
+      <c r="F354" s="22"/>
+      <c r="G354" s="22"/>
+      <c r="H354" s="17" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10848,10 +10846,10 @@
       <c r="E355" s="7">
         <v>2.3703703703703703E-2</v>
       </c>
-      <c r="F355" s="19"/>
-      <c r="G355" s="19"/>
-      <c r="H355" s="22" t="s">
-        <v>533</v>
+      <c r="F355" s="23"/>
+      <c r="G355" s="23"/>
+      <c r="H355" s="16" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10868,16 +10866,16 @@
       <c r="E356" s="7">
         <v>2.2430555555555554E-2</v>
       </c>
-      <c r="F356" s="8">
+      <c r="F356" s="21">
         <f>SUM(E356:E365)</f>
         <v>0.19240740740740739</v>
       </c>
-      <c r="G356" s="8">
+      <c r="G356" s="21">
         <f>F356*1.5</f>
         <v>0.2886111111111111</v>
       </c>
-      <c r="H356" s="22" t="s">
-        <v>535</v>
+      <c r="H356" s="17" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10894,10 +10892,10 @@
       <c r="E357" s="7">
         <v>2.0520833333333332E-2</v>
       </c>
-      <c r="F357" s="17"/>
-      <c r="G357" s="17"/>
-      <c r="H357" s="23" t="s">
-        <v>536</v>
+      <c r="F357" s="22"/>
+      <c r="G357" s="22"/>
+      <c r="H357" s="16" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10914,10 +10912,10 @@
       <c r="E358" s="7">
         <v>8.1018518518518514E-3</v>
       </c>
-      <c r="F358" s="17"/>
-      <c r="G358" s="17"/>
-      <c r="H358" s="23" t="s">
-        <v>536</v>
+      <c r="F358" s="22"/>
+      <c r="G358" s="22"/>
+      <c r="H358" s="17" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10934,10 +10932,10 @@
       <c r="E359" s="7">
         <v>4.6064814814814814E-3</v>
       </c>
-      <c r="F359" s="17"/>
-      <c r="G359" s="17"/>
-      <c r="H359" s="22" t="s">
-        <v>537</v>
+      <c r="F359" s="22"/>
+      <c r="G359" s="22"/>
+      <c r="H359" s="16" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10954,10 +10952,10 @@
       <c r="E360" s="7">
         <v>2.9652777777777778E-2</v>
       </c>
-      <c r="F360" s="17"/>
-      <c r="G360" s="17"/>
-      <c r="H360" s="23" t="s">
-        <v>538</v>
+      <c r="F360" s="22"/>
+      <c r="G360" s="22"/>
+      <c r="H360" s="17" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -10974,10 +10972,10 @@
       <c r="E361" s="7">
         <v>1.7673611111111112E-2</v>
       </c>
-      <c r="F361" s="17"/>
-      <c r="G361" s="17"/>
-      <c r="H361" s="23" t="s">
-        <v>538</v>
+      <c r="F361" s="22"/>
+      <c r="G361" s="22"/>
+      <c r="H361" s="17" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10994,10 +10992,10 @@
       <c r="E362" s="7">
         <v>2.0960648148148148E-2</v>
       </c>
-      <c r="F362" s="17"/>
-      <c r="G362" s="17"/>
-      <c r="H362" s="22" t="s">
-        <v>537</v>
+      <c r="F362" s="22"/>
+      <c r="G362" s="22"/>
+      <c r="H362" s="16" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11014,10 +11012,10 @@
       <c r="E363" s="7">
         <v>5.0960648148148151E-2</v>
       </c>
-      <c r="F363" s="17"/>
-      <c r="G363" s="17"/>
-      <c r="H363" s="23" t="s">
-        <v>538</v>
+      <c r="F363" s="22"/>
+      <c r="G363" s="22"/>
+      <c r="H363" s="17" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11034,10 +11032,10 @@
       <c r="E364" s="7">
         <v>8.518518518518519E-3</v>
       </c>
-      <c r="F364" s="17"/>
-      <c r="G364" s="17"/>
-      <c r="H364" s="23" t="s">
-        <v>538</v>
+      <c r="F364" s="22"/>
+      <c r="G364" s="22"/>
+      <c r="H364" s="17" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11054,50 +11052,50 @@
       <c r="E365" s="7">
         <v>8.9814814814814809E-3</v>
       </c>
-      <c r="F365" s="19"/>
-      <c r="G365" s="19"/>
-      <c r="H365" s="22" t="s">
-        <v>537</v>
+      <c r="F365" s="23"/>
+      <c r="G365" s="23"/>
+      <c r="H365" s="16" t="s">
+        <v>535</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="F356:F365"/>
+    <mergeCell ref="G356:G365"/>
+    <mergeCell ref="F319:F342"/>
+    <mergeCell ref="G319:G342"/>
+    <mergeCell ref="F343:F355"/>
+    <mergeCell ref="G343:G355"/>
+    <mergeCell ref="F265:F292"/>
+    <mergeCell ref="G265:G292"/>
+    <mergeCell ref="F293:F318"/>
+    <mergeCell ref="G293:G318"/>
+    <mergeCell ref="F232:F264"/>
+    <mergeCell ref="G232:G264"/>
+    <mergeCell ref="F153:F174"/>
+    <mergeCell ref="G153:G174"/>
+    <mergeCell ref="F114:F130"/>
+    <mergeCell ref="G114:G130"/>
+    <mergeCell ref="F131:F152"/>
+    <mergeCell ref="G131:G152"/>
+    <mergeCell ref="F101:F113"/>
+    <mergeCell ref="G101:G113"/>
+    <mergeCell ref="F28:F49"/>
+    <mergeCell ref="G28:G49"/>
+    <mergeCell ref="F50:F77"/>
+    <mergeCell ref="G50:G77"/>
+    <mergeCell ref="F2:F15"/>
+    <mergeCell ref="G2:G15"/>
+    <mergeCell ref="F16:F27"/>
+    <mergeCell ref="G16:G27"/>
+    <mergeCell ref="F78:F100"/>
+    <mergeCell ref="G78:G100"/>
     <mergeCell ref="F209:F231"/>
     <mergeCell ref="G209:G231"/>
     <mergeCell ref="F175:F192"/>
     <mergeCell ref="G175:G192"/>
     <mergeCell ref="F193:F208"/>
     <mergeCell ref="G193:G208"/>
-    <mergeCell ref="F2:F15"/>
-    <mergeCell ref="G2:G15"/>
-    <mergeCell ref="F16:F27"/>
-    <mergeCell ref="G16:G27"/>
-    <mergeCell ref="F78:F100"/>
-    <mergeCell ref="G78:G100"/>
-    <mergeCell ref="F101:F113"/>
-    <mergeCell ref="G101:G113"/>
-    <mergeCell ref="F28:F49"/>
-    <mergeCell ref="G28:G49"/>
-    <mergeCell ref="F50:F77"/>
-    <mergeCell ref="G50:G77"/>
-    <mergeCell ref="F153:F174"/>
-    <mergeCell ref="G153:G174"/>
-    <mergeCell ref="F114:F130"/>
-    <mergeCell ref="G114:G130"/>
-    <mergeCell ref="F131:F152"/>
-    <mergeCell ref="G131:G152"/>
-    <mergeCell ref="F265:F292"/>
-    <mergeCell ref="G265:G292"/>
-    <mergeCell ref="F293:F318"/>
-    <mergeCell ref="G293:G318"/>
-    <mergeCell ref="F232:F264"/>
-    <mergeCell ref="G232:G264"/>
-    <mergeCell ref="F356:F365"/>
-    <mergeCell ref="G356:G365"/>
-    <mergeCell ref="F319:F342"/>
-    <mergeCell ref="G319:G342"/>
-    <mergeCell ref="F343:F355"/>
-    <mergeCell ref="G343:G355"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_files/timetable.xlsx
+++ b/excel_files/timetable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture-checker/build/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture_checker/build/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5D24AE-25A2-4C4F-9516-F4E20D0A5A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C863AD02-0D78-3F4E-B17B-90E5E6748F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{765D39CF-F5DA-5E46-89DA-00BE39B518AB}"/>
+    <workbookView xWindow="9600" yWindow="500" windowWidth="19200" windowHeight="15800" xr2:uid="{765D39CF-F5DA-5E46-89DA-00BE39B518AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="539">
   <si>
     <t>강의명</t>
   </si>
@@ -2377,6 +2377,44 @@
   </si>
   <si>
     <r>
+      <t>8.13(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>화)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8.13(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>8.13(화)</t>
     </r>
     <r>
@@ -2398,42 +2436,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Noto Sans KR"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7.31(수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.31(수)</t>
-  </si>
-  <si>
-    <t>7.31(수)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7.31(수)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t/>
     </r>
@@ -2634,6 +2636,9 @@
     <xf numFmtId="46" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="46" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2641,6 +2646,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2655,34 +2663,13 @@
     <xf numFmtId="46" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="46" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="46" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2690,6 +2677,21 @@
     </xf>
     <xf numFmtId="46" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3027,8 +3029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A561FC51-39B6-004A-9744-5A70B0752A77}">
   <dimension ref="A1:H365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C333" workbookViewId="0">
-      <selection activeCell="H352" sqref="H352"/>
+    <sheetView tabSelected="1" topLeftCell="B346" workbookViewId="0">
+      <selection activeCell="G356" sqref="G356:G365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3042,7 +3044,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>479</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -3078,15 +3080,15 @@
       <c r="E2" s="7">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="8">
         <f>SUM(E2:E15)</f>
         <v>0.20958333333333332</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="8">
         <f>F2*1.5</f>
         <v>0.31437499999999996</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="22" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3104,9 +3106,9 @@
       <c r="E3" s="7">
         <v>1.2418981481481482E-2</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="16" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="22" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3124,9 +3126,9 @@
       <c r="E4" s="7">
         <v>1.2638888888888889E-2</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="16" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="22" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3144,9 +3146,9 @@
       <c r="E5" s="7">
         <v>3.1145833333333334E-2</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="16" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="22" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3164,9 +3166,9 @@
       <c r="E6" s="7">
         <v>1.5462962962962963E-2</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="16" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="22" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3184,9 +3186,9 @@
       <c r="E7" s="7">
         <v>1.6759259259259258E-2</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="16" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="22" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3204,9 +3206,9 @@
       <c r="E8" s="7">
         <v>1.2881944444444444E-2</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="16" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="22" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3224,9 +3226,9 @@
       <c r="E9" s="7">
         <v>1.6423611111111111E-2</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="16" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="22" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3244,9 +3246,9 @@
       <c r="E10" s="7">
         <v>1.2175925925925925E-2</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="16" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="22" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3264,9 +3266,9 @@
       <c r="E11" s="7">
         <v>5.6712962962962967E-3</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="16" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="22" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3284,9 +3286,9 @@
       <c r="E12" s="7">
         <v>1.412037037037037E-2</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="16" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="22" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3304,9 +3306,9 @@
       <c r="E13" s="7">
         <v>6.8055555555555551E-3</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="16" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="22" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3324,9 +3326,9 @@
       <c r="E14" s="7">
         <v>1.5208333333333334E-2</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="16" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="22" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3344,9 +3346,9 @@
       <c r="E15" s="7">
         <v>1.5370370370370371E-2</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="16" t="s">
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="22" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3364,15 +3366,15 @@
       <c r="E16" s="7">
         <v>7.4421296296296293E-3</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="8">
         <f>SUM(E16:E27)</f>
         <v>0.20709490740740744</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="8">
         <f>F16*1.5</f>
         <v>0.31064236111111115</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="22" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3390,9 +3392,9 @@
       <c r="E17" s="7">
         <v>1.255787037037037E-2</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="16" t="s">
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="22" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3410,9 +3412,9 @@
       <c r="E18" s="7">
         <v>1.0821759259259258E-2</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="16" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="22" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3430,9 +3432,9 @@
       <c r="E19" s="7">
         <v>5.4976851851851853E-3</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="16" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="22" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3450,9 +3452,9 @@
       <c r="E20" s="7">
         <v>2.0081018518518519E-2</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="16" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="22" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3470,9 +3472,9 @@
       <c r="E21" s="7">
         <v>1.1875E-2</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="16" t="s">
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="22" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3490,9 +3492,9 @@
       <c r="E22" s="7">
         <v>5.7638888888888887E-3</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="16" t="s">
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="22" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3510,9 +3512,9 @@
       <c r="E23" s="7">
         <v>4.0474537037037038E-2</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="16" t="s">
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="22" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3530,9 +3532,9 @@
       <c r="E24" s="7">
         <v>4.490740740740741E-2</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="16" t="s">
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="22" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3550,9 +3552,9 @@
       <c r="E25" s="7">
         <v>4.3981481481481484E-3</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="16" t="s">
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="22" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3570,9 +3572,9 @@
       <c r="E26" s="7">
         <v>8.7962962962962968E-3</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="16" t="s">
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="22" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3590,9 +3592,9 @@
       <c r="E27" s="7">
         <v>3.4479166666666665E-2</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="16" t="s">
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="22" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3610,15 +3612,15 @@
       <c r="E28" s="7">
         <v>7.3842592592592597E-3</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="8">
         <f>SUM(E28:E49)</f>
         <v>0.19423611111111114</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="8">
         <f>F28*1.5</f>
         <v>0.29135416666666669</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="22" t="s">
         <v>480</v>
       </c>
     </row>
@@ -3636,9 +3638,9 @@
       <c r="E29" s="7">
         <v>2.8009259259259258E-2</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="17" t="s">
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="23" t="s">
         <v>481</v>
       </c>
     </row>
@@ -3656,9 +3658,9 @@
       <c r="E30" s="7">
         <v>1.8113425925925925E-2</v>
       </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="16" t="s">
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="22" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3678,9 +3680,9 @@
       <c r="E31" s="7">
         <v>2.1064814814814813E-3</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="17" t="s">
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="23" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3700,9 +3702,9 @@
       <c r="E32" s="7">
         <v>9.5023148148148141E-3</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="16" t="s">
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="22" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3722,9 +3724,9 @@
       <c r="E33" s="7">
         <v>6.8402777777777776E-3</v>
       </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="17" t="s">
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="23" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3744,9 +3746,9 @@
       <c r="E34" s="7">
         <v>1.9583333333333335E-2</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="16" t="s">
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="22" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3766,9 +3768,9 @@
       <c r="E35" s="7">
         <v>1.712962962962963E-3</v>
       </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="17" t="s">
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="23" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3788,9 +3790,9 @@
       <c r="E36" s="7">
         <v>2.3379629629629631E-3</v>
       </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="16" t="s">
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="22" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3810,9 +3812,9 @@
       <c r="E37" s="7">
         <v>3.0555555555555557E-3</v>
       </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="17" t="s">
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="23" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3832,9 +3834,9 @@
       <c r="E38" s="7">
         <v>2.074074074074074E-2</v>
       </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="16" t="s">
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="22" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3854,9 +3856,9 @@
       <c r="E39" s="7">
         <v>1.1145833333333334E-2</v>
       </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="17" t="s">
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="23" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3876,9 +3878,9 @@
       <c r="E40" s="7">
         <v>5.3819444444444444E-3</v>
       </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="16" t="s">
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="22" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3898,9 +3900,9 @@
       <c r="E41" s="7">
         <v>1.5949074074074074E-2</v>
       </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="17" t="s">
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="23" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3920,9 +3922,9 @@
       <c r="E42" s="7">
         <v>3.8078703703703703E-3</v>
       </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="16" t="s">
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="22" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3942,9 +3944,9 @@
       <c r="E43" s="7">
         <v>7.8009259259259256E-3</v>
       </c>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="17" t="s">
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="23" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3964,9 +3966,9 @@
       <c r="E44" s="7">
         <v>3.0787037037037037E-3</v>
       </c>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="16" t="s">
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="22" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3986,9 +3988,9 @@
       <c r="E45" s="7">
         <v>3.1481481481481482E-3</v>
       </c>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="17" t="s">
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="23" t="s">
         <v>475</v>
       </c>
     </row>
@@ -4008,9 +4010,9 @@
       <c r="E46" s="7">
         <v>4.6064814814814814E-3</v>
       </c>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="16" t="s">
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="22" t="s">
         <v>482</v>
       </c>
     </row>
@@ -4030,9 +4032,9 @@
       <c r="E47" s="7">
         <v>3.2754629629629631E-3</v>
       </c>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="17" t="s">
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="23" t="s">
         <v>475</v>
       </c>
     </row>
@@ -4052,9 +4054,9 @@
       <c r="E48" s="7">
         <v>1.0694444444444444E-2</v>
       </c>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="16" t="s">
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="22" t="s">
         <v>482</v>
       </c>
     </row>
@@ -4074,9 +4076,9 @@
       <c r="E49" s="7">
         <v>5.9606481481481481E-3</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="17" t="s">
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="23" t="s">
         <v>475</v>
       </c>
     </row>
@@ -4096,15 +4098,15 @@
       <c r="E50" s="7">
         <v>1.8055555555555555E-3</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="8">
         <f>SUM(E50:E77)</f>
         <v>0.17664351851851851</v>
       </c>
-      <c r="G50" s="21">
+      <c r="G50" s="8">
         <f>F50*1.5</f>
         <v>0.26496527777777779</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="H50" s="22" t="s">
         <v>483</v>
       </c>
     </row>
@@ -4124,9 +4126,9 @@
       <c r="E51" s="7">
         <v>5.185185185185185E-3</v>
       </c>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="17" t="s">
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="23" t="s">
         <v>484</v>
       </c>
     </row>
@@ -4146,9 +4148,9 @@
       <c r="E52" s="7">
         <v>4.0740740740740737E-3</v>
       </c>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="16" t="s">
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="22" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4168,9 +4170,9 @@
       <c r="E53" s="7">
         <v>2.0405092592592593E-2</v>
       </c>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="17" t="s">
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="23" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4190,9 +4192,9 @@
       <c r="E54" s="7">
         <v>8.726851851851852E-3</v>
       </c>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="16" t="s">
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="22" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4212,9 +4214,9 @@
       <c r="E55" s="7">
         <v>4.6180555555555558E-3</v>
       </c>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="17" t="s">
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="23" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4234,9 +4236,9 @@
       <c r="E56" s="7">
         <v>5.092592592592593E-3</v>
       </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="16" t="s">
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="22" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4256,9 +4258,9 @@
       <c r="E57" s="7">
         <v>1.7592592592592592E-3</v>
       </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="17" t="s">
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="23" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4278,9 +4280,9 @@
       <c r="E58" s="7">
         <v>5.2777777777777779E-3</v>
       </c>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="16" t="s">
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="22" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4300,9 +4302,9 @@
       <c r="E59" s="7">
         <v>1.2037037037037037E-2</v>
       </c>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="17" t="s">
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="23" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4322,9 +4324,9 @@
       <c r="E60" s="7">
         <v>2.650462962962963E-3</v>
       </c>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="16" t="s">
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="22" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4344,9 +4346,9 @@
       <c r="E61" s="7">
         <v>1.736111111111111E-3</v>
       </c>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="17" t="s">
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="23" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4366,9 +4368,9 @@
       <c r="E62" s="7">
         <v>9.9421296296296289E-3</v>
       </c>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="16" t="s">
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="22" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4388,9 +4390,9 @@
       <c r="E63" s="7">
         <v>4.1898148148148146E-3</v>
       </c>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="17" t="s">
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="23" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4410,9 +4412,9 @@
       <c r="E64" s="7">
         <v>3.2523148148148147E-3</v>
       </c>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="16" t="s">
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="22" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4432,9 +4434,9 @@
       <c r="E65" s="7">
         <v>7.5347222222222222E-3</v>
       </c>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="17" t="s">
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="23" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4454,9 +4456,9 @@
       <c r="E66" s="7">
         <v>5.6828703703703702E-3</v>
       </c>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="16" t="s">
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="22" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4476,9 +4478,9 @@
       <c r="E67" s="7">
         <v>2.2916666666666667E-3</v>
       </c>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="17" t="s">
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="23" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4498,9 +4500,9 @@
       <c r="E68" s="7">
         <v>9.6296296296296303E-3</v>
       </c>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="16" t="s">
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="22" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4520,9 +4522,9 @@
       <c r="E69" s="7">
         <v>6.851851851851852E-3</v>
       </c>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="17" t="s">
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="23" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4542,9 +4544,9 @@
       <c r="E70" s="7">
         <v>8.8888888888888889E-3</v>
       </c>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="16" t="s">
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="22" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4564,9 +4566,9 @@
       <c r="E71" s="7">
         <v>8.0902777777777778E-3</v>
       </c>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="17" t="s">
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="23" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4586,9 +4588,9 @@
       <c r="E72" s="7">
         <v>9.8842592592592593E-3</v>
       </c>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="16" t="s">
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="22" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4608,9 +4610,9 @@
       <c r="E73" s="7">
         <v>1.6319444444444445E-3</v>
       </c>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="17" t="s">
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="23" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4630,9 +4632,9 @@
       <c r="E74" s="7">
         <v>1.1828703703703704E-2</v>
       </c>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="16" t="s">
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="22" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4652,9 +4654,9 @@
       <c r="E75" s="7">
         <v>1.5972222222222223E-3</v>
       </c>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="17" t="s">
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="23" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4674,9 +4676,9 @@
       <c r="E76" s="7">
         <v>7.8819444444444449E-3</v>
       </c>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="16" t="s">
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="22" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4696,9 +4698,9 @@
       <c r="E77" s="7">
         <v>4.0972222222222226E-3</v>
       </c>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="17" t="s">
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="23" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4718,15 +4720,15 @@
       <c r="E78" s="7">
         <v>1.0127314814814815E-2</v>
       </c>
-      <c r="F78" s="21">
+      <c r="F78" s="8">
         <f>SUM(E78:E100)</f>
         <v>0.19204861111111113</v>
       </c>
-      <c r="G78" s="21">
+      <c r="G78" s="8">
         <f>F78*1.5</f>
         <v>0.28807291666666668</v>
       </c>
-      <c r="H78" s="16" t="s">
+      <c r="H78" s="22" t="s">
         <v>487</v>
       </c>
     </row>
@@ -4746,9 +4748,9 @@
       <c r="E79" s="7">
         <v>1.5393518518518518E-2</v>
       </c>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="17" t="s">
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="23" t="s">
         <v>488</v>
       </c>
     </row>
@@ -4768,9 +4770,9 @@
       <c r="E80" s="7">
         <v>3.460648148148148E-3</v>
       </c>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="16" t="s">
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="22" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4790,9 +4792,9 @@
       <c r="E81" s="7">
         <v>2.7546296296296294E-3</v>
       </c>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="17" t="s">
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="23" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4812,9 +4814,9 @@
       <c r="E82" s="7">
         <v>3.2442129629629626E-2</v>
       </c>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="16" t="s">
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="22" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4834,9 +4836,9 @@
       <c r="E83" s="7">
         <v>4.7453703703703704E-4</v>
       </c>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="17" t="s">
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="23" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4856,9 +4858,9 @@
       <c r="E84" s="7">
         <v>4.3750000000000004E-3</v>
       </c>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="16" t="s">
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="22" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4878,9 +4880,9 @@
       <c r="E85" s="7">
         <v>3.8541666666666668E-3</v>
       </c>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="17" t="s">
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="23" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4900,9 +4902,9 @@
       <c r="E86" s="7">
         <v>1.5914351851851853E-2</v>
       </c>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="16" t="s">
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="22" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4922,9 +4924,9 @@
       <c r="E87" s="7">
         <v>2.1527777777777778E-3</v>
       </c>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="17" t="s">
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="23" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4944,9 +4946,9 @@
       <c r="E88" s="7">
         <v>4.0393518518518521E-3</v>
       </c>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="16" t="s">
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="22" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4966,9 +4968,9 @@
       <c r="E89" s="7">
         <v>2.9861111111111113E-3</v>
       </c>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="17" t="s">
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="23" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4988,9 +4990,9 @@
       <c r="E90" s="7">
         <v>1.6782407407407408E-3</v>
       </c>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="16" t="s">
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="22" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5010,9 +5012,9 @@
       <c r="E91" s="7">
         <v>1.4467592592592593E-2</v>
       </c>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="17" t="s">
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="23" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5032,9 +5034,9 @@
       <c r="E92" s="7">
         <v>5.8449074074074072E-3</v>
       </c>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="16" t="s">
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="22" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5054,9 +5056,9 @@
       <c r="E93" s="7">
         <v>8.6226851851851846E-3</v>
       </c>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="17" t="s">
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="23" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5076,9 +5078,9 @@
       <c r="E94" s="7">
         <v>7.5115740740740742E-3</v>
       </c>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="16" t="s">
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="22" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5098,9 +5100,9 @@
       <c r="E95" s="7">
         <v>5.6365740740740742E-3</v>
       </c>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="17" t="s">
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="23" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5120,9 +5122,9 @@
       <c r="E96" s="7">
         <v>1.2465277777777778E-2</v>
       </c>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="16" t="s">
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="22" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5142,9 +5144,9 @@
       <c r="E97" s="7">
         <v>1.653935185185185E-2</v>
       </c>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="17" t="s">
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="23" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5164,9 +5166,9 @@
       <c r="E98" s="7">
         <v>4.5370370370370373E-3</v>
       </c>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="16" t="s">
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="22" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5186,9 +5188,9 @@
       <c r="E99" s="7">
         <v>8.726851851851852E-3</v>
       </c>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="17" t="s">
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="23" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5208,9 +5210,9 @@
       <c r="E100" s="7">
         <v>8.0439814814814818E-3</v>
       </c>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="16" t="s">
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="22" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5230,15 +5232,15 @@
       <c r="E101" s="7">
         <v>2.388888888888889E-2</v>
       </c>
-      <c r="F101" s="21">
+      <c r="F101" s="8">
         <f>SUM(E101:E113)</f>
         <v>0.20234953703703701</v>
       </c>
-      <c r="G101" s="21">
+      <c r="G101" s="8">
         <f>F101*1.5</f>
         <v>0.30352430555555554</v>
       </c>
-      <c r="H101" s="16" t="s">
+      <c r="H101" s="22" t="s">
         <v>491</v>
       </c>
     </row>
@@ -5258,9 +5260,9 @@
       <c r="E102" s="7">
         <v>1.9560185185185184E-2</v>
       </c>
-      <c r="F102" s="22"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="17" t="s">
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="23" t="s">
         <v>492</v>
       </c>
     </row>
@@ -5280,9 +5282,9 @@
       <c r="E103" s="7">
         <v>9.4444444444444445E-3</v>
       </c>
-      <c r="F103" s="22"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="16" t="s">
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="22" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5302,9 +5304,9 @@
       <c r="E104" s="7">
         <v>1.8472222222222223E-2</v>
       </c>
-      <c r="F104" s="22"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="17" t="s">
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="23" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5324,9 +5326,9 @@
       <c r="E105" s="7">
         <v>5.9143518518518521E-3</v>
       </c>
-      <c r="F105" s="22"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="16" t="s">
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="22" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5346,9 +5348,9 @@
       <c r="E106" s="7">
         <v>1.9479166666666665E-2</v>
       </c>
-      <c r="F106" s="22"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="17" t="s">
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="23" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5368,9 +5370,9 @@
       <c r="E107" s="7">
         <v>1.1331018518518518E-2</v>
       </c>
-      <c r="F107" s="22"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="16" t="s">
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="22" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5390,9 +5392,9 @@
       <c r="E108" s="7">
         <v>5.6828703703703702E-3</v>
       </c>
-      <c r="F108" s="22"/>
-      <c r="G108" s="22"/>
-      <c r="H108" s="17" t="s">
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="23" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5412,9 +5414,9 @@
       <c r="E109" s="7">
         <v>8.3564814814814821E-3</v>
       </c>
-      <c r="F109" s="22"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="16" t="s">
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="22" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5434,9 +5436,9 @@
       <c r="E110" s="7">
         <v>2.2893518518518518E-2</v>
       </c>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="17" t="s">
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="23" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5456,9 +5458,9 @@
       <c r="E111" s="7">
         <v>1.8229166666666668E-2</v>
       </c>
-      <c r="F111" s="22"/>
-      <c r="G111" s="22"/>
-      <c r="H111" s="16" t="s">
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="22" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5478,9 +5480,9 @@
       <c r="E112" s="7">
         <v>1.9467592592592592E-2</v>
       </c>
-      <c r="F112" s="22"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="17" t="s">
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="23" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5500,9 +5502,9 @@
       <c r="E113" s="7">
         <v>1.9629629629629629E-2</v>
       </c>
-      <c r="F113" s="23"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="16" t="s">
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="22" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5522,15 +5524,15 @@
       <c r="E114" s="7">
         <v>2.8715277777777777E-2</v>
       </c>
-      <c r="F114" s="21">
+      <c r="F114" s="8">
         <f>SUM(E114:E130)</f>
         <v>0.19422453703703699</v>
       </c>
-      <c r="G114" s="21">
+      <c r="G114" s="8">
         <f>F114*1.5</f>
         <v>0.29133680555555547</v>
       </c>
-      <c r="H114" s="16" t="s">
+      <c r="H114" s="22" t="s">
         <v>495</v>
       </c>
     </row>
@@ -5550,9 +5552,9 @@
       <c r="E115" s="7">
         <v>7.0949074074074074E-3</v>
       </c>
-      <c r="F115" s="22"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="17" t="s">
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="23" t="s">
         <v>496</v>
       </c>
     </row>
@@ -5572,9 +5574,9 @@
       <c r="E116" s="7">
         <v>9.6759259259259264E-3</v>
       </c>
-      <c r="F116" s="22"/>
-      <c r="G116" s="22"/>
-      <c r="H116" s="16" t="s">
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="22" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5594,9 +5596,9 @@
       <c r="E117" s="7">
         <v>5.37037037037037E-3</v>
       </c>
-      <c r="F117" s="22"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="17" t="s">
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="23" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5616,9 +5618,9 @@
       <c r="E118" s="7">
         <v>1.7303240740740741E-2</v>
       </c>
-      <c r="F118" s="22"/>
-      <c r="G118" s="22"/>
-      <c r="H118" s="16" t="s">
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="22" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5638,9 +5640,9 @@
       <c r="E119" s="7">
         <v>9.4212962962962957E-3</v>
       </c>
-      <c r="F119" s="22"/>
-      <c r="G119" s="22"/>
-      <c r="H119" s="17" t="s">
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="23" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5660,9 +5662,9 @@
       <c r="E120" s="7">
         <v>2.7245370370370371E-2</v>
       </c>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="16" t="s">
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="22" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5682,9 +5684,9 @@
       <c r="E121" s="7">
         <v>2.5405092592592594E-2</v>
       </c>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="17" t="s">
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="23" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5704,9 +5706,9 @@
       <c r="E122" s="7">
         <v>8.1597222222222227E-3</v>
       </c>
-      <c r="F122" s="22"/>
-      <c r="G122" s="22"/>
-      <c r="H122" s="16" t="s">
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="22" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5726,9 +5728,9 @@
       <c r="E123" s="7">
         <v>6.145833333333333E-3</v>
       </c>
-      <c r="F123" s="22"/>
-      <c r="G123" s="22"/>
-      <c r="H123" s="17" t="s">
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="23" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5748,9 +5750,9 @@
       <c r="E124" s="7">
         <v>1.7673611111111112E-2</v>
       </c>
-      <c r="F124" s="22"/>
-      <c r="G124" s="22"/>
-      <c r="H124" s="16" t="s">
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="22" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5770,9 +5772,9 @@
       <c r="E125" s="7">
         <v>5.5324074074074078E-3</v>
       </c>
-      <c r="F125" s="22"/>
-      <c r="G125" s="22"/>
-      <c r="H125" s="17" t="s">
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="23" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5792,9 +5794,9 @@
       <c r="E126" s="7">
         <v>6.9212962962962961E-3</v>
       </c>
-      <c r="F126" s="22"/>
-      <c r="G126" s="22"/>
-      <c r="H126" s="16" t="s">
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="22" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5814,9 +5816,9 @@
       <c r="E127" s="7">
         <v>5.6018518518518518E-3</v>
       </c>
-      <c r="F127" s="22"/>
-      <c r="G127" s="22"/>
-      <c r="H127" s="17" t="s">
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="23" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5836,9 +5838,9 @@
       <c r="E128" s="7">
         <v>3.8194444444444443E-3</v>
       </c>
-      <c r="F128" s="22"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="16" t="s">
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="22" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5858,9 +5860,9 @@
       <c r="E129" s="7">
         <v>4.31712962962963E-3</v>
       </c>
-      <c r="F129" s="22"/>
-      <c r="G129" s="22"/>
-      <c r="H129" s="17" t="s">
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="23" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5880,9 +5882,9 @@
       <c r="E130" s="7">
         <v>5.8217592592592592E-3</v>
       </c>
-      <c r="F130" s="23"/>
-      <c r="G130" s="23"/>
-      <c r="H130" s="16" t="s">
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="22" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5902,15 +5904,15 @@
       <c r="E131" s="7">
         <v>1.6064814814814816E-2</v>
       </c>
-      <c r="F131" s="21">
+      <c r="F131" s="8">
         <f>SUM(E131:E152)</f>
         <v>0.20628472222222222</v>
       </c>
-      <c r="G131" s="21">
+      <c r="G131" s="8">
         <f>F131*1.5</f>
         <v>0.30942708333333335</v>
       </c>
-      <c r="H131" s="16" t="s">
+      <c r="H131" s="22" t="s">
         <v>499</v>
       </c>
     </row>
@@ -5930,9 +5932,9 @@
       <c r="E132" s="7">
         <v>1.0636574074074074E-2</v>
       </c>
-      <c r="F132" s="22"/>
-      <c r="G132" s="22"/>
-      <c r="H132" s="17" t="s">
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="23" t="s">
         <v>500</v>
       </c>
     </row>
@@ -5952,9 +5954,9 @@
       <c r="E133" s="7">
         <v>8.067129629629629E-3</v>
       </c>
-      <c r="F133" s="22"/>
-      <c r="G133" s="22"/>
-      <c r="H133" s="16" t="s">
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
+      <c r="H133" s="22" t="s">
         <v>501</v>
       </c>
     </row>
@@ -5974,9 +5976,9 @@
       <c r="E134" s="7">
         <v>7.8935185185185185E-3</v>
       </c>
-      <c r="F134" s="22"/>
-      <c r="G134" s="22"/>
-      <c r="H134" s="17" t="s">
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
+      <c r="H134" s="23" t="s">
         <v>502</v>
       </c>
     </row>
@@ -5996,9 +5998,9 @@
       <c r="E135" s="7">
         <v>5.9143518518518521E-3</v>
       </c>
-      <c r="F135" s="22"/>
-      <c r="G135" s="22"/>
-      <c r="H135" s="16" t="s">
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
+      <c r="H135" s="22" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6018,9 +6020,9 @@
       <c r="E136" s="7">
         <v>6.0416666666666665E-3</v>
       </c>
-      <c r="F136" s="22"/>
-      <c r="G136" s="22"/>
-      <c r="H136" s="17" t="s">
+      <c r="F136" s="17"/>
+      <c r="G136" s="17"/>
+      <c r="H136" s="23" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6040,9 +6042,9 @@
       <c r="E137" s="7">
         <v>2.4016203703703703E-2</v>
       </c>
-      <c r="F137" s="22"/>
-      <c r="G137" s="22"/>
-      <c r="H137" s="16" t="s">
+      <c r="F137" s="17"/>
+      <c r="G137" s="17"/>
+      <c r="H137" s="22" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6062,9 +6064,9 @@
       <c r="E138" s="7">
         <v>1.494212962962963E-2</v>
       </c>
-      <c r="F138" s="22"/>
-      <c r="G138" s="22"/>
-      <c r="H138" s="17" t="s">
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
+      <c r="H138" s="23" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6084,9 +6086,9 @@
       <c r="E139" s="7">
         <v>7.1412037037037034E-3</v>
       </c>
-      <c r="F139" s="22"/>
-      <c r="G139" s="22"/>
-      <c r="H139" s="16" t="s">
+      <c r="F139" s="17"/>
+      <c r="G139" s="17"/>
+      <c r="H139" s="22" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6106,9 +6108,9 @@
       <c r="E140" s="7">
         <v>5.5208333333333333E-3</v>
       </c>
-      <c r="F140" s="22"/>
-      <c r="G140" s="22"/>
-      <c r="H140" s="17" t="s">
+      <c r="F140" s="17"/>
+      <c r="G140" s="17"/>
+      <c r="H140" s="23" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6128,9 +6130,9 @@
       <c r="E141" s="7">
         <v>4.8842592592592592E-3</v>
       </c>
-      <c r="F141" s="22"/>
-      <c r="G141" s="22"/>
-      <c r="H141" s="16" t="s">
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="22" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6150,9 +6152,9 @@
       <c r="E142" s="7">
         <v>1.0428240740740741E-2</v>
       </c>
-      <c r="F142" s="22"/>
-      <c r="G142" s="22"/>
-      <c r="H142" s="17" t="s">
+      <c r="F142" s="17"/>
+      <c r="G142" s="17"/>
+      <c r="H142" s="23" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6172,9 +6174,9 @@
       <c r="E143" s="7">
         <v>8.5995370370370375E-3</v>
       </c>
-      <c r="F143" s="22"/>
-      <c r="G143" s="22"/>
-      <c r="H143" s="16" t="s">
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="22" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6194,9 +6196,9 @@
       <c r="E144" s="7">
         <v>7.6504629629629631E-3</v>
       </c>
-      <c r="F144" s="22"/>
-      <c r="G144" s="22"/>
-      <c r="H144" s="17" t="s">
+      <c r="F144" s="17"/>
+      <c r="G144" s="17"/>
+      <c r="H144" s="23" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6216,9 +6218,9 @@
       <c r="E145" s="7">
         <v>8.2754629629629636E-3</v>
       </c>
-      <c r="F145" s="22"/>
-      <c r="G145" s="22"/>
-      <c r="H145" s="16" t="s">
+      <c r="F145" s="17"/>
+      <c r="G145" s="17"/>
+      <c r="H145" s="22" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6238,9 +6240,9 @@
       <c r="E146" s="7">
         <v>1.7708333333333333E-2</v>
       </c>
-      <c r="F146" s="22"/>
-      <c r="G146" s="22"/>
-      <c r="H146" s="17" t="s">
+      <c r="F146" s="17"/>
+      <c r="G146" s="17"/>
+      <c r="H146" s="23" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6260,9 +6262,9 @@
       <c r="E147" s="7">
         <v>7.6273148148148151E-3</v>
       </c>
-      <c r="F147" s="22"/>
-      <c r="G147" s="22"/>
-      <c r="H147" s="16" t="s">
+      <c r="F147" s="17"/>
+      <c r="G147" s="17"/>
+      <c r="H147" s="22" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6282,9 +6284,9 @@
       <c r="E148" s="7">
         <v>4.0740740740740737E-3</v>
       </c>
-      <c r="F148" s="22"/>
-      <c r="G148" s="22"/>
-      <c r="H148" s="17" t="s">
+      <c r="F148" s="17"/>
+      <c r="G148" s="17"/>
+      <c r="H148" s="23" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6304,9 +6306,9 @@
       <c r="E149" s="7">
         <v>5.7291666666666663E-3</v>
       </c>
-      <c r="F149" s="22"/>
-      <c r="G149" s="22"/>
-      <c r="H149" s="16" t="s">
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="22" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6326,9 +6328,9 @@
       <c r="E150" s="7">
         <v>6.1921296296296299E-3</v>
       </c>
-      <c r="F150" s="22"/>
-      <c r="G150" s="22"/>
-      <c r="H150" s="17" t="s">
+      <c r="F150" s="17"/>
+      <c r="G150" s="17"/>
+      <c r="H150" s="23" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6348,9 +6350,9 @@
       <c r="E151" s="7">
         <v>1.1724537037037037E-2</v>
       </c>
-      <c r="F151" s="22"/>
-      <c r="G151" s="22"/>
-      <c r="H151" s="16" t="s">
+      <c r="F151" s="17"/>
+      <c r="G151" s="17"/>
+      <c r="H151" s="22" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6370,499 +6372,499 @@
       <c r="E152" s="7">
         <v>7.1527777777777779E-3</v>
       </c>
-      <c r="F152" s="23"/>
-      <c r="G152" s="23"/>
-      <c r="H152" s="17" t="s">
+      <c r="F152" s="19"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="23" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B153" s="9" t="s">
+      <c r="A153" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B153" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C153" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D153" s="8" t="s">
+      <c r="D153" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="E153" s="10">
+      <c r="E153" s="11">
         <v>1.1620370370370371E-2</v>
       </c>
-      <c r="F153" s="24">
+      <c r="F153" s="12">
         <f>SUM(E153:E174)</f>
         <v>0.19090277777777778</v>
       </c>
-      <c r="G153" s="24">
+      <c r="G153" s="12">
         <f>F153*1.5</f>
         <v>0.28635416666666669</v>
       </c>
-      <c r="H153" s="19" t="s">
+      <c r="H153" s="25" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B154" s="9" t="s">
+      <c r="A154" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B154" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C154" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D154" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="E154" s="10">
+      <c r="E154" s="11">
         <v>1.2534722222222221E-2</v>
       </c>
-      <c r="F154" s="25"/>
-      <c r="G154" s="25"/>
-      <c r="H154" s="20" t="s">
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="26" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B155" s="9" t="s">
+      <c r="A155" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B155" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C155" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D155" s="8" t="s">
+      <c r="D155" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="E155" s="10">
+      <c r="E155" s="11">
         <v>2.6817129629629628E-2</v>
       </c>
-      <c r="F155" s="25"/>
-      <c r="G155" s="25"/>
-      <c r="H155" s="20" t="s">
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="26" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B156" s="9" t="s">
+      <c r="A156" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B156" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C156" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D156" s="8" t="s">
+      <c r="D156" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E156" s="10">
+      <c r="E156" s="11">
         <v>1.1851851851851851E-2</v>
       </c>
-      <c r="F156" s="25"/>
-      <c r="G156" s="25"/>
-      <c r="H156" s="19" t="s">
+      <c r="F156" s="20"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="25" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B157" s="8" t="s">
+      <c r="A157" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D157" s="8" t="s">
+      <c r="D157" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="E157" s="10">
+      <c r="E157" s="11">
         <v>1.667824074074074E-2</v>
       </c>
-      <c r="F157" s="25"/>
-      <c r="G157" s="25"/>
-      <c r="H157" s="20" t="s">
+      <c r="F157" s="20"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="26" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B158" s="8" t="s">
+      <c r="A158" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B158" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D158" s="8" t="s">
+      <c r="D158" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E158" s="10">
+      <c r="E158" s="11">
         <v>1.7465277777777777E-2</v>
       </c>
-      <c r="F158" s="25"/>
-      <c r="G158" s="25"/>
-      <c r="H158" s="20" t="s">
+      <c r="F158" s="20"/>
+      <c r="G158" s="20"/>
+      <c r="H158" s="26" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B159" s="9" t="s">
+      <c r="A159" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B159" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="C159" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="D159" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E159" s="11">
+      <c r="E159" s="13">
         <v>3.5995370370370369E-3</v>
       </c>
-      <c r="F159" s="25"/>
-      <c r="G159" s="25"/>
-      <c r="H159" s="19" t="s">
+      <c r="F159" s="20"/>
+      <c r="G159" s="20"/>
+      <c r="H159" s="25" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B160" s="9" t="s">
+      <c r="A160" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B160" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D160" s="8" t="s">
+      <c r="D160" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="E160" s="11">
+      <c r="E160" s="13">
         <v>2.0601851851851853E-3</v>
       </c>
-      <c r="F160" s="25"/>
-      <c r="G160" s="25"/>
-      <c r="H160" s="20" t="s">
+      <c r="F160" s="20"/>
+      <c r="G160" s="20"/>
+      <c r="H160" s="26" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B161" s="9" t="s">
+      <c r="A161" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B161" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D161" s="8" t="s">
+      <c r="D161" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E161" s="11">
+      <c r="E161" s="13">
         <v>2.1180555555555558E-3</v>
       </c>
-      <c r="F161" s="25"/>
-      <c r="G161" s="25"/>
-      <c r="H161" s="20" t="s">
+      <c r="F161" s="20"/>
+      <c r="G161" s="20"/>
+      <c r="H161" s="26" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B162" s="9" t="s">
+      <c r="A162" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B162" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D162" s="8" t="s">
+      <c r="D162" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E162" s="11">
+      <c r="E162" s="13">
         <v>5.2430555555555555E-3</v>
       </c>
-      <c r="F162" s="25"/>
-      <c r="G162" s="25"/>
-      <c r="H162" s="19" t="s">
+      <c r="F162" s="20"/>
+      <c r="G162" s="20"/>
+      <c r="H162" s="25" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B163" s="9" t="s">
+      <c r="A163" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B163" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D163" s="8" t="s">
+      <c r="D163" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="E163" s="11">
+      <c r="E163" s="13">
         <v>5.4745370370370373E-3</v>
       </c>
-      <c r="F163" s="25"/>
-      <c r="G163" s="25"/>
-      <c r="H163" s="20" t="s">
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="26" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B164" s="9" t="s">
+      <c r="A164" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B164" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D164" s="8" t="s">
+      <c r="D164" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="E164" s="11">
+      <c r="E164" s="13">
         <v>3.8888888888888888E-3</v>
       </c>
-      <c r="F164" s="25"/>
-      <c r="G164" s="25"/>
-      <c r="H164" s="20" t="s">
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="26" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B165" s="9" t="s">
+      <c r="A165" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B165" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="C165" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D165" s="8" t="s">
+      <c r="D165" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="E165" s="11">
+      <c r="E165" s="13">
         <v>6.7361111111111111E-3</v>
       </c>
-      <c r="F165" s="25"/>
-      <c r="G165" s="25"/>
-      <c r="H165" s="19" t="s">
+      <c r="F165" s="20"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="25" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B166" s="9" t="s">
+      <c r="A166" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B166" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C166" s="9" t="s">
+      <c r="C166" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D166" s="8" t="s">
+      <c r="D166" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E166" s="11">
+      <c r="E166" s="13">
         <v>3.7962962962962963E-3</v>
       </c>
-      <c r="F166" s="25"/>
-      <c r="G166" s="25"/>
-      <c r="H166" s="20" t="s">
+      <c r="F166" s="20"/>
+      <c r="G166" s="20"/>
+      <c r="H166" s="26" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B167" s="9" t="s">
+      <c r="A167" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B167" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C167" s="9" t="s">
+      <c r="C167" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D167" s="8" t="s">
+      <c r="D167" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E167" s="11">
+      <c r="E167" s="13">
         <v>1.2210648148148148E-2</v>
       </c>
-      <c r="F167" s="25"/>
-      <c r="G167" s="25"/>
-      <c r="H167" s="20" t="s">
+      <c r="F167" s="20"/>
+      <c r="G167" s="20"/>
+      <c r="H167" s="26" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B168" s="9" t="s">
+      <c r="A168" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B168" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C168" s="9" t="s">
+      <c r="C168" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D168" s="8" t="s">
+      <c r="D168" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E168" s="10">
+      <c r="E168" s="11">
         <v>3.3564814814814816E-3</v>
       </c>
-      <c r="F168" s="25"/>
-      <c r="G168" s="25"/>
-      <c r="H168" s="19" t="s">
+      <c r="F168" s="20"/>
+      <c r="G168" s="20"/>
+      <c r="H168" s="25" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B169" s="9" t="s">
+      <c r="A169" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B169" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C169" s="9" t="s">
+      <c r="C169" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D169" s="8" t="s">
+      <c r="D169" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E169" s="11">
+      <c r="E169" s="13">
         <v>8.2638888888888883E-3</v>
       </c>
-      <c r="F169" s="25"/>
-      <c r="G169" s="25"/>
-      <c r="H169" s="20" t="s">
+      <c r="F169" s="20"/>
+      <c r="G169" s="20"/>
+      <c r="H169" s="26" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B170" s="9" t="s">
+      <c r="A170" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B170" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C170" s="9" t="s">
+      <c r="C170" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D170" s="8" t="s">
+      <c r="D170" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E170" s="11">
+      <c r="E170" s="13">
         <v>1.40625E-2</v>
       </c>
-      <c r="F170" s="25"/>
-      <c r="G170" s="25"/>
-      <c r="H170" s="20" t="s">
+      <c r="F170" s="20"/>
+      <c r="G170" s="20"/>
+      <c r="H170" s="26" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B171" s="9" t="s">
+      <c r="A171" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B171" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C171" s="9" t="s">
+      <c r="C171" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D171" s="8" t="s">
+      <c r="D171" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="E171" s="11">
+      <c r="E171" s="13">
         <v>5.6365740740740742E-3</v>
       </c>
-      <c r="F171" s="25"/>
-      <c r="G171" s="25"/>
-      <c r="H171" s="19" t="s">
+      <c r="F171" s="20"/>
+      <c r="G171" s="20"/>
+      <c r="H171" s="25" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B172" s="9" t="s">
+      <c r="A172" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B172" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C172" s="9" t="s">
+      <c r="C172" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D172" s="8" t="s">
+      <c r="D172" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E172" s="11">
+      <c r="E172" s="13">
         <v>6.6087962962962966E-3</v>
       </c>
-      <c r="F172" s="25"/>
-      <c r="G172" s="25"/>
-      <c r="H172" s="20" t="s">
+      <c r="F172" s="20"/>
+      <c r="G172" s="20"/>
+      <c r="H172" s="26" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B173" s="9" t="s">
+      <c r="A173" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B173" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C173" s="9" t="s">
+      <c r="C173" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D173" s="8" t="s">
+      <c r="D173" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E173" s="11">
+      <c r="E173" s="13">
         <v>7.1064814814814819E-3</v>
       </c>
-      <c r="F173" s="25"/>
-      <c r="G173" s="25"/>
-      <c r="H173" s="20" t="s">
+      <c r="F173" s="20"/>
+      <c r="G173" s="20"/>
+      <c r="H173" s="26" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B174" s="9" t="s">
+      <c r="A174" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B174" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="C174" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D174" s="8" t="s">
+      <c r="D174" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="E174" s="11">
+      <c r="E174" s="13">
         <v>3.7731481481481483E-3</v>
       </c>
-      <c r="F174" s="26"/>
-      <c r="G174" s="26"/>
-      <c r="H174" s="19" t="s">
+      <c r="F174" s="21"/>
+      <c r="G174" s="21"/>
+      <c r="H174" s="25" t="s">
         <v>505</v>
       </c>
     </row>
@@ -6879,18 +6881,18 @@
       <c r="D175" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E175" s="12">
+      <c r="E175" s="14">
         <v>4.8148148148148152E-3</v>
       </c>
-      <c r="F175" s="21">
+      <c r="F175" s="8">
         <f>SUM(E175:E192)</f>
         <v>8.7199074074074095E-2</v>
       </c>
-      <c r="G175" s="21">
+      <c r="G175" s="8">
         <f>F175*1.5</f>
         <v>0.13079861111111113</v>
       </c>
-      <c r="H175" s="16" t="s">
+      <c r="H175" s="22" t="s">
         <v>507</v>
       </c>
     </row>
@@ -6907,12 +6909,12 @@
       <c r="D176" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="E176" s="12">
+      <c r="E176" s="14">
         <v>3.7384259259259259E-3</v>
       </c>
-      <c r="F176" s="22"/>
-      <c r="G176" s="22"/>
-      <c r="H176" s="17" t="s">
+      <c r="F176" s="17"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="23" t="s">
         <v>508</v>
       </c>
     </row>
@@ -6929,12 +6931,12 @@
       <c r="D177" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E177" s="12">
+      <c r="E177" s="14">
         <v>4.4560185185185189E-3</v>
       </c>
-      <c r="F177" s="22"/>
-      <c r="G177" s="22"/>
-      <c r="H177" s="16" t="s">
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="22" t="s">
         <v>509</v>
       </c>
     </row>
@@ -6951,12 +6953,12 @@
       <c r="D178" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E178" s="12">
+      <c r="E178" s="14">
         <v>5.9490740740740745E-3</v>
       </c>
-      <c r="F178" s="22"/>
-      <c r="G178" s="22"/>
-      <c r="H178" s="17" t="s">
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="23" t="s">
         <v>510</v>
       </c>
     </row>
@@ -6973,12 +6975,12 @@
       <c r="D179" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E179" s="12">
+      <c r="E179" s="14">
         <v>1.1180555555555555E-2</v>
       </c>
-      <c r="F179" s="22"/>
-      <c r="G179" s="22"/>
-      <c r="H179" s="16" t="s">
+      <c r="F179" s="17"/>
+      <c r="G179" s="17"/>
+      <c r="H179" s="22" t="s">
         <v>509</v>
       </c>
     </row>
@@ -6995,12 +6997,12 @@
       <c r="D180" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E180" s="12">
+      <c r="E180" s="14">
         <v>4.0277777777777777E-3</v>
       </c>
-      <c r="F180" s="22"/>
-      <c r="G180" s="22"/>
-      <c r="H180" s="17" t="s">
+      <c r="F180" s="17"/>
+      <c r="G180" s="17"/>
+      <c r="H180" s="23" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7017,12 +7019,12 @@
       <c r="D181" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E181" s="12">
+      <c r="E181" s="14">
         <v>5.5671296296296293E-3</v>
       </c>
-      <c r="F181" s="22"/>
-      <c r="G181" s="22"/>
-      <c r="H181" s="16" t="s">
+      <c r="F181" s="17"/>
+      <c r="G181" s="17"/>
+      <c r="H181" s="22" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7039,12 +7041,12 @@
       <c r="D182" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E182" s="12">
+      <c r="E182" s="14">
         <v>3.1828703703703702E-3</v>
       </c>
-      <c r="F182" s="22"/>
-      <c r="G182" s="22"/>
-      <c r="H182" s="17" t="s">
+      <c r="F182" s="17"/>
+      <c r="G182" s="17"/>
+      <c r="H182" s="23" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7061,12 +7063,12 @@
       <c r="D183" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E183" s="12">
+      <c r="E183" s="14">
         <v>5.3935185185185188E-3</v>
       </c>
-      <c r="F183" s="22"/>
-      <c r="G183" s="22"/>
-      <c r="H183" s="16" t="s">
+      <c r="F183" s="17"/>
+      <c r="G183" s="17"/>
+      <c r="H183" s="22" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7083,12 +7085,12 @@
       <c r="D184" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E184" s="12">
+      <c r="E184" s="14">
         <v>2.3148148148148147E-3</v>
       </c>
-      <c r="F184" s="22"/>
-      <c r="G184" s="22"/>
-      <c r="H184" s="17" t="s">
+      <c r="F184" s="17"/>
+      <c r="G184" s="17"/>
+      <c r="H184" s="23" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7105,12 +7107,12 @@
       <c r="D185" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="E185" s="12">
+      <c r="E185" s="14">
         <v>4.3981481481481484E-3</v>
       </c>
-      <c r="F185" s="22"/>
-      <c r="G185" s="22"/>
-      <c r="H185" s="16" t="s">
+      <c r="F185" s="17"/>
+      <c r="G185" s="17"/>
+      <c r="H185" s="22" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7127,12 +7129,12 @@
       <c r="D186" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E186" s="12">
+      <c r="E186" s="14">
         <v>3.2060185185185186E-3</v>
       </c>
-      <c r="F186" s="22"/>
-      <c r="G186" s="22"/>
-      <c r="H186" s="17" t="s">
+      <c r="F186" s="17"/>
+      <c r="G186" s="17"/>
+      <c r="H186" s="23" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7149,12 +7151,12 @@
       <c r="D187" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E187" s="12">
+      <c r="E187" s="14">
         <v>2.4074074074074076E-3</v>
       </c>
-      <c r="F187" s="22"/>
-      <c r="G187" s="22"/>
-      <c r="H187" s="16" t="s">
+      <c r="F187" s="17"/>
+      <c r="G187" s="17"/>
+      <c r="H187" s="22" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7171,12 +7173,12 @@
       <c r="D188" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E188" s="12">
+      <c r="E188" s="14">
         <v>5.6712962962962967E-3</v>
       </c>
-      <c r="F188" s="22"/>
-      <c r="G188" s="22"/>
-      <c r="H188" s="17" t="s">
+      <c r="F188" s="17"/>
+      <c r="G188" s="17"/>
+      <c r="H188" s="23" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7193,12 +7195,12 @@
       <c r="D189" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E189" s="12">
+      <c r="E189" s="14">
         <v>5.7754629629629631E-3</v>
       </c>
-      <c r="F189" s="22"/>
-      <c r="G189" s="22"/>
-      <c r="H189" s="16" t="s">
+      <c r="F189" s="17"/>
+      <c r="G189" s="17"/>
+      <c r="H189" s="22" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7215,12 +7217,12 @@
       <c r="D190" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E190" s="12">
+      <c r="E190" s="14">
         <v>3.4953703703703705E-3</v>
       </c>
-      <c r="F190" s="22"/>
-      <c r="G190" s="22"/>
-      <c r="H190" s="17" t="s">
+      <c r="F190" s="17"/>
+      <c r="G190" s="17"/>
+      <c r="H190" s="23" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7237,12 +7239,12 @@
       <c r="D191" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E191" s="12">
+      <c r="E191" s="14">
         <v>5.9259259259259256E-3</v>
       </c>
-      <c r="F191" s="22"/>
-      <c r="G191" s="22"/>
-      <c r="H191" s="16" t="s">
+      <c r="F191" s="17"/>
+      <c r="G191" s="17"/>
+      <c r="H191" s="22" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7256,15 +7258,15 @@
       <c r="C192" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D192" s="13" t="s">
+      <c r="D192" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="E192" s="14">
+      <c r="E192" s="16">
         <v>5.6944444444444447E-3</v>
       </c>
-      <c r="F192" s="23"/>
-      <c r="G192" s="23"/>
-      <c r="H192" s="17" t="s">
+      <c r="F192" s="19"/>
+      <c r="G192" s="19"/>
+      <c r="H192" s="23" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7278,21 +7280,21 @@
       <c r="C193" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D193" s="13" t="s">
+      <c r="D193" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="E193" s="14">
+      <c r="E193" s="16">
         <v>3.4027777777777776E-3</v>
       </c>
-      <c r="F193" s="21">
+      <c r="F193" s="8">
         <f>SUM(E193:E208)</f>
         <v>0.18383101851851852</v>
       </c>
-      <c r="G193" s="21">
+      <c r="G193" s="8">
         <f>F193*1.5</f>
         <v>0.27574652777777775</v>
       </c>
-      <c r="H193" s="16" t="s">
+      <c r="H193" s="22" t="s">
         <v>511</v>
       </c>
     </row>
@@ -7306,15 +7308,15 @@
       <c r="C194" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D194" s="13" t="s">
+      <c r="D194" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="E194" s="14">
+      <c r="E194" s="16">
         <v>2.9513888888888888E-3</v>
       </c>
-      <c r="F194" s="22"/>
-      <c r="G194" s="22"/>
-      <c r="H194" s="17" t="s">
+      <c r="F194" s="17"/>
+      <c r="G194" s="17"/>
+      <c r="H194" s="23" t="s">
         <v>512</v>
       </c>
     </row>
@@ -7328,15 +7330,15 @@
       <c r="C195" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D195" s="13" t="s">
+      <c r="D195" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="E195" s="14">
+      <c r="E195" s="16">
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="F195" s="22"/>
-      <c r="G195" s="22"/>
-      <c r="H195" s="16" t="s">
+      <c r="F195" s="17"/>
+      <c r="G195" s="17"/>
+      <c r="H195" s="22" t="s">
         <v>513</v>
       </c>
     </row>
@@ -7350,15 +7352,15 @@
       <c r="C196" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D196" s="13" t="s">
+      <c r="D196" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="E196" s="14">
+      <c r="E196" s="16">
         <v>3.6574074074074074E-3</v>
       </c>
-      <c r="F196" s="22"/>
-      <c r="G196" s="22"/>
-      <c r="H196" s="17" t="s">
+      <c r="F196" s="17"/>
+      <c r="G196" s="17"/>
+      <c r="H196" s="23" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7372,15 +7374,15 @@
       <c r="C197" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D197" s="13" t="s">
+      <c r="D197" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="E197" s="14">
+      <c r="E197" s="16">
         <v>3.1712962962962962E-3</v>
       </c>
-      <c r="F197" s="22"/>
-      <c r="G197" s="22"/>
-      <c r="H197" s="16" t="s">
+      <c r="F197" s="17"/>
+      <c r="G197" s="17"/>
+      <c r="H197" s="22" t="s">
         <v>513</v>
       </c>
     </row>
@@ -7394,15 +7396,15 @@
       <c r="C198" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D198" s="13" t="s">
+      <c r="D198" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="E198" s="14">
+      <c r="E198" s="16">
         <v>2.8703703703703703E-3</v>
       </c>
-      <c r="F198" s="22"/>
-      <c r="G198" s="22"/>
-      <c r="H198" s="17" t="s">
+      <c r="F198" s="17"/>
+      <c r="G198" s="17"/>
+      <c r="H198" s="23" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7416,15 +7418,15 @@
       <c r="C199" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D199" s="13" t="s">
+      <c r="D199" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="E199" s="14">
+      <c r="E199" s="16">
         <v>5.2777777777777779E-3</v>
       </c>
-      <c r="F199" s="22"/>
-      <c r="G199" s="22"/>
-      <c r="H199" s="16" t="s">
+      <c r="F199" s="17"/>
+      <c r="G199" s="17"/>
+      <c r="H199" s="22" t="s">
         <v>513</v>
       </c>
     </row>
@@ -7438,15 +7440,15 @@
       <c r="C200" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D200" s="13" t="s">
+      <c r="D200" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="E200" s="14">
+      <c r="E200" s="16">
         <v>3.7268518518518519E-3</v>
       </c>
-      <c r="F200" s="22"/>
-      <c r="G200" s="22"/>
-      <c r="H200" s="17" t="s">
+      <c r="F200" s="17"/>
+      <c r="G200" s="17"/>
+      <c r="H200" s="23" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7460,15 +7462,15 @@
       <c r="C201" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D201" s="13" t="s">
+      <c r="D201" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="E201" s="14">
+      <c r="E201" s="16">
         <v>2.8240740740740739E-3</v>
       </c>
-      <c r="F201" s="22"/>
-      <c r="G201" s="22"/>
-      <c r="H201" s="16" t="s">
+      <c r="F201" s="17"/>
+      <c r="G201" s="17"/>
+      <c r="H201" s="22" t="s">
         <v>513</v>
       </c>
     </row>
@@ -7482,15 +7484,15 @@
       <c r="C202" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D202" s="13" t="s">
+      <c r="D202" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="E202" s="14">
+      <c r="E202" s="16">
         <v>1.556712962962963E-2</v>
       </c>
-      <c r="F202" s="22"/>
-      <c r="G202" s="22"/>
-      <c r="H202" s="17" t="s">
+      <c r="F202" s="17"/>
+      <c r="G202" s="17"/>
+      <c r="H202" s="23" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7504,15 +7506,15 @@
       <c r="C203" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D203" s="13" t="s">
+      <c r="D203" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="E203" s="14">
+      <c r="E203" s="16">
         <v>1.6064814814814816E-2</v>
       </c>
-      <c r="F203" s="22"/>
-      <c r="G203" s="22"/>
-      <c r="H203" s="16" t="s">
+      <c r="F203" s="17"/>
+      <c r="G203" s="17"/>
+      <c r="H203" s="22" t="s">
         <v>513</v>
       </c>
     </row>
@@ -7526,15 +7528,15 @@
       <c r="C204" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D204" s="13" t="s">
+      <c r="D204" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="E204" s="14">
+      <c r="E204" s="16">
         <v>1.5196759259259259E-2</v>
       </c>
-      <c r="F204" s="22"/>
-      <c r="G204" s="22"/>
-      <c r="H204" s="17" t="s">
+      <c r="F204" s="17"/>
+      <c r="G204" s="17"/>
+      <c r="H204" s="23" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7548,15 +7550,15 @@
       <c r="C205" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D205" s="13" t="s">
+      <c r="D205" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="E205" s="14">
+      <c r="E205" s="16">
         <v>1.8703703703703705E-2</v>
       </c>
-      <c r="F205" s="22"/>
-      <c r="G205" s="22"/>
-      <c r="H205" s="16" t="s">
+      <c r="F205" s="17"/>
+      <c r="G205" s="17"/>
+      <c r="H205" s="22" t="s">
         <v>513</v>
       </c>
     </row>
@@ -7570,15 +7572,15 @@
       <c r="C206" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D206" s="13" t="s">
+      <c r="D206" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="E206" s="14">
+      <c r="E206" s="16">
         <v>3.0740740740740742E-2</v>
       </c>
-      <c r="F206" s="22"/>
-      <c r="G206" s="22"/>
-      <c r="H206" s="17" t="s">
+      <c r="F206" s="17"/>
+      <c r="G206" s="17"/>
+      <c r="H206" s="23" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7592,15 +7594,15 @@
       <c r="C207" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D207" s="13" t="s">
+      <c r="D207" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="E207" s="14">
+      <c r="E207" s="16">
         <v>2.3090277777777779E-2</v>
       </c>
-      <c r="F207" s="22"/>
-      <c r="G207" s="22"/>
-      <c r="H207" s="16" t="s">
+      <c r="F207" s="17"/>
+      <c r="G207" s="17"/>
+      <c r="H207" s="22" t="s">
         <v>513</v>
       </c>
     </row>
@@ -7614,15 +7616,15 @@
       <c r="C208" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D208" s="13" t="s">
+      <c r="D208" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="E208" s="14">
+      <c r="E208" s="16">
         <v>3.366898148148148E-2</v>
       </c>
-      <c r="F208" s="23"/>
-      <c r="G208" s="23"/>
-      <c r="H208" s="17" t="s">
+      <c r="F208" s="19"/>
+      <c r="G208" s="19"/>
+      <c r="H208" s="23" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7639,18 +7641,18 @@
       <c r="D209" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E209" s="12">
+      <c r="E209" s="14">
         <v>4.6504629629629632E-2</v>
       </c>
-      <c r="F209" s="21">
+      <c r="F209" s="8">
         <f>SUM(E209:E231)</f>
         <v>0.11291666666666661</v>
       </c>
-      <c r="G209" s="21">
+      <c r="G209" s="8">
         <f>F209*1.5</f>
         <v>0.16937499999999991</v>
       </c>
-      <c r="H209" s="16" t="s">
+      <c r="H209" s="22" t="s">
         <v>515</v>
       </c>
     </row>
@@ -7667,12 +7669,12 @@
       <c r="D210" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="E210" s="12">
+      <c r="E210" s="14">
         <v>2.8356481481481483E-3</v>
       </c>
-      <c r="F210" s="22"/>
-      <c r="G210" s="22"/>
-      <c r="H210" s="17" t="s">
+      <c r="F210" s="17"/>
+      <c r="G210" s="17"/>
+      <c r="H210" s="23" t="s">
         <v>516</v>
       </c>
     </row>
@@ -7689,12 +7691,12 @@
       <c r="D211" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="E211" s="12">
+      <c r="E211" s="14">
         <v>4.31712962962963E-3</v>
       </c>
-      <c r="F211" s="22"/>
-      <c r="G211" s="22"/>
-      <c r="H211" s="16" t="s">
+      <c r="F211" s="17"/>
+      <c r="G211" s="17"/>
+      <c r="H211" s="22" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7711,12 +7713,12 @@
       <c r="D212" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="E212" s="12">
+      <c r="E212" s="14">
         <v>4.8032407407407407E-3</v>
       </c>
-      <c r="F212" s="22"/>
-      <c r="G212" s="22"/>
-      <c r="H212" s="17" t="s">
+      <c r="F212" s="17"/>
+      <c r="G212" s="17"/>
+      <c r="H212" s="23" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7733,12 +7735,12 @@
       <c r="D213" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="E213" s="12">
+      <c r="E213" s="14">
         <v>5.2199074074074075E-3</v>
       </c>
-      <c r="F213" s="22"/>
-      <c r="G213" s="22"/>
-      <c r="H213" s="16" t="s">
+      <c r="F213" s="17"/>
+      <c r="G213" s="17"/>
+      <c r="H213" s="22" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7755,12 +7757,12 @@
       <c r="D214" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E214" s="12">
+      <c r="E214" s="14">
         <v>3.5879629629629629E-3</v>
       </c>
-      <c r="F214" s="22"/>
-      <c r="G214" s="22"/>
-      <c r="H214" s="17" t="s">
+      <c r="F214" s="17"/>
+      <c r="G214" s="17"/>
+      <c r="H214" s="23" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7777,12 +7779,12 @@
       <c r="D215" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="E215" s="12">
+      <c r="E215" s="14">
         <v>1.8402777777777777E-3</v>
       </c>
-      <c r="F215" s="22"/>
-      <c r="G215" s="22"/>
-      <c r="H215" s="16" t="s">
+      <c r="F215" s="17"/>
+      <c r="G215" s="17"/>
+      <c r="H215" s="22" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7799,12 +7801,12 @@
       <c r="D216" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="E216" s="12">
+      <c r="E216" s="14">
         <v>3.0902777777777777E-3</v>
       </c>
-      <c r="F216" s="22"/>
-      <c r="G216" s="22"/>
-      <c r="H216" s="17" t="s">
+      <c r="F216" s="17"/>
+      <c r="G216" s="17"/>
+      <c r="H216" s="23" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7821,12 +7823,12 @@
       <c r="D217" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="E217" s="12">
+      <c r="E217" s="14">
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="F217" s="22"/>
-      <c r="G217" s="22"/>
-      <c r="H217" s="16" t="s">
+      <c r="F217" s="17"/>
+      <c r="G217" s="17"/>
+      <c r="H217" s="22" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7843,12 +7845,12 @@
       <c r="D218" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="E218" s="12">
+      <c r="E218" s="14">
         <v>2.9861111111111113E-3</v>
       </c>
-      <c r="F218" s="22"/>
-      <c r="G218" s="22"/>
-      <c r="H218" s="17" t="s">
+      <c r="F218" s="17"/>
+      <c r="G218" s="17"/>
+      <c r="H218" s="23" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7865,12 +7867,12 @@
       <c r="D219" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="E219" s="12">
+      <c r="E219" s="14">
         <v>5.6365740740740742E-3</v>
       </c>
-      <c r="F219" s="22"/>
-      <c r="G219" s="22"/>
-      <c r="H219" s="16" t="s">
+      <c r="F219" s="17"/>
+      <c r="G219" s="17"/>
+      <c r="H219" s="22" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7887,12 +7889,12 @@
       <c r="D220" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="E220" s="12">
+      <c r="E220" s="14">
         <v>5.8796296296296296E-3</v>
       </c>
-      <c r="F220" s="22"/>
-      <c r="G220" s="22"/>
-      <c r="H220" s="17" t="s">
+      <c r="F220" s="17"/>
+      <c r="G220" s="17"/>
+      <c r="H220" s="23" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7909,12 +7911,12 @@
       <c r="D221" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="E221" s="12">
+      <c r="E221" s="14">
         <v>2.4189814814814816E-3</v>
       </c>
-      <c r="F221" s="22"/>
-      <c r="G221" s="22"/>
-      <c r="H221" s="16" t="s">
+      <c r="F221" s="17"/>
+      <c r="G221" s="17"/>
+      <c r="H221" s="22" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7931,12 +7933,12 @@
       <c r="D222" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="E222" s="12">
+      <c r="E222" s="14">
         <v>1.6898148148148148E-3</v>
       </c>
-      <c r="F222" s="22"/>
-      <c r="G222" s="22"/>
-      <c r="H222" s="17" t="s">
+      <c r="F222" s="17"/>
+      <c r="G222" s="17"/>
+      <c r="H222" s="23" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7953,12 +7955,12 @@
       <c r="D223" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="E223" s="12">
+      <c r="E223" s="14">
         <v>1.3657407407407407E-3</v>
       </c>
-      <c r="F223" s="22"/>
-      <c r="G223" s="22"/>
-      <c r="H223" s="16" t="s">
+      <c r="F223" s="17"/>
+      <c r="G223" s="17"/>
+      <c r="H223" s="22" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7975,12 +7977,12 @@
       <c r="D224" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="E224" s="12">
+      <c r="E224" s="14">
         <v>1.5972222222222223E-3</v>
       </c>
-      <c r="F224" s="22"/>
-      <c r="G224" s="22"/>
-      <c r="H224" s="17" t="s">
+      <c r="F224" s="17"/>
+      <c r="G224" s="17"/>
+      <c r="H224" s="23" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7997,12 +7999,12 @@
       <c r="D225" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="E225" s="12">
+      <c r="E225" s="14">
         <v>2.1412037037037038E-3</v>
       </c>
-      <c r="F225" s="22"/>
-      <c r="G225" s="22"/>
-      <c r="H225" s="16" t="s">
+      <c r="F225" s="17"/>
+      <c r="G225" s="17"/>
+      <c r="H225" s="22" t="s">
         <v>517</v>
       </c>
     </row>
@@ -8019,12 +8021,12 @@
       <c r="D226" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="E226" s="12">
+      <c r="E226" s="14">
         <v>1.8634259259259259E-3</v>
       </c>
-      <c r="F226" s="22"/>
-      <c r="G226" s="22"/>
-      <c r="H226" s="17" t="s">
+      <c r="F226" s="17"/>
+      <c r="G226" s="17"/>
+      <c r="H226" s="23" t="s">
         <v>518</v>
       </c>
     </row>
@@ -8041,12 +8043,12 @@
       <c r="D227" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="E227" s="12">
+      <c r="E227" s="14">
         <v>1.3425925925925925E-3</v>
       </c>
-      <c r="F227" s="22"/>
-      <c r="G227" s="22"/>
-      <c r="H227" s="16" t="s">
+      <c r="F227" s="17"/>
+      <c r="G227" s="17"/>
+      <c r="H227" s="22" t="s">
         <v>517</v>
       </c>
     </row>
@@ -8063,12 +8065,12 @@
       <c r="D228" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="E228" s="12">
+      <c r="E228" s="14">
         <v>2.2916666666666667E-3</v>
       </c>
-      <c r="F228" s="22"/>
-      <c r="G228" s="22"/>
-      <c r="H228" s="17" t="s">
+      <c r="F228" s="17"/>
+      <c r="G228" s="17"/>
+      <c r="H228" s="23" t="s">
         <v>518</v>
       </c>
     </row>
@@ -8085,12 +8087,12 @@
       <c r="D229" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="E229" s="12">
+      <c r="E229" s="14">
         <v>2.2916666666666667E-3</v>
       </c>
-      <c r="F229" s="22"/>
-      <c r="G229" s="22"/>
-      <c r="H229" s="16" t="s">
+      <c r="F229" s="17"/>
+      <c r="G229" s="17"/>
+      <c r="H229" s="22" t="s">
         <v>517</v>
       </c>
     </row>
@@ -8107,12 +8109,12 @@
       <c r="D230" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E230" s="12">
+      <c r="E230" s="14">
         <v>3.1712962962962962E-3</v>
       </c>
-      <c r="F230" s="22"/>
-      <c r="G230" s="22"/>
-      <c r="H230" s="17" t="s">
+      <c r="F230" s="17"/>
+      <c r="G230" s="17"/>
+      <c r="H230" s="23" t="s">
         <v>518</v>
       </c>
     </row>
@@ -8129,12 +8131,12 @@
       <c r="D231" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="E231" s="12">
+      <c r="E231" s="14">
         <v>2.7083333333333334E-3</v>
       </c>
-      <c r="F231" s="23"/>
-      <c r="G231" s="23"/>
-      <c r="H231" s="18" t="s">
+      <c r="F231" s="19"/>
+      <c r="G231" s="19"/>
+      <c r="H231" s="24" t="s">
         <v>476</v>
       </c>
     </row>
@@ -8151,18 +8153,18 @@
       <c r="D232" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="E232" s="12">
+      <c r="E232" s="14">
         <v>4.7916666666666663E-3</v>
       </c>
-      <c r="F232" s="21">
+      <c r="F232" s="8">
         <f>SUM(E232:E264)</f>
         <v>0.18623842592592593</v>
       </c>
-      <c r="G232" s="21">
+      <c r="G232" s="8">
         <f>F232*1.5</f>
         <v>0.27935763888888887</v>
       </c>
-      <c r="H232" s="16" t="s">
+      <c r="H232" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8179,12 +8181,12 @@
       <c r="D233" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="E233" s="12">
+      <c r="E233" s="14">
         <v>4.6643518518518518E-3</v>
       </c>
-      <c r="F233" s="22"/>
-      <c r="G233" s="22"/>
-      <c r="H233" s="16" t="s">
+      <c r="F233" s="17"/>
+      <c r="G233" s="17"/>
+      <c r="H233" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8201,12 +8203,12 @@
       <c r="D234" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="E234" s="12">
+      <c r="E234" s="14">
         <v>4.9421296296296297E-3</v>
       </c>
-      <c r="F234" s="22"/>
-      <c r="G234" s="22"/>
-      <c r="H234" s="16" t="s">
+      <c r="F234" s="17"/>
+      <c r="G234" s="17"/>
+      <c r="H234" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8223,12 +8225,12 @@
       <c r="D235" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="E235" s="12">
+      <c r="E235" s="14">
         <v>3.7962962962962963E-3</v>
       </c>
-      <c r="F235" s="22"/>
-      <c r="G235" s="22"/>
-      <c r="H235" s="16" t="s">
+      <c r="F235" s="17"/>
+      <c r="G235" s="17"/>
+      <c r="H235" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8245,12 +8247,12 @@
       <c r="D236" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="E236" s="12">
+      <c r="E236" s="14">
         <v>5.4166666666666669E-3</v>
       </c>
-      <c r="F236" s="22"/>
-      <c r="G236" s="22"/>
-      <c r="H236" s="16" t="s">
+      <c r="F236" s="17"/>
+      <c r="G236" s="17"/>
+      <c r="H236" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8267,12 +8269,12 @@
       <c r="D237" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E237" s="12">
+      <c r="E237" s="14">
         <v>6.1805555555555555E-3</v>
       </c>
-      <c r="F237" s="22"/>
-      <c r="G237" s="22"/>
-      <c r="H237" s="16" t="s">
+      <c r="F237" s="17"/>
+      <c r="G237" s="17"/>
+      <c r="H237" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8289,12 +8291,12 @@
       <c r="D238" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="E238" s="12">
+      <c r="E238" s="14">
         <v>2.7199074074074074E-3</v>
       </c>
-      <c r="F238" s="22"/>
-      <c r="G238" s="22"/>
-      <c r="H238" s="16" t="s">
+      <c r="F238" s="17"/>
+      <c r="G238" s="17"/>
+      <c r="H238" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8311,12 +8313,12 @@
       <c r="D239" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="E239" s="12">
+      <c r="E239" s="14">
         <v>4.2592592592592595E-3</v>
       </c>
-      <c r="F239" s="22"/>
-      <c r="G239" s="22"/>
-      <c r="H239" s="16" t="s">
+      <c r="F239" s="17"/>
+      <c r="G239" s="17"/>
+      <c r="H239" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8333,12 +8335,12 @@
       <c r="D240" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="E240" s="12">
+      <c r="E240" s="14">
         <v>2.9976851851851853E-3</v>
       </c>
-      <c r="F240" s="22"/>
-      <c r="G240" s="22"/>
-      <c r="H240" s="16" t="s">
+      <c r="F240" s="17"/>
+      <c r="G240" s="17"/>
+      <c r="H240" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8355,12 +8357,12 @@
       <c r="D241" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E241" s="12">
+      <c r="E241" s="14">
         <v>3.8078703703703703E-3</v>
       </c>
-      <c r="F241" s="22"/>
-      <c r="G241" s="22"/>
-      <c r="H241" s="16" t="s">
+      <c r="F241" s="17"/>
+      <c r="G241" s="17"/>
+      <c r="H241" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8377,12 +8379,12 @@
       <c r="D242" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="E242" s="12">
+      <c r="E242" s="14">
         <v>3.7152777777777778E-3</v>
       </c>
-      <c r="F242" s="22"/>
-      <c r="G242" s="22"/>
-      <c r="H242" s="16" t="s">
+      <c r="F242" s="17"/>
+      <c r="G242" s="17"/>
+      <c r="H242" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8399,12 +8401,12 @@
       <c r="D243" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="E243" s="12">
+      <c r="E243" s="14">
         <v>5.6249999999999998E-3</v>
       </c>
-      <c r="F243" s="22"/>
-      <c r="G243" s="22"/>
-      <c r="H243" s="16" t="s">
+      <c r="F243" s="17"/>
+      <c r="G243" s="17"/>
+      <c r="H243" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8421,12 +8423,12 @@
       <c r="D244" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="E244" s="12">
+      <c r="E244" s="14">
         <v>3.7731481481481483E-3</v>
       </c>
-      <c r="F244" s="22"/>
-      <c r="G244" s="22"/>
-      <c r="H244" s="16" t="s">
+      <c r="F244" s="17"/>
+      <c r="G244" s="17"/>
+      <c r="H244" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8443,12 +8445,12 @@
       <c r="D245" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="E245" s="12">
+      <c r="E245" s="14">
         <v>3.7615740740740739E-3</v>
       </c>
-      <c r="F245" s="22"/>
-      <c r="G245" s="22"/>
-      <c r="H245" s="16" t="s">
+      <c r="F245" s="17"/>
+      <c r="G245" s="17"/>
+      <c r="H245" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8465,12 +8467,12 @@
       <c r="D246" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="E246" s="12">
+      <c r="E246" s="14">
         <v>5.8333333333333336E-3</v>
       </c>
-      <c r="F246" s="22"/>
-      <c r="G246" s="22"/>
-      <c r="H246" s="16" t="s">
+      <c r="F246" s="17"/>
+      <c r="G246" s="17"/>
+      <c r="H246" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8487,12 +8489,12 @@
       <c r="D247" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="E247" s="12">
+      <c r="E247" s="14">
         <v>5.2430555555555555E-3</v>
       </c>
-      <c r="F247" s="22"/>
-      <c r="G247" s="22"/>
-      <c r="H247" s="16" t="s">
+      <c r="F247" s="17"/>
+      <c r="G247" s="17"/>
+      <c r="H247" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8509,12 +8511,12 @@
       <c r="D248" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="E248" s="12">
+      <c r="E248" s="14">
         <v>4.3518518518518515E-3</v>
       </c>
-      <c r="F248" s="22"/>
-      <c r="G248" s="22"/>
-      <c r="H248" s="16" t="s">
+      <c r="F248" s="17"/>
+      <c r="G248" s="17"/>
+      <c r="H248" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8531,12 +8533,12 @@
       <c r="D249" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="E249" s="12">
+      <c r="E249" s="14">
         <v>6.5856481481481478E-3</v>
       </c>
-      <c r="F249" s="22"/>
-      <c r="G249" s="22"/>
-      <c r="H249" s="16" t="s">
+      <c r="F249" s="17"/>
+      <c r="G249" s="17"/>
+      <c r="H249" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8553,12 +8555,12 @@
       <c r="D250" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="E250" s="12">
+      <c r="E250" s="14">
         <v>4.386574074074074E-3</v>
       </c>
-      <c r="F250" s="22"/>
-      <c r="G250" s="22"/>
-      <c r="H250" s="16" t="s">
+      <c r="F250" s="17"/>
+      <c r="G250" s="17"/>
+      <c r="H250" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8575,12 +8577,12 @@
       <c r="D251" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="E251" s="12">
+      <c r="E251" s="14">
         <v>3.1365740740740742E-3</v>
       </c>
-      <c r="F251" s="22"/>
-      <c r="G251" s="22"/>
-      <c r="H251" s="16" t="s">
+      <c r="F251" s="17"/>
+      <c r="G251" s="17"/>
+      <c r="H251" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8597,12 +8599,12 @@
       <c r="D252" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="E252" s="12">
+      <c r="E252" s="14">
         <v>5.0231481481481481E-3</v>
       </c>
-      <c r="F252" s="22"/>
-      <c r="G252" s="22"/>
-      <c r="H252" s="16" t="s">
+      <c r="F252" s="17"/>
+      <c r="G252" s="17"/>
+      <c r="H252" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8619,12 +8621,12 @@
       <c r="D253" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="E253" s="12">
+      <c r="E253" s="14">
         <v>4.0509259259259257E-3</v>
       </c>
-      <c r="F253" s="22"/>
-      <c r="G253" s="22"/>
-      <c r="H253" s="16" t="s">
+      <c r="F253" s="17"/>
+      <c r="G253" s="17"/>
+      <c r="H253" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8641,12 +8643,12 @@
       <c r="D254" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="E254" s="12">
+      <c r="E254" s="14">
         <v>6.145833333333333E-3</v>
       </c>
-      <c r="F254" s="22"/>
-      <c r="G254" s="22"/>
-      <c r="H254" s="16" t="s">
+      <c r="F254" s="17"/>
+      <c r="G254" s="17"/>
+      <c r="H254" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8663,12 +8665,12 @@
       <c r="D255" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="E255" s="12">
+      <c r="E255" s="14">
         <v>4.6064814814814814E-3</v>
       </c>
-      <c r="F255" s="22"/>
-      <c r="G255" s="22"/>
-      <c r="H255" s="16" t="s">
+      <c r="F255" s="17"/>
+      <c r="G255" s="17"/>
+      <c r="H255" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8685,12 +8687,12 @@
       <c r="D256" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="E256" s="12">
+      <c r="E256" s="14">
         <v>7.6851851851851855E-3</v>
       </c>
-      <c r="F256" s="22"/>
-      <c r="G256" s="22"/>
-      <c r="H256" s="16" t="s">
+      <c r="F256" s="17"/>
+      <c r="G256" s="17"/>
+      <c r="H256" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8707,12 +8709,12 @@
       <c r="D257" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E257" s="12">
+      <c r="E257" s="14">
         <v>5.8333333333333336E-3</v>
       </c>
-      <c r="F257" s="22"/>
-      <c r="G257" s="22"/>
-      <c r="H257" s="16" t="s">
+      <c r="F257" s="17"/>
+      <c r="G257" s="17"/>
+      <c r="H257" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8729,12 +8731,12 @@
       <c r="D258" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E258" s="12">
+      <c r="E258" s="14">
         <v>9.432870370370371E-3</v>
       </c>
-      <c r="F258" s="22"/>
-      <c r="G258" s="22"/>
-      <c r="H258" s="16" t="s">
+      <c r="F258" s="17"/>
+      <c r="G258" s="17"/>
+      <c r="H258" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8751,12 +8753,12 @@
       <c r="D259" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E259" s="12">
+      <c r="E259" s="14">
         <v>6.5393518518518517E-3</v>
       </c>
-      <c r="F259" s="22"/>
-      <c r="G259" s="22"/>
-      <c r="H259" s="16" t="s">
+      <c r="F259" s="17"/>
+      <c r="G259" s="17"/>
+      <c r="H259" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8773,12 +8775,12 @@
       <c r="D260" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="E260" s="12">
+      <c r="E260" s="14">
         <v>6.3541666666666668E-3</v>
       </c>
-      <c r="F260" s="22"/>
-      <c r="G260" s="22"/>
-      <c r="H260" s="16" t="s">
+      <c r="F260" s="17"/>
+      <c r="G260" s="17"/>
+      <c r="H260" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8795,12 +8797,12 @@
       <c r="D261" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E261" s="12">
+      <c r="E261" s="14">
         <v>5.347222222222222E-3</v>
       </c>
-      <c r="F261" s="22"/>
-      <c r="G261" s="22"/>
-      <c r="H261" s="16" t="s">
+      <c r="F261" s="17"/>
+      <c r="G261" s="17"/>
+      <c r="H261" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8817,12 +8819,12 @@
       <c r="D262" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="E262" s="12">
+      <c r="E262" s="14">
         <v>9.0624999999999994E-3</v>
       </c>
-      <c r="F262" s="22"/>
-      <c r="G262" s="22"/>
-      <c r="H262" s="16" t="s">
+      <c r="F262" s="17"/>
+      <c r="G262" s="17"/>
+      <c r="H262" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8839,12 +8841,12 @@
       <c r="D263" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="E263" s="12">
+      <c r="E263" s="14">
         <v>1.1608796296296296E-2</v>
       </c>
-      <c r="F263" s="22"/>
-      <c r="G263" s="22"/>
-      <c r="H263" s="16" t="s">
+      <c r="F263" s="17"/>
+      <c r="G263" s="17"/>
+      <c r="H263" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8861,12 +8863,12 @@
       <c r="D264" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E264" s="12">
+      <c r="E264" s="14">
         <v>1.4560185185185185E-2</v>
       </c>
-      <c r="F264" s="23"/>
-      <c r="G264" s="23"/>
-      <c r="H264" s="16" t="s">
+      <c r="F264" s="19"/>
+      <c r="G264" s="19"/>
+      <c r="H264" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8883,18 +8885,18 @@
       <c r="D265" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="E265" s="12">
+      <c r="E265" s="14">
         <v>8.564814814814815E-4</v>
       </c>
-      <c r="F265" s="21">
+      <c r="F265" s="8">
         <f>SUM(E265:E292)</f>
         <v>0.21091435185185184</v>
       </c>
-      <c r="G265" s="21">
+      <c r="G265" s="8">
         <f>F265*1.5</f>
         <v>0.31637152777777777</v>
       </c>
-      <c r="H265" s="16" t="s">
+      <c r="H265" s="22" t="s">
         <v>519</v>
       </c>
     </row>
@@ -8911,12 +8913,12 @@
       <c r="D266" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="E266" s="12">
+      <c r="E266" s="14">
         <v>1.5162037037037036E-3</v>
       </c>
-      <c r="F266" s="22"/>
-      <c r="G266" s="22"/>
-      <c r="H266" s="17" t="s">
+      <c r="F266" s="17"/>
+      <c r="G266" s="17"/>
+      <c r="H266" s="23" t="s">
         <v>520</v>
       </c>
     </row>
@@ -8933,12 +8935,12 @@
       <c r="D267" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="E267" s="12">
+      <c r="E267" s="14">
         <v>1.7708333333333332E-3</v>
       </c>
-      <c r="F267" s="22"/>
-      <c r="G267" s="22"/>
-      <c r="H267" s="16" t="s">
+      <c r="F267" s="17"/>
+      <c r="G267" s="17"/>
+      <c r="H267" s="22" t="s">
         <v>521</v>
       </c>
     </row>
@@ -8955,12 +8957,12 @@
       <c r="D268" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="E268" s="12">
+      <c r="E268" s="14">
         <v>1.8171296296296297E-3</v>
       </c>
-      <c r="F268" s="22"/>
-      <c r="G268" s="22"/>
-      <c r="H268" s="17" t="s">
+      <c r="F268" s="17"/>
+      <c r="G268" s="17"/>
+      <c r="H268" s="23" t="s">
         <v>522</v>
       </c>
     </row>
@@ -8977,12 +8979,12 @@
       <c r="D269" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="E269" s="12">
+      <c r="E269" s="14">
         <v>6.122685185185185E-3</v>
       </c>
-      <c r="F269" s="22"/>
-      <c r="G269" s="22"/>
-      <c r="H269" s="16" t="s">
+      <c r="F269" s="17"/>
+      <c r="G269" s="17"/>
+      <c r="H269" s="22" t="s">
         <v>521</v>
       </c>
     </row>
@@ -8999,12 +9001,12 @@
       <c r="D270" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="E270" s="12">
+      <c r="E270" s="14">
         <v>1.2800925925925926E-2</v>
       </c>
-      <c r="F270" s="22"/>
-      <c r="G270" s="22"/>
-      <c r="H270" s="17" t="s">
+      <c r="F270" s="17"/>
+      <c r="G270" s="17"/>
+      <c r="H270" s="23" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9021,12 +9023,12 @@
       <c r="D271" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="E271" s="12">
+      <c r="E271" s="14">
         <v>4.8263888888888887E-3</v>
       </c>
-      <c r="F271" s="22"/>
-      <c r="G271" s="22"/>
-      <c r="H271" s="16" t="s">
+      <c r="F271" s="17"/>
+      <c r="G271" s="17"/>
+      <c r="H271" s="22" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9043,12 +9045,12 @@
       <c r="D272" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="E272" s="12">
+      <c r="E272" s="14">
         <v>8.0555555555555554E-3</v>
       </c>
-      <c r="F272" s="22"/>
-      <c r="G272" s="22"/>
-      <c r="H272" s="17" t="s">
+      <c r="F272" s="17"/>
+      <c r="G272" s="17"/>
+      <c r="H272" s="23" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9065,12 +9067,12 @@
       <c r="D273" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="E273" s="12">
+      <c r="E273" s="14">
         <v>1.34375E-2</v>
       </c>
-      <c r="F273" s="22"/>
-      <c r="G273" s="22"/>
-      <c r="H273" s="16" t="s">
+      <c r="F273" s="17"/>
+      <c r="G273" s="17"/>
+      <c r="H273" s="22" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9087,12 +9089,12 @@
       <c r="D274" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="E274" s="12">
+      <c r="E274" s="14">
         <v>4.340277777777778E-3</v>
       </c>
-      <c r="F274" s="22"/>
-      <c r="G274" s="22"/>
-      <c r="H274" s="17" t="s">
+      <c r="F274" s="17"/>
+      <c r="G274" s="17"/>
+      <c r="H274" s="23" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9109,12 +9111,12 @@
       <c r="D275" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="E275" s="12">
+      <c r="E275" s="14">
         <v>1.1608796296296296E-2</v>
       </c>
-      <c r="F275" s="22"/>
-      <c r="G275" s="22"/>
-      <c r="H275" s="16" t="s">
+      <c r="F275" s="17"/>
+      <c r="G275" s="17"/>
+      <c r="H275" s="22" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9131,12 +9133,12 @@
       <c r="D276" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="E276" s="12">
+      <c r="E276" s="14">
         <v>7.4421296296296293E-3</v>
       </c>
-      <c r="F276" s="22"/>
-      <c r="G276" s="22"/>
-      <c r="H276" s="17" t="s">
+      <c r="F276" s="17"/>
+      <c r="G276" s="17"/>
+      <c r="H276" s="23" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9153,12 +9155,12 @@
       <c r="D277" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="E277" s="12">
+      <c r="E277" s="14">
         <v>1.425925925925926E-2</v>
       </c>
-      <c r="F277" s="22"/>
-      <c r="G277" s="22"/>
-      <c r="H277" s="16" t="s">
+      <c r="F277" s="17"/>
+      <c r="G277" s="17"/>
+      <c r="H277" s="22" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9175,12 +9177,12 @@
       <c r="D278" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="E278" s="12">
+      <c r="E278" s="14">
         <v>3.9236111111111112E-3</v>
       </c>
-      <c r="F278" s="22"/>
-      <c r="G278" s="22"/>
-      <c r="H278" s="17" t="s">
+      <c r="F278" s="17"/>
+      <c r="G278" s="17"/>
+      <c r="H278" s="23" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9197,12 +9199,12 @@
       <c r="D279" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="E279" s="12">
+      <c r="E279" s="14">
         <v>1.9340277777777779E-2</v>
       </c>
-      <c r="F279" s="22"/>
-      <c r="G279" s="22"/>
-      <c r="H279" s="16" t="s">
+      <c r="F279" s="17"/>
+      <c r="G279" s="17"/>
+      <c r="H279" s="22" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9219,12 +9221,12 @@
       <c r="D280" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="E280" s="12">
+      <c r="E280" s="14">
         <v>6.7592592592592591E-3</v>
       </c>
-      <c r="F280" s="22"/>
-      <c r="G280" s="22"/>
-      <c r="H280" s="17" t="s">
+      <c r="F280" s="17"/>
+      <c r="G280" s="17"/>
+      <c r="H280" s="23" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9241,12 +9243,12 @@
       <c r="D281" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="E281" s="12">
+      <c r="E281" s="14">
         <v>6.2268518518518515E-3</v>
       </c>
-      <c r="F281" s="22"/>
-      <c r="G281" s="22"/>
-      <c r="H281" s="16" t="s">
+      <c r="F281" s="17"/>
+      <c r="G281" s="17"/>
+      <c r="H281" s="22" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9263,12 +9265,12 @@
       <c r="D282" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="E282" s="12">
+      <c r="E282" s="14">
         <v>5.2430555555555555E-3</v>
       </c>
-      <c r="F282" s="22"/>
-      <c r="G282" s="22"/>
-      <c r="H282" s="17" t="s">
+      <c r="F282" s="17"/>
+      <c r="G282" s="17"/>
+      <c r="H282" s="23" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9285,12 +9287,12 @@
       <c r="D283" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="E283" s="12">
+      <c r="E283" s="14">
         <v>6.7129629629629631E-3</v>
       </c>
-      <c r="F283" s="22"/>
-      <c r="G283" s="22"/>
-      <c r="H283" s="16" t="s">
+      <c r="F283" s="17"/>
+      <c r="G283" s="17"/>
+      <c r="H283" s="22" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9307,12 +9309,12 @@
       <c r="D284" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="E284" s="12">
+      <c r="E284" s="14">
         <v>9.1898148148148156E-3</v>
       </c>
-      <c r="F284" s="22"/>
-      <c r="G284" s="22"/>
-      <c r="H284" s="17" t="s">
+      <c r="F284" s="17"/>
+      <c r="G284" s="17"/>
+      <c r="H284" s="23" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9329,12 +9331,12 @@
       <c r="D285" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="E285" s="12">
+      <c r="E285" s="14">
         <v>4.5138888888888885E-3</v>
       </c>
-      <c r="F285" s="22"/>
-      <c r="G285" s="22"/>
-      <c r="H285" s="16" t="s">
+      <c r="F285" s="17"/>
+      <c r="G285" s="17"/>
+      <c r="H285" s="22" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9351,12 +9353,12 @@
       <c r="D286" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="E286" s="12">
+      <c r="E286" s="14">
         <v>4.9189814814814816E-3</v>
       </c>
-      <c r="F286" s="22"/>
-      <c r="G286" s="22"/>
-      <c r="H286" s="17" t="s">
+      <c r="F286" s="17"/>
+      <c r="G286" s="17"/>
+      <c r="H286" s="23" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9373,12 +9375,12 @@
       <c r="D287" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="E287" s="12">
+      <c r="E287" s="14">
         <v>6.0185185185185185E-3</v>
       </c>
-      <c r="F287" s="22"/>
-      <c r="G287" s="22"/>
-      <c r="H287" s="16" t="s">
+      <c r="F287" s="17"/>
+      <c r="G287" s="17"/>
+      <c r="H287" s="22" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9395,12 +9397,12 @@
       <c r="D288" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="E288" s="12">
+      <c r="E288" s="14">
         <v>1.0358796296296297E-2</v>
       </c>
-      <c r="F288" s="22"/>
-      <c r="G288" s="22"/>
-      <c r="H288" s="17" t="s">
+      <c r="F288" s="17"/>
+      <c r="G288" s="17"/>
+      <c r="H288" s="23" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9417,12 +9419,12 @@
       <c r="D289" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="E289" s="12">
+      <c r="E289" s="14">
         <v>5.6018518518518518E-3</v>
       </c>
-      <c r="F289" s="22"/>
-      <c r="G289" s="22"/>
-      <c r="H289" s="16" t="s">
+      <c r="F289" s="17"/>
+      <c r="G289" s="17"/>
+      <c r="H289" s="22" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9439,12 +9441,12 @@
       <c r="D290" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="E290" s="12">
+      <c r="E290" s="14">
         <v>1.2372685185185184E-2</v>
       </c>
-      <c r="F290" s="22"/>
-      <c r="G290" s="22"/>
-      <c r="H290" s="17" t="s">
+      <c r="F290" s="17"/>
+      <c r="G290" s="17"/>
+      <c r="H290" s="23" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9461,12 +9463,12 @@
       <c r="D291" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="E291" s="12">
+      <c r="E291" s="14">
         <v>5.2777777777777779E-3</v>
       </c>
-      <c r="F291" s="22"/>
-      <c r="G291" s="22"/>
-      <c r="H291" s="16" t="s">
+      <c r="F291" s="17"/>
+      <c r="G291" s="17"/>
+      <c r="H291" s="22" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9483,12 +9485,12 @@
       <c r="D292" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="E292" s="12">
+      <c r="E292" s="14">
         <v>1.5601851851851851E-2</v>
       </c>
-      <c r="F292" s="23"/>
-      <c r="G292" s="23"/>
-      <c r="H292" s="17" t="s">
+      <c r="F292" s="19"/>
+      <c r="G292" s="19"/>
+      <c r="H292" s="23" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9505,18 +9507,18 @@
       <c r="D293" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="E293" s="12">
+      <c r="E293" s="14">
         <v>3.6342592592592594E-3</v>
       </c>
-      <c r="F293" s="21">
+      <c r="F293" s="8">
         <f>SUM(E293:E318)</f>
         <v>0.20168981481481482</v>
       </c>
-      <c r="G293" s="21">
+      <c r="G293" s="8">
         <f>F293*1.5</f>
         <v>0.30253472222222222</v>
       </c>
-      <c r="H293" s="16" t="s">
+      <c r="H293" s="22" t="s">
         <v>523</v>
       </c>
     </row>
@@ -9533,12 +9535,12 @@
       <c r="D294" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="E294" s="12">
+      <c r="E294" s="14">
         <v>7.1990740740740739E-3</v>
       </c>
-      <c r="F294" s="22"/>
-      <c r="G294" s="22"/>
-      <c r="H294" s="17" t="s">
+      <c r="F294" s="17"/>
+      <c r="G294" s="17"/>
+      <c r="H294" s="23" t="s">
         <v>524</v>
       </c>
     </row>
@@ -9555,12 +9557,12 @@
       <c r="D295" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="E295" s="12">
+      <c r="E295" s="14">
         <v>4.6990740740740743E-3</v>
       </c>
-      <c r="F295" s="22"/>
-      <c r="G295" s="22"/>
-      <c r="H295" s="16" t="s">
+      <c r="F295" s="17"/>
+      <c r="G295" s="17"/>
+      <c r="H295" s="22" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9577,12 +9579,12 @@
       <c r="D296" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="E296" s="12">
+      <c r="E296" s="14">
         <v>6.7361111111111111E-3</v>
       </c>
-      <c r="F296" s="22"/>
-      <c r="G296" s="22"/>
-      <c r="H296" s="17" t="s">
+      <c r="F296" s="17"/>
+      <c r="G296" s="17"/>
+      <c r="H296" s="23" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9599,12 +9601,12 @@
       <c r="D297" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E297" s="12">
+      <c r="E297" s="14">
         <v>5.9375000000000001E-3</v>
       </c>
-      <c r="F297" s="22"/>
-      <c r="G297" s="22"/>
-      <c r="H297" s="16" t="s">
+      <c r="F297" s="17"/>
+      <c r="G297" s="17"/>
+      <c r="H297" s="22" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9621,12 +9623,12 @@
       <c r="D298" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="E298" s="12">
+      <c r="E298" s="14">
         <v>7.0717592592592594E-3</v>
       </c>
-      <c r="F298" s="22"/>
-      <c r="G298" s="22"/>
-      <c r="H298" s="17" t="s">
+      <c r="F298" s="17"/>
+      <c r="G298" s="17"/>
+      <c r="H298" s="23" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9643,12 +9645,12 @@
       <c r="D299" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="E299" s="12">
+      <c r="E299" s="14">
         <v>9.2592592592592587E-3</v>
       </c>
-      <c r="F299" s="22"/>
-      <c r="G299" s="22"/>
-      <c r="H299" s="16" t="s">
+      <c r="F299" s="17"/>
+      <c r="G299" s="17"/>
+      <c r="H299" s="22" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9665,12 +9667,12 @@
       <c r="D300" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="12">
+      <c r="E300" s="14">
         <v>1.8229166666666668E-2</v>
       </c>
-      <c r="F300" s="22"/>
-      <c r="G300" s="22"/>
-      <c r="H300" s="17" t="s">
+      <c r="F300" s="17"/>
+      <c r="G300" s="17"/>
+      <c r="H300" s="23" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9687,12 +9689,12 @@
       <c r="D301" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="E301" s="12">
+      <c r="E301" s="14">
         <v>1.2997685185185185E-2</v>
       </c>
-      <c r="F301" s="22"/>
-      <c r="G301" s="22"/>
-      <c r="H301" s="16" t="s">
+      <c r="F301" s="17"/>
+      <c r="G301" s="17"/>
+      <c r="H301" s="22" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9709,12 +9711,12 @@
       <c r="D302" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="E302" s="12">
+      <c r="E302" s="14">
         <v>5.8217592592592592E-3</v>
       </c>
-      <c r="F302" s="22"/>
-      <c r="G302" s="22"/>
-      <c r="H302" s="17" t="s">
+      <c r="F302" s="17"/>
+      <c r="G302" s="17"/>
+      <c r="H302" s="23" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9731,12 +9733,12 @@
       <c r="D303" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="E303" s="12">
+      <c r="E303" s="14">
         <v>8.2986111111111108E-3</v>
       </c>
-      <c r="F303" s="22"/>
-      <c r="G303" s="22"/>
-      <c r="H303" s="16" t="s">
+      <c r="F303" s="17"/>
+      <c r="G303" s="17"/>
+      <c r="H303" s="22" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9753,12 +9755,12 @@
       <c r="D304" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="E304" s="12">
+      <c r="E304" s="14">
         <v>7.1759259259259259E-3</v>
       </c>
-      <c r="F304" s="22"/>
-      <c r="G304" s="22"/>
-      <c r="H304" s="17" t="s">
+      <c r="F304" s="17"/>
+      <c r="G304" s="17"/>
+      <c r="H304" s="23" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9775,12 +9777,12 @@
       <c r="D305" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="E305" s="12">
+      <c r="E305" s="14">
         <v>3.4837962962962965E-3</v>
       </c>
-      <c r="F305" s="22"/>
-      <c r="G305" s="22"/>
-      <c r="H305" s="16" t="s">
+      <c r="F305" s="17"/>
+      <c r="G305" s="17"/>
+      <c r="H305" s="22" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9797,12 +9799,12 @@
       <c r="D306" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="E306" s="12">
+      <c r="E306" s="14">
         <v>7.2453703703703708E-3</v>
       </c>
-      <c r="F306" s="22"/>
-      <c r="G306" s="22"/>
-      <c r="H306" s="17" t="s">
+      <c r="F306" s="17"/>
+      <c r="G306" s="17"/>
+      <c r="H306" s="23" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9819,12 +9821,12 @@
       <c r="D307" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="E307" s="12">
+      <c r="E307" s="14">
         <v>6.4120370370370373E-3</v>
       </c>
-      <c r="F307" s="22"/>
-      <c r="G307" s="22"/>
-      <c r="H307" s="16" t="s">
+      <c r="F307" s="17"/>
+      <c r="G307" s="17"/>
+      <c r="H307" s="22" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9841,12 +9843,12 @@
       <c r="D308" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="E308" s="12">
+      <c r="E308" s="14">
         <v>0.01</v>
       </c>
-      <c r="F308" s="22"/>
-      <c r="G308" s="22"/>
-      <c r="H308" s="17" t="s">
+      <c r="F308" s="17"/>
+      <c r="G308" s="17"/>
+      <c r="H308" s="23" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9863,12 +9865,12 @@
       <c r="D309" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="E309" s="12">
+      <c r="E309" s="14">
         <v>6.6203703703703702E-3</v>
       </c>
-      <c r="F309" s="22"/>
-      <c r="G309" s="22"/>
-      <c r="H309" s="16" t="s">
+      <c r="F309" s="17"/>
+      <c r="G309" s="17"/>
+      <c r="H309" s="22" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9885,12 +9887,12 @@
       <c r="D310" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="E310" s="12">
+      <c r="E310" s="14">
         <v>8.6226851851851846E-3</v>
       </c>
-      <c r="F310" s="22"/>
-      <c r="G310" s="22"/>
-      <c r="H310" s="17" t="s">
+      <c r="F310" s="17"/>
+      <c r="G310" s="17"/>
+      <c r="H310" s="23" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9907,12 +9909,12 @@
       <c r="D311" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="E311" s="12">
+      <c r="E311" s="14">
         <v>5.115740740740741E-3</v>
       </c>
-      <c r="F311" s="22"/>
-      <c r="G311" s="22"/>
-      <c r="H311" s="16" t="s">
+      <c r="F311" s="17"/>
+      <c r="G311" s="17"/>
+      <c r="H311" s="22" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9929,12 +9931,12 @@
       <c r="D312" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="E312" s="12">
+      <c r="E312" s="14">
         <v>7.3842592592592597E-3</v>
       </c>
-      <c r="F312" s="22"/>
-      <c r="G312" s="22"/>
-      <c r="H312" s="17" t="s">
+      <c r="F312" s="17"/>
+      <c r="G312" s="17"/>
+      <c r="H312" s="23" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9951,12 +9953,12 @@
       <c r="D313" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="E313" s="12">
+      <c r="E313" s="14">
         <v>7.8935185185185185E-3</v>
       </c>
-      <c r="F313" s="22"/>
-      <c r="G313" s="22"/>
-      <c r="H313" s="16" t="s">
+      <c r="F313" s="17"/>
+      <c r="G313" s="17"/>
+      <c r="H313" s="22" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9973,12 +9975,12 @@
       <c r="D314" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="E314" s="12">
+      <c r="E314" s="14">
         <v>1.0254629629629629E-2</v>
       </c>
-      <c r="F314" s="22"/>
-      <c r="G314" s="22"/>
-      <c r="H314" s="17" t="s">
+      <c r="F314" s="17"/>
+      <c r="G314" s="17"/>
+      <c r="H314" s="23" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9995,12 +9997,12 @@
       <c r="D315" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="E315" s="12">
+      <c r="E315" s="14">
         <v>6.5277777777777782E-3</v>
       </c>
-      <c r="F315" s="22"/>
-      <c r="G315" s="22"/>
-      <c r="H315" s="16" t="s">
+      <c r="F315" s="17"/>
+      <c r="G315" s="17"/>
+      <c r="H315" s="22" t="s">
         <v>525</v>
       </c>
     </row>
@@ -10017,12 +10019,12 @@
       <c r="D316" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="E316" s="12">
+      <c r="E316" s="14">
         <v>1.1168981481481481E-2</v>
       </c>
-      <c r="F316" s="22"/>
-      <c r="G316" s="22"/>
-      <c r="H316" s="17" t="s">
+      <c r="F316" s="17"/>
+      <c r="G316" s="17"/>
+      <c r="H316" s="23" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10039,12 +10041,12 @@
       <c r="D317" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="E317" s="12">
+      <c r="E317" s="14">
         <v>6.6782407407407407E-3</v>
       </c>
-      <c r="F317" s="22"/>
-      <c r="G317" s="22"/>
-      <c r="H317" s="16" t="s">
+      <c r="F317" s="17"/>
+      <c r="G317" s="17"/>
+      <c r="H317" s="22" t="s">
         <v>525</v>
       </c>
     </row>
@@ -10061,12 +10063,12 @@
       <c r="D318" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="E318" s="12">
+      <c r="E318" s="14">
         <v>7.2222222222222219E-3</v>
       </c>
-      <c r="F318" s="23"/>
-      <c r="G318" s="23"/>
-      <c r="H318" s="17" t="s">
+      <c r="F318" s="19"/>
+      <c r="G318" s="19"/>
+      <c r="H318" s="23" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10083,18 +10085,18 @@
       <c r="D319" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="E319" s="12">
+      <c r="E319" s="14">
         <v>4.9421296296296297E-3</v>
       </c>
-      <c r="F319" s="21">
+      <c r="F319" s="8">
         <f>SUM(E319:E342)</f>
         <v>0.20223379629629626</v>
       </c>
-      <c r="G319" s="21">
+      <c r="G319" s="8">
         <f>F319*1.5</f>
         <v>0.3033506944444444</v>
       </c>
-      <c r="H319" s="16" t="s">
+      <c r="H319" s="22" t="s">
         <v>527</v>
       </c>
     </row>
@@ -10111,12 +10113,12 @@
       <c r="D320" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="E320" s="12">
+      <c r="E320" s="14">
         <v>5.6018518518518518E-3</v>
       </c>
-      <c r="F320" s="22"/>
-      <c r="G320" s="22"/>
-      <c r="H320" s="17" t="s">
+      <c r="F320" s="17"/>
+      <c r="G320" s="17"/>
+      <c r="H320" s="23" t="s">
         <v>528</v>
       </c>
     </row>
@@ -10133,12 +10135,12 @@
       <c r="D321" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="E321" s="12">
+      <c r="E321" s="14">
         <v>7.3842592592592597E-3</v>
       </c>
-      <c r="F321" s="22"/>
-      <c r="G321" s="22"/>
-      <c r="H321" s="16" t="s">
+      <c r="F321" s="17"/>
+      <c r="G321" s="17"/>
+      <c r="H321" s="22" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10155,12 +10157,12 @@
       <c r="D322" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="E322" s="12">
+      <c r="E322" s="14">
         <v>7.7314814814814815E-3</v>
       </c>
-      <c r="F322" s="22"/>
-      <c r="G322" s="22"/>
-      <c r="H322" s="17" t="s">
+      <c r="F322" s="17"/>
+      <c r="G322" s="17"/>
+      <c r="H322" s="23" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10177,12 +10179,12 @@
       <c r="D323" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="E323" s="12">
+      <c r="E323" s="14">
         <v>4.8379629629629632E-3</v>
       </c>
-      <c r="F323" s="22"/>
-      <c r="G323" s="22"/>
-      <c r="H323" s="16" t="s">
+      <c r="F323" s="17"/>
+      <c r="G323" s="17"/>
+      <c r="H323" s="22" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10199,12 +10201,12 @@
       <c r="D324" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="E324" s="12">
+      <c r="E324" s="14">
         <v>8.9467592592592585E-3</v>
       </c>
-      <c r="F324" s="22"/>
-      <c r="G324" s="22"/>
-      <c r="H324" s="17" t="s">
+      <c r="F324" s="17"/>
+      <c r="G324" s="17"/>
+      <c r="H324" s="23" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10221,12 +10223,12 @@
       <c r="D325" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="E325" s="12">
+      <c r="E325" s="14">
         <v>6.9328703703703705E-3</v>
       </c>
-      <c r="F325" s="22"/>
-      <c r="G325" s="22"/>
-      <c r="H325" s="16" t="s">
+      <c r="F325" s="17"/>
+      <c r="G325" s="17"/>
+      <c r="H325" s="22" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10243,12 +10245,12 @@
       <c r="D326" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="E326" s="12">
+      <c r="E326" s="14">
         <v>6.8402777777777776E-3</v>
       </c>
-      <c r="F326" s="22"/>
-      <c r="G326" s="22"/>
-      <c r="H326" s="17" t="s">
+      <c r="F326" s="17"/>
+      <c r="G326" s="17"/>
+      <c r="H326" s="23" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10265,12 +10267,12 @@
       <c r="D327" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="E327" s="12">
+      <c r="E327" s="14">
         <v>8.1712962962962963E-3</v>
       </c>
-      <c r="F327" s="22"/>
-      <c r="G327" s="22"/>
-      <c r="H327" s="16" t="s">
+      <c r="F327" s="17"/>
+      <c r="G327" s="17"/>
+      <c r="H327" s="22" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10287,12 +10289,12 @@
       <c r="D328" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="E328" s="12">
+      <c r="E328" s="14">
         <v>4.3055555555555555E-3</v>
       </c>
-      <c r="F328" s="22"/>
-      <c r="G328" s="22"/>
-      <c r="H328" s="17" t="s">
+      <c r="F328" s="17"/>
+      <c r="G328" s="17"/>
+      <c r="H328" s="23" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10309,12 +10311,12 @@
       <c r="D329" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="E329" s="12">
+      <c r="E329" s="14">
         <v>6.6782407407407407E-3</v>
       </c>
-      <c r="F329" s="22"/>
-      <c r="G329" s="22"/>
-      <c r="H329" s="16" t="s">
+      <c r="F329" s="17"/>
+      <c r="G329" s="17"/>
+      <c r="H329" s="22" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10331,12 +10333,12 @@
       <c r="D330" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="E330" s="12">
+      <c r="E330" s="14">
         <v>5.6365740740740742E-3</v>
       </c>
-      <c r="F330" s="22"/>
-      <c r="G330" s="22"/>
-      <c r="H330" s="17" t="s">
+      <c r="F330" s="17"/>
+      <c r="G330" s="17"/>
+      <c r="H330" s="23" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10353,12 +10355,12 @@
       <c r="D331" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="E331" s="12">
+      <c r="E331" s="14">
         <v>8.5532407407407415E-3</v>
       </c>
-      <c r="F331" s="22"/>
-      <c r="G331" s="22"/>
-      <c r="H331" s="16" t="s">
+      <c r="F331" s="17"/>
+      <c r="G331" s="17"/>
+      <c r="H331" s="22" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10375,12 +10377,12 @@
       <c r="D332" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="E332" s="12">
+      <c r="E332" s="14">
         <v>1.6157407407407409E-2</v>
       </c>
-      <c r="F332" s="22"/>
-      <c r="G332" s="22"/>
-      <c r="H332" s="17" t="s">
+      <c r="F332" s="17"/>
+      <c r="G332" s="17"/>
+      <c r="H332" s="23" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10397,12 +10399,12 @@
       <c r="D333" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="E333" s="12">
+      <c r="E333" s="14">
         <v>1.0868055555555556E-2</v>
       </c>
-      <c r="F333" s="22"/>
-      <c r="G333" s="22"/>
-      <c r="H333" s="16" t="s">
+      <c r="F333" s="17"/>
+      <c r="G333" s="17"/>
+      <c r="H333" s="22" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10420,9 +10422,9 @@
       <c r="E334" s="7">
         <v>3.8657407407407408E-3</v>
       </c>
-      <c r="F334" s="22"/>
-      <c r="G334" s="22"/>
-      <c r="H334" s="17" t="s">
+      <c r="F334" s="17"/>
+      <c r="G334" s="17"/>
+      <c r="H334" s="23" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10440,9 +10442,9 @@
       <c r="E335" s="7">
         <v>5.0231481481481481E-3</v>
       </c>
-      <c r="F335" s="22"/>
-      <c r="G335" s="22"/>
-      <c r="H335" s="16" t="s">
+      <c r="F335" s="17"/>
+      <c r="G335" s="17"/>
+      <c r="H335" s="22" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10460,9 +10462,9 @@
       <c r="E336" s="7">
         <v>1.7986111111111112E-2</v>
       </c>
-      <c r="F336" s="22"/>
-      <c r="G336" s="22"/>
-      <c r="H336" s="17" t="s">
+      <c r="F336" s="17"/>
+      <c r="G336" s="17"/>
+      <c r="H336" s="23" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10480,9 +10482,9 @@
       <c r="E337" s="7">
         <v>6.1921296296296299E-3</v>
       </c>
-      <c r="F337" s="22"/>
-      <c r="G337" s="22"/>
-      <c r="H337" s="16" t="s">
+      <c r="F337" s="17"/>
+      <c r="G337" s="17"/>
+      <c r="H337" s="22" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10500,9 +10502,9 @@
       <c r="E338" s="7">
         <v>2.1898148148148149E-2</v>
       </c>
-      <c r="F338" s="22"/>
-      <c r="G338" s="22"/>
-      <c r="H338" s="17" t="s">
+      <c r="F338" s="17"/>
+      <c r="G338" s="17"/>
+      <c r="H338" s="23" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10520,9 +10522,9 @@
       <c r="E339" s="7">
         <v>1.8773148148148146E-2</v>
       </c>
-      <c r="F339" s="22"/>
-      <c r="G339" s="22"/>
-      <c r="H339" s="16" t="s">
+      <c r="F339" s="17"/>
+      <c r="G339" s="17"/>
+      <c r="H339" s="22" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10540,9 +10542,9 @@
       <c r="E340" s="7">
         <v>7.4189814814814813E-3</v>
       </c>
-      <c r="F340" s="22"/>
-      <c r="G340" s="22"/>
-      <c r="H340" s="17" t="s">
+      <c r="F340" s="17"/>
+      <c r="G340" s="17"/>
+      <c r="H340" s="23" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10560,9 +10562,9 @@
       <c r="E341" s="7">
         <v>1.2962962962962963E-3</v>
       </c>
-      <c r="F341" s="22"/>
-      <c r="G341" s="22"/>
-      <c r="H341" s="16" t="s">
+      <c r="F341" s="17"/>
+      <c r="G341" s="17"/>
+      <c r="H341" s="22" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10580,9 +10582,9 @@
       <c r="E342" s="7">
         <v>6.1921296296296299E-3</v>
       </c>
-      <c r="F342" s="23"/>
-      <c r="G342" s="23"/>
-      <c r="H342" s="17" t="s">
+      <c r="F342" s="19"/>
+      <c r="G342" s="19"/>
+      <c r="H342" s="23" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10600,15 +10602,15 @@
       <c r="E343" s="7">
         <v>2.7662037037037039E-3</v>
       </c>
-      <c r="F343" s="21">
+      <c r="F343" s="8">
         <f>SUM(E343:E355)</f>
         <v>0.20703703703703702</v>
       </c>
-      <c r="G343" s="21">
+      <c r="G343" s="8">
         <f>F343*1.5</f>
         <v>0.31055555555555553</v>
       </c>
-      <c r="H343" s="16" t="s">
+      <c r="H343" s="22" t="s">
         <v>531</v>
       </c>
     </row>
@@ -10626,9 +10628,9 @@
       <c r="E344" s="7">
         <v>2.4837962962962964E-2</v>
       </c>
-      <c r="F344" s="22"/>
-      <c r="G344" s="22"/>
-      <c r="H344" s="17" t="s">
+      <c r="F344" s="17"/>
+      <c r="G344" s="17"/>
+      <c r="H344" s="23" t="s">
         <v>532</v>
       </c>
     </row>
@@ -10646,9 +10648,9 @@
       <c r="E345" s="7">
         <v>1.4293981481481482E-2</v>
       </c>
-      <c r="F345" s="22"/>
-      <c r="G345" s="22"/>
-      <c r="H345" s="16" t="s">
+      <c r="F345" s="17"/>
+      <c r="G345" s="17"/>
+      <c r="H345" s="22" t="s">
         <v>533</v>
       </c>
     </row>
@@ -10666,9 +10668,9 @@
       <c r="E346" s="7">
         <v>1.3159722222222222E-2</v>
       </c>
-      <c r="F346" s="22"/>
-      <c r="G346" s="22"/>
-      <c r="H346" s="17" t="s">
+      <c r="F346" s="17"/>
+      <c r="G346" s="17"/>
+      <c r="H346" s="23" t="s">
         <v>534</v>
       </c>
     </row>
@@ -10686,9 +10688,9 @@
       <c r="E347" s="7">
         <v>1.5543981481481482E-2</v>
       </c>
-      <c r="F347" s="22"/>
-      <c r="G347" s="22"/>
-      <c r="H347" s="16" t="s">
+      <c r="F347" s="17"/>
+      <c r="G347" s="17"/>
+      <c r="H347" s="22" t="s">
         <v>533</v>
       </c>
     </row>
@@ -10706,9 +10708,9 @@
       <c r="E348" s="7">
         <v>1.170138888888889E-2</v>
       </c>
-      <c r="F348" s="22"/>
-      <c r="G348" s="22"/>
-      <c r="H348" s="17" t="s">
+      <c r="F348" s="17"/>
+      <c r="G348" s="17"/>
+      <c r="H348" s="23" t="s">
         <v>534</v>
       </c>
     </row>
@@ -10726,9 +10728,9 @@
       <c r="E349" s="7">
         <v>8.4259259259259253E-3</v>
       </c>
-      <c r="F349" s="22"/>
-      <c r="G349" s="22"/>
-      <c r="H349" s="16" t="s">
+      <c r="F349" s="17"/>
+      <c r="G349" s="17"/>
+      <c r="H349" s="22" t="s">
         <v>533</v>
       </c>
     </row>
@@ -10746,9 +10748,9 @@
       <c r="E350" s="7">
         <v>3.6307870370370372E-2</v>
       </c>
-      <c r="F350" s="22"/>
-      <c r="G350" s="22"/>
-      <c r="H350" s="17" t="s">
+      <c r="F350" s="17"/>
+      <c r="G350" s="17"/>
+      <c r="H350" s="23" t="s">
         <v>534</v>
       </c>
     </row>
@@ -10766,9 +10768,9 @@
       <c r="E351" s="7">
         <v>9.6643518518518511E-3</v>
       </c>
-      <c r="F351" s="22"/>
-      <c r="G351" s="22"/>
-      <c r="H351" s="16" t="s">
+      <c r="F351" s="17"/>
+      <c r="G351" s="17"/>
+      <c r="H351" s="22" t="s">
         <v>533</v>
       </c>
     </row>
@@ -10786,10 +10788,10 @@
       <c r="E352" s="7">
         <v>2.0486111111111113E-3</v>
       </c>
-      <c r="F352" s="22"/>
-      <c r="G352" s="22"/>
-      <c r="H352" s="17" t="s">
-        <v>537</v>
+      <c r="F352" s="17"/>
+      <c r="G352" s="17"/>
+      <c r="H352" s="23" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10806,10 +10808,10 @@
       <c r="E353" s="7">
         <v>2.1759259259259259E-2</v>
       </c>
-      <c r="F353" s="22"/>
-      <c r="G353" s="22"/>
-      <c r="H353" s="16" t="s">
-        <v>539</v>
+      <c r="F353" s="17"/>
+      <c r="G353" s="17"/>
+      <c r="H353" s="22" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10826,10 +10828,10 @@
       <c r="E354" s="7">
         <v>2.2824074074074073E-2</v>
       </c>
-      <c r="F354" s="22"/>
-      <c r="G354" s="22"/>
-      <c r="H354" s="17" t="s">
-        <v>540</v>
+      <c r="F354" s="17"/>
+      <c r="G354" s="17"/>
+      <c r="H354" s="23" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10846,10 +10848,10 @@
       <c r="E355" s="7">
         <v>2.3703703703703703E-2</v>
       </c>
-      <c r="F355" s="23"/>
-      <c r="G355" s="23"/>
-      <c r="H355" s="16" t="s">
-        <v>538</v>
+      <c r="F355" s="19"/>
+      <c r="G355" s="19"/>
+      <c r="H355" s="22" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10866,16 +10868,16 @@
       <c r="E356" s="7">
         <v>2.2430555555555554E-2</v>
       </c>
-      <c r="F356" s="21">
+      <c r="F356" s="8">
         <f>SUM(E356:E365)</f>
         <v>0.19240740740740739</v>
       </c>
-      <c r="G356" s="21">
+      <c r="G356" s="8">
         <f>F356*1.5</f>
         <v>0.2886111111111111</v>
       </c>
-      <c r="H356" s="17" t="s">
-        <v>540</v>
+      <c r="H356" s="22" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10892,10 +10894,10 @@
       <c r="E357" s="7">
         <v>2.0520833333333332E-2</v>
       </c>
-      <c r="F357" s="22"/>
-      <c r="G357" s="22"/>
-      <c r="H357" s="16" t="s">
-        <v>538</v>
+      <c r="F357" s="17"/>
+      <c r="G357" s="17"/>
+      <c r="H357" s="23" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10912,10 +10914,10 @@
       <c r="E358" s="7">
         <v>8.1018518518518514E-3</v>
       </c>
-      <c r="F358" s="22"/>
-      <c r="G358" s="22"/>
-      <c r="H358" s="17" t="s">
-        <v>540</v>
+      <c r="F358" s="17"/>
+      <c r="G358" s="17"/>
+      <c r="H358" s="23" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10932,10 +10934,10 @@
       <c r="E359" s="7">
         <v>4.6064814814814814E-3</v>
       </c>
-      <c r="F359" s="22"/>
-      <c r="G359" s="22"/>
-      <c r="H359" s="16" t="s">
-        <v>535</v>
+      <c r="F359" s="17"/>
+      <c r="G359" s="17"/>
+      <c r="H359" s="22" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10952,10 +10954,10 @@
       <c r="E360" s="7">
         <v>2.9652777777777778E-2</v>
       </c>
-      <c r="F360" s="22"/>
-      <c r="G360" s="22"/>
-      <c r="H360" s="17" t="s">
-        <v>536</v>
+      <c r="F360" s="17"/>
+      <c r="G360" s="17"/>
+      <c r="H360" s="23" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -10972,10 +10974,10 @@
       <c r="E361" s="7">
         <v>1.7673611111111112E-2</v>
       </c>
-      <c r="F361" s="22"/>
-      <c r="G361" s="22"/>
-      <c r="H361" s="17" t="s">
-        <v>536</v>
+      <c r="F361" s="17"/>
+      <c r="G361" s="17"/>
+      <c r="H361" s="23" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10992,10 +10994,10 @@
       <c r="E362" s="7">
         <v>2.0960648148148148E-2</v>
       </c>
-      <c r="F362" s="22"/>
-      <c r="G362" s="22"/>
-      <c r="H362" s="16" t="s">
-        <v>535</v>
+      <c r="F362" s="17"/>
+      <c r="G362" s="17"/>
+      <c r="H362" s="22" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11012,10 +11014,10 @@
       <c r="E363" s="7">
         <v>5.0960648148148151E-2</v>
       </c>
-      <c r="F363" s="22"/>
-      <c r="G363" s="22"/>
-      <c r="H363" s="17" t="s">
-        <v>536</v>
+      <c r="F363" s="17"/>
+      <c r="G363" s="17"/>
+      <c r="H363" s="23" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11032,10 +11034,10 @@
       <c r="E364" s="7">
         <v>8.518518518518519E-3</v>
       </c>
-      <c r="F364" s="22"/>
-      <c r="G364" s="22"/>
-      <c r="H364" s="17" t="s">
-        <v>536</v>
+      <c r="F364" s="17"/>
+      <c r="G364" s="17"/>
+      <c r="H364" s="23" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11052,50 +11054,50 @@
       <c r="E365" s="7">
         <v>8.9814814814814809E-3</v>
       </c>
-      <c r="F365" s="23"/>
-      <c r="G365" s="23"/>
-      <c r="H365" s="16" t="s">
-        <v>535</v>
+      <c r="F365" s="19"/>
+      <c r="G365" s="19"/>
+      <c r="H365" s="22" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="F209:F231"/>
+    <mergeCell ref="G209:G231"/>
+    <mergeCell ref="F175:F192"/>
+    <mergeCell ref="G175:G192"/>
+    <mergeCell ref="F193:F208"/>
+    <mergeCell ref="G193:G208"/>
+    <mergeCell ref="F2:F15"/>
+    <mergeCell ref="G2:G15"/>
+    <mergeCell ref="F16:F27"/>
+    <mergeCell ref="G16:G27"/>
+    <mergeCell ref="F78:F100"/>
+    <mergeCell ref="G78:G100"/>
+    <mergeCell ref="F101:F113"/>
+    <mergeCell ref="G101:G113"/>
+    <mergeCell ref="F28:F49"/>
+    <mergeCell ref="G28:G49"/>
+    <mergeCell ref="F50:F77"/>
+    <mergeCell ref="G50:G77"/>
+    <mergeCell ref="F153:F174"/>
+    <mergeCell ref="G153:G174"/>
+    <mergeCell ref="F114:F130"/>
+    <mergeCell ref="G114:G130"/>
+    <mergeCell ref="F131:F152"/>
+    <mergeCell ref="G131:G152"/>
+    <mergeCell ref="F265:F292"/>
+    <mergeCell ref="G265:G292"/>
+    <mergeCell ref="F293:F318"/>
+    <mergeCell ref="G293:G318"/>
+    <mergeCell ref="F232:F264"/>
+    <mergeCell ref="G232:G264"/>
     <mergeCell ref="F356:F365"/>
     <mergeCell ref="G356:G365"/>
     <mergeCell ref="F319:F342"/>
     <mergeCell ref="G319:G342"/>
     <mergeCell ref="F343:F355"/>
     <mergeCell ref="G343:G355"/>
-    <mergeCell ref="F265:F292"/>
-    <mergeCell ref="G265:G292"/>
-    <mergeCell ref="F293:F318"/>
-    <mergeCell ref="G293:G318"/>
-    <mergeCell ref="F232:F264"/>
-    <mergeCell ref="G232:G264"/>
-    <mergeCell ref="F153:F174"/>
-    <mergeCell ref="G153:G174"/>
-    <mergeCell ref="F114:F130"/>
-    <mergeCell ref="G114:G130"/>
-    <mergeCell ref="F131:F152"/>
-    <mergeCell ref="G131:G152"/>
-    <mergeCell ref="F101:F113"/>
-    <mergeCell ref="G101:G113"/>
-    <mergeCell ref="F28:F49"/>
-    <mergeCell ref="G28:G49"/>
-    <mergeCell ref="F50:F77"/>
-    <mergeCell ref="G50:G77"/>
-    <mergeCell ref="F2:F15"/>
-    <mergeCell ref="G2:G15"/>
-    <mergeCell ref="F16:F27"/>
-    <mergeCell ref="G16:G27"/>
-    <mergeCell ref="F78:F100"/>
-    <mergeCell ref="G78:G100"/>
-    <mergeCell ref="F209:F231"/>
-    <mergeCell ref="G209:G231"/>
-    <mergeCell ref="F175:F192"/>
-    <mergeCell ref="G175:G192"/>
-    <mergeCell ref="F193:F208"/>
-    <mergeCell ref="G193:G208"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_files/timetable.xlsx
+++ b/excel_files/timetable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture_checker/build/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popokk/Documents/GitHub/lecture-checker/public/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C863AD02-0D78-3F4E-B17B-90E5E6748F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319FAEC5-1CCA-C04E-A890-1BCAB1F2F2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="500" windowWidth="19200" windowHeight="15800" xr2:uid="{765D39CF-F5DA-5E46-89DA-00BE39B518AB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="541">
   <si>
     <t>강의명</t>
   </si>
@@ -2377,44 +2377,6 @@
   </si>
   <si>
     <r>
-      <t>8.13(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>화)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8.13(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="나눔명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans KR"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>8.13(화)</t>
     </r>
     <r>
@@ -2436,6 +2398,42 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.31(수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.31(수)</t>
+  </si>
+  <si>
+    <t>7.31(수)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.31(수)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t/>
     </r>
@@ -2636,9 +2634,6 @@
     <xf numFmtId="46" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2646,9 +2641,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2663,13 +2655,34 @@
     <xf numFmtId="46" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="46" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2677,21 +2690,6 @@
     </xf>
     <xf numFmtId="46" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3029,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A561FC51-39B6-004A-9744-5A70B0752A77}">
   <dimension ref="A1:H365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B346" workbookViewId="0">
-      <selection activeCell="G356" sqref="G356:G365"/>
+    <sheetView tabSelected="1" topLeftCell="C342" workbookViewId="0">
+      <selection activeCell="H359" sqref="H359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3044,7 +3042,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>479</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -3080,15 +3078,15 @@
       <c r="E2" s="7">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="21">
         <f>SUM(E2:E15)</f>
         <v>0.20958333333333332</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="21">
         <f>F2*1.5</f>
         <v>0.31437499999999996</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3106,9 +3104,9 @@
       <c r="E3" s="7">
         <v>1.2418981481481482E-2</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="22" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3126,9 +3124,9 @@
       <c r="E4" s="7">
         <v>1.2638888888888889E-2</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="22" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3146,9 +3144,9 @@
       <c r="E5" s="7">
         <v>3.1145833333333334E-2</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="22" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3166,9 +3164,9 @@
       <c r="E6" s="7">
         <v>1.5462962962962963E-2</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="22" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3186,9 +3184,9 @@
       <c r="E7" s="7">
         <v>1.6759259259259258E-2</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="22" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3206,9 +3204,9 @@
       <c r="E8" s="7">
         <v>1.2881944444444444E-2</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="22" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3226,9 +3224,9 @@
       <c r="E9" s="7">
         <v>1.6423611111111111E-2</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="22" t="s">
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3246,9 +3244,9 @@
       <c r="E10" s="7">
         <v>1.2175925925925925E-2</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="22" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3266,9 +3264,9 @@
       <c r="E11" s="7">
         <v>5.6712962962962967E-3</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="22" t="s">
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3286,9 +3284,9 @@
       <c r="E12" s="7">
         <v>1.412037037037037E-2</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="22" t="s">
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3306,9 +3304,9 @@
       <c r="E13" s="7">
         <v>6.8055555555555551E-3</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="22" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3326,9 +3324,9 @@
       <c r="E14" s="7">
         <v>1.5208333333333334E-2</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="22" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3346,9 +3344,9 @@
       <c r="E15" s="7">
         <v>1.5370370370370371E-2</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="22" t="s">
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="16" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3366,15 +3364,15 @@
       <c r="E16" s="7">
         <v>7.4421296296296293E-3</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="21">
         <f>SUM(E16:E27)</f>
         <v>0.20709490740740744</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="21">
         <f>F16*1.5</f>
         <v>0.31064236111111115</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3392,9 +3390,9 @@
       <c r="E17" s="7">
         <v>1.255787037037037E-2</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="22" t="s">
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3412,9 +3410,9 @@
       <c r="E18" s="7">
         <v>1.0821759259259258E-2</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="22" t="s">
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3432,9 +3430,9 @@
       <c r="E19" s="7">
         <v>5.4976851851851853E-3</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="22" t="s">
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3452,9 +3450,9 @@
       <c r="E20" s="7">
         <v>2.0081018518518519E-2</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="22" t="s">
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3472,9 +3470,9 @@
       <c r="E21" s="7">
         <v>1.1875E-2</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="22" t="s">
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3492,9 +3490,9 @@
       <c r="E22" s="7">
         <v>5.7638888888888887E-3</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="22" t="s">
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3512,9 +3510,9 @@
       <c r="E23" s="7">
         <v>4.0474537037037038E-2</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="22" t="s">
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3532,9 +3530,9 @@
       <c r="E24" s="7">
         <v>4.490740740740741E-2</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="22" t="s">
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3552,9 +3550,9 @@
       <c r="E25" s="7">
         <v>4.3981481481481484E-3</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="22" t="s">
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3572,9 +3570,9 @@
       <c r="E26" s="7">
         <v>8.7962962962962968E-3</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="22" t="s">
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3592,9 +3590,9 @@
       <c r="E27" s="7">
         <v>3.4479166666666665E-2</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="22" t="s">
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3612,15 +3610,15 @@
       <c r="E28" s="7">
         <v>7.3842592592592597E-3</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="21">
         <f>SUM(E28:E49)</f>
         <v>0.19423611111111114</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="21">
         <f>F28*1.5</f>
         <v>0.29135416666666669</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="16" t="s">
         <v>480</v>
       </c>
     </row>
@@ -3638,9 +3636,9 @@
       <c r="E29" s="7">
         <v>2.8009259259259258E-2</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="23" t="s">
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="17" t="s">
         <v>481</v>
       </c>
     </row>
@@ -3658,9 +3656,9 @@
       <c r="E30" s="7">
         <v>1.8113425925925925E-2</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="22" t="s">
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="16" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3680,9 +3678,9 @@
       <c r="E31" s="7">
         <v>2.1064814814814813E-3</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="23" t="s">
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3702,9 +3700,9 @@
       <c r="E32" s="7">
         <v>9.5023148148148141E-3</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="22" t="s">
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="16" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3724,9 +3722,9 @@
       <c r="E33" s="7">
         <v>6.8402777777777776E-3</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="23" t="s">
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3746,9 +3744,9 @@
       <c r="E34" s="7">
         <v>1.9583333333333335E-2</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="22" t="s">
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="16" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3768,9 +3766,9 @@
       <c r="E35" s="7">
         <v>1.712962962962963E-3</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="23" t="s">
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3790,9 +3788,9 @@
       <c r="E36" s="7">
         <v>2.3379629629629631E-3</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="22" t="s">
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="16" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3812,9 +3810,9 @@
       <c r="E37" s="7">
         <v>3.0555555555555557E-3</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="23" t="s">
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3834,9 +3832,9 @@
       <c r="E38" s="7">
         <v>2.074074074074074E-2</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="22" t="s">
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="16" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3856,9 +3854,9 @@
       <c r="E39" s="7">
         <v>1.1145833333333334E-2</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="23" t="s">
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3878,9 +3876,9 @@
       <c r="E40" s="7">
         <v>5.3819444444444444E-3</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="22" t="s">
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="16" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3900,9 +3898,9 @@
       <c r="E41" s="7">
         <v>1.5949074074074074E-2</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="23" t="s">
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3922,9 +3920,9 @@
       <c r="E42" s="7">
         <v>3.8078703703703703E-3</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="22" t="s">
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="16" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3944,9 +3942,9 @@
       <c r="E43" s="7">
         <v>7.8009259259259256E-3</v>
       </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="23" t="s">
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3966,9 +3964,9 @@
       <c r="E44" s="7">
         <v>3.0787037037037037E-3</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="22" t="s">
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="16" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3988,9 +3986,9 @@
       <c r="E45" s="7">
         <v>3.1481481481481482E-3</v>
       </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="23" t="s">
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -4010,9 +4008,9 @@
       <c r="E46" s="7">
         <v>4.6064814814814814E-3</v>
       </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="22" t="s">
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="16" t="s">
         <v>482</v>
       </c>
     </row>
@@ -4032,9 +4030,9 @@
       <c r="E47" s="7">
         <v>3.2754629629629631E-3</v>
       </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="23" t="s">
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -4054,9 +4052,9 @@
       <c r="E48" s="7">
         <v>1.0694444444444444E-2</v>
       </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="22" t="s">
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="16" t="s">
         <v>482</v>
       </c>
     </row>
@@ -4076,9 +4074,9 @@
       <c r="E49" s="7">
         <v>5.9606481481481481E-3</v>
       </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="23" t="s">
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -4098,15 +4096,15 @@
       <c r="E50" s="7">
         <v>1.8055555555555555E-3</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="21">
         <f>SUM(E50:E77)</f>
         <v>0.17664351851851851</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="21">
         <f>F50*1.5</f>
         <v>0.26496527777777779</v>
       </c>
-      <c r="H50" s="22" t="s">
+      <c r="H50" s="16" t="s">
         <v>483</v>
       </c>
     </row>
@@ -4126,9 +4124,9 @@
       <c r="E51" s="7">
         <v>5.185185185185185E-3</v>
       </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="23" t="s">
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="17" t="s">
         <v>484</v>
       </c>
     </row>
@@ -4148,9 +4146,9 @@
       <c r="E52" s="7">
         <v>4.0740740740740737E-3</v>
       </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="22" t="s">
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4170,9 +4168,9 @@
       <c r="E53" s="7">
         <v>2.0405092592592593E-2</v>
       </c>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="23" t="s">
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4192,9 +4190,9 @@
       <c r="E54" s="7">
         <v>8.726851851851852E-3</v>
       </c>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="22" t="s">
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4214,9 +4212,9 @@
       <c r="E55" s="7">
         <v>4.6180555555555558E-3</v>
       </c>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="23" t="s">
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4236,9 +4234,9 @@
       <c r="E56" s="7">
         <v>5.092592592592593E-3</v>
       </c>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="22" t="s">
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4258,9 +4256,9 @@
       <c r="E57" s="7">
         <v>1.7592592592592592E-3</v>
       </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="23" t="s">
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4280,9 +4278,9 @@
       <c r="E58" s="7">
         <v>5.2777777777777779E-3</v>
       </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="22" t="s">
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4302,9 +4300,9 @@
       <c r="E59" s="7">
         <v>1.2037037037037037E-2</v>
       </c>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="23" t="s">
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4324,9 +4322,9 @@
       <c r="E60" s="7">
         <v>2.650462962962963E-3</v>
       </c>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="22" t="s">
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4346,9 +4344,9 @@
       <c r="E61" s="7">
         <v>1.736111111111111E-3</v>
       </c>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="23" t="s">
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4368,9 +4366,9 @@
       <c r="E62" s="7">
         <v>9.9421296296296289E-3</v>
       </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="22" t="s">
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4390,9 +4388,9 @@
       <c r="E63" s="7">
         <v>4.1898148148148146E-3</v>
       </c>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="23" t="s">
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4412,9 +4410,9 @@
       <c r="E64" s="7">
         <v>3.2523148148148147E-3</v>
       </c>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="22" t="s">
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4434,9 +4432,9 @@
       <c r="E65" s="7">
         <v>7.5347222222222222E-3</v>
       </c>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="23" t="s">
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4456,9 +4454,9 @@
       <c r="E66" s="7">
         <v>5.6828703703703702E-3</v>
       </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="22" t="s">
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4478,9 +4476,9 @@
       <c r="E67" s="7">
         <v>2.2916666666666667E-3</v>
       </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="23" t="s">
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4500,9 +4498,9 @@
       <c r="E68" s="7">
         <v>9.6296296296296303E-3</v>
       </c>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="22" t="s">
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4522,9 +4520,9 @@
       <c r="E69" s="7">
         <v>6.851851851851852E-3</v>
       </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="23" t="s">
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4544,9 +4542,9 @@
       <c r="E70" s="7">
         <v>8.8888888888888889E-3</v>
       </c>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="22" t="s">
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4566,9 +4564,9 @@
       <c r="E71" s="7">
         <v>8.0902777777777778E-3</v>
       </c>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="23" t="s">
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4588,9 +4586,9 @@
       <c r="E72" s="7">
         <v>9.8842592592592593E-3</v>
       </c>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="22" t="s">
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4610,9 +4608,9 @@
       <c r="E73" s="7">
         <v>1.6319444444444445E-3</v>
       </c>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="23" t="s">
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4632,9 +4630,9 @@
       <c r="E74" s="7">
         <v>1.1828703703703704E-2</v>
       </c>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="22" t="s">
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4654,9 +4652,9 @@
       <c r="E75" s="7">
         <v>1.5972222222222223E-3</v>
       </c>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="23" t="s">
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4676,9 +4674,9 @@
       <c r="E76" s="7">
         <v>7.8819444444444449E-3</v>
       </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="22" t="s">
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="16" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4698,9 +4696,9 @@
       <c r="E77" s="7">
         <v>4.0972222222222226E-3</v>
       </c>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="23" t="s">
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="17" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4720,15 +4718,15 @@
       <c r="E78" s="7">
         <v>1.0127314814814815E-2</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F78" s="21">
         <f>SUM(E78:E100)</f>
         <v>0.19204861111111113</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="21">
         <f>F78*1.5</f>
         <v>0.28807291666666668</v>
       </c>
-      <c r="H78" s="22" t="s">
+      <c r="H78" s="16" t="s">
         <v>487</v>
       </c>
     </row>
@@ -4748,9 +4746,9 @@
       <c r="E79" s="7">
         <v>1.5393518518518518E-2</v>
       </c>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="23" t="s">
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="17" t="s">
         <v>488</v>
       </c>
     </row>
@@ -4770,9 +4768,9 @@
       <c r="E80" s="7">
         <v>3.460648148148148E-3</v>
       </c>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="22" t="s">
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4792,9 +4790,9 @@
       <c r="E81" s="7">
         <v>2.7546296296296294E-3</v>
       </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="23" t="s">
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="17" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4814,9 +4812,9 @@
       <c r="E82" s="7">
         <v>3.2442129629629626E-2</v>
       </c>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="22" t="s">
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4836,9 +4834,9 @@
       <c r="E83" s="7">
         <v>4.7453703703703704E-4</v>
       </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="23" t="s">
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="17" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4858,9 +4856,9 @@
       <c r="E84" s="7">
         <v>4.3750000000000004E-3</v>
       </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="22" t="s">
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4880,9 +4878,9 @@
       <c r="E85" s="7">
         <v>3.8541666666666668E-3</v>
       </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="23" t="s">
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="17" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4902,9 +4900,9 @@
       <c r="E86" s="7">
         <v>1.5914351851851853E-2</v>
       </c>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="22" t="s">
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4924,9 +4922,9 @@
       <c r="E87" s="7">
         <v>2.1527777777777778E-3</v>
       </c>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="23" t="s">
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="17" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4946,9 +4944,9 @@
       <c r="E88" s="7">
         <v>4.0393518518518521E-3</v>
       </c>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="22" t="s">
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4968,9 +4966,9 @@
       <c r="E89" s="7">
         <v>2.9861111111111113E-3</v>
       </c>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="23" t="s">
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="17" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4990,9 +4988,9 @@
       <c r="E90" s="7">
         <v>1.6782407407407408E-3</v>
       </c>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="22" t="s">
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5012,9 +5010,9 @@
       <c r="E91" s="7">
         <v>1.4467592592592593E-2</v>
       </c>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="23" t="s">
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="17" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5034,9 +5032,9 @@
       <c r="E92" s="7">
         <v>5.8449074074074072E-3</v>
       </c>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="22" t="s">
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5056,9 +5054,9 @@
       <c r="E93" s="7">
         <v>8.6226851851851846E-3</v>
       </c>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="23" t="s">
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="17" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5078,9 +5076,9 @@
       <c r="E94" s="7">
         <v>7.5115740740740742E-3</v>
       </c>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="22" t="s">
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5100,9 +5098,9 @@
       <c r="E95" s="7">
         <v>5.6365740740740742E-3</v>
       </c>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="23" t="s">
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="17" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5122,9 +5120,9 @@
       <c r="E96" s="7">
         <v>1.2465277777777778E-2</v>
       </c>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="22" t="s">
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5144,9 +5142,9 @@
       <c r="E97" s="7">
         <v>1.653935185185185E-2</v>
       </c>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="23" t="s">
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="17" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5166,9 +5164,9 @@
       <c r="E98" s="7">
         <v>4.5370370370370373E-3</v>
       </c>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="22" t="s">
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5188,9 +5186,9 @@
       <c r="E99" s="7">
         <v>8.726851851851852E-3</v>
       </c>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="23" t="s">
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="17" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5210,9 +5208,9 @@
       <c r="E100" s="7">
         <v>8.0439814814814818E-3</v>
       </c>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="22" t="s">
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="16" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5232,15 +5230,15 @@
       <c r="E101" s="7">
         <v>2.388888888888889E-2</v>
       </c>
-      <c r="F101" s="8">
+      <c r="F101" s="21">
         <f>SUM(E101:E113)</f>
         <v>0.20234953703703701</v>
       </c>
-      <c r="G101" s="8">
+      <c r="G101" s="21">
         <f>F101*1.5</f>
         <v>0.30352430555555554</v>
       </c>
-      <c r="H101" s="22" t="s">
+      <c r="H101" s="16" t="s">
         <v>491</v>
       </c>
     </row>
@@ -5260,9 +5258,9 @@
       <c r="E102" s="7">
         <v>1.9560185185185184E-2</v>
       </c>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="23" t="s">
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="17" t="s">
         <v>492</v>
       </c>
     </row>
@@ -5282,9 +5280,9 @@
       <c r="E103" s="7">
         <v>9.4444444444444445E-3</v>
       </c>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="22" t="s">
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="16" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5304,9 +5302,9 @@
       <c r="E104" s="7">
         <v>1.8472222222222223E-2</v>
       </c>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="23" t="s">
+      <c r="F104" s="22"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="17" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5326,9 +5324,9 @@
       <c r="E105" s="7">
         <v>5.9143518518518521E-3</v>
       </c>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="22" t="s">
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="16" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5348,9 +5346,9 @@
       <c r="E106" s="7">
         <v>1.9479166666666665E-2</v>
       </c>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="23" t="s">
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="17" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5370,9 +5368,9 @@
       <c r="E107" s="7">
         <v>1.1331018518518518E-2</v>
       </c>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="22" t="s">
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="16" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5392,9 +5390,9 @@
       <c r="E108" s="7">
         <v>5.6828703703703702E-3</v>
       </c>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="23" t="s">
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="17" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5414,9 +5412,9 @@
       <c r="E109" s="7">
         <v>8.3564814814814821E-3</v>
       </c>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="22" t="s">
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="16" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5436,9 +5434,9 @@
       <c r="E110" s="7">
         <v>2.2893518518518518E-2</v>
       </c>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="23" t="s">
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="17" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5458,9 +5456,9 @@
       <c r="E111" s="7">
         <v>1.8229166666666668E-2</v>
       </c>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="22" t="s">
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="16" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5480,9 +5478,9 @@
       <c r="E112" s="7">
         <v>1.9467592592592592E-2</v>
       </c>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="23" t="s">
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="17" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5502,9 +5500,9 @@
       <c r="E113" s="7">
         <v>1.9629629629629629E-2</v>
       </c>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="22" t="s">
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="16" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5524,15 +5522,15 @@
       <c r="E114" s="7">
         <v>2.8715277777777777E-2</v>
       </c>
-      <c r="F114" s="8">
+      <c r="F114" s="21">
         <f>SUM(E114:E130)</f>
         <v>0.19422453703703699</v>
       </c>
-      <c r="G114" s="8">
+      <c r="G114" s="21">
         <f>F114*1.5</f>
         <v>0.29133680555555547</v>
       </c>
-      <c r="H114" s="22" t="s">
+      <c r="H114" s="16" t="s">
         <v>495</v>
       </c>
     </row>
@@ -5552,9 +5550,9 @@
       <c r="E115" s="7">
         <v>7.0949074074074074E-3</v>
       </c>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="23" t="s">
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="17" t="s">
         <v>496</v>
       </c>
     </row>
@@ -5574,9 +5572,9 @@
       <c r="E116" s="7">
         <v>9.6759259259259264E-3</v>
       </c>
-      <c r="F116" s="17"/>
-      <c r="G116" s="17"/>
-      <c r="H116" s="22" t="s">
+      <c r="F116" s="22"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5596,9 +5594,9 @@
       <c r="E117" s="7">
         <v>5.37037037037037E-3</v>
       </c>
-      <c r="F117" s="17"/>
-      <c r="G117" s="17"/>
-      <c r="H117" s="23" t="s">
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5618,9 +5616,9 @@
       <c r="E118" s="7">
         <v>1.7303240740740741E-2</v>
       </c>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="22" t="s">
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5640,9 +5638,9 @@
       <c r="E119" s="7">
         <v>9.4212962962962957E-3</v>
       </c>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="23" t="s">
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5662,9 +5660,9 @@
       <c r="E120" s="7">
         <v>2.7245370370370371E-2</v>
       </c>
-      <c r="F120" s="17"/>
-      <c r="G120" s="17"/>
-      <c r="H120" s="22" t="s">
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5684,9 +5682,9 @@
       <c r="E121" s="7">
         <v>2.5405092592592594E-2</v>
       </c>
-      <c r="F121" s="17"/>
-      <c r="G121" s="17"/>
-      <c r="H121" s="23" t="s">
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5706,9 +5704,9 @@
       <c r="E122" s="7">
         <v>8.1597222222222227E-3</v>
       </c>
-      <c r="F122" s="17"/>
-      <c r="G122" s="17"/>
-      <c r="H122" s="22" t="s">
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5728,9 +5726,9 @@
       <c r="E123" s="7">
         <v>6.145833333333333E-3</v>
       </c>
-      <c r="F123" s="17"/>
-      <c r="G123" s="17"/>
-      <c r="H123" s="23" t="s">
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5750,9 +5748,9 @@
       <c r="E124" s="7">
         <v>1.7673611111111112E-2</v>
       </c>
-      <c r="F124" s="17"/>
-      <c r="G124" s="17"/>
-      <c r="H124" s="22" t="s">
+      <c r="F124" s="22"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5772,9 +5770,9 @@
       <c r="E125" s="7">
         <v>5.5324074074074078E-3</v>
       </c>
-      <c r="F125" s="17"/>
-      <c r="G125" s="17"/>
-      <c r="H125" s="23" t="s">
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5794,9 +5792,9 @@
       <c r="E126" s="7">
         <v>6.9212962962962961E-3</v>
       </c>
-      <c r="F126" s="17"/>
-      <c r="G126" s="17"/>
-      <c r="H126" s="22" t="s">
+      <c r="F126" s="22"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5816,9 +5814,9 @@
       <c r="E127" s="7">
         <v>5.6018518518518518E-3</v>
       </c>
-      <c r="F127" s="17"/>
-      <c r="G127" s="17"/>
-      <c r="H127" s="23" t="s">
+      <c r="F127" s="22"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5838,9 +5836,9 @@
       <c r="E128" s="7">
         <v>3.8194444444444443E-3</v>
       </c>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17"/>
-      <c r="H128" s="22" t="s">
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5860,9 +5858,9 @@
       <c r="E129" s="7">
         <v>4.31712962962963E-3</v>
       </c>
-      <c r="F129" s="17"/>
-      <c r="G129" s="17"/>
-      <c r="H129" s="23" t="s">
+      <c r="F129" s="22"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5882,9 +5880,9 @@
       <c r="E130" s="7">
         <v>5.8217592592592592E-3</v>
       </c>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="22" t="s">
+      <c r="F130" s="23"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5904,15 +5902,15 @@
       <c r="E131" s="7">
         <v>1.6064814814814816E-2</v>
       </c>
-      <c r="F131" s="8">
+      <c r="F131" s="21">
         <f>SUM(E131:E152)</f>
         <v>0.20628472222222222</v>
       </c>
-      <c r="G131" s="8">
+      <c r="G131" s="21">
         <f>F131*1.5</f>
         <v>0.30942708333333335</v>
       </c>
-      <c r="H131" s="22" t="s">
+      <c r="H131" s="16" t="s">
         <v>499</v>
       </c>
     </row>
@@ -5932,9 +5930,9 @@
       <c r="E132" s="7">
         <v>1.0636574074074074E-2</v>
       </c>
-      <c r="F132" s="17"/>
-      <c r="G132" s="17"/>
-      <c r="H132" s="23" t="s">
+      <c r="F132" s="22"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="17" t="s">
         <v>500</v>
       </c>
     </row>
@@ -5954,9 +5952,9 @@
       <c r="E133" s="7">
         <v>8.067129629629629E-3</v>
       </c>
-      <c r="F133" s="17"/>
-      <c r="G133" s="17"/>
-      <c r="H133" s="22" t="s">
+      <c r="F133" s="22"/>
+      <c r="G133" s="22"/>
+      <c r="H133" s="16" t="s">
         <v>501</v>
       </c>
     </row>
@@ -5976,9 +5974,9 @@
       <c r="E134" s="7">
         <v>7.8935185185185185E-3</v>
       </c>
-      <c r="F134" s="17"/>
-      <c r="G134" s="17"/>
-      <c r="H134" s="23" t="s">
+      <c r="F134" s="22"/>
+      <c r="G134" s="22"/>
+      <c r="H134" s="17" t="s">
         <v>502</v>
       </c>
     </row>
@@ -5998,9 +5996,9 @@
       <c r="E135" s="7">
         <v>5.9143518518518521E-3</v>
       </c>
-      <c r="F135" s="17"/>
-      <c r="G135" s="17"/>
-      <c r="H135" s="22" t="s">
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="16" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6020,9 +6018,9 @@
       <c r="E136" s="7">
         <v>6.0416666666666665E-3</v>
       </c>
-      <c r="F136" s="17"/>
-      <c r="G136" s="17"/>
-      <c r="H136" s="23" t="s">
+      <c r="F136" s="22"/>
+      <c r="G136" s="22"/>
+      <c r="H136" s="17" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6042,9 +6040,9 @@
       <c r="E137" s="7">
         <v>2.4016203703703703E-2</v>
       </c>
-      <c r="F137" s="17"/>
-      <c r="G137" s="17"/>
-      <c r="H137" s="22" t="s">
+      <c r="F137" s="22"/>
+      <c r="G137" s="22"/>
+      <c r="H137" s="16" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6064,9 +6062,9 @@
       <c r="E138" s="7">
         <v>1.494212962962963E-2</v>
       </c>
-      <c r="F138" s="17"/>
-      <c r="G138" s="17"/>
-      <c r="H138" s="23" t="s">
+      <c r="F138" s="22"/>
+      <c r="G138" s="22"/>
+      <c r="H138" s="17" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6086,9 +6084,9 @@
       <c r="E139" s="7">
         <v>7.1412037037037034E-3</v>
       </c>
-      <c r="F139" s="17"/>
-      <c r="G139" s="17"/>
-      <c r="H139" s="22" t="s">
+      <c r="F139" s="22"/>
+      <c r="G139" s="22"/>
+      <c r="H139" s="16" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6108,9 +6106,9 @@
       <c r="E140" s="7">
         <v>5.5208333333333333E-3</v>
       </c>
-      <c r="F140" s="17"/>
-      <c r="G140" s="17"/>
-      <c r="H140" s="23" t="s">
+      <c r="F140" s="22"/>
+      <c r="G140" s="22"/>
+      <c r="H140" s="17" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6130,9 +6128,9 @@
       <c r="E141" s="7">
         <v>4.8842592592592592E-3</v>
       </c>
-      <c r="F141" s="17"/>
-      <c r="G141" s="17"/>
-      <c r="H141" s="22" t="s">
+      <c r="F141" s="22"/>
+      <c r="G141" s="22"/>
+      <c r="H141" s="16" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6152,9 +6150,9 @@
       <c r="E142" s="7">
         <v>1.0428240740740741E-2</v>
       </c>
-      <c r="F142" s="17"/>
-      <c r="G142" s="17"/>
-      <c r="H142" s="23" t="s">
+      <c r="F142" s="22"/>
+      <c r="G142" s="22"/>
+      <c r="H142" s="17" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6174,9 +6172,9 @@
       <c r="E143" s="7">
         <v>8.5995370370370375E-3</v>
       </c>
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
-      <c r="H143" s="22" t="s">
+      <c r="F143" s="22"/>
+      <c r="G143" s="22"/>
+      <c r="H143" s="16" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6196,9 +6194,9 @@
       <c r="E144" s="7">
         <v>7.6504629629629631E-3</v>
       </c>
-      <c r="F144" s="17"/>
-      <c r="G144" s="17"/>
-      <c r="H144" s="23" t="s">
+      <c r="F144" s="22"/>
+      <c r="G144" s="22"/>
+      <c r="H144" s="17" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6218,9 +6216,9 @@
       <c r="E145" s="7">
         <v>8.2754629629629636E-3</v>
       </c>
-      <c r="F145" s="17"/>
-      <c r="G145" s="17"/>
-      <c r="H145" s="22" t="s">
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
+      <c r="H145" s="16" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6240,9 +6238,9 @@
       <c r="E146" s="7">
         <v>1.7708333333333333E-2</v>
       </c>
-      <c r="F146" s="17"/>
-      <c r="G146" s="17"/>
-      <c r="H146" s="23" t="s">
+      <c r="F146" s="22"/>
+      <c r="G146" s="22"/>
+      <c r="H146" s="17" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6262,9 +6260,9 @@
       <c r="E147" s="7">
         <v>7.6273148148148151E-3</v>
       </c>
-      <c r="F147" s="17"/>
-      <c r="G147" s="17"/>
-      <c r="H147" s="22" t="s">
+      <c r="F147" s="22"/>
+      <c r="G147" s="22"/>
+      <c r="H147" s="16" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6284,9 +6282,9 @@
       <c r="E148" s="7">
         <v>4.0740740740740737E-3</v>
       </c>
-      <c r="F148" s="17"/>
-      <c r="G148" s="17"/>
-      <c r="H148" s="23" t="s">
+      <c r="F148" s="22"/>
+      <c r="G148" s="22"/>
+      <c r="H148" s="17" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6306,9 +6304,9 @@
       <c r="E149" s="7">
         <v>5.7291666666666663E-3</v>
       </c>
-      <c r="F149" s="17"/>
-      <c r="G149" s="17"/>
-      <c r="H149" s="22" t="s">
+      <c r="F149" s="22"/>
+      <c r="G149" s="22"/>
+      <c r="H149" s="16" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6328,9 +6326,9 @@
       <c r="E150" s="7">
         <v>6.1921296296296299E-3</v>
       </c>
-      <c r="F150" s="17"/>
-      <c r="G150" s="17"/>
-      <c r="H150" s="23" t="s">
+      <c r="F150" s="22"/>
+      <c r="G150" s="22"/>
+      <c r="H150" s="17" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6350,9 +6348,9 @@
       <c r="E151" s="7">
         <v>1.1724537037037037E-2</v>
       </c>
-      <c r="F151" s="17"/>
-      <c r="G151" s="17"/>
-      <c r="H151" s="22" t="s">
+      <c r="F151" s="22"/>
+      <c r="G151" s="22"/>
+      <c r="H151" s="16" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6372,499 +6370,499 @@
       <c r="E152" s="7">
         <v>7.1527777777777779E-3</v>
       </c>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
-      <c r="H152" s="23" t="s">
+      <c r="F152" s="23"/>
+      <c r="G152" s="23"/>
+      <c r="H152" s="17" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B153" s="10" t="s">
+      <c r="A153" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B153" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C153" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="D153" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E153" s="11">
+      <c r="E153" s="10">
         <v>1.1620370370370371E-2</v>
       </c>
-      <c r="F153" s="12">
+      <c r="F153" s="24">
         <f>SUM(E153:E174)</f>
         <v>0.19090277777777778</v>
       </c>
-      <c r="G153" s="12">
+      <c r="G153" s="24">
         <f>F153*1.5</f>
         <v>0.28635416666666669</v>
       </c>
-      <c r="H153" s="25" t="s">
+      <c r="H153" s="19" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B154" s="10" t="s">
+      <c r="A154" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B154" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="D154" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E154" s="11">
+      <c r="E154" s="10">
         <v>1.2534722222222221E-2</v>
       </c>
-      <c r="F154" s="20"/>
-      <c r="G154" s="20"/>
-      <c r="H154" s="26" t="s">
+      <c r="F154" s="25"/>
+      <c r="G154" s="25"/>
+      <c r="H154" s="20" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B155" s="10" t="s">
+      <c r="A155" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B155" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="C155" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="D155" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E155" s="11">
+      <c r="E155" s="10">
         <v>2.6817129629629628E-2</v>
       </c>
-      <c r="F155" s="20"/>
-      <c r="G155" s="20"/>
-      <c r="H155" s="26" t="s">
+      <c r="F155" s="25"/>
+      <c r="G155" s="25"/>
+      <c r="H155" s="20" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B156" s="10" t="s">
+      <c r="A156" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B156" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="D156" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E156" s="11">
+      <c r="E156" s="10">
         <v>1.1851851851851851E-2</v>
       </c>
-      <c r="F156" s="20"/>
-      <c r="G156" s="20"/>
-      <c r="H156" s="25" t="s">
+      <c r="F156" s="25"/>
+      <c r="G156" s="25"/>
+      <c r="H156" s="19" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B157" s="9" t="s">
+      <c r="A157" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B157" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C157" s="9" t="s">
+      <c r="C157" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="D157" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E157" s="11">
+      <c r="E157" s="10">
         <v>1.667824074074074E-2</v>
       </c>
-      <c r="F157" s="20"/>
-      <c r="G157" s="20"/>
-      <c r="H157" s="26" t="s">
+      <c r="F157" s="25"/>
+      <c r="G157" s="25"/>
+      <c r="H157" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B158" s="9" t="s">
+      <c r="A158" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B158" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C158" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="D158" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="E158" s="11">
+      <c r="E158" s="10">
         <v>1.7465277777777777E-2</v>
       </c>
-      <c r="F158" s="20"/>
-      <c r="G158" s="20"/>
-      <c r="H158" s="26" t="s">
+      <c r="F158" s="25"/>
+      <c r="G158" s="25"/>
+      <c r="H158" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B159" s="10" t="s">
+      <c r="A159" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B159" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C159" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D159" s="9" t="s">
+      <c r="D159" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="E159" s="13">
+      <c r="E159" s="11">
         <v>3.5995370370370369E-3</v>
       </c>
-      <c r="F159" s="20"/>
-      <c r="G159" s="20"/>
-      <c r="H159" s="25" t="s">
+      <c r="F159" s="25"/>
+      <c r="G159" s="25"/>
+      <c r="H159" s="19" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B160" s="10" t="s">
+      <c r="A160" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B160" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="C160" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D160" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E160" s="13">
+      <c r="E160" s="11">
         <v>2.0601851851851853E-3</v>
       </c>
-      <c r="F160" s="20"/>
-      <c r="G160" s="20"/>
-      <c r="H160" s="26" t="s">
+      <c r="F160" s="25"/>
+      <c r="G160" s="25"/>
+      <c r="H160" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B161" s="10" t="s">
+      <c r="A161" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B161" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C161" s="9" t="s">
+      <c r="C161" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E161" s="13">
+      <c r="E161" s="11">
         <v>2.1180555555555558E-3</v>
       </c>
-      <c r="F161" s="20"/>
-      <c r="G161" s="20"/>
-      <c r="H161" s="26" t="s">
+      <c r="F161" s="25"/>
+      <c r="G161" s="25"/>
+      <c r="H161" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B162" s="10" t="s">
+      <c r="A162" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B162" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C162" s="9" t="s">
+      <c r="C162" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="D162" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E162" s="13">
+      <c r="E162" s="11">
         <v>5.2430555555555555E-3</v>
       </c>
-      <c r="F162" s="20"/>
-      <c r="G162" s="20"/>
-      <c r="H162" s="25" t="s">
+      <c r="F162" s="25"/>
+      <c r="G162" s="25"/>
+      <c r="H162" s="19" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B163" s="10" t="s">
+      <c r="A163" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B163" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C163" s="9" t="s">
+      <c r="C163" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="D163" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E163" s="13">
+      <c r="E163" s="11">
         <v>5.4745370370370373E-3</v>
       </c>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="26" t="s">
+      <c r="F163" s="25"/>
+      <c r="G163" s="25"/>
+      <c r="H163" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B164" s="10" t="s">
+      <c r="A164" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B164" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C164" s="9" t="s">
+      <c r="C164" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="D164" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E164" s="13">
+      <c r="E164" s="11">
         <v>3.8888888888888888E-3</v>
       </c>
-      <c r="F164" s="20"/>
-      <c r="G164" s="20"/>
-      <c r="H164" s="26" t="s">
+      <c r="F164" s="25"/>
+      <c r="G164" s="25"/>
+      <c r="H164" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B165" s="10" t="s">
+      <c r="A165" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B165" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C165" s="10" t="s">
+      <c r="C165" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="D165" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="E165" s="13">
+      <c r="E165" s="11">
         <v>6.7361111111111111E-3</v>
       </c>
-      <c r="F165" s="20"/>
-      <c r="G165" s="20"/>
-      <c r="H165" s="25" t="s">
+      <c r="F165" s="25"/>
+      <c r="G165" s="25"/>
+      <c r="H165" s="19" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B166" s="10" t="s">
+      <c r="A166" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B166" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C166" s="10" t="s">
+      <c r="C166" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D166" s="9" t="s">
+      <c r="D166" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E166" s="13">
+      <c r="E166" s="11">
         <v>3.7962962962962963E-3</v>
       </c>
-      <c r="F166" s="20"/>
-      <c r="G166" s="20"/>
-      <c r="H166" s="26" t="s">
+      <c r="F166" s="25"/>
+      <c r="G166" s="25"/>
+      <c r="H166" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B167" s="10" t="s">
+      <c r="A167" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B167" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C167" s="10" t="s">
+      <c r="C167" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D167" s="9" t="s">
+      <c r="D167" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E167" s="13">
+      <c r="E167" s="11">
         <v>1.2210648148148148E-2</v>
       </c>
-      <c r="F167" s="20"/>
-      <c r="G167" s="20"/>
-      <c r="H167" s="26" t="s">
+      <c r="F167" s="25"/>
+      <c r="G167" s="25"/>
+      <c r="H167" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B168" s="10" t="s">
+      <c r="A168" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B168" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C168" s="10" t="s">
+      <c r="C168" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="D168" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E168" s="11">
+      <c r="E168" s="10">
         <v>3.3564814814814816E-3</v>
       </c>
-      <c r="F168" s="20"/>
-      <c r="G168" s="20"/>
-      <c r="H168" s="25" t="s">
+      <c r="F168" s="25"/>
+      <c r="G168" s="25"/>
+      <c r="H168" s="19" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B169" s="10" t="s">
+      <c r="A169" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B169" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C169" s="10" t="s">
+      <c r="C169" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="D169" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E169" s="13">
+      <c r="E169" s="11">
         <v>8.2638888888888883E-3</v>
       </c>
-      <c r="F169" s="20"/>
-      <c r="G169" s="20"/>
-      <c r="H169" s="26" t="s">
+      <c r="F169" s="25"/>
+      <c r="G169" s="25"/>
+      <c r="H169" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B170" s="10" t="s">
+      <c r="A170" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B170" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C170" s="10" t="s">
+      <c r="C170" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D170" s="9" t="s">
+      <c r="D170" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="E170" s="13">
+      <c r="E170" s="11">
         <v>1.40625E-2</v>
       </c>
-      <c r="F170" s="20"/>
-      <c r="G170" s="20"/>
-      <c r="H170" s="26" t="s">
+      <c r="F170" s="25"/>
+      <c r="G170" s="25"/>
+      <c r="H170" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B171" s="10" t="s">
+      <c r="A171" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B171" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C171" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D171" s="9" t="s">
+      <c r="D171" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="E171" s="13">
+      <c r="E171" s="11">
         <v>5.6365740740740742E-3</v>
       </c>
-      <c r="F171" s="20"/>
-      <c r="G171" s="20"/>
-      <c r="H171" s="25" t="s">
+      <c r="F171" s="25"/>
+      <c r="G171" s="25"/>
+      <c r="H171" s="19" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B172" s="10" t="s">
+      <c r="A172" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B172" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D172" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E172" s="13">
+      <c r="E172" s="11">
         <v>6.6087962962962966E-3</v>
       </c>
-      <c r="F172" s="20"/>
-      <c r="G172" s="20"/>
-      <c r="H172" s="26" t="s">
+      <c r="F172" s="25"/>
+      <c r="G172" s="25"/>
+      <c r="H172" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B173" s="10" t="s">
+      <c r="A173" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B173" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C173" s="10" t="s">
+      <c r="C173" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D173" s="9" t="s">
+      <c r="D173" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E173" s="13">
+      <c r="E173" s="11">
         <v>7.1064814814814819E-3</v>
       </c>
-      <c r="F173" s="20"/>
-      <c r="G173" s="20"/>
-      <c r="H173" s="26" t="s">
+      <c r="F173" s="25"/>
+      <c r="G173" s="25"/>
+      <c r="H173" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B174" s="10" t="s">
+      <c r="A174" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B174" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C174" s="10" t="s">
+      <c r="C174" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="D174" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E174" s="13">
+      <c r="E174" s="11">
         <v>3.7731481481481483E-3</v>
       </c>
-      <c r="F174" s="21"/>
-      <c r="G174" s="21"/>
-      <c r="H174" s="25" t="s">
+      <c r="F174" s="26"/>
+      <c r="G174" s="26"/>
+      <c r="H174" s="19" t="s">
         <v>505</v>
       </c>
     </row>
@@ -6881,18 +6879,18 @@
       <c r="D175" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E175" s="14">
+      <c r="E175" s="12">
         <v>4.8148148148148152E-3</v>
       </c>
-      <c r="F175" s="8">
+      <c r="F175" s="21">
         <f>SUM(E175:E192)</f>
         <v>8.7199074074074095E-2</v>
       </c>
-      <c r="G175" s="8">
+      <c r="G175" s="21">
         <f>F175*1.5</f>
         <v>0.13079861111111113</v>
       </c>
-      <c r="H175" s="22" t="s">
+      <c r="H175" s="16" t="s">
         <v>507</v>
       </c>
     </row>
@@ -6909,12 +6907,12 @@
       <c r="D176" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="E176" s="14">
+      <c r="E176" s="12">
         <v>3.7384259259259259E-3</v>
       </c>
-      <c r="F176" s="17"/>
-      <c r="G176" s="17"/>
-      <c r="H176" s="23" t="s">
+      <c r="F176" s="22"/>
+      <c r="G176" s="22"/>
+      <c r="H176" s="17" t="s">
         <v>508</v>
       </c>
     </row>
@@ -6931,12 +6929,12 @@
       <c r="D177" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E177" s="14">
+      <c r="E177" s="12">
         <v>4.4560185185185189E-3</v>
       </c>
-      <c r="F177" s="17"/>
-      <c r="G177" s="17"/>
-      <c r="H177" s="22" t="s">
+      <c r="F177" s="22"/>
+      <c r="G177" s="22"/>
+      <c r="H177" s="16" t="s">
         <v>509</v>
       </c>
     </row>
@@ -6953,12 +6951,12 @@
       <c r="D178" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E178" s="14">
+      <c r="E178" s="12">
         <v>5.9490740740740745E-3</v>
       </c>
-      <c r="F178" s="17"/>
-      <c r="G178" s="17"/>
-      <c r="H178" s="23" t="s">
+      <c r="F178" s="22"/>
+      <c r="G178" s="22"/>
+      <c r="H178" s="17" t="s">
         <v>510</v>
       </c>
     </row>
@@ -6975,12 +6973,12 @@
       <c r="D179" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E179" s="14">
+      <c r="E179" s="12">
         <v>1.1180555555555555E-2</v>
       </c>
-      <c r="F179" s="17"/>
-      <c r="G179" s="17"/>
-      <c r="H179" s="22" t="s">
+      <c r="F179" s="22"/>
+      <c r="G179" s="22"/>
+      <c r="H179" s="16" t="s">
         <v>509</v>
       </c>
     </row>
@@ -6997,12 +6995,12 @@
       <c r="D180" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E180" s="14">
+      <c r="E180" s="12">
         <v>4.0277777777777777E-3</v>
       </c>
-      <c r="F180" s="17"/>
-      <c r="G180" s="17"/>
-      <c r="H180" s="23" t="s">
+      <c r="F180" s="22"/>
+      <c r="G180" s="22"/>
+      <c r="H180" s="17" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7019,12 +7017,12 @@
       <c r="D181" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E181" s="14">
+      <c r="E181" s="12">
         <v>5.5671296296296293E-3</v>
       </c>
-      <c r="F181" s="17"/>
-      <c r="G181" s="17"/>
-      <c r="H181" s="22" t="s">
+      <c r="F181" s="22"/>
+      <c r="G181" s="22"/>
+      <c r="H181" s="16" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7041,12 +7039,12 @@
       <c r="D182" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E182" s="14">
+      <c r="E182" s="12">
         <v>3.1828703703703702E-3</v>
       </c>
-      <c r="F182" s="17"/>
-      <c r="G182" s="17"/>
-      <c r="H182" s="23" t="s">
+      <c r="F182" s="22"/>
+      <c r="G182" s="22"/>
+      <c r="H182" s="17" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7063,12 +7061,12 @@
       <c r="D183" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E183" s="14">
+      <c r="E183" s="12">
         <v>5.3935185185185188E-3</v>
       </c>
-      <c r="F183" s="17"/>
-      <c r="G183" s="17"/>
-      <c r="H183" s="22" t="s">
+      <c r="F183" s="22"/>
+      <c r="G183" s="22"/>
+      <c r="H183" s="16" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7085,12 +7083,12 @@
       <c r="D184" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E184" s="14">
+      <c r="E184" s="12">
         <v>2.3148148148148147E-3</v>
       </c>
-      <c r="F184" s="17"/>
-      <c r="G184" s="17"/>
-      <c r="H184" s="23" t="s">
+      <c r="F184" s="22"/>
+      <c r="G184" s="22"/>
+      <c r="H184" s="17" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7107,12 +7105,12 @@
       <c r="D185" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="E185" s="14">
+      <c r="E185" s="12">
         <v>4.3981481481481484E-3</v>
       </c>
-      <c r="F185" s="17"/>
-      <c r="G185" s="17"/>
-      <c r="H185" s="22" t="s">
+      <c r="F185" s="22"/>
+      <c r="G185" s="22"/>
+      <c r="H185" s="16" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7129,12 +7127,12 @@
       <c r="D186" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E186" s="14">
+      <c r="E186" s="12">
         <v>3.2060185185185186E-3</v>
       </c>
-      <c r="F186" s="17"/>
-      <c r="G186" s="17"/>
-      <c r="H186" s="23" t="s">
+      <c r="F186" s="22"/>
+      <c r="G186" s="22"/>
+      <c r="H186" s="17" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7151,12 +7149,12 @@
       <c r="D187" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E187" s="14">
+      <c r="E187" s="12">
         <v>2.4074074074074076E-3</v>
       </c>
-      <c r="F187" s="17"/>
-      <c r="G187" s="17"/>
-      <c r="H187" s="22" t="s">
+      <c r="F187" s="22"/>
+      <c r="G187" s="22"/>
+      <c r="H187" s="16" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7173,12 +7171,12 @@
       <c r="D188" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E188" s="14">
+      <c r="E188" s="12">
         <v>5.6712962962962967E-3</v>
       </c>
-      <c r="F188" s="17"/>
-      <c r="G188" s="17"/>
-      <c r="H188" s="23" t="s">
+      <c r="F188" s="22"/>
+      <c r="G188" s="22"/>
+      <c r="H188" s="17" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7195,12 +7193,12 @@
       <c r="D189" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E189" s="14">
+      <c r="E189" s="12">
         <v>5.7754629629629631E-3</v>
       </c>
-      <c r="F189" s="17"/>
-      <c r="G189" s="17"/>
-      <c r="H189" s="22" t="s">
+      <c r="F189" s="22"/>
+      <c r="G189" s="22"/>
+      <c r="H189" s="16" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7217,12 +7215,12 @@
       <c r="D190" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E190" s="14">
+      <c r="E190" s="12">
         <v>3.4953703703703705E-3</v>
       </c>
-      <c r="F190" s="17"/>
-      <c r="G190" s="17"/>
-      <c r="H190" s="23" t="s">
+      <c r="F190" s="22"/>
+      <c r="G190" s="22"/>
+      <c r="H190" s="17" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7239,12 +7237,12 @@
       <c r="D191" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E191" s="14">
+      <c r="E191" s="12">
         <v>5.9259259259259256E-3</v>
       </c>
-      <c r="F191" s="17"/>
-      <c r="G191" s="17"/>
-      <c r="H191" s="22" t="s">
+      <c r="F191" s="22"/>
+      <c r="G191" s="22"/>
+      <c r="H191" s="16" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7258,15 +7256,15 @@
       <c r="C192" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D192" s="15" t="s">
+      <c r="D192" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="E192" s="16">
+      <c r="E192" s="14">
         <v>5.6944444444444447E-3</v>
       </c>
-      <c r="F192" s="19"/>
-      <c r="G192" s="19"/>
-      <c r="H192" s="23" t="s">
+      <c r="F192" s="23"/>
+      <c r="G192" s="23"/>
+      <c r="H192" s="17" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7280,21 +7278,21 @@
       <c r="C193" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D193" s="15" t="s">
+      <c r="D193" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="E193" s="16">
+      <c r="E193" s="14">
         <v>3.4027777777777776E-3</v>
       </c>
-      <c r="F193" s="8">
+      <c r="F193" s="21">
         <f>SUM(E193:E208)</f>
         <v>0.18383101851851852</v>
       </c>
-      <c r="G193" s="8">
+      <c r="G193" s="21">
         <f>F193*1.5</f>
         <v>0.27574652777777775</v>
       </c>
-      <c r="H193" s="22" t="s">
+      <c r="H193" s="16" t="s">
         <v>511</v>
       </c>
     </row>
@@ -7308,15 +7306,15 @@
       <c r="C194" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D194" s="15" t="s">
+      <c r="D194" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="E194" s="16">
+      <c r="E194" s="14">
         <v>2.9513888888888888E-3</v>
       </c>
-      <c r="F194" s="17"/>
-      <c r="G194" s="17"/>
-      <c r="H194" s="23" t="s">
+      <c r="F194" s="22"/>
+      <c r="G194" s="22"/>
+      <c r="H194" s="17" t="s">
         <v>512</v>
       </c>
     </row>
@@ -7330,15 +7328,15 @@
       <c r="C195" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D195" s="15" t="s">
+      <c r="D195" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="E195" s="16">
+      <c r="E195" s="14">
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="F195" s="17"/>
-      <c r="G195" s="17"/>
-      <c r="H195" s="22" t="s">
+      <c r="F195" s="22"/>
+      <c r="G195" s="22"/>
+      <c r="H195" s="16" t="s">
         <v>513</v>
       </c>
     </row>
@@ -7352,15 +7350,15 @@
       <c r="C196" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D196" s="15" t="s">
+      <c r="D196" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E196" s="16">
+      <c r="E196" s="14">
         <v>3.6574074074074074E-3</v>
       </c>
-      <c r="F196" s="17"/>
-      <c r="G196" s="17"/>
-      <c r="H196" s="23" t="s">
+      <c r="F196" s="22"/>
+      <c r="G196" s="22"/>
+      <c r="H196" s="17" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7374,15 +7372,15 @@
       <c r="C197" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D197" s="15" t="s">
+      <c r="D197" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="E197" s="16">
+      <c r="E197" s="14">
         <v>3.1712962962962962E-3</v>
       </c>
-      <c r="F197" s="17"/>
-      <c r="G197" s="17"/>
-      <c r="H197" s="22" t="s">
+      <c r="F197" s="22"/>
+      <c r="G197" s="22"/>
+      <c r="H197" s="16" t="s">
         <v>513</v>
       </c>
     </row>
@@ -7396,15 +7394,15 @@
       <c r="C198" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D198" s="15" t="s">
+      <c r="D198" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="E198" s="16">
+      <c r="E198" s="14">
         <v>2.8703703703703703E-3</v>
       </c>
-      <c r="F198" s="17"/>
-      <c r="G198" s="17"/>
-      <c r="H198" s="23" t="s">
+      <c r="F198" s="22"/>
+      <c r="G198" s="22"/>
+      <c r="H198" s="17" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7418,15 +7416,15 @@
       <c r="C199" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D199" s="15" t="s">
+      <c r="D199" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="E199" s="16">
+      <c r="E199" s="14">
         <v>5.2777777777777779E-3</v>
       </c>
-      <c r="F199" s="17"/>
-      <c r="G199" s="17"/>
-      <c r="H199" s="22" t="s">
+      <c r="F199" s="22"/>
+      <c r="G199" s="22"/>
+      <c r="H199" s="16" t="s">
         <v>513</v>
       </c>
     </row>
@@ -7440,15 +7438,15 @@
       <c r="C200" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D200" s="15" t="s">
+      <c r="D200" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E200" s="16">
+      <c r="E200" s="14">
         <v>3.7268518518518519E-3</v>
       </c>
-      <c r="F200" s="17"/>
-      <c r="G200" s="17"/>
-      <c r="H200" s="23" t="s">
+      <c r="F200" s="22"/>
+      <c r="G200" s="22"/>
+      <c r="H200" s="17" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7462,15 +7460,15 @@
       <c r="C201" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D201" s="15" t="s">
+      <c r="D201" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="E201" s="16">
+      <c r="E201" s="14">
         <v>2.8240740740740739E-3</v>
       </c>
-      <c r="F201" s="17"/>
-      <c r="G201" s="17"/>
-      <c r="H201" s="22" t="s">
+      <c r="F201" s="22"/>
+      <c r="G201" s="22"/>
+      <c r="H201" s="16" t="s">
         <v>513</v>
       </c>
     </row>
@@ -7484,15 +7482,15 @@
       <c r="C202" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D202" s="15" t="s">
+      <c r="D202" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="E202" s="16">
+      <c r="E202" s="14">
         <v>1.556712962962963E-2</v>
       </c>
-      <c r="F202" s="17"/>
-      <c r="G202" s="17"/>
-      <c r="H202" s="23" t="s">
+      <c r="F202" s="22"/>
+      <c r="G202" s="22"/>
+      <c r="H202" s="17" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7506,15 +7504,15 @@
       <c r="C203" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D203" s="15" t="s">
+      <c r="D203" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="E203" s="16">
+      <c r="E203" s="14">
         <v>1.6064814814814816E-2</v>
       </c>
-      <c r="F203" s="17"/>
-      <c r="G203" s="17"/>
-      <c r="H203" s="22" t="s">
+      <c r="F203" s="22"/>
+      <c r="G203" s="22"/>
+      <c r="H203" s="16" t="s">
         <v>513</v>
       </c>
     </row>
@@ -7528,15 +7526,15 @@
       <c r="C204" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D204" s="15" t="s">
+      <c r="D204" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="E204" s="16">
+      <c r="E204" s="14">
         <v>1.5196759259259259E-2</v>
       </c>
-      <c r="F204" s="17"/>
-      <c r="G204" s="17"/>
-      <c r="H204" s="23" t="s">
+      <c r="F204" s="22"/>
+      <c r="G204" s="22"/>
+      <c r="H204" s="17" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7550,15 +7548,15 @@
       <c r="C205" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D205" s="15" t="s">
+      <c r="D205" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E205" s="16">
+      <c r="E205" s="14">
         <v>1.8703703703703705E-2</v>
       </c>
-      <c r="F205" s="17"/>
-      <c r="G205" s="17"/>
-      <c r="H205" s="22" t="s">
+      <c r="F205" s="22"/>
+      <c r="G205" s="22"/>
+      <c r="H205" s="16" t="s">
         <v>513</v>
       </c>
     </row>
@@ -7572,15 +7570,15 @@
       <c r="C206" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D206" s="15" t="s">
+      <c r="D206" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="E206" s="16">
+      <c r="E206" s="14">
         <v>3.0740740740740742E-2</v>
       </c>
-      <c r="F206" s="17"/>
-      <c r="G206" s="17"/>
-      <c r="H206" s="23" t="s">
+      <c r="F206" s="22"/>
+      <c r="G206" s="22"/>
+      <c r="H206" s="17" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7594,15 +7592,15 @@
       <c r="C207" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D207" s="15" t="s">
+      <c r="D207" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="E207" s="16">
+      <c r="E207" s="14">
         <v>2.3090277777777779E-2</v>
       </c>
-      <c r="F207" s="17"/>
-      <c r="G207" s="17"/>
-      <c r="H207" s="22" t="s">
+      <c r="F207" s="22"/>
+      <c r="G207" s="22"/>
+      <c r="H207" s="16" t="s">
         <v>513</v>
       </c>
     </row>
@@ -7616,15 +7614,15 @@
       <c r="C208" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D208" s="15" t="s">
+      <c r="D208" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="E208" s="16">
+      <c r="E208" s="14">
         <v>3.366898148148148E-2</v>
       </c>
-      <c r="F208" s="19"/>
-      <c r="G208" s="19"/>
-      <c r="H208" s="23" t="s">
+      <c r="F208" s="23"/>
+      <c r="G208" s="23"/>
+      <c r="H208" s="17" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7641,18 +7639,18 @@
       <c r="D209" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E209" s="14">
+      <c r="E209" s="12">
         <v>4.6504629629629632E-2</v>
       </c>
-      <c r="F209" s="8">
+      <c r="F209" s="21">
         <f>SUM(E209:E231)</f>
         <v>0.11291666666666661</v>
       </c>
-      <c r="G209" s="8">
+      <c r="G209" s="21">
         <f>F209*1.5</f>
         <v>0.16937499999999991</v>
       </c>
-      <c r="H209" s="22" t="s">
+      <c r="H209" s="16" t="s">
         <v>515</v>
       </c>
     </row>
@@ -7669,12 +7667,12 @@
       <c r="D210" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="E210" s="14">
+      <c r="E210" s="12">
         <v>2.8356481481481483E-3</v>
       </c>
-      <c r="F210" s="17"/>
-      <c r="G210" s="17"/>
-      <c r="H210" s="23" t="s">
+      <c r="F210" s="22"/>
+      <c r="G210" s="22"/>
+      <c r="H210" s="17" t="s">
         <v>516</v>
       </c>
     </row>
@@ -7691,12 +7689,12 @@
       <c r="D211" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="E211" s="14">
+      <c r="E211" s="12">
         <v>4.31712962962963E-3</v>
       </c>
-      <c r="F211" s="17"/>
-      <c r="G211" s="17"/>
-      <c r="H211" s="22" t="s">
+      <c r="F211" s="22"/>
+      <c r="G211" s="22"/>
+      <c r="H211" s="16" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7713,12 +7711,12 @@
       <c r="D212" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="E212" s="14">
+      <c r="E212" s="12">
         <v>4.8032407407407407E-3</v>
       </c>
-      <c r="F212" s="17"/>
-      <c r="G212" s="17"/>
-      <c r="H212" s="23" t="s">
+      <c r="F212" s="22"/>
+      <c r="G212" s="22"/>
+      <c r="H212" s="17" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7735,12 +7733,12 @@
       <c r="D213" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="E213" s="14">
+      <c r="E213" s="12">
         <v>5.2199074074074075E-3</v>
       </c>
-      <c r="F213" s="17"/>
-      <c r="G213" s="17"/>
-      <c r="H213" s="22" t="s">
+      <c r="F213" s="22"/>
+      <c r="G213" s="22"/>
+      <c r="H213" s="16" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7757,12 +7755,12 @@
       <c r="D214" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E214" s="14">
+      <c r="E214" s="12">
         <v>3.5879629629629629E-3</v>
       </c>
-      <c r="F214" s="17"/>
-      <c r="G214" s="17"/>
-      <c r="H214" s="23" t="s">
+      <c r="F214" s="22"/>
+      <c r="G214" s="22"/>
+      <c r="H214" s="17" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7779,12 +7777,12 @@
       <c r="D215" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="E215" s="14">
+      <c r="E215" s="12">
         <v>1.8402777777777777E-3</v>
       </c>
-      <c r="F215" s="17"/>
-      <c r="G215" s="17"/>
-      <c r="H215" s="22" t="s">
+      <c r="F215" s="22"/>
+      <c r="G215" s="22"/>
+      <c r="H215" s="16" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7801,12 +7799,12 @@
       <c r="D216" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="E216" s="14">
+      <c r="E216" s="12">
         <v>3.0902777777777777E-3</v>
       </c>
-      <c r="F216" s="17"/>
-      <c r="G216" s="17"/>
-      <c r="H216" s="23" t="s">
+      <c r="F216" s="22"/>
+      <c r="G216" s="22"/>
+      <c r="H216" s="17" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7823,12 +7821,12 @@
       <c r="D217" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="E217" s="14">
+      <c r="E217" s="12">
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="F217" s="17"/>
-      <c r="G217" s="17"/>
-      <c r="H217" s="22" t="s">
+      <c r="F217" s="22"/>
+      <c r="G217" s="22"/>
+      <c r="H217" s="16" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7845,12 +7843,12 @@
       <c r="D218" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="E218" s="14">
+      <c r="E218" s="12">
         <v>2.9861111111111113E-3</v>
       </c>
-      <c r="F218" s="17"/>
-      <c r="G218" s="17"/>
-      <c r="H218" s="23" t="s">
+      <c r="F218" s="22"/>
+      <c r="G218" s="22"/>
+      <c r="H218" s="17" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7867,12 +7865,12 @@
       <c r="D219" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="E219" s="14">
+      <c r="E219" s="12">
         <v>5.6365740740740742E-3</v>
       </c>
-      <c r="F219" s="17"/>
-      <c r="G219" s="17"/>
-      <c r="H219" s="22" t="s">
+      <c r="F219" s="22"/>
+      <c r="G219" s="22"/>
+      <c r="H219" s="16" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7889,12 +7887,12 @@
       <c r="D220" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="E220" s="14">
+      <c r="E220" s="12">
         <v>5.8796296296296296E-3</v>
       </c>
-      <c r="F220" s="17"/>
-      <c r="G220" s="17"/>
-      <c r="H220" s="23" t="s">
+      <c r="F220" s="22"/>
+      <c r="G220" s="22"/>
+      <c r="H220" s="17" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7911,12 +7909,12 @@
       <c r="D221" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="E221" s="14">
+      <c r="E221" s="12">
         <v>2.4189814814814816E-3</v>
       </c>
-      <c r="F221" s="17"/>
-      <c r="G221" s="17"/>
-      <c r="H221" s="22" t="s">
+      <c r="F221" s="22"/>
+      <c r="G221" s="22"/>
+      <c r="H221" s="16" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7933,12 +7931,12 @@
       <c r="D222" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="E222" s="14">
+      <c r="E222" s="12">
         <v>1.6898148148148148E-3</v>
       </c>
-      <c r="F222" s="17"/>
-      <c r="G222" s="17"/>
-      <c r="H222" s="23" t="s">
+      <c r="F222" s="22"/>
+      <c r="G222" s="22"/>
+      <c r="H222" s="17" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7955,12 +7953,12 @@
       <c r="D223" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="E223" s="14">
+      <c r="E223" s="12">
         <v>1.3657407407407407E-3</v>
       </c>
-      <c r="F223" s="17"/>
-      <c r="G223" s="17"/>
-      <c r="H223" s="22" t="s">
+      <c r="F223" s="22"/>
+      <c r="G223" s="22"/>
+      <c r="H223" s="16" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7977,12 +7975,12 @@
       <c r="D224" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="E224" s="14">
+      <c r="E224" s="12">
         <v>1.5972222222222223E-3</v>
       </c>
-      <c r="F224" s="17"/>
-      <c r="G224" s="17"/>
-      <c r="H224" s="23" t="s">
+      <c r="F224" s="22"/>
+      <c r="G224" s="22"/>
+      <c r="H224" s="17" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7999,12 +7997,12 @@
       <c r="D225" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="E225" s="14">
+      <c r="E225" s="12">
         <v>2.1412037037037038E-3</v>
       </c>
-      <c r="F225" s="17"/>
-      <c r="G225" s="17"/>
-      <c r="H225" s="22" t="s">
+      <c r="F225" s="22"/>
+      <c r="G225" s="22"/>
+      <c r="H225" s="16" t="s">
         <v>517</v>
       </c>
     </row>
@@ -8021,12 +8019,12 @@
       <c r="D226" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="E226" s="14">
+      <c r="E226" s="12">
         <v>1.8634259259259259E-3</v>
       </c>
-      <c r="F226" s="17"/>
-      <c r="G226" s="17"/>
-      <c r="H226" s="23" t="s">
+      <c r="F226" s="22"/>
+      <c r="G226" s="22"/>
+      <c r="H226" s="17" t="s">
         <v>518</v>
       </c>
     </row>
@@ -8043,12 +8041,12 @@
       <c r="D227" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="E227" s="14">
+      <c r="E227" s="12">
         <v>1.3425925925925925E-3</v>
       </c>
-      <c r="F227" s="17"/>
-      <c r="G227" s="17"/>
-      <c r="H227" s="22" t="s">
+      <c r="F227" s="22"/>
+      <c r="G227" s="22"/>
+      <c r="H227" s="16" t="s">
         <v>517</v>
       </c>
     </row>
@@ -8065,12 +8063,12 @@
       <c r="D228" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="E228" s="14">
+      <c r="E228" s="12">
         <v>2.2916666666666667E-3</v>
       </c>
-      <c r="F228" s="17"/>
-      <c r="G228" s="17"/>
-      <c r="H228" s="23" t="s">
+      <c r="F228" s="22"/>
+      <c r="G228" s="22"/>
+      <c r="H228" s="17" t="s">
         <v>518</v>
       </c>
     </row>
@@ -8087,12 +8085,12 @@
       <c r="D229" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="E229" s="14">
+      <c r="E229" s="12">
         <v>2.2916666666666667E-3</v>
       </c>
-      <c r="F229" s="17"/>
-      <c r="G229" s="17"/>
-      <c r="H229" s="22" t="s">
+      <c r="F229" s="22"/>
+      <c r="G229" s="22"/>
+      <c r="H229" s="16" t="s">
         <v>517</v>
       </c>
     </row>
@@ -8109,12 +8107,12 @@
       <c r="D230" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E230" s="14">
+      <c r="E230" s="12">
         <v>3.1712962962962962E-3</v>
       </c>
-      <c r="F230" s="17"/>
-      <c r="G230" s="17"/>
-      <c r="H230" s="23" t="s">
+      <c r="F230" s="22"/>
+      <c r="G230" s="22"/>
+      <c r="H230" s="17" t="s">
         <v>518</v>
       </c>
     </row>
@@ -8131,12 +8129,12 @@
       <c r="D231" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="E231" s="14">
+      <c r="E231" s="12">
         <v>2.7083333333333334E-3</v>
       </c>
-      <c r="F231" s="19"/>
-      <c r="G231" s="19"/>
-      <c r="H231" s="24" t="s">
+      <c r="F231" s="23"/>
+      <c r="G231" s="23"/>
+      <c r="H231" s="18" t="s">
         <v>476</v>
       </c>
     </row>
@@ -8153,18 +8151,18 @@
       <c r="D232" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="E232" s="14">
+      <c r="E232" s="12">
         <v>4.7916666666666663E-3</v>
       </c>
-      <c r="F232" s="8">
+      <c r="F232" s="21">
         <f>SUM(E232:E264)</f>
         <v>0.18623842592592593</v>
       </c>
-      <c r="G232" s="8">
+      <c r="G232" s="21">
         <f>F232*1.5</f>
         <v>0.27935763888888887</v>
       </c>
-      <c r="H232" s="22" t="s">
+      <c r="H232" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8181,12 +8179,12 @@
       <c r="D233" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="E233" s="14">
+      <c r="E233" s="12">
         <v>4.6643518518518518E-3</v>
       </c>
-      <c r="F233" s="17"/>
-      <c r="G233" s="17"/>
-      <c r="H233" s="22" t="s">
+      <c r="F233" s="22"/>
+      <c r="G233" s="22"/>
+      <c r="H233" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8203,12 +8201,12 @@
       <c r="D234" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="E234" s="14">
+      <c r="E234" s="12">
         <v>4.9421296296296297E-3</v>
       </c>
-      <c r="F234" s="17"/>
-      <c r="G234" s="17"/>
-      <c r="H234" s="22" t="s">
+      <c r="F234" s="22"/>
+      <c r="G234" s="22"/>
+      <c r="H234" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8225,12 +8223,12 @@
       <c r="D235" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="E235" s="14">
+      <c r="E235" s="12">
         <v>3.7962962962962963E-3</v>
       </c>
-      <c r="F235" s="17"/>
-      <c r="G235" s="17"/>
-      <c r="H235" s="22" t="s">
+      <c r="F235" s="22"/>
+      <c r="G235" s="22"/>
+      <c r="H235" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8247,12 +8245,12 @@
       <c r="D236" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="E236" s="14">
+      <c r="E236" s="12">
         <v>5.4166666666666669E-3</v>
       </c>
-      <c r="F236" s="17"/>
-      <c r="G236" s="17"/>
-      <c r="H236" s="22" t="s">
+      <c r="F236" s="22"/>
+      <c r="G236" s="22"/>
+      <c r="H236" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8269,12 +8267,12 @@
       <c r="D237" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E237" s="14">
+      <c r="E237" s="12">
         <v>6.1805555555555555E-3</v>
       </c>
-      <c r="F237" s="17"/>
-      <c r="G237" s="17"/>
-      <c r="H237" s="22" t="s">
+      <c r="F237" s="22"/>
+      <c r="G237" s="22"/>
+      <c r="H237" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8291,12 +8289,12 @@
       <c r="D238" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="E238" s="14">
+      <c r="E238" s="12">
         <v>2.7199074074074074E-3</v>
       </c>
-      <c r="F238" s="17"/>
-      <c r="G238" s="17"/>
-      <c r="H238" s="22" t="s">
+      <c r="F238" s="22"/>
+      <c r="G238" s="22"/>
+      <c r="H238" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8313,12 +8311,12 @@
       <c r="D239" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="E239" s="14">
+      <c r="E239" s="12">
         <v>4.2592592592592595E-3</v>
       </c>
-      <c r="F239" s="17"/>
-      <c r="G239" s="17"/>
-      <c r="H239" s="22" t="s">
+      <c r="F239" s="22"/>
+      <c r="G239" s="22"/>
+      <c r="H239" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8335,12 +8333,12 @@
       <c r="D240" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="E240" s="14">
+      <c r="E240" s="12">
         <v>2.9976851851851853E-3</v>
       </c>
-      <c r="F240" s="17"/>
-      <c r="G240" s="17"/>
-      <c r="H240" s="22" t="s">
+      <c r="F240" s="22"/>
+      <c r="G240" s="22"/>
+      <c r="H240" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8357,12 +8355,12 @@
       <c r="D241" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E241" s="14">
+      <c r="E241" s="12">
         <v>3.8078703703703703E-3</v>
       </c>
-      <c r="F241" s="17"/>
-      <c r="G241" s="17"/>
-      <c r="H241" s="22" t="s">
+      <c r="F241" s="22"/>
+      <c r="G241" s="22"/>
+      <c r="H241" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8379,12 +8377,12 @@
       <c r="D242" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="E242" s="14">
+      <c r="E242" s="12">
         <v>3.7152777777777778E-3</v>
       </c>
-      <c r="F242" s="17"/>
-      <c r="G242" s="17"/>
-      <c r="H242" s="22" t="s">
+      <c r="F242" s="22"/>
+      <c r="G242" s="22"/>
+      <c r="H242" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8401,12 +8399,12 @@
       <c r="D243" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="E243" s="14">
+      <c r="E243" s="12">
         <v>5.6249999999999998E-3</v>
       </c>
-      <c r="F243" s="17"/>
-      <c r="G243" s="17"/>
-      <c r="H243" s="22" t="s">
+      <c r="F243" s="22"/>
+      <c r="G243" s="22"/>
+      <c r="H243" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8423,12 +8421,12 @@
       <c r="D244" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="E244" s="14">
+      <c r="E244" s="12">
         <v>3.7731481481481483E-3</v>
       </c>
-      <c r="F244" s="17"/>
-      <c r="G244" s="17"/>
-      <c r="H244" s="22" t="s">
+      <c r="F244" s="22"/>
+      <c r="G244" s="22"/>
+      <c r="H244" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8445,12 +8443,12 @@
       <c r="D245" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="E245" s="14">
+      <c r="E245" s="12">
         <v>3.7615740740740739E-3</v>
       </c>
-      <c r="F245" s="17"/>
-      <c r="G245" s="17"/>
-      <c r="H245" s="22" t="s">
+      <c r="F245" s="22"/>
+      <c r="G245" s="22"/>
+      <c r="H245" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8467,12 +8465,12 @@
       <c r="D246" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="E246" s="14">
+      <c r="E246" s="12">
         <v>5.8333333333333336E-3</v>
       </c>
-      <c r="F246" s="17"/>
-      <c r="G246" s="17"/>
-      <c r="H246" s="22" t="s">
+      <c r="F246" s="22"/>
+      <c r="G246" s="22"/>
+      <c r="H246" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8489,12 +8487,12 @@
       <c r="D247" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="E247" s="14">
+      <c r="E247" s="12">
         <v>5.2430555555555555E-3</v>
       </c>
-      <c r="F247" s="17"/>
-      <c r="G247" s="17"/>
-      <c r="H247" s="22" t="s">
+      <c r="F247" s="22"/>
+      <c r="G247" s="22"/>
+      <c r="H247" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8511,12 +8509,12 @@
       <c r="D248" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="E248" s="14">
+      <c r="E248" s="12">
         <v>4.3518518518518515E-3</v>
       </c>
-      <c r="F248" s="17"/>
-      <c r="G248" s="17"/>
-      <c r="H248" s="22" t="s">
+      <c r="F248" s="22"/>
+      <c r="G248" s="22"/>
+      <c r="H248" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8533,12 +8531,12 @@
       <c r="D249" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="E249" s="14">
+      <c r="E249" s="12">
         <v>6.5856481481481478E-3</v>
       </c>
-      <c r="F249" s="17"/>
-      <c r="G249" s="17"/>
-      <c r="H249" s="22" t="s">
+      <c r="F249" s="22"/>
+      <c r="G249" s="22"/>
+      <c r="H249" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8555,12 +8553,12 @@
       <c r="D250" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="E250" s="14">
+      <c r="E250" s="12">
         <v>4.386574074074074E-3</v>
       </c>
-      <c r="F250" s="17"/>
-      <c r="G250" s="17"/>
-      <c r="H250" s="22" t="s">
+      <c r="F250" s="22"/>
+      <c r="G250" s="22"/>
+      <c r="H250" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8577,12 +8575,12 @@
       <c r="D251" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="E251" s="14">
+      <c r="E251" s="12">
         <v>3.1365740740740742E-3</v>
       </c>
-      <c r="F251" s="17"/>
-      <c r="G251" s="17"/>
-      <c r="H251" s="22" t="s">
+      <c r="F251" s="22"/>
+      <c r="G251" s="22"/>
+      <c r="H251" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8599,12 +8597,12 @@
       <c r="D252" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="E252" s="14">
+      <c r="E252" s="12">
         <v>5.0231481481481481E-3</v>
       </c>
-      <c r="F252" s="17"/>
-      <c r="G252" s="17"/>
-      <c r="H252" s="22" t="s">
+      <c r="F252" s="22"/>
+      <c r="G252" s="22"/>
+      <c r="H252" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8621,12 +8619,12 @@
       <c r="D253" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="E253" s="14">
+      <c r="E253" s="12">
         <v>4.0509259259259257E-3</v>
       </c>
-      <c r="F253" s="17"/>
-      <c r="G253" s="17"/>
-      <c r="H253" s="22" t="s">
+      <c r="F253" s="22"/>
+      <c r="G253" s="22"/>
+      <c r="H253" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8643,12 +8641,12 @@
       <c r="D254" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="E254" s="14">
+      <c r="E254" s="12">
         <v>6.145833333333333E-3</v>
       </c>
-      <c r="F254" s="17"/>
-      <c r="G254" s="17"/>
-      <c r="H254" s="22" t="s">
+      <c r="F254" s="22"/>
+      <c r="G254" s="22"/>
+      <c r="H254" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8665,12 +8663,12 @@
       <c r="D255" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="E255" s="14">
+      <c r="E255" s="12">
         <v>4.6064814814814814E-3</v>
       </c>
-      <c r="F255" s="17"/>
-      <c r="G255" s="17"/>
-      <c r="H255" s="22" t="s">
+      <c r="F255" s="22"/>
+      <c r="G255" s="22"/>
+      <c r="H255" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8687,12 +8685,12 @@
       <c r="D256" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="E256" s="14">
+      <c r="E256" s="12">
         <v>7.6851851851851855E-3</v>
       </c>
-      <c r="F256" s="17"/>
-      <c r="G256" s="17"/>
-      <c r="H256" s="22" t="s">
+      <c r="F256" s="22"/>
+      <c r="G256" s="22"/>
+      <c r="H256" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8709,12 +8707,12 @@
       <c r="D257" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E257" s="14">
+      <c r="E257" s="12">
         <v>5.8333333333333336E-3</v>
       </c>
-      <c r="F257" s="17"/>
-      <c r="G257" s="17"/>
-      <c r="H257" s="22" t="s">
+      <c r="F257" s="22"/>
+      <c r="G257" s="22"/>
+      <c r="H257" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8731,12 +8729,12 @@
       <c r="D258" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E258" s="14">
+      <c r="E258" s="12">
         <v>9.432870370370371E-3</v>
       </c>
-      <c r="F258" s="17"/>
-      <c r="G258" s="17"/>
-      <c r="H258" s="22" t="s">
+      <c r="F258" s="22"/>
+      <c r="G258" s="22"/>
+      <c r="H258" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8753,12 +8751,12 @@
       <c r="D259" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E259" s="14">
+      <c r="E259" s="12">
         <v>6.5393518518518517E-3</v>
       </c>
-      <c r="F259" s="17"/>
-      <c r="G259" s="17"/>
-      <c r="H259" s="22" t="s">
+      <c r="F259" s="22"/>
+      <c r="G259" s="22"/>
+      <c r="H259" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8775,12 +8773,12 @@
       <c r="D260" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="E260" s="14">
+      <c r="E260" s="12">
         <v>6.3541666666666668E-3</v>
       </c>
-      <c r="F260" s="17"/>
-      <c r="G260" s="17"/>
-      <c r="H260" s="22" t="s">
+      <c r="F260" s="22"/>
+      <c r="G260" s="22"/>
+      <c r="H260" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8797,12 +8795,12 @@
       <c r="D261" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E261" s="14">
+      <c r="E261" s="12">
         <v>5.347222222222222E-3</v>
       </c>
-      <c r="F261" s="17"/>
-      <c r="G261" s="17"/>
-      <c r="H261" s="22" t="s">
+      <c r="F261" s="22"/>
+      <c r="G261" s="22"/>
+      <c r="H261" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8819,12 +8817,12 @@
       <c r="D262" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="E262" s="14">
+      <c r="E262" s="12">
         <v>9.0624999999999994E-3</v>
       </c>
-      <c r="F262" s="17"/>
-      <c r="G262" s="17"/>
-      <c r="H262" s="22" t="s">
+      <c r="F262" s="22"/>
+      <c r="G262" s="22"/>
+      <c r="H262" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8841,12 +8839,12 @@
       <c r="D263" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="E263" s="14">
+      <c r="E263" s="12">
         <v>1.1608796296296296E-2</v>
       </c>
-      <c r="F263" s="17"/>
-      <c r="G263" s="17"/>
-      <c r="H263" s="22" t="s">
+      <c r="F263" s="22"/>
+      <c r="G263" s="22"/>
+      <c r="H263" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8863,12 +8861,12 @@
       <c r="D264" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E264" s="14">
+      <c r="E264" s="12">
         <v>1.4560185185185185E-2</v>
       </c>
-      <c r="F264" s="19"/>
-      <c r="G264" s="19"/>
-      <c r="H264" s="22" t="s">
+      <c r="F264" s="23"/>
+      <c r="G264" s="23"/>
+      <c r="H264" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8885,18 +8883,18 @@
       <c r="D265" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="E265" s="14">
+      <c r="E265" s="12">
         <v>8.564814814814815E-4</v>
       </c>
-      <c r="F265" s="8">
+      <c r="F265" s="21">
         <f>SUM(E265:E292)</f>
         <v>0.21091435185185184</v>
       </c>
-      <c r="G265" s="8">
+      <c r="G265" s="21">
         <f>F265*1.5</f>
         <v>0.31637152777777777</v>
       </c>
-      <c r="H265" s="22" t="s">
+      <c r="H265" s="16" t="s">
         <v>519</v>
       </c>
     </row>
@@ -8913,12 +8911,12 @@
       <c r="D266" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="E266" s="14">
+      <c r="E266" s="12">
         <v>1.5162037037037036E-3</v>
       </c>
-      <c r="F266" s="17"/>
-      <c r="G266" s="17"/>
-      <c r="H266" s="23" t="s">
+      <c r="F266" s="22"/>
+      <c r="G266" s="22"/>
+      <c r="H266" s="17" t="s">
         <v>520</v>
       </c>
     </row>
@@ -8935,12 +8933,12 @@
       <c r="D267" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="E267" s="14">
+      <c r="E267" s="12">
         <v>1.7708333333333332E-3</v>
       </c>
-      <c r="F267" s="17"/>
-      <c r="G267" s="17"/>
-      <c r="H267" s="22" t="s">
+      <c r="F267" s="22"/>
+      <c r="G267" s="22"/>
+      <c r="H267" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -8957,12 +8955,12 @@
       <c r="D268" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="E268" s="14">
+      <c r="E268" s="12">
         <v>1.8171296296296297E-3</v>
       </c>
-      <c r="F268" s="17"/>
-      <c r="G268" s="17"/>
-      <c r="H268" s="23" t="s">
+      <c r="F268" s="22"/>
+      <c r="G268" s="22"/>
+      <c r="H268" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -8979,12 +8977,12 @@
       <c r="D269" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="E269" s="14">
+      <c r="E269" s="12">
         <v>6.122685185185185E-3</v>
       </c>
-      <c r="F269" s="17"/>
-      <c r="G269" s="17"/>
-      <c r="H269" s="22" t="s">
+      <c r="F269" s="22"/>
+      <c r="G269" s="22"/>
+      <c r="H269" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9001,12 +8999,12 @@
       <c r="D270" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="E270" s="14">
+      <c r="E270" s="12">
         <v>1.2800925925925926E-2</v>
       </c>
-      <c r="F270" s="17"/>
-      <c r="G270" s="17"/>
-      <c r="H270" s="23" t="s">
+      <c r="F270" s="22"/>
+      <c r="G270" s="22"/>
+      <c r="H270" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9023,12 +9021,12 @@
       <c r="D271" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="E271" s="14">
+      <c r="E271" s="12">
         <v>4.8263888888888887E-3</v>
       </c>
-      <c r="F271" s="17"/>
-      <c r="G271" s="17"/>
-      <c r="H271" s="22" t="s">
+      <c r="F271" s="22"/>
+      <c r="G271" s="22"/>
+      <c r="H271" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9045,12 +9043,12 @@
       <c r="D272" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="E272" s="14">
+      <c r="E272" s="12">
         <v>8.0555555555555554E-3</v>
       </c>
-      <c r="F272" s="17"/>
-      <c r="G272" s="17"/>
-      <c r="H272" s="23" t="s">
+      <c r="F272" s="22"/>
+      <c r="G272" s="22"/>
+      <c r="H272" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9067,12 +9065,12 @@
       <c r="D273" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="E273" s="14">
+      <c r="E273" s="12">
         <v>1.34375E-2</v>
       </c>
-      <c r="F273" s="17"/>
-      <c r="G273" s="17"/>
-      <c r="H273" s="22" t="s">
+      <c r="F273" s="22"/>
+      <c r="G273" s="22"/>
+      <c r="H273" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9089,12 +9087,12 @@
       <c r="D274" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="E274" s="14">
+      <c r="E274" s="12">
         <v>4.340277777777778E-3</v>
       </c>
-      <c r="F274" s="17"/>
-      <c r="G274" s="17"/>
-      <c r="H274" s="23" t="s">
+      <c r="F274" s="22"/>
+      <c r="G274" s="22"/>
+      <c r="H274" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9111,12 +9109,12 @@
       <c r="D275" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="E275" s="14">
+      <c r="E275" s="12">
         <v>1.1608796296296296E-2</v>
       </c>
-      <c r="F275" s="17"/>
-      <c r="G275" s="17"/>
-      <c r="H275" s="22" t="s">
+      <c r="F275" s="22"/>
+      <c r="G275" s="22"/>
+      <c r="H275" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9133,12 +9131,12 @@
       <c r="D276" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="E276" s="14">
+      <c r="E276" s="12">
         <v>7.4421296296296293E-3</v>
       </c>
-      <c r="F276" s="17"/>
-      <c r="G276" s="17"/>
-      <c r="H276" s="23" t="s">
+      <c r="F276" s="22"/>
+      <c r="G276" s="22"/>
+      <c r="H276" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9155,12 +9153,12 @@
       <c r="D277" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="E277" s="14">
+      <c r="E277" s="12">
         <v>1.425925925925926E-2</v>
       </c>
-      <c r="F277" s="17"/>
-      <c r="G277" s="17"/>
-      <c r="H277" s="22" t="s">
+      <c r="F277" s="22"/>
+      <c r="G277" s="22"/>
+      <c r="H277" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9177,12 +9175,12 @@
       <c r="D278" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="E278" s="14">
+      <c r="E278" s="12">
         <v>3.9236111111111112E-3</v>
       </c>
-      <c r="F278" s="17"/>
-      <c r="G278" s="17"/>
-      <c r="H278" s="23" t="s">
+      <c r="F278" s="22"/>
+      <c r="G278" s="22"/>
+      <c r="H278" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9199,12 +9197,12 @@
       <c r="D279" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="E279" s="14">
+      <c r="E279" s="12">
         <v>1.9340277777777779E-2</v>
       </c>
-      <c r="F279" s="17"/>
-      <c r="G279" s="17"/>
-      <c r="H279" s="22" t="s">
+      <c r="F279" s="22"/>
+      <c r="G279" s="22"/>
+      <c r="H279" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9221,12 +9219,12 @@
       <c r="D280" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="E280" s="14">
+      <c r="E280" s="12">
         <v>6.7592592592592591E-3</v>
       </c>
-      <c r="F280" s="17"/>
-      <c r="G280" s="17"/>
-      <c r="H280" s="23" t="s">
+      <c r="F280" s="22"/>
+      <c r="G280" s="22"/>
+      <c r="H280" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9243,12 +9241,12 @@
       <c r="D281" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="E281" s="14">
+      <c r="E281" s="12">
         <v>6.2268518518518515E-3</v>
       </c>
-      <c r="F281" s="17"/>
-      <c r="G281" s="17"/>
-      <c r="H281" s="22" t="s">
+      <c r="F281" s="22"/>
+      <c r="G281" s="22"/>
+      <c r="H281" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9265,12 +9263,12 @@
       <c r="D282" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="E282" s="14">
+      <c r="E282" s="12">
         <v>5.2430555555555555E-3</v>
       </c>
-      <c r="F282" s="17"/>
-      <c r="G282" s="17"/>
-      <c r="H282" s="23" t="s">
+      <c r="F282" s="22"/>
+      <c r="G282" s="22"/>
+      <c r="H282" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9287,12 +9285,12 @@
       <c r="D283" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="E283" s="14">
+      <c r="E283" s="12">
         <v>6.7129629629629631E-3</v>
       </c>
-      <c r="F283" s="17"/>
-      <c r="G283" s="17"/>
-      <c r="H283" s="22" t="s">
+      <c r="F283" s="22"/>
+      <c r="G283" s="22"/>
+      <c r="H283" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9309,12 +9307,12 @@
       <c r="D284" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="E284" s="14">
+      <c r="E284" s="12">
         <v>9.1898148148148156E-3</v>
       </c>
-      <c r="F284" s="17"/>
-      <c r="G284" s="17"/>
-      <c r="H284" s="23" t="s">
+      <c r="F284" s="22"/>
+      <c r="G284" s="22"/>
+      <c r="H284" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9331,12 +9329,12 @@
       <c r="D285" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="E285" s="14">
+      <c r="E285" s="12">
         <v>4.5138888888888885E-3</v>
       </c>
-      <c r="F285" s="17"/>
-      <c r="G285" s="17"/>
-      <c r="H285" s="22" t="s">
+      <c r="F285" s="22"/>
+      <c r="G285" s="22"/>
+      <c r="H285" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9353,12 +9351,12 @@
       <c r="D286" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="E286" s="14">
+      <c r="E286" s="12">
         <v>4.9189814814814816E-3</v>
       </c>
-      <c r="F286" s="17"/>
-      <c r="G286" s="17"/>
-      <c r="H286" s="23" t="s">
+      <c r="F286" s="22"/>
+      <c r="G286" s="22"/>
+      <c r="H286" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9375,12 +9373,12 @@
       <c r="D287" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="E287" s="14">
+      <c r="E287" s="12">
         <v>6.0185185185185185E-3</v>
       </c>
-      <c r="F287" s="17"/>
-      <c r="G287" s="17"/>
-      <c r="H287" s="22" t="s">
+      <c r="F287" s="22"/>
+      <c r="G287" s="22"/>
+      <c r="H287" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9397,12 +9395,12 @@
       <c r="D288" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="E288" s="14">
+      <c r="E288" s="12">
         <v>1.0358796296296297E-2</v>
       </c>
-      <c r="F288" s="17"/>
-      <c r="G288" s="17"/>
-      <c r="H288" s="23" t="s">
+      <c r="F288" s="22"/>
+      <c r="G288" s="22"/>
+      <c r="H288" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9419,12 +9417,12 @@
       <c r="D289" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="E289" s="14">
+      <c r="E289" s="12">
         <v>5.6018518518518518E-3</v>
       </c>
-      <c r="F289" s="17"/>
-      <c r="G289" s="17"/>
-      <c r="H289" s="22" t="s">
+      <c r="F289" s="22"/>
+      <c r="G289" s="22"/>
+      <c r="H289" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9441,12 +9439,12 @@
       <c r="D290" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="E290" s="14">
+      <c r="E290" s="12">
         <v>1.2372685185185184E-2</v>
       </c>
-      <c r="F290" s="17"/>
-      <c r="G290" s="17"/>
-      <c r="H290" s="23" t="s">
+      <c r="F290" s="22"/>
+      <c r="G290" s="22"/>
+      <c r="H290" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9463,12 +9461,12 @@
       <c r="D291" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="E291" s="14">
+      <c r="E291" s="12">
         <v>5.2777777777777779E-3</v>
       </c>
-      <c r="F291" s="17"/>
-      <c r="G291" s="17"/>
-      <c r="H291" s="22" t="s">
+      <c r="F291" s="22"/>
+      <c r="G291" s="22"/>
+      <c r="H291" s="16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9485,12 +9483,12 @@
       <c r="D292" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="E292" s="14">
+      <c r="E292" s="12">
         <v>1.5601851851851851E-2</v>
       </c>
-      <c r="F292" s="19"/>
-      <c r="G292" s="19"/>
-      <c r="H292" s="23" t="s">
+      <c r="F292" s="23"/>
+      <c r="G292" s="23"/>
+      <c r="H292" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -9507,18 +9505,18 @@
       <c r="D293" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="E293" s="14">
+      <c r="E293" s="12">
         <v>3.6342592592592594E-3</v>
       </c>
-      <c r="F293" s="8">
+      <c r="F293" s="21">
         <f>SUM(E293:E318)</f>
         <v>0.20168981481481482</v>
       </c>
-      <c r="G293" s="8">
+      <c r="G293" s="21">
         <f>F293*1.5</f>
         <v>0.30253472222222222</v>
       </c>
-      <c r="H293" s="22" t="s">
+      <c r="H293" s="16" t="s">
         <v>523</v>
       </c>
     </row>
@@ -9535,12 +9533,12 @@
       <c r="D294" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="E294" s="14">
+      <c r="E294" s="12">
         <v>7.1990740740740739E-3</v>
       </c>
-      <c r="F294" s="17"/>
-      <c r="G294" s="17"/>
-      <c r="H294" s="23" t="s">
+      <c r="F294" s="22"/>
+      <c r="G294" s="22"/>
+      <c r="H294" s="17" t="s">
         <v>524</v>
       </c>
     </row>
@@ -9557,12 +9555,12 @@
       <c r="D295" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="E295" s="14">
+      <c r="E295" s="12">
         <v>4.6990740740740743E-3</v>
       </c>
-      <c r="F295" s="17"/>
-      <c r="G295" s="17"/>
-      <c r="H295" s="22" t="s">
+      <c r="F295" s="22"/>
+      <c r="G295" s="22"/>
+      <c r="H295" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9579,12 +9577,12 @@
       <c r="D296" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="E296" s="14">
+      <c r="E296" s="12">
         <v>6.7361111111111111E-3</v>
       </c>
-      <c r="F296" s="17"/>
-      <c r="G296" s="17"/>
-      <c r="H296" s="23" t="s">
+      <c r="F296" s="22"/>
+      <c r="G296" s="22"/>
+      <c r="H296" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9601,12 +9599,12 @@
       <c r="D297" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E297" s="14">
+      <c r="E297" s="12">
         <v>5.9375000000000001E-3</v>
       </c>
-      <c r="F297" s="17"/>
-      <c r="G297" s="17"/>
-      <c r="H297" s="22" t="s">
+      <c r="F297" s="22"/>
+      <c r="G297" s="22"/>
+      <c r="H297" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9623,12 +9621,12 @@
       <c r="D298" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="E298" s="14">
+      <c r="E298" s="12">
         <v>7.0717592592592594E-3</v>
       </c>
-      <c r="F298" s="17"/>
-      <c r="G298" s="17"/>
-      <c r="H298" s="23" t="s">
+      <c r="F298" s="22"/>
+      <c r="G298" s="22"/>
+      <c r="H298" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9645,12 +9643,12 @@
       <c r="D299" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="E299" s="14">
+      <c r="E299" s="12">
         <v>9.2592592592592587E-3</v>
       </c>
-      <c r="F299" s="17"/>
-      <c r="G299" s="17"/>
-      <c r="H299" s="22" t="s">
+      <c r="F299" s="22"/>
+      <c r="G299" s="22"/>
+      <c r="H299" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9667,12 +9665,12 @@
       <c r="D300" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="E300" s="14">
+      <c r="E300" s="12">
         <v>1.8229166666666668E-2</v>
       </c>
-      <c r="F300" s="17"/>
-      <c r="G300" s="17"/>
-      <c r="H300" s="23" t="s">
+      <c r="F300" s="22"/>
+      <c r="G300" s="22"/>
+      <c r="H300" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9689,12 +9687,12 @@
       <c r="D301" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="E301" s="14">
+      <c r="E301" s="12">
         <v>1.2997685185185185E-2</v>
       </c>
-      <c r="F301" s="17"/>
-      <c r="G301" s="17"/>
-      <c r="H301" s="22" t="s">
+      <c r="F301" s="22"/>
+      <c r="G301" s="22"/>
+      <c r="H301" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9711,12 +9709,12 @@
       <c r="D302" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="E302" s="14">
+      <c r="E302" s="12">
         <v>5.8217592592592592E-3</v>
       </c>
-      <c r="F302" s="17"/>
-      <c r="G302" s="17"/>
-      <c r="H302" s="23" t="s">
+      <c r="F302" s="22"/>
+      <c r="G302" s="22"/>
+      <c r="H302" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9733,12 +9731,12 @@
       <c r="D303" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="E303" s="14">
+      <c r="E303" s="12">
         <v>8.2986111111111108E-3</v>
       </c>
-      <c r="F303" s="17"/>
-      <c r="G303" s="17"/>
-      <c r="H303" s="22" t="s">
+      <c r="F303" s="22"/>
+      <c r="G303" s="22"/>
+      <c r="H303" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9755,12 +9753,12 @@
       <c r="D304" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="E304" s="14">
+      <c r="E304" s="12">
         <v>7.1759259259259259E-3</v>
       </c>
-      <c r="F304" s="17"/>
-      <c r="G304" s="17"/>
-      <c r="H304" s="23" t="s">
+      <c r="F304" s="22"/>
+      <c r="G304" s="22"/>
+      <c r="H304" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9777,12 +9775,12 @@
       <c r="D305" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="E305" s="14">
+      <c r="E305" s="12">
         <v>3.4837962962962965E-3</v>
       </c>
-      <c r="F305" s="17"/>
-      <c r="G305" s="17"/>
-      <c r="H305" s="22" t="s">
+      <c r="F305" s="22"/>
+      <c r="G305" s="22"/>
+      <c r="H305" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9799,12 +9797,12 @@
       <c r="D306" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="E306" s="14">
+      <c r="E306" s="12">
         <v>7.2453703703703708E-3</v>
       </c>
-      <c r="F306" s="17"/>
-      <c r="G306" s="17"/>
-      <c r="H306" s="23" t="s">
+      <c r="F306" s="22"/>
+      <c r="G306" s="22"/>
+      <c r="H306" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9821,12 +9819,12 @@
       <c r="D307" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="E307" s="14">
+      <c r="E307" s="12">
         <v>6.4120370370370373E-3</v>
       </c>
-      <c r="F307" s="17"/>
-      <c r="G307" s="17"/>
-      <c r="H307" s="22" t="s">
+      <c r="F307" s="22"/>
+      <c r="G307" s="22"/>
+      <c r="H307" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9843,12 +9841,12 @@
       <c r="D308" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="E308" s="14">
+      <c r="E308" s="12">
         <v>0.01</v>
       </c>
-      <c r="F308" s="17"/>
-      <c r="G308" s="17"/>
-      <c r="H308" s="23" t="s">
+      <c r="F308" s="22"/>
+      <c r="G308" s="22"/>
+      <c r="H308" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9865,12 +9863,12 @@
       <c r="D309" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="E309" s="14">
+      <c r="E309" s="12">
         <v>6.6203703703703702E-3</v>
       </c>
-      <c r="F309" s="17"/>
-      <c r="G309" s="17"/>
-      <c r="H309" s="22" t="s">
+      <c r="F309" s="22"/>
+      <c r="G309" s="22"/>
+      <c r="H309" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9887,12 +9885,12 @@
       <c r="D310" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="E310" s="14">
+      <c r="E310" s="12">
         <v>8.6226851851851846E-3</v>
       </c>
-      <c r="F310" s="17"/>
-      <c r="G310" s="17"/>
-      <c r="H310" s="23" t="s">
+      <c r="F310" s="22"/>
+      <c r="G310" s="22"/>
+      <c r="H310" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9909,12 +9907,12 @@
       <c r="D311" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="E311" s="14">
+      <c r="E311" s="12">
         <v>5.115740740740741E-3</v>
       </c>
-      <c r="F311" s="17"/>
-      <c r="G311" s="17"/>
-      <c r="H311" s="22" t="s">
+      <c r="F311" s="22"/>
+      <c r="G311" s="22"/>
+      <c r="H311" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9931,12 +9929,12 @@
       <c r="D312" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="E312" s="14">
+      <c r="E312" s="12">
         <v>7.3842592592592597E-3</v>
       </c>
-      <c r="F312" s="17"/>
-      <c r="G312" s="17"/>
-      <c r="H312" s="23" t="s">
+      <c r="F312" s="22"/>
+      <c r="G312" s="22"/>
+      <c r="H312" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9953,12 +9951,12 @@
       <c r="D313" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="E313" s="14">
+      <c r="E313" s="12">
         <v>7.8935185185185185E-3</v>
       </c>
-      <c r="F313" s="17"/>
-      <c r="G313" s="17"/>
-      <c r="H313" s="22" t="s">
+      <c r="F313" s="22"/>
+      <c r="G313" s="22"/>
+      <c r="H313" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9975,12 +9973,12 @@
       <c r="D314" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="E314" s="14">
+      <c r="E314" s="12">
         <v>1.0254629629629629E-2</v>
       </c>
-      <c r="F314" s="17"/>
-      <c r="G314" s="17"/>
-      <c r="H314" s="23" t="s">
+      <c r="F314" s="22"/>
+      <c r="G314" s="22"/>
+      <c r="H314" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9997,12 +9995,12 @@
       <c r="D315" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="E315" s="14">
+      <c r="E315" s="12">
         <v>6.5277777777777782E-3</v>
       </c>
-      <c r="F315" s="17"/>
-      <c r="G315" s="17"/>
-      <c r="H315" s="22" t="s">
+      <c r="F315" s="22"/>
+      <c r="G315" s="22"/>
+      <c r="H315" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -10019,12 +10017,12 @@
       <c r="D316" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="E316" s="14">
+      <c r="E316" s="12">
         <v>1.1168981481481481E-2</v>
       </c>
-      <c r="F316" s="17"/>
-      <c r="G316" s="17"/>
-      <c r="H316" s="23" t="s">
+      <c r="F316" s="22"/>
+      <c r="G316" s="22"/>
+      <c r="H316" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10041,12 +10039,12 @@
       <c r="D317" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="E317" s="14">
+      <c r="E317" s="12">
         <v>6.6782407407407407E-3</v>
       </c>
-      <c r="F317" s="17"/>
-      <c r="G317" s="17"/>
-      <c r="H317" s="22" t="s">
+      <c r="F317" s="22"/>
+      <c r="G317" s="22"/>
+      <c r="H317" s="16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -10063,12 +10061,12 @@
       <c r="D318" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="E318" s="14">
+      <c r="E318" s="12">
         <v>7.2222222222222219E-3</v>
       </c>
-      <c r="F318" s="19"/>
-      <c r="G318" s="19"/>
-      <c r="H318" s="23" t="s">
+      <c r="F318" s="23"/>
+      <c r="G318" s="23"/>
+      <c r="H318" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10085,18 +10083,18 @@
       <c r="D319" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="E319" s="14">
+      <c r="E319" s="12">
         <v>4.9421296296296297E-3</v>
       </c>
-      <c r="F319" s="8">
+      <c r="F319" s="21">
         <f>SUM(E319:E342)</f>
         <v>0.20223379629629626</v>
       </c>
-      <c r="G319" s="8">
+      <c r="G319" s="21">
         <f>F319*1.5</f>
         <v>0.3033506944444444</v>
       </c>
-      <c r="H319" s="22" t="s">
+      <c r="H319" s="16" t="s">
         <v>527</v>
       </c>
     </row>
@@ -10113,12 +10111,12 @@
       <c r="D320" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="E320" s="14">
+      <c r="E320" s="12">
         <v>5.6018518518518518E-3</v>
       </c>
-      <c r="F320" s="17"/>
-      <c r="G320" s="17"/>
-      <c r="H320" s="23" t="s">
+      <c r="F320" s="22"/>
+      <c r="G320" s="22"/>
+      <c r="H320" s="17" t="s">
         <v>528</v>
       </c>
     </row>
@@ -10135,12 +10133,12 @@
       <c r="D321" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="E321" s="14">
+      <c r="E321" s="12">
         <v>7.3842592592592597E-3</v>
       </c>
-      <c r="F321" s="17"/>
-      <c r="G321" s="17"/>
-      <c r="H321" s="22" t="s">
+      <c r="F321" s="22"/>
+      <c r="G321" s="22"/>
+      <c r="H321" s="16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10157,12 +10155,12 @@
       <c r="D322" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="E322" s="14">
+      <c r="E322" s="12">
         <v>7.7314814814814815E-3</v>
       </c>
-      <c r="F322" s="17"/>
-      <c r="G322" s="17"/>
-      <c r="H322" s="23" t="s">
+      <c r="F322" s="22"/>
+      <c r="G322" s="22"/>
+      <c r="H322" s="17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10179,12 +10177,12 @@
       <c r="D323" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="E323" s="14">
+      <c r="E323" s="12">
         <v>4.8379629629629632E-3</v>
       </c>
-      <c r="F323" s="17"/>
-      <c r="G323" s="17"/>
-      <c r="H323" s="22" t="s">
+      <c r="F323" s="22"/>
+      <c r="G323" s="22"/>
+      <c r="H323" s="16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10201,12 +10199,12 @@
       <c r="D324" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="E324" s="14">
+      <c r="E324" s="12">
         <v>8.9467592592592585E-3</v>
       </c>
-      <c r="F324" s="17"/>
-      <c r="G324" s="17"/>
-      <c r="H324" s="23" t="s">
+      <c r="F324" s="22"/>
+      <c r="G324" s="22"/>
+      <c r="H324" s="17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10223,12 +10221,12 @@
       <c r="D325" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="E325" s="14">
+      <c r="E325" s="12">
         <v>6.9328703703703705E-3</v>
       </c>
-      <c r="F325" s="17"/>
-      <c r="G325" s="17"/>
-      <c r="H325" s="22" t="s">
+      <c r="F325" s="22"/>
+      <c r="G325" s="22"/>
+      <c r="H325" s="16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10245,12 +10243,12 @@
       <c r="D326" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="E326" s="14">
+      <c r="E326" s="12">
         <v>6.8402777777777776E-3</v>
       </c>
-      <c r="F326" s="17"/>
-      <c r="G326" s="17"/>
-      <c r="H326" s="23" t="s">
+      <c r="F326" s="22"/>
+      <c r="G326" s="22"/>
+      <c r="H326" s="17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10267,12 +10265,12 @@
       <c r="D327" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="E327" s="14">
+      <c r="E327" s="12">
         <v>8.1712962962962963E-3</v>
       </c>
-      <c r="F327" s="17"/>
-      <c r="G327" s="17"/>
-      <c r="H327" s="22" t="s">
+      <c r="F327" s="22"/>
+      <c r="G327" s="22"/>
+      <c r="H327" s="16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10289,12 +10287,12 @@
       <c r="D328" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="E328" s="14">
+      <c r="E328" s="12">
         <v>4.3055555555555555E-3</v>
       </c>
-      <c r="F328" s="17"/>
-      <c r="G328" s="17"/>
-      <c r="H328" s="23" t="s">
+      <c r="F328" s="22"/>
+      <c r="G328" s="22"/>
+      <c r="H328" s="17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10311,12 +10309,12 @@
       <c r="D329" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="E329" s="14">
+      <c r="E329" s="12">
         <v>6.6782407407407407E-3</v>
       </c>
-      <c r="F329" s="17"/>
-      <c r="G329" s="17"/>
-      <c r="H329" s="22" t="s">
+      <c r="F329" s="22"/>
+      <c r="G329" s="22"/>
+      <c r="H329" s="16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10333,12 +10331,12 @@
       <c r="D330" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="E330" s="14">
+      <c r="E330" s="12">
         <v>5.6365740740740742E-3</v>
       </c>
-      <c r="F330" s="17"/>
-      <c r="G330" s="17"/>
-      <c r="H330" s="23" t="s">
+      <c r="F330" s="22"/>
+      <c r="G330" s="22"/>
+      <c r="H330" s="17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10355,12 +10353,12 @@
       <c r="D331" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="E331" s="14">
+      <c r="E331" s="12">
         <v>8.5532407407407415E-3</v>
       </c>
-      <c r="F331" s="17"/>
-      <c r="G331" s="17"/>
-      <c r="H331" s="22" t="s">
+      <c r="F331" s="22"/>
+      <c r="G331" s="22"/>
+      <c r="H331" s="16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10377,12 +10375,12 @@
       <c r="D332" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="E332" s="14">
+      <c r="E332" s="12">
         <v>1.6157407407407409E-2</v>
       </c>
-      <c r="F332" s="17"/>
-      <c r="G332" s="17"/>
-      <c r="H332" s="23" t="s">
+      <c r="F332" s="22"/>
+      <c r="G332" s="22"/>
+      <c r="H332" s="17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10399,12 +10397,12 @@
       <c r="D333" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="E333" s="14">
+      <c r="E333" s="12">
         <v>1.0868055555555556E-2</v>
       </c>
-      <c r="F333" s="17"/>
-      <c r="G333" s="17"/>
-      <c r="H333" s="22" t="s">
+      <c r="F333" s="22"/>
+      <c r="G333" s="22"/>
+      <c r="H333" s="16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10422,9 +10420,9 @@
       <c r="E334" s="7">
         <v>3.8657407407407408E-3</v>
       </c>
-      <c r="F334" s="17"/>
-      <c r="G334" s="17"/>
-      <c r="H334" s="23" t="s">
+      <c r="F334" s="22"/>
+      <c r="G334" s="22"/>
+      <c r="H334" s="17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10442,9 +10440,9 @@
       <c r="E335" s="7">
         <v>5.0231481481481481E-3</v>
       </c>
-      <c r="F335" s="17"/>
-      <c r="G335" s="17"/>
-      <c r="H335" s="22" t="s">
+      <c r="F335" s="22"/>
+      <c r="G335" s="22"/>
+      <c r="H335" s="16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10462,9 +10460,9 @@
       <c r="E336" s="7">
         <v>1.7986111111111112E-2</v>
       </c>
-      <c r="F336" s="17"/>
-      <c r="G336" s="17"/>
-      <c r="H336" s="23" t="s">
+      <c r="F336" s="22"/>
+      <c r="G336" s="22"/>
+      <c r="H336" s="17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10482,9 +10480,9 @@
       <c r="E337" s="7">
         <v>6.1921296296296299E-3</v>
       </c>
-      <c r="F337" s="17"/>
-      <c r="G337" s="17"/>
-      <c r="H337" s="22" t="s">
+      <c r="F337" s="22"/>
+      <c r="G337" s="22"/>
+      <c r="H337" s="16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10502,9 +10500,9 @@
       <c r="E338" s="7">
         <v>2.1898148148148149E-2</v>
       </c>
-      <c r="F338" s="17"/>
-      <c r="G338" s="17"/>
-      <c r="H338" s="23" t="s">
+      <c r="F338" s="22"/>
+      <c r="G338" s="22"/>
+      <c r="H338" s="17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10522,9 +10520,9 @@
       <c r="E339" s="7">
         <v>1.8773148148148146E-2</v>
       </c>
-      <c r="F339" s="17"/>
-      <c r="G339" s="17"/>
-      <c r="H339" s="22" t="s">
+      <c r="F339" s="22"/>
+      <c r="G339" s="22"/>
+      <c r="H339" s="16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10542,9 +10540,9 @@
       <c r="E340" s="7">
         <v>7.4189814814814813E-3</v>
       </c>
-      <c r="F340" s="17"/>
-      <c r="G340" s="17"/>
-      <c r="H340" s="23" t="s">
+      <c r="F340" s="22"/>
+      <c r="G340" s="22"/>
+      <c r="H340" s="17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10562,9 +10560,9 @@
       <c r="E341" s="7">
         <v>1.2962962962962963E-3</v>
       </c>
-      <c r="F341" s="17"/>
-      <c r="G341" s="17"/>
-      <c r="H341" s="22" t="s">
+      <c r="F341" s="22"/>
+      <c r="G341" s="22"/>
+      <c r="H341" s="16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10582,9 +10580,9 @@
       <c r="E342" s="7">
         <v>6.1921296296296299E-3</v>
       </c>
-      <c r="F342" s="19"/>
-      <c r="G342" s="19"/>
-      <c r="H342" s="23" t="s">
+      <c r="F342" s="23"/>
+      <c r="G342" s="23"/>
+      <c r="H342" s="17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10602,15 +10600,15 @@
       <c r="E343" s="7">
         <v>2.7662037037037039E-3</v>
       </c>
-      <c r="F343" s="8">
+      <c r="F343" s="21">
         <f>SUM(E343:E355)</f>
         <v>0.20703703703703702</v>
       </c>
-      <c r="G343" s="8">
+      <c r="G343" s="21">
         <f>F343*1.5</f>
         <v>0.31055555555555553</v>
       </c>
-      <c r="H343" s="22" t="s">
+      <c r="H343" s="16" t="s">
         <v>531</v>
       </c>
     </row>
@@ -10628,9 +10626,9 @@
       <c r="E344" s="7">
         <v>2.4837962962962964E-2</v>
       </c>
-      <c r="F344" s="17"/>
-      <c r="G344" s="17"/>
-      <c r="H344" s="23" t="s">
+      <c r="F344" s="22"/>
+      <c r="G344" s="22"/>
+      <c r="H344" s="17" t="s">
         <v>532</v>
       </c>
     </row>
@@ -10648,9 +10646,9 @@
       <c r="E345" s="7">
         <v>1.4293981481481482E-2</v>
       </c>
-      <c r="F345" s="17"/>
-      <c r="G345" s="17"/>
-      <c r="H345" s="22" t="s">
+      <c r="F345" s="22"/>
+      <c r="G345" s="22"/>
+      <c r="H345" s="16" t="s">
         <v>533</v>
       </c>
     </row>
@@ -10668,9 +10666,9 @@
       <c r="E346" s="7">
         <v>1.3159722222222222E-2</v>
       </c>
-      <c r="F346" s="17"/>
-      <c r="G346" s="17"/>
-      <c r="H346" s="23" t="s">
+      <c r="F346" s="22"/>
+      <c r="G346" s="22"/>
+      <c r="H346" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -10688,9 +10686,9 @@
       <c r="E347" s="7">
         <v>1.5543981481481482E-2</v>
       </c>
-      <c r="F347" s="17"/>
-      <c r="G347" s="17"/>
-      <c r="H347" s="22" t="s">
+      <c r="F347" s="22"/>
+      <c r="G347" s="22"/>
+      <c r="H347" s="16" t="s">
         <v>533</v>
       </c>
     </row>
@@ -10708,9 +10706,9 @@
       <c r="E348" s="7">
         <v>1.170138888888889E-2</v>
       </c>
-      <c r="F348" s="17"/>
-      <c r="G348" s="17"/>
-      <c r="H348" s="23" t="s">
+      <c r="F348" s="22"/>
+      <c r="G348" s="22"/>
+      <c r="H348" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -10728,9 +10726,9 @@
       <c r="E349" s="7">
         <v>8.4259259259259253E-3</v>
       </c>
-      <c r="F349" s="17"/>
-      <c r="G349" s="17"/>
-      <c r="H349" s="22" t="s">
+      <c r="F349" s="22"/>
+      <c r="G349" s="22"/>
+      <c r="H349" s="16" t="s">
         <v>533</v>
       </c>
     </row>
@@ -10748,9 +10746,9 @@
       <c r="E350" s="7">
         <v>3.6307870370370372E-2</v>
       </c>
-      <c r="F350" s="17"/>
-      <c r="G350" s="17"/>
-      <c r="H350" s="23" t="s">
+      <c r="F350" s="22"/>
+      <c r="G350" s="22"/>
+      <c r="H350" s="17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -10768,9 +10766,9 @@
       <c r="E351" s="7">
         <v>9.6643518518518511E-3</v>
       </c>
-      <c r="F351" s="17"/>
-      <c r="G351" s="17"/>
-      <c r="H351" s="22" t="s">
+      <c r="F351" s="22"/>
+      <c r="G351" s="22"/>
+      <c r="H351" s="16" t="s">
         <v>533</v>
       </c>
     </row>
@@ -10788,10 +10786,10 @@
       <c r="E352" s="7">
         <v>2.0486111111111113E-3</v>
       </c>
-      <c r="F352" s="17"/>
-      <c r="G352" s="17"/>
-      <c r="H352" s="23" t="s">
-        <v>534</v>
+      <c r="F352" s="22"/>
+      <c r="G352" s="22"/>
+      <c r="H352" s="17" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10808,10 +10806,10 @@
       <c r="E353" s="7">
         <v>2.1759259259259259E-2</v>
       </c>
-      <c r="F353" s="17"/>
-      <c r="G353" s="17"/>
-      <c r="H353" s="22" t="s">
-        <v>533</v>
+      <c r="F353" s="22"/>
+      <c r="G353" s="22"/>
+      <c r="H353" s="16" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10828,10 +10826,10 @@
       <c r="E354" s="7">
         <v>2.2824074074074073E-2</v>
       </c>
-      <c r="F354" s="17"/>
-      <c r="G354" s="17"/>
-      <c r="H354" s="23" t="s">
-        <v>534</v>
+      <c r="F354" s="22"/>
+      <c r="G354" s="22"/>
+      <c r="H354" s="17" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10848,10 +10846,10 @@
       <c r="E355" s="7">
         <v>2.3703703703703703E-2</v>
       </c>
-      <c r="F355" s="19"/>
-      <c r="G355" s="19"/>
-      <c r="H355" s="22" t="s">
-        <v>533</v>
+      <c r="F355" s="23"/>
+      <c r="G355" s="23"/>
+      <c r="H355" s="16" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10868,16 +10866,16 @@
       <c r="E356" s="7">
         <v>2.2430555555555554E-2</v>
       </c>
-      <c r="F356" s="8">
+      <c r="F356" s="21">
         <f>SUM(E356:E365)</f>
         <v>0.19240740740740739</v>
       </c>
-      <c r="G356" s="8">
+      <c r="G356" s="21">
         <f>F356*1.5</f>
         <v>0.2886111111111111</v>
       </c>
-      <c r="H356" s="22" t="s">
-        <v>535</v>
+      <c r="H356" s="17" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10894,10 +10892,10 @@
       <c r="E357" s="7">
         <v>2.0520833333333332E-2</v>
       </c>
-      <c r="F357" s="17"/>
-      <c r="G357" s="17"/>
-      <c r="H357" s="23" t="s">
-        <v>536</v>
+      <c r="F357" s="22"/>
+      <c r="G357" s="22"/>
+      <c r="H357" s="16" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10914,10 +10912,10 @@
       <c r="E358" s="7">
         <v>8.1018518518518514E-3</v>
       </c>
-      <c r="F358" s="17"/>
-      <c r="G358" s="17"/>
-      <c r="H358" s="23" t="s">
-        <v>536</v>
+      <c r="F358" s="22"/>
+      <c r="G358" s="22"/>
+      <c r="H358" s="17" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10934,10 +10932,10 @@
       <c r="E359" s="7">
         <v>4.6064814814814814E-3</v>
       </c>
-      <c r="F359" s="17"/>
-      <c r="G359" s="17"/>
-      <c r="H359" s="22" t="s">
-        <v>537</v>
+      <c r="F359" s="22"/>
+      <c r="G359" s="22"/>
+      <c r="H359" s="16" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10954,10 +10952,10 @@
       <c r="E360" s="7">
         <v>2.9652777777777778E-2</v>
       </c>
-      <c r="F360" s="17"/>
-      <c r="G360" s="17"/>
-      <c r="H360" s="23" t="s">
-        <v>538</v>
+      <c r="F360" s="22"/>
+      <c r="G360" s="22"/>
+      <c r="H360" s="17" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -10974,10 +10972,10 @@
       <c r="E361" s="7">
         <v>1.7673611111111112E-2</v>
       </c>
-      <c r="F361" s="17"/>
-      <c r="G361" s="17"/>
-      <c r="H361" s="23" t="s">
-        <v>538</v>
+      <c r="F361" s="22"/>
+      <c r="G361" s="22"/>
+      <c r="H361" s="17" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10994,10 +10992,10 @@
       <c r="E362" s="7">
         <v>2.0960648148148148E-2</v>
       </c>
-      <c r="F362" s="17"/>
-      <c r="G362" s="17"/>
-      <c r="H362" s="22" t="s">
-        <v>537</v>
+      <c r="F362" s="22"/>
+      <c r="G362" s="22"/>
+      <c r="H362" s="16" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11014,10 +11012,10 @@
       <c r="E363" s="7">
         <v>5.0960648148148151E-2</v>
       </c>
-      <c r="F363" s="17"/>
-      <c r="G363" s="17"/>
-      <c r="H363" s="23" t="s">
-        <v>538</v>
+      <c r="F363" s="22"/>
+      <c r="G363" s="22"/>
+      <c r="H363" s="17" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11034,10 +11032,10 @@
       <c r="E364" s="7">
         <v>8.518518518518519E-3</v>
       </c>
-      <c r="F364" s="17"/>
-      <c r="G364" s="17"/>
-      <c r="H364" s="23" t="s">
-        <v>538</v>
+      <c r="F364" s="22"/>
+      <c r="G364" s="22"/>
+      <c r="H364" s="17" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11054,50 +11052,50 @@
       <c r="E365" s="7">
         <v>8.9814814814814809E-3</v>
       </c>
-      <c r="F365" s="19"/>
-      <c r="G365" s="19"/>
-      <c r="H365" s="22" t="s">
-        <v>537</v>
+      <c r="F365" s="23"/>
+      <c r="G365" s="23"/>
+      <c r="H365" s="16" t="s">
+        <v>535</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="F356:F365"/>
+    <mergeCell ref="G356:G365"/>
+    <mergeCell ref="F319:F342"/>
+    <mergeCell ref="G319:G342"/>
+    <mergeCell ref="F343:F355"/>
+    <mergeCell ref="G343:G355"/>
+    <mergeCell ref="F265:F292"/>
+    <mergeCell ref="G265:G292"/>
+    <mergeCell ref="F293:F318"/>
+    <mergeCell ref="G293:G318"/>
+    <mergeCell ref="F232:F264"/>
+    <mergeCell ref="G232:G264"/>
+    <mergeCell ref="F153:F174"/>
+    <mergeCell ref="G153:G174"/>
+    <mergeCell ref="F114:F130"/>
+    <mergeCell ref="G114:G130"/>
+    <mergeCell ref="F131:F152"/>
+    <mergeCell ref="G131:G152"/>
+    <mergeCell ref="F101:F113"/>
+    <mergeCell ref="G101:G113"/>
+    <mergeCell ref="F28:F49"/>
+    <mergeCell ref="G28:G49"/>
+    <mergeCell ref="F50:F77"/>
+    <mergeCell ref="G50:G77"/>
+    <mergeCell ref="F2:F15"/>
+    <mergeCell ref="G2:G15"/>
+    <mergeCell ref="F16:F27"/>
+    <mergeCell ref="G16:G27"/>
+    <mergeCell ref="F78:F100"/>
+    <mergeCell ref="G78:G100"/>
     <mergeCell ref="F209:F231"/>
     <mergeCell ref="G209:G231"/>
     <mergeCell ref="F175:F192"/>
     <mergeCell ref="G175:G192"/>
     <mergeCell ref="F193:F208"/>
     <mergeCell ref="G193:G208"/>
-    <mergeCell ref="F2:F15"/>
-    <mergeCell ref="G2:G15"/>
-    <mergeCell ref="F16:F27"/>
-    <mergeCell ref="G16:G27"/>
-    <mergeCell ref="F78:F100"/>
-    <mergeCell ref="G78:G100"/>
-    <mergeCell ref="F101:F113"/>
-    <mergeCell ref="G101:G113"/>
-    <mergeCell ref="F28:F49"/>
-    <mergeCell ref="G28:G49"/>
-    <mergeCell ref="F50:F77"/>
-    <mergeCell ref="G50:G77"/>
-    <mergeCell ref="F153:F174"/>
-    <mergeCell ref="G153:G174"/>
-    <mergeCell ref="F114:F130"/>
-    <mergeCell ref="G114:G130"/>
-    <mergeCell ref="F131:F152"/>
-    <mergeCell ref="G131:G152"/>
-    <mergeCell ref="F265:F292"/>
-    <mergeCell ref="G265:G292"/>
-    <mergeCell ref="F293:F318"/>
-    <mergeCell ref="G293:G318"/>
-    <mergeCell ref="F232:F264"/>
-    <mergeCell ref="G232:G264"/>
-    <mergeCell ref="F356:F365"/>
-    <mergeCell ref="G356:G365"/>
-    <mergeCell ref="F319:F342"/>
-    <mergeCell ref="G319:G342"/>
-    <mergeCell ref="F343:F355"/>
-    <mergeCell ref="G343:G355"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
